--- a/我的创作/财务/证券投资/股票/财务报表分析系统/2023/财务/选股标准.xlsx
+++ b/我的创作/财务/证券投资/股票/财务报表分析系统/2023/财务/选股标准.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26420" windowHeight="13360" activeTab="3"/>
+    <workbookView windowWidth="27240" windowHeight="13080" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -489,12 +489,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="176" formatCode="0.00_ ;[Red]\-0.00\ "/>
+    <numFmt numFmtId="177" formatCode="&quot;￥&quot;#,##0.00_);[Red]\(&quot;￥&quot;#,##0.00\)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="&quot;￥&quot;#,##0.00_);[Red]\(&quot;￥&quot;#,##0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -539,18 +539,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -561,16 +562,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -578,7 +594,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -594,24 +610,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -623,9 +632,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -633,14 +641,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -653,19 +654,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -728,7 +728,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,7 +740,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,31 +812,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,31 +872,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -824,67 +884,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -902,7 +902,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -951,17 +951,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -990,6 +1011,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1004,65 +1045,24 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1071,131 +1071,131 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1232,12 +1232,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1247,9 +1247,6 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1277,10 +1274,10 @@
     <xf numFmtId="44" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1290,20 +1287,14 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1796,10 +1787,10 @@
     <col min="57" max="57" width="24.2211538461538" style="3" customWidth="1"/>
     <col min="58" max="59" width="27.6634615384615" style="3" customWidth="1"/>
     <col min="60" max="60" width="24.2211538461538" style="3" customWidth="1"/>
-    <col min="61" max="61" width="18.6634615384615" style="51" customWidth="1"/>
-    <col min="62" max="62" width="20.8846153846154" style="51" customWidth="1"/>
-    <col min="63" max="63" width="25.4423076923077" style="51" customWidth="1"/>
-    <col min="64" max="64" width="27.3076923076923" style="51" customWidth="1"/>
+    <col min="61" max="61" width="18.6634615384615" style="48" customWidth="1"/>
+    <col min="62" max="62" width="20.8846153846154" style="48" customWidth="1"/>
+    <col min="63" max="63" width="25.4423076923077" style="48" customWidth="1"/>
+    <col min="64" max="64" width="27.3076923076923" style="48" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:64">
@@ -1926,16 +1917,16 @@
       <c r="AO1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="63" t="s">
+      <c r="AP1" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="64" t="s">
+      <c r="AQ1" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="65" t="s">
+      <c r="AR1" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="66" t="s">
+      <c r="AS1" s="63" t="s">
         <v>44</v>
       </c>
       <c r="AT1" s="3" t="s">
@@ -1956,10 +1947,10 @@
       <c r="AY1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="65" t="s">
+      <c r="AZ1" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="66" t="s">
+      <c r="BA1" s="63" t="s">
         <v>52</v>
       </c>
       <c r="BB1" s="8" t="s">
@@ -1974,22 +1965,22 @@
       <c r="BE1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="65" t="s">
+      <c r="BF1" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="66" t="s">
+      <c r="BG1" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="BI1" s="51" t="s">
+      <c r="BI1" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="BJ1" s="51" t="s">
+      <c r="BJ1" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="BK1" s="71" t="s">
+      <c r="BK1" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="BL1" s="72" t="s">
+      <c r="BL1" s="69" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2158,7 +2149,7 @@
       <c r="AN8" s="5">
         <v>0.01</v>
       </c>
-      <c r="AO8" s="59">
+      <c r="AO8" s="56">
         <v>0.05</v>
       </c>
       <c r="AP8" s="3" t="e">
@@ -2176,7 +2167,7 @@
       <c r="AV8" s="2">
         <v>442102317.87</v>
       </c>
-      <c r="AW8" s="67">
+      <c r="AW8" s="64">
         <v>360000000</v>
       </c>
       <c r="AX8" s="3" t="e">
@@ -2203,15 +2194,15 @@
         <f>BA8*(1-E8)</f>
         <v>1589056241.30534</v>
       </c>
-      <c r="BI8" s="51" t="e">
+      <c r="BI8" s="48" t="e">
         <f>BD8/AW8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BJ8" s="51">
+      <c r="BJ8" s="48">
         <f>BE8/AW8</f>
         <v>-72.6181869025684</v>
       </c>
-      <c r="BL8" s="51">
+      <c r="BL8" s="48">
         <f>BG8/AW8</f>
         <v>4.41404511473707</v>
       </c>
@@ -2233,7 +2224,7 @@
         <f t="shared" si="0"/>
         <v>0.21401207431414</v>
       </c>
-      <c r="F9" s="55">
+      <c r="F9" s="52">
         <v>387296112.91</v>
       </c>
       <c r="H9" s="3">
@@ -2255,7 +2246,7 @@
       <c r="AJ9" s="2">
         <v>506730134.35</v>
       </c>
-      <c r="AK9" s="55">
+      <c r="AK9" s="52">
         <v>387296112.91</v>
       </c>
       <c r="AL9" s="2"/>
@@ -2263,7 +2254,7 @@
         <f t="shared" si="2"/>
         <v>0.57142790701933</v>
       </c>
-      <c r="AN9" s="59">
+      <c r="AN9" s="56">
         <v>0.0894</v>
       </c>
       <c r="AO9" s="5">
@@ -2320,19 +2311,19 @@
         <f>BA9*(1-BC9)</f>
         <v>62057191759.6006</v>
       </c>
-      <c r="BI9" s="51">
+      <c r="BI9" s="48">
         <f>BD9/AW9</f>
         <v>14.8605678155326</v>
       </c>
-      <c r="BJ9" s="73">
+      <c r="BJ9" s="70">
         <f>BE9/AW9</f>
         <v>70.5458363693699</v>
       </c>
-      <c r="BK9" s="73">
+      <c r="BK9" s="70">
         <f>BF9/AW9</f>
         <v>112.926566097446</v>
       </c>
-      <c r="BL9" s="51">
+      <c r="BL9" s="48">
         <f>BG9/AW9</f>
         <v>152.868995761181</v>
       </c>
@@ -2423,7 +2414,7 @@
         <f t="shared" si="2"/>
         <v>0.590280642574583</v>
       </c>
-      <c r="AW11" s="68">
+      <c r="AW11" s="65">
         <v>393738756</v>
       </c>
     </row>
@@ -2528,7 +2519,7 @@
         <f t="shared" si="2"/>
         <v>0.431060165431254</v>
       </c>
-      <c r="AN12" s="60">
+      <c r="AN12" s="57">
         <v>0.15</v>
       </c>
       <c r="AO12" s="5">
@@ -2596,96 +2587,96 @@
         <f>BA12*(1-BC12)</f>
         <v>115459706311.813</v>
       </c>
-      <c r="BI12" s="51">
+      <c r="BI12" s="48">
         <f>BD12/AW12</f>
         <v>27.9668535753429</v>
       </c>
-      <c r="BJ12" s="73">
+      <c r="BJ12" s="70">
         <f>BE12/AW12</f>
         <v>84.5929162620123</v>
       </c>
-      <c r="BK12" s="73">
+      <c r="BK12" s="70">
         <f>BF12/AW12</f>
         <v>191.421091093951</v>
       </c>
-      <c r="BL12" s="51">
+      <c r="BL12" s="48">
         <f>BG12/AW12</f>
         <v>284.41843490343</v>
       </c>
     </row>
-    <row r="13" s="50" customFormat="1" spans="1:64">
-      <c r="A13" s="52" t="s">
+    <row r="13" s="47" customFormat="1" spans="1:64">
+      <c r="A13" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="52"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="57">
+      <c r="B13" s="49"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="54">
         <f>AVERAGE(K6:K12)</f>
         <v>1.04857142857143</v>
       </c>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="54"/>
-      <c r="S13" s="54"/>
-      <c r="T13" s="54"/>
-      <c r="U13" s="54"/>
-      <c r="V13" s="54"/>
-      <c r="W13" s="54"/>
-      <c r="X13" s="54"/>
-      <c r="Y13" s="54"/>
-      <c r="Z13" s="54"/>
-      <c r="AA13" s="54"/>
-      <c r="AB13" s="54"/>
-      <c r="AC13" s="54"/>
-      <c r="AD13" s="54"/>
-      <c r="AE13" s="56"/>
-      <c r="AF13" s="52"/>
-      <c r="AG13" s="58"/>
-      <c r="AH13" s="54"/>
-      <c r="AI13" s="52"/>
-      <c r="AJ13" s="53"/>
-      <c r="AK13" s="53"/>
-      <c r="AL13" s="53"/>
-      <c r="AM13" s="53"/>
-      <c r="AN13" s="56"/>
-      <c r="AO13" s="56"/>
-      <c r="AP13" s="54"/>
-      <c r="AQ13" s="54"/>
-      <c r="AR13" s="54"/>
-      <c r="AS13" s="54"/>
-      <c r="AT13" s="54"/>
-      <c r="AU13" s="54"/>
-      <c r="AV13" s="53"/>
-      <c r="AW13" s="53"/>
-      <c r="AX13" s="54"/>
-      <c r="AY13" s="54"/>
-      <c r="AZ13" s="54"/>
-      <c r="BA13" s="54"/>
-      <c r="BB13" s="54"/>
-      <c r="BC13" s="54"/>
-      <c r="BD13" s="54"/>
-      <c r="BE13" s="54"/>
-      <c r="BF13" s="54"/>
-      <c r="BG13" s="54">
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="51"/>
+      <c r="T13" s="51"/>
+      <c r="U13" s="51"/>
+      <c r="V13" s="51"/>
+      <c r="W13" s="51"/>
+      <c r="X13" s="51"/>
+      <c r="Y13" s="51"/>
+      <c r="Z13" s="51"/>
+      <c r="AA13" s="51"/>
+      <c r="AB13" s="51"/>
+      <c r="AC13" s="51"/>
+      <c r="AD13" s="51"/>
+      <c r="AE13" s="53"/>
+      <c r="AF13" s="49"/>
+      <c r="AG13" s="55"/>
+      <c r="AH13" s="51"/>
+      <c r="AI13" s="49"/>
+      <c r="AJ13" s="50"/>
+      <c r="AK13" s="50"/>
+      <c r="AL13" s="50"/>
+      <c r="AM13" s="50"/>
+      <c r="AN13" s="53"/>
+      <c r="AO13" s="53"/>
+      <c r="AP13" s="51"/>
+      <c r="AQ13" s="51"/>
+      <c r="AR13" s="51"/>
+      <c r="AS13" s="51"/>
+      <c r="AT13" s="51"/>
+      <c r="AU13" s="51"/>
+      <c r="AV13" s="50"/>
+      <c r="AW13" s="50"/>
+      <c r="AX13" s="51"/>
+      <c r="AY13" s="51"/>
+      <c r="AZ13" s="51"/>
+      <c r="BA13" s="51"/>
+      <c r="BB13" s="51"/>
+      <c r="BC13" s="51"/>
+      <c r="BD13" s="51"/>
+      <c r="BE13" s="51"/>
+      <c r="BF13" s="51"/>
+      <c r="BG13" s="51">
         <f>BA13*(1-BC13)</f>
         <v>0</v>
       </c>
-      <c r="BH13" s="54"/>
-      <c r="BI13" s="57"/>
-      <c r="BJ13" s="74"/>
-      <c r="BK13" s="74"/>
-      <c r="BL13" s="57"/>
+      <c r="BH13" s="51"/>
+      <c r="BI13" s="54"/>
+      <c r="BJ13" s="71"/>
+      <c r="BK13" s="71"/>
+      <c r="BL13" s="54"/>
     </row>
     <row r="14" spans="1:63">
       <c r="A14" s="1">
@@ -2708,8 +2699,8 @@
       <c r="AM14" s="2"/>
       <c r="AV14" s="2"/>
       <c r="AW14" s="2"/>
-      <c r="BJ14" s="73"/>
-      <c r="BK14" s="73"/>
+      <c r="BJ14" s="70"/>
+      <c r="BK14" s="70"/>
     </row>
     <row r="15" spans="1:63">
       <c r="A15" s="1">
@@ -2735,8 +2726,8 @@
       <c r="AM15" s="2"/>
       <c r="AV15" s="2"/>
       <c r="AW15" s="2"/>
-      <c r="BJ15" s="73"/>
-      <c r="BK15" s="73"/>
+      <c r="BJ15" s="70"/>
+      <c r="BK15" s="70"/>
     </row>
     <row r="16" spans="1:63">
       <c r="A16" s="1">
@@ -2762,8 +2753,8 @@
       <c r="AM16" s="2"/>
       <c r="AV16" s="2"/>
       <c r="AW16" s="2"/>
-      <c r="BJ16" s="73"/>
-      <c r="BK16" s="73"/>
+      <c r="BJ16" s="70"/>
+      <c r="BK16" s="70"/>
     </row>
     <row r="17" spans="1:63">
       <c r="A17" s="1">
@@ -2789,8 +2780,8 @@
       <c r="AM17" s="2"/>
       <c r="AV17" s="2"/>
       <c r="AW17" s="2"/>
-      <c r="BJ17" s="73"/>
-      <c r="BK17" s="73"/>
+      <c r="BJ17" s="70"/>
+      <c r="BK17" s="70"/>
     </row>
     <row r="18" spans="1:63">
       <c r="A18" s="1">
@@ -2816,8 +2807,8 @@
       <c r="AM18" s="2"/>
       <c r="AV18" s="2"/>
       <c r="AW18" s="2"/>
-      <c r="BJ18" s="73"/>
-      <c r="BK18" s="73"/>
+      <c r="BJ18" s="70"/>
+      <c r="BK18" s="70"/>
     </row>
     <row r="19" spans="1:63">
       <c r="A19" s="1">
@@ -2849,8 +2840,8 @@
       <c r="AM19" s="2"/>
       <c r="AV19" s="2"/>
       <c r="AW19" s="2"/>
-      <c r="BJ19" s="73"/>
-      <c r="BK19" s="73"/>
+      <c r="BJ19" s="70"/>
+      <c r="BK19" s="70"/>
     </row>
     <row r="20" spans="1:63">
       <c r="A20" s="1">
@@ -2882,8 +2873,8 @@
       <c r="AM20" s="2"/>
       <c r="AV20" s="2"/>
       <c r="AW20" s="2"/>
-      <c r="BJ20" s="73"/>
-      <c r="BK20" s="73"/>
+      <c r="BJ20" s="70"/>
+      <c r="BK20" s="70"/>
     </row>
     <row r="21" spans="1:63">
       <c r="A21" s="1">
@@ -2915,8 +2906,8 @@
       <c r="AM21" s="2"/>
       <c r="AV21" s="2"/>
       <c r="AW21" s="2"/>
-      <c r="BJ21" s="73"/>
-      <c r="BK21" s="73"/>
+      <c r="BJ21" s="70"/>
+      <c r="BK21" s="70"/>
     </row>
     <row r="22" spans="1:63">
       <c r="A22" s="1">
@@ -2948,8 +2939,8 @@
       <c r="AM22" s="2"/>
       <c r="AV22" s="2"/>
       <c r="AW22" s="2"/>
-      <c r="BJ22" s="73"/>
-      <c r="BK22" s="73"/>
+      <c r="BJ22" s="70"/>
+      <c r="BK22" s="70"/>
     </row>
     <row r="23" spans="1:63">
       <c r="A23" s="1">
@@ -2981,8 +2972,8 @@
       <c r="AM23" s="2"/>
       <c r="AV23" s="2"/>
       <c r="AW23" s="2"/>
-      <c r="BJ23" s="73"/>
-      <c r="BK23" s="73"/>
+      <c r="BJ23" s="70"/>
+      <c r="BK23" s="70"/>
     </row>
     <row r="24" spans="1:63">
       <c r="A24" s="1">
@@ -3014,8 +3005,8 @@
       <c r="AM24" s="2"/>
       <c r="AV24" s="2"/>
       <c r="AW24" s="2"/>
-      <c r="BJ24" s="73"/>
-      <c r="BK24" s="73"/>
+      <c r="BJ24" s="70"/>
+      <c r="BK24" s="70"/>
     </row>
     <row r="25" spans="1:63">
       <c r="A25" s="1">
@@ -3047,76 +3038,76 @@
       <c r="AM25" s="2"/>
       <c r="AV25" s="2"/>
       <c r="AW25" s="2"/>
-      <c r="BJ25" s="73"/>
-      <c r="BK25" s="73"/>
-    </row>
-    <row r="26" s="50" customFormat="1" spans="1:64">
-      <c r="A26" s="52" t="s">
+      <c r="BJ25" s="70"/>
+      <c r="BK25" s="70"/>
+    </row>
+    <row r="26" s="47" customFormat="1" spans="1:64">
+      <c r="A26" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="52"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="54"/>
-      <c r="P26" s="56"/>
-      <c r="Q26" s="56"/>
-      <c r="R26" s="54"/>
-      <c r="S26" s="54"/>
-      <c r="T26" s="54"/>
-      <c r="U26" s="54"/>
-      <c r="V26" s="54"/>
-      <c r="W26" s="54"/>
-      <c r="X26" s="54"/>
-      <c r="Y26" s="54"/>
-      <c r="Z26" s="54"/>
-      <c r="AA26" s="54"/>
-      <c r="AB26" s="54"/>
-      <c r="AC26" s="54"/>
-      <c r="AD26" s="54"/>
-      <c r="AE26" s="56"/>
-      <c r="AF26" s="52"/>
-      <c r="AG26" s="58"/>
-      <c r="AH26" s="54"/>
-      <c r="AI26" s="52"/>
-      <c r="AJ26" s="53"/>
-      <c r="AK26" s="53"/>
-      <c r="AL26" s="53"/>
-      <c r="AM26" s="53"/>
-      <c r="AN26" s="56"/>
-      <c r="AO26" s="56"/>
-      <c r="AP26" s="54"/>
-      <c r="AQ26" s="54"/>
-      <c r="AR26" s="54"/>
-      <c r="AS26" s="54"/>
-      <c r="AT26" s="54"/>
-      <c r="AU26" s="54"/>
-      <c r="AV26" s="53"/>
-      <c r="AW26" s="53"/>
-      <c r="AX26" s="54"/>
-      <c r="AY26" s="54"/>
-      <c r="AZ26" s="54"/>
-      <c r="BA26" s="54"/>
-      <c r="BB26" s="54"/>
-      <c r="BC26" s="54"/>
-      <c r="BD26" s="54"/>
-      <c r="BE26" s="54"/>
-      <c r="BF26" s="54"/>
-      <c r="BG26" s="54"/>
-      <c r="BH26" s="54"/>
-      <c r="BI26" s="57"/>
-      <c r="BJ26" s="74"/>
-      <c r="BK26" s="74"/>
-      <c r="BL26" s="57"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="51"/>
+      <c r="U26" s="51"/>
+      <c r="V26" s="51"/>
+      <c r="W26" s="51"/>
+      <c r="X26" s="51"/>
+      <c r="Y26" s="51"/>
+      <c r="Z26" s="51"/>
+      <c r="AA26" s="51"/>
+      <c r="AB26" s="51"/>
+      <c r="AC26" s="51"/>
+      <c r="AD26" s="51"/>
+      <c r="AE26" s="53"/>
+      <c r="AF26" s="49"/>
+      <c r="AG26" s="55"/>
+      <c r="AH26" s="51"/>
+      <c r="AI26" s="49"/>
+      <c r="AJ26" s="50"/>
+      <c r="AK26" s="50"/>
+      <c r="AL26" s="50"/>
+      <c r="AM26" s="50"/>
+      <c r="AN26" s="53"/>
+      <c r="AO26" s="53"/>
+      <c r="AP26" s="51"/>
+      <c r="AQ26" s="51"/>
+      <c r="AR26" s="51"/>
+      <c r="AS26" s="51"/>
+      <c r="AT26" s="51"/>
+      <c r="AU26" s="51"/>
+      <c r="AV26" s="50"/>
+      <c r="AW26" s="50"/>
+      <c r="AX26" s="51"/>
+      <c r="AY26" s="51"/>
+      <c r="AZ26" s="51"/>
+      <c r="BA26" s="51"/>
+      <c r="BB26" s="51"/>
+      <c r="BC26" s="51"/>
+      <c r="BD26" s="51"/>
+      <c r="BE26" s="51"/>
+      <c r="BF26" s="51"/>
+      <c r="BG26" s="51"/>
+      <c r="BH26" s="51"/>
+      <c r="BI26" s="54"/>
+      <c r="BJ26" s="71"/>
+      <c r="BK26" s="71"/>
+      <c r="BL26" s="54"/>
     </row>
     <row r="27" spans="1:63">
       <c r="A27" s="1">
@@ -3142,8 +3133,8 @@
       <c r="AM27" s="2"/>
       <c r="AV27" s="2"/>
       <c r="AW27" s="2"/>
-      <c r="BJ27" s="73"/>
-      <c r="BK27" s="73"/>
+      <c r="BJ27" s="70"/>
+      <c r="BK27" s="70"/>
     </row>
     <row r="28" spans="1:63">
       <c r="A28" s="1">
@@ -3175,8 +3166,8 @@
       <c r="AM28" s="2"/>
       <c r="AV28" s="2"/>
       <c r="AW28" s="2"/>
-      <c r="BJ28" s="73"/>
-      <c r="BK28" s="73"/>
+      <c r="BJ28" s="70"/>
+      <c r="BK28" s="70"/>
     </row>
     <row r="29" spans="1:63">
       <c r="A29" s="1">
@@ -3208,8 +3199,8 @@
       <c r="AM29" s="2"/>
       <c r="AV29" s="2"/>
       <c r="AW29" s="2"/>
-      <c r="BJ29" s="73"/>
-      <c r="BK29" s="73"/>
+      <c r="BJ29" s="70"/>
+      <c r="BK29" s="70"/>
     </row>
     <row r="30" spans="1:63">
       <c r="A30" s="1">
@@ -3241,8 +3232,8 @@
       <c r="AM30" s="2"/>
       <c r="AV30" s="2"/>
       <c r="AW30" s="2"/>
-      <c r="BJ30" s="73"/>
-      <c r="BK30" s="73"/>
+      <c r="BJ30" s="70"/>
+      <c r="BK30" s="70"/>
     </row>
     <row r="31" spans="1:63">
       <c r="A31" s="1">
@@ -3274,8 +3265,8 @@
       <c r="AM31" s="2"/>
       <c r="AV31" s="2"/>
       <c r="AW31" s="2"/>
-      <c r="BJ31" s="73"/>
-      <c r="BK31" s="73"/>
+      <c r="BJ31" s="70"/>
+      <c r="BK31" s="70"/>
     </row>
     <row r="32" spans="1:63">
       <c r="A32" s="1">
@@ -3307,8 +3298,8 @@
       <c r="AM32" s="2"/>
       <c r="AV32" s="2"/>
       <c r="AW32" s="2"/>
-      <c r="BJ32" s="73"/>
-      <c r="BK32" s="73"/>
+      <c r="BJ32" s="70"/>
+      <c r="BK32" s="70"/>
     </row>
     <row r="33" spans="1:63">
       <c r="A33" s="1">
@@ -3340,8 +3331,8 @@
       <c r="AM33" s="2"/>
       <c r="AV33" s="2"/>
       <c r="AW33" s="2"/>
-      <c r="BJ33" s="73"/>
-      <c r="BK33" s="73"/>
+      <c r="BJ33" s="70"/>
+      <c r="BK33" s="70"/>
     </row>
     <row r="34" spans="1:63">
       <c r="A34" s="1">
@@ -3376,79 +3367,79 @@
       <c r="AM34" s="2"/>
       <c r="AV34" s="2"/>
       <c r="AW34" s="2"/>
-      <c r="BJ34" s="73"/>
-      <c r="BK34" s="73"/>
-    </row>
-    <row r="35" s="50" customFormat="1" spans="1:64">
-      <c r="A35" s="52" t="s">
+      <c r="BJ34" s="70"/>
+      <c r="BK34" s="70"/>
+    </row>
+    <row r="35" s="47" customFormat="1" spans="1:64">
+      <c r="A35" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="B35" s="52"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="52"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="57">
+      <c r="B35" s="49"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="54">
         <f>AVERAGE(K27:K34)</f>
         <v>1.3925</v>
       </c>
-      <c r="L35" s="52"/>
-      <c r="M35" s="52"/>
-      <c r="N35" s="53"/>
-      <c r="O35" s="54"/>
-      <c r="P35" s="56"/>
-      <c r="Q35" s="56"/>
-      <c r="R35" s="54"/>
-      <c r="S35" s="54"/>
-      <c r="T35" s="54"/>
-      <c r="U35" s="54"/>
-      <c r="V35" s="54"/>
-      <c r="W35" s="54"/>
-      <c r="X35" s="54"/>
-      <c r="Y35" s="54"/>
-      <c r="Z35" s="54"/>
-      <c r="AA35" s="54"/>
-      <c r="AB35" s="54"/>
-      <c r="AC35" s="54"/>
-      <c r="AD35" s="54"/>
-      <c r="AE35" s="56"/>
-      <c r="AF35" s="52"/>
-      <c r="AG35" s="58"/>
-      <c r="AH35" s="54"/>
-      <c r="AI35" s="52"/>
-      <c r="AJ35" s="53"/>
-      <c r="AK35" s="53"/>
-      <c r="AL35" s="53"/>
-      <c r="AM35" s="53"/>
-      <c r="AN35" s="56"/>
-      <c r="AO35" s="56"/>
-      <c r="AP35" s="54"/>
-      <c r="AQ35" s="54"/>
-      <c r="AR35" s="54"/>
-      <c r="AS35" s="54"/>
-      <c r="AT35" s="54"/>
-      <c r="AU35" s="54"/>
-      <c r="AV35" s="53"/>
-      <c r="AW35" s="53"/>
-      <c r="AX35" s="54"/>
-      <c r="AY35" s="54"/>
-      <c r="AZ35" s="54"/>
-      <c r="BA35" s="54"/>
-      <c r="BB35" s="54"/>
-      <c r="BC35" s="54"/>
-      <c r="BD35" s="54"/>
-      <c r="BE35" s="54"/>
-      <c r="BF35" s="54"/>
-      <c r="BG35" s="54"/>
-      <c r="BH35" s="54"/>
-      <c r="BI35" s="57"/>
-      <c r="BJ35" s="74"/>
-      <c r="BK35" s="74"/>
-      <c r="BL35" s="57"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="50"/>
+      <c r="O35" s="51"/>
+      <c r="P35" s="53"/>
+      <c r="Q35" s="53"/>
+      <c r="R35" s="51"/>
+      <c r="S35" s="51"/>
+      <c r="T35" s="51"/>
+      <c r="U35" s="51"/>
+      <c r="V35" s="51"/>
+      <c r="W35" s="51"/>
+      <c r="X35" s="51"/>
+      <c r="Y35" s="51"/>
+      <c r="Z35" s="51"/>
+      <c r="AA35" s="51"/>
+      <c r="AB35" s="51"/>
+      <c r="AC35" s="51"/>
+      <c r="AD35" s="51"/>
+      <c r="AE35" s="53"/>
+      <c r="AF35" s="49"/>
+      <c r="AG35" s="55"/>
+      <c r="AH35" s="51"/>
+      <c r="AI35" s="49"/>
+      <c r="AJ35" s="50"/>
+      <c r="AK35" s="50"/>
+      <c r="AL35" s="50"/>
+      <c r="AM35" s="50"/>
+      <c r="AN35" s="53"/>
+      <c r="AO35" s="53"/>
+      <c r="AP35" s="51"/>
+      <c r="AQ35" s="51"/>
+      <c r="AR35" s="51"/>
+      <c r="AS35" s="51"/>
+      <c r="AT35" s="51"/>
+      <c r="AU35" s="51"/>
+      <c r="AV35" s="50"/>
+      <c r="AW35" s="50"/>
+      <c r="AX35" s="51"/>
+      <c r="AY35" s="51"/>
+      <c r="AZ35" s="51"/>
+      <c r="BA35" s="51"/>
+      <c r="BB35" s="51"/>
+      <c r="BC35" s="51"/>
+      <c r="BD35" s="51"/>
+      <c r="BE35" s="51"/>
+      <c r="BF35" s="51"/>
+      <c r="BG35" s="51"/>
+      <c r="BH35" s="51"/>
+      <c r="BI35" s="54"/>
+      <c r="BJ35" s="71"/>
+      <c r="BK35" s="71"/>
+      <c r="BL35" s="54"/>
     </row>
     <row r="36" spans="1:63">
       <c r="A36" s="1">
@@ -3465,8 +3456,8 @@
       <c r="AM36" s="2"/>
       <c r="AV36" s="2"/>
       <c r="AW36" s="2"/>
-      <c r="BJ36" s="73"/>
-      <c r="BK36" s="73"/>
+      <c r="BJ36" s="70"/>
+      <c r="BK36" s="70"/>
     </row>
     <row r="37" spans="1:63">
       <c r="A37" s="1">
@@ -3483,8 +3474,8 @@
       <c r="AM37" s="2"/>
       <c r="AV37" s="2"/>
       <c r="AW37" s="2"/>
-      <c r="BJ37" s="73"/>
-      <c r="BK37" s="73"/>
+      <c r="BJ37" s="70"/>
+      <c r="BK37" s="70"/>
     </row>
     <row r="38" spans="1:63">
       <c r="A38" s="1">
@@ -3501,8 +3492,8 @@
       <c r="AM38" s="2"/>
       <c r="AV38" s="2"/>
       <c r="AW38" s="2"/>
-      <c r="BJ38" s="73"/>
-      <c r="BK38" s="73"/>
+      <c r="BJ38" s="70"/>
+      <c r="BK38" s="70"/>
     </row>
     <row r="39" spans="1:63">
       <c r="A39" s="1">
@@ -3519,8 +3510,8 @@
       <c r="AM39" s="2"/>
       <c r="AV39" s="2"/>
       <c r="AW39" s="2"/>
-      <c r="BJ39" s="73"/>
-      <c r="BK39" s="73"/>
+      <c r="BJ39" s="70"/>
+      <c r="BK39" s="70"/>
     </row>
     <row r="40" spans="1:63">
       <c r="A40" s="1">
@@ -3537,8 +3528,8 @@
       <c r="AM40" s="2"/>
       <c r="AV40" s="2"/>
       <c r="AW40" s="2"/>
-      <c r="BJ40" s="73"/>
-      <c r="BK40" s="73"/>
+      <c r="BJ40" s="70"/>
+      <c r="BK40" s="70"/>
     </row>
     <row r="41" spans="1:63">
       <c r="A41" s="1">
@@ -3565,8 +3556,8 @@
         <f t="shared" ref="BG41:BG46" si="3">BA41*(1-BC41)</f>
         <v>0</v>
       </c>
-      <c r="BJ41" s="73"/>
-      <c r="BK41" s="73"/>
+      <c r="BJ41" s="70"/>
+      <c r="BK41" s="70"/>
     </row>
     <row r="42" spans="1:64">
       <c r="A42" s="1">
@@ -3636,7 +3627,7 @@
       <c r="AV42" s="3">
         <v>0</v>
       </c>
-      <c r="AW42" s="68">
+      <c r="AW42" s="65">
         <v>393738756</v>
       </c>
       <c r="AX42" s="3">
@@ -3678,19 +3669,19 @@
         <f t="shared" si="3"/>
         <v>20600951765.5981</v>
       </c>
-      <c r="BI42" s="51">
+      <c r="BI42" s="48">
         <f>BD42/AW42</f>
         <v>4.00899029477376</v>
       </c>
-      <c r="BJ42" s="73">
+      <c r="BJ42" s="70">
         <f>BE42/AW42</f>
         <v>6.12282154110902</v>
       </c>
-      <c r="BK42" s="73">
+      <c r="BK42" s="70">
         <f>BF42/AW42</f>
         <v>23.4242272009576</v>
       </c>
-      <c r="BL42" s="51">
+      <c r="BL42" s="48">
         <f>BG42/AW42</f>
         <v>52.3213715989851</v>
       </c>
@@ -3761,7 +3752,7 @@
         <v>1876529173.79727</v>
       </c>
       <c r="AV43" s="3"/>
-      <c r="AW43" s="69">
+      <c r="AW43" s="66">
         <v>69005147</v>
       </c>
       <c r="AX43" s="3">
@@ -3803,19 +3794,19 @@
         <f t="shared" si="3"/>
         <v>1682576307.84007</v>
       </c>
-      <c r="BI43" s="51">
+      <c r="BI43" s="48">
         <f>BD43/AW43</f>
         <v>6.76415474316685</v>
       </c>
-      <c r="BJ43" s="73">
+      <c r="BJ43" s="70">
         <f>BE43/AW43</f>
         <v>12.1754785377003</v>
       </c>
-      <c r="BK43" s="73">
+      <c r="BK43" s="70">
         <f>BF43/AW43</f>
         <v>19.0552337148415</v>
       </c>
-      <c r="BL43" s="51">
+      <c r="BL43" s="48">
         <f>BG43/AW43</f>
         <v>24.3833450255539</v>
       </c>
@@ -3851,7 +3842,7 @@
       <c r="M44" s="5"/>
       <c r="AK44" s="3"/>
       <c r="AV44" s="3"/>
-      <c r="AW44" s="68"/>
+      <c r="AW44" s="65"/>
       <c r="BB44" s="3">
         <v>5913312.15</v>
       </c>
@@ -3875,8 +3866,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="BJ44" s="73"/>
-      <c r="BK44" s="73"/>
+      <c r="BJ44" s="70"/>
+      <c r="BK44" s="70"/>
     </row>
     <row r="45" spans="1:64">
       <c r="A45" s="1">
@@ -3910,10 +3901,10 @@
       <c r="AG45" s="4">
         <v>0.12</v>
       </c>
-      <c r="AK45" s="61">
+      <c r="AK45" s="58">
         <v>206967659</v>
       </c>
-      <c r="AL45" s="62"/>
+      <c r="AL45" s="59"/>
       <c r="AN45" s="5">
         <v>0.12</v>
       </c>
@@ -3942,7 +3933,7 @@
       <c r="AV45" s="3">
         <v>0</v>
       </c>
-      <c r="AW45" s="70">
+      <c r="AW45" s="67">
         <v>66585147</v>
       </c>
       <c r="AX45" s="3">
@@ -3984,19 +3975,19 @@
         <f t="shared" si="3"/>
         <v>10551672516.1374</v>
       </c>
-      <c r="BI45" s="51">
+      <c r="BI45" s="48">
         <f>BD45/AW45</f>
         <v>25.5986071031079</v>
       </c>
-      <c r="BJ45" s="73">
+      <c r="BJ45" s="70">
         <f>BE45/AW45</f>
         <v>46.0774927855942</v>
       </c>
-      <c r="BK45" s="73">
+      <c r="BK45" s="70">
         <f>BF45/AW45</f>
         <v>100.164299093727</v>
       </c>
-      <c r="BL45" s="51">
+      <c r="BL45" s="48">
         <f>BG45/AW45</f>
         <v>158.468862674996</v>
       </c>
@@ -4033,7 +4024,7 @@
       <c r="AG46" s="4">
         <v>0.12</v>
       </c>
-      <c r="AK46" s="61">
+      <c r="AK46" s="58">
         <v>1008801360.47</v>
       </c>
       <c r="AN46" s="5">
@@ -4064,7 +4055,7 @@
       <c r="AV46" s="3">
         <v>0</v>
       </c>
-      <c r="AW46" s="70">
+      <c r="AW46" s="67">
         <v>104877931</v>
       </c>
       <c r="AX46" s="3">
@@ -4106,19 +4097,19 @@
         <f t="shared" si="3"/>
         <v>57832418307.7574</v>
       </c>
-      <c r="BI46" s="51">
+      <c r="BI46" s="48">
         <f>BD46/AW46</f>
         <v>78.4341933425214</v>
       </c>
-      <c r="BJ46" s="73">
+      <c r="BJ46" s="70">
         <f>BE46/AW46</f>
         <v>141.181548016539</v>
       </c>
-      <c r="BK46" s="73">
+      <c r="BK46" s="70">
         <f>BF46/AW46</f>
         <v>331.441580911198</v>
       </c>
-      <c r="BL46" s="51">
+      <c r="BL46" s="48">
         <f>BG46/AW46</f>
         <v>551.426003128889</v>
       </c>
@@ -4130,7 +4121,7 @@
       <c r="AG47" s="4">
         <v>0.12</v>
       </c>
-      <c r="AK47" s="61">
+      <c r="AK47" s="58">
         <v>1008801360.47</v>
       </c>
       <c r="AN47" s="5">
@@ -4161,7 +4152,7 @@
       <c r="AV47" s="3">
         <v>0</v>
       </c>
-      <c r="AW47" s="69">
+      <c r="AW47" s="66">
         <v>69005147</v>
       </c>
       <c r="AX47" s="3">
@@ -4196,19 +4187,19 @@
         <f>BA47*(1-E47)</f>
         <v>59102550223.8217</v>
       </c>
-      <c r="BI47" s="51">
+      <c r="BI47" s="48">
         <f>BD47/AW47</f>
         <v>121.8268255253</v>
       </c>
-      <c r="BJ47" s="73">
+      <c r="BJ47" s="70">
         <f>BE47/AW47</f>
         <v>219.28828594554</v>
       </c>
-      <c r="BK47" s="73">
+      <c r="BK47" s="70">
         <f>BF47/AW47</f>
         <v>514.807049435258</v>
       </c>
-      <c r="BL47" s="51">
+      <c r="BL47" s="48">
         <f>BG47/AW47</f>
         <v>856.494809348376</v>
       </c>
@@ -4652,93 +4643,93 @@
         <f>BA61*(1-E61)</f>
         <v>4926281961816.99</v>
       </c>
-      <c r="BI61" s="51">
+      <c r="BI61" s="48">
         <f>BD61/AW61</f>
         <v>2.06169747176937</v>
       </c>
-      <c r="BJ61" s="73">
+      <c r="BJ61" s="70">
         <f>BE61/AW61</f>
         <v>93.1957983911378</v>
       </c>
-      <c r="BK61" s="73">
+      <c r="BK61" s="70">
         <f>BF61/AW61</f>
         <v>366.025047482403</v>
       </c>
-      <c r="BL61" s="51">
+      <c r="BL61" s="48">
         <f>BG61/AW61</f>
         <v>910.091446861572</v>
       </c>
     </row>
-    <row r="62" s="50" customFormat="1" spans="1:64">
-      <c r="A62" s="52" t="s">
+    <row r="62" s="47" customFormat="1" spans="1:64">
+      <c r="A62" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="B62" s="52"/>
-      <c r="C62" s="52"/>
-      <c r="D62" s="54"/>
-      <c r="E62" s="56"/>
-      <c r="F62" s="54"/>
-      <c r="G62" s="54"/>
-      <c r="H62" s="54"/>
-      <c r="I62" s="52"/>
-      <c r="J62" s="52"/>
-      <c r="K62" s="57">
+      <c r="B62" s="49"/>
+      <c r="C62" s="49"/>
+      <c r="D62" s="51"/>
+      <c r="E62" s="53"/>
+      <c r="F62" s="51"/>
+      <c r="G62" s="51"/>
+      <c r="H62" s="51"/>
+      <c r="I62" s="49"/>
+      <c r="J62" s="49"/>
+      <c r="K62" s="54">
         <f>AVERAGE(K51:K61)</f>
         <v>0.843636363636364</v>
       </c>
-      <c r="L62" s="52"/>
-      <c r="M62" s="52"/>
-      <c r="N62" s="52"/>
-      <c r="O62" s="54"/>
-      <c r="P62" s="56"/>
-      <c r="Q62" s="56"/>
-      <c r="R62" s="54"/>
-      <c r="S62" s="54"/>
-      <c r="T62" s="54"/>
-      <c r="U62" s="54"/>
-      <c r="V62" s="54"/>
-      <c r="W62" s="54"/>
-      <c r="X62" s="54"/>
-      <c r="Y62" s="54"/>
-      <c r="Z62" s="54"/>
-      <c r="AA62" s="54"/>
-      <c r="AB62" s="54"/>
-      <c r="AC62" s="54"/>
-      <c r="AD62" s="54"/>
-      <c r="AE62" s="56"/>
-      <c r="AF62" s="52"/>
-      <c r="AG62" s="58"/>
-      <c r="AH62" s="54"/>
-      <c r="AI62" s="52"/>
-      <c r="AJ62" s="52"/>
-      <c r="AK62" s="52"/>
-      <c r="AL62" s="52"/>
-      <c r="AM62" s="52"/>
-      <c r="AN62" s="56"/>
-      <c r="AO62" s="56"/>
-      <c r="AP62" s="54"/>
-      <c r="AQ62" s="54"/>
-      <c r="AR62" s="54"/>
-      <c r="AS62" s="54"/>
-      <c r="AT62" s="54"/>
-      <c r="AU62" s="54"/>
-      <c r="AV62" s="52"/>
-      <c r="AW62" s="52"/>
-      <c r="AX62" s="54"/>
-      <c r="AY62" s="54"/>
-      <c r="AZ62" s="54"/>
-      <c r="BA62" s="54"/>
-      <c r="BB62" s="54"/>
-      <c r="BC62" s="54"/>
-      <c r="BD62" s="54"/>
-      <c r="BE62" s="54"/>
-      <c r="BF62" s="54"/>
-      <c r="BG62" s="54"/>
-      <c r="BH62" s="54"/>
-      <c r="BI62" s="57"/>
-      <c r="BJ62" s="57"/>
-      <c r="BK62" s="57"/>
-      <c r="BL62" s="57"/>
+      <c r="L62" s="49"/>
+      <c r="M62" s="49"/>
+      <c r="N62" s="49"/>
+      <c r="O62" s="51"/>
+      <c r="P62" s="53"/>
+      <c r="Q62" s="53"/>
+      <c r="R62" s="51"/>
+      <c r="S62" s="51"/>
+      <c r="T62" s="51"/>
+      <c r="U62" s="51"/>
+      <c r="V62" s="51"/>
+      <c r="W62" s="51"/>
+      <c r="X62" s="51"/>
+      <c r="Y62" s="51"/>
+      <c r="Z62" s="51"/>
+      <c r="AA62" s="51"/>
+      <c r="AB62" s="51"/>
+      <c r="AC62" s="51"/>
+      <c r="AD62" s="51"/>
+      <c r="AE62" s="53"/>
+      <c r="AF62" s="49"/>
+      <c r="AG62" s="55"/>
+      <c r="AH62" s="51"/>
+      <c r="AI62" s="49"/>
+      <c r="AJ62" s="49"/>
+      <c r="AK62" s="49"/>
+      <c r="AL62" s="49"/>
+      <c r="AM62" s="49"/>
+      <c r="AN62" s="53"/>
+      <c r="AO62" s="53"/>
+      <c r="AP62" s="51"/>
+      <c r="AQ62" s="51"/>
+      <c r="AR62" s="51"/>
+      <c r="AS62" s="51"/>
+      <c r="AT62" s="51"/>
+      <c r="AU62" s="51"/>
+      <c r="AV62" s="49"/>
+      <c r="AW62" s="49"/>
+      <c r="AX62" s="51"/>
+      <c r="AY62" s="51"/>
+      <c r="AZ62" s="51"/>
+      <c r="BA62" s="51"/>
+      <c r="BB62" s="51"/>
+      <c r="BC62" s="51"/>
+      <c r="BD62" s="51"/>
+      <c r="BE62" s="51"/>
+      <c r="BF62" s="51"/>
+      <c r="BG62" s="51"/>
+      <c r="BH62" s="51"/>
+      <c r="BI62" s="54"/>
+      <c r="BJ62" s="54"/>
+      <c r="BK62" s="54"/>
+      <c r="BL62" s="54"/>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1">
@@ -5023,76 +5014,76 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="77" s="50" customFormat="1" spans="1:64">
-      <c r="A77" s="52" t="s">
+    <row r="77" s="47" customFormat="1" spans="1:64">
+      <c r="A77" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="B77" s="52"/>
-      <c r="C77" s="52"/>
-      <c r="D77" s="54"/>
-      <c r="E77" s="56"/>
-      <c r="F77" s="54"/>
-      <c r="G77" s="54"/>
-      <c r="H77" s="54"/>
-      <c r="I77" s="52"/>
-      <c r="J77" s="52"/>
-      <c r="K77" s="57">
+      <c r="B77" s="49"/>
+      <c r="C77" s="49"/>
+      <c r="D77" s="51"/>
+      <c r="E77" s="53"/>
+      <c r="F77" s="51"/>
+      <c r="G77" s="51"/>
+      <c r="H77" s="51"/>
+      <c r="I77" s="49"/>
+      <c r="J77" s="49"/>
+      <c r="K77" s="54">
         <f>AVERAGE(K64:K76)</f>
         <v>1.52769230769231</v>
       </c>
-      <c r="L77" s="52"/>
-      <c r="M77" s="52"/>
-      <c r="N77" s="52"/>
-      <c r="O77" s="54"/>
-      <c r="P77" s="56"/>
-      <c r="Q77" s="56"/>
-      <c r="R77" s="54"/>
-      <c r="S77" s="54"/>
-      <c r="T77" s="54"/>
-      <c r="U77" s="54"/>
-      <c r="V77" s="54"/>
-      <c r="W77" s="54"/>
-      <c r="X77" s="54"/>
-      <c r="Y77" s="54"/>
-      <c r="Z77" s="54"/>
-      <c r="AA77" s="54"/>
-      <c r="AB77" s="54"/>
-      <c r="AC77" s="54"/>
-      <c r="AD77" s="54"/>
-      <c r="AE77" s="56"/>
-      <c r="AF77" s="52"/>
-      <c r="AG77" s="58"/>
-      <c r="AH77" s="54"/>
-      <c r="AI77" s="52"/>
-      <c r="AJ77" s="52"/>
-      <c r="AK77" s="52"/>
-      <c r="AL77" s="52"/>
-      <c r="AM77" s="52"/>
-      <c r="AN77" s="56"/>
-      <c r="AO77" s="56"/>
-      <c r="AP77" s="54"/>
-      <c r="AQ77" s="54"/>
-      <c r="AR77" s="54"/>
-      <c r="AS77" s="54"/>
-      <c r="AT77" s="54"/>
-      <c r="AU77" s="54"/>
-      <c r="AV77" s="52"/>
-      <c r="AW77" s="52"/>
-      <c r="AX77" s="54"/>
-      <c r="AY77" s="54"/>
-      <c r="AZ77" s="54"/>
-      <c r="BA77" s="54"/>
-      <c r="BB77" s="54"/>
-      <c r="BC77" s="54"/>
-      <c r="BD77" s="54"/>
-      <c r="BE77" s="54"/>
-      <c r="BF77" s="54"/>
-      <c r="BG77" s="54"/>
-      <c r="BH77" s="54"/>
-      <c r="BI77" s="57"/>
-      <c r="BJ77" s="57"/>
-      <c r="BK77" s="57"/>
-      <c r="BL77" s="57"/>
+      <c r="L77" s="49"/>
+      <c r="M77" s="49"/>
+      <c r="N77" s="49"/>
+      <c r="O77" s="51"/>
+      <c r="P77" s="53"/>
+      <c r="Q77" s="53"/>
+      <c r="R77" s="51"/>
+      <c r="S77" s="51"/>
+      <c r="T77" s="51"/>
+      <c r="U77" s="51"/>
+      <c r="V77" s="51"/>
+      <c r="W77" s="51"/>
+      <c r="X77" s="51"/>
+      <c r="Y77" s="51"/>
+      <c r="Z77" s="51"/>
+      <c r="AA77" s="51"/>
+      <c r="AB77" s="51"/>
+      <c r="AC77" s="51"/>
+      <c r="AD77" s="51"/>
+      <c r="AE77" s="53"/>
+      <c r="AF77" s="49"/>
+      <c r="AG77" s="55"/>
+      <c r="AH77" s="51"/>
+      <c r="AI77" s="49"/>
+      <c r="AJ77" s="49"/>
+      <c r="AK77" s="49"/>
+      <c r="AL77" s="49"/>
+      <c r="AM77" s="49"/>
+      <c r="AN77" s="53"/>
+      <c r="AO77" s="53"/>
+      <c r="AP77" s="51"/>
+      <c r="AQ77" s="51"/>
+      <c r="AR77" s="51"/>
+      <c r="AS77" s="51"/>
+      <c r="AT77" s="51"/>
+      <c r="AU77" s="51"/>
+      <c r="AV77" s="49"/>
+      <c r="AW77" s="49"/>
+      <c r="AX77" s="51"/>
+      <c r="AY77" s="51"/>
+      <c r="AZ77" s="51"/>
+      <c r="BA77" s="51"/>
+      <c r="BB77" s="51"/>
+      <c r="BC77" s="51"/>
+      <c r="BD77" s="51"/>
+      <c r="BE77" s="51"/>
+      <c r="BF77" s="51"/>
+      <c r="BG77" s="51"/>
+      <c r="BH77" s="51"/>
+      <c r="BI77" s="54"/>
+      <c r="BJ77" s="54"/>
+      <c r="BK77" s="54"/>
+      <c r="BL77" s="54"/>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="1">
@@ -5206,76 +5197,76 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="86" s="50" customFormat="1" spans="1:64">
-      <c r="A86" s="52" t="s">
+    <row r="86" s="47" customFormat="1" spans="1:64">
+      <c r="A86" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="B86" s="52"/>
-      <c r="C86" s="52"/>
-      <c r="D86" s="54"/>
-      <c r="E86" s="56"/>
-      <c r="F86" s="54"/>
-      <c r="G86" s="54"/>
-      <c r="H86" s="54"/>
-      <c r="I86" s="52"/>
-      <c r="J86" s="52"/>
-      <c r="K86" s="57">
+      <c r="B86" s="49"/>
+      <c r="C86" s="49"/>
+      <c r="D86" s="51"/>
+      <c r="E86" s="53"/>
+      <c r="F86" s="51"/>
+      <c r="G86" s="51"/>
+      <c r="H86" s="51"/>
+      <c r="I86" s="49"/>
+      <c r="J86" s="49"/>
+      <c r="K86" s="54">
         <f>AVERAGE(K78:K85)</f>
         <v>0.67375</v>
       </c>
-      <c r="L86" s="52"/>
-      <c r="M86" s="52"/>
-      <c r="N86" s="52"/>
-      <c r="O86" s="54"/>
-      <c r="P86" s="56"/>
-      <c r="Q86" s="56"/>
-      <c r="R86" s="54"/>
-      <c r="S86" s="54"/>
-      <c r="T86" s="54"/>
-      <c r="U86" s="54"/>
-      <c r="V86" s="54"/>
-      <c r="W86" s="54"/>
-      <c r="X86" s="54"/>
-      <c r="Y86" s="54"/>
-      <c r="Z86" s="54"/>
-      <c r="AA86" s="54"/>
-      <c r="AB86" s="54"/>
-      <c r="AC86" s="54"/>
-      <c r="AD86" s="54"/>
-      <c r="AE86" s="56"/>
-      <c r="AF86" s="52"/>
-      <c r="AG86" s="58"/>
-      <c r="AH86" s="54"/>
-      <c r="AI86" s="52"/>
-      <c r="AJ86" s="52"/>
-      <c r="AK86" s="52"/>
-      <c r="AL86" s="52"/>
-      <c r="AM86" s="52"/>
-      <c r="AN86" s="56"/>
-      <c r="AO86" s="56"/>
-      <c r="AP86" s="54"/>
-      <c r="AQ86" s="54"/>
-      <c r="AR86" s="54"/>
-      <c r="AS86" s="54"/>
-      <c r="AT86" s="54"/>
-      <c r="AU86" s="54"/>
-      <c r="AV86" s="52"/>
-      <c r="AW86" s="52"/>
-      <c r="AX86" s="54"/>
-      <c r="AY86" s="54"/>
-      <c r="AZ86" s="54"/>
-      <c r="BA86" s="54"/>
-      <c r="BB86" s="54"/>
-      <c r="BC86" s="54"/>
-      <c r="BD86" s="54"/>
-      <c r="BE86" s="54"/>
-      <c r="BF86" s="54"/>
-      <c r="BG86" s="54"/>
-      <c r="BH86" s="54"/>
-      <c r="BI86" s="57"/>
-      <c r="BJ86" s="57"/>
-      <c r="BK86" s="57"/>
-      <c r="BL86" s="57"/>
+      <c r="L86" s="49"/>
+      <c r="M86" s="49"/>
+      <c r="N86" s="49"/>
+      <c r="O86" s="51"/>
+      <c r="P86" s="53"/>
+      <c r="Q86" s="53"/>
+      <c r="R86" s="51"/>
+      <c r="S86" s="51"/>
+      <c r="T86" s="51"/>
+      <c r="U86" s="51"/>
+      <c r="V86" s="51"/>
+      <c r="W86" s="51"/>
+      <c r="X86" s="51"/>
+      <c r="Y86" s="51"/>
+      <c r="Z86" s="51"/>
+      <c r="AA86" s="51"/>
+      <c r="AB86" s="51"/>
+      <c r="AC86" s="51"/>
+      <c r="AD86" s="51"/>
+      <c r="AE86" s="53"/>
+      <c r="AF86" s="49"/>
+      <c r="AG86" s="55"/>
+      <c r="AH86" s="51"/>
+      <c r="AI86" s="49"/>
+      <c r="AJ86" s="49"/>
+      <c r="AK86" s="49"/>
+      <c r="AL86" s="49"/>
+      <c r="AM86" s="49"/>
+      <c r="AN86" s="53"/>
+      <c r="AO86" s="53"/>
+      <c r="AP86" s="51"/>
+      <c r="AQ86" s="51"/>
+      <c r="AR86" s="51"/>
+      <c r="AS86" s="51"/>
+      <c r="AT86" s="51"/>
+      <c r="AU86" s="51"/>
+      <c r="AV86" s="49"/>
+      <c r="AW86" s="49"/>
+      <c r="AX86" s="51"/>
+      <c r="AY86" s="51"/>
+      <c r="AZ86" s="51"/>
+      <c r="BA86" s="51"/>
+      <c r="BB86" s="51"/>
+      <c r="BC86" s="51"/>
+      <c r="BD86" s="51"/>
+      <c r="BE86" s="51"/>
+      <c r="BF86" s="51"/>
+      <c r="BG86" s="51"/>
+      <c r="BH86" s="51"/>
+      <c r="BI86" s="54"/>
+      <c r="BJ86" s="54"/>
+      <c r="BK86" s="54"/>
+      <c r="BL86" s="54"/>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="1">
@@ -5509,76 +5500,76 @@
         <v>89.25</v>
       </c>
     </row>
-    <row r="98" s="50" customFormat="1" spans="1:64">
-      <c r="A98" s="52" t="s">
+    <row r="98" s="47" customFormat="1" spans="1:64">
+      <c r="A98" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="B98" s="52"/>
-      <c r="C98" s="52"/>
-      <c r="D98" s="54"/>
-      <c r="E98" s="56"/>
-      <c r="F98" s="54"/>
-      <c r="G98" s="54"/>
-      <c r="H98" s="54"/>
-      <c r="I98" s="52"/>
-      <c r="J98" s="52"/>
-      <c r="K98" s="57">
+      <c r="B98" s="49"/>
+      <c r="C98" s="49"/>
+      <c r="D98" s="51"/>
+      <c r="E98" s="53"/>
+      <c r="F98" s="51"/>
+      <c r="G98" s="51"/>
+      <c r="H98" s="51"/>
+      <c r="I98" s="49"/>
+      <c r="J98" s="49"/>
+      <c r="K98" s="54">
         <f>AVERAGE(K87:K97)</f>
         <v>1.42909090909091</v>
       </c>
-      <c r="L98" s="52"/>
-      <c r="M98" s="52"/>
-      <c r="N98" s="52"/>
-      <c r="O98" s="54"/>
-      <c r="P98" s="56"/>
-      <c r="Q98" s="56"/>
-      <c r="R98" s="54"/>
-      <c r="S98" s="54"/>
-      <c r="T98" s="54"/>
-      <c r="U98" s="54"/>
-      <c r="V98" s="54"/>
-      <c r="W98" s="54"/>
-      <c r="X98" s="54"/>
-      <c r="Y98" s="54"/>
-      <c r="Z98" s="54"/>
-      <c r="AA98" s="54"/>
-      <c r="AB98" s="54"/>
-      <c r="AC98" s="54"/>
-      <c r="AD98" s="54"/>
-      <c r="AE98" s="56"/>
-      <c r="AF98" s="52"/>
-      <c r="AG98" s="58"/>
-      <c r="AH98" s="54"/>
-      <c r="AI98" s="52"/>
-      <c r="AJ98" s="52"/>
-      <c r="AK98" s="52"/>
-      <c r="AL98" s="52"/>
-      <c r="AM98" s="52"/>
-      <c r="AN98" s="56"/>
-      <c r="AO98" s="56"/>
-      <c r="AP98" s="54"/>
-      <c r="AQ98" s="54"/>
-      <c r="AR98" s="54"/>
-      <c r="AS98" s="54"/>
-      <c r="AT98" s="54"/>
-      <c r="AU98" s="54"/>
-      <c r="AV98" s="52"/>
-      <c r="AW98" s="52"/>
-      <c r="AX98" s="54"/>
-      <c r="AY98" s="54"/>
-      <c r="AZ98" s="54"/>
-      <c r="BA98" s="54"/>
-      <c r="BB98" s="54"/>
-      <c r="BC98" s="54"/>
-      <c r="BD98" s="54"/>
-      <c r="BE98" s="54"/>
-      <c r="BF98" s="54"/>
-      <c r="BG98" s="54"/>
-      <c r="BH98" s="54"/>
-      <c r="BI98" s="57"/>
-      <c r="BJ98" s="57"/>
-      <c r="BK98" s="57"/>
-      <c r="BL98" s="57"/>
+      <c r="L98" s="49"/>
+      <c r="M98" s="49"/>
+      <c r="N98" s="49"/>
+      <c r="O98" s="51"/>
+      <c r="P98" s="53"/>
+      <c r="Q98" s="53"/>
+      <c r="R98" s="51"/>
+      <c r="S98" s="51"/>
+      <c r="T98" s="51"/>
+      <c r="U98" s="51"/>
+      <c r="V98" s="51"/>
+      <c r="W98" s="51"/>
+      <c r="X98" s="51"/>
+      <c r="Y98" s="51"/>
+      <c r="Z98" s="51"/>
+      <c r="AA98" s="51"/>
+      <c r="AB98" s="51"/>
+      <c r="AC98" s="51"/>
+      <c r="AD98" s="51"/>
+      <c r="AE98" s="53"/>
+      <c r="AF98" s="49"/>
+      <c r="AG98" s="55"/>
+      <c r="AH98" s="51"/>
+      <c r="AI98" s="49"/>
+      <c r="AJ98" s="49"/>
+      <c r="AK98" s="49"/>
+      <c r="AL98" s="49"/>
+      <c r="AM98" s="49"/>
+      <c r="AN98" s="53"/>
+      <c r="AO98" s="53"/>
+      <c r="AP98" s="51"/>
+      <c r="AQ98" s="51"/>
+      <c r="AR98" s="51"/>
+      <c r="AS98" s="51"/>
+      <c r="AT98" s="51"/>
+      <c r="AU98" s="51"/>
+      <c r="AV98" s="49"/>
+      <c r="AW98" s="49"/>
+      <c r="AX98" s="51"/>
+      <c r="AY98" s="51"/>
+      <c r="AZ98" s="51"/>
+      <c r="BA98" s="51"/>
+      <c r="BB98" s="51"/>
+      <c r="BC98" s="51"/>
+      <c r="BD98" s="51"/>
+      <c r="BE98" s="51"/>
+      <c r="BF98" s="51"/>
+      <c r="BG98" s="51"/>
+      <c r="BH98" s="51"/>
+      <c r="BI98" s="54"/>
+      <c r="BJ98" s="54"/>
+      <c r="BK98" s="54"/>
+      <c r="BL98" s="54"/>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="1">
@@ -5666,73 +5657,73 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="103" s="50" customFormat="1" spans="1:64">
-      <c r="A103" s="52" t="s">
+    <row r="103" s="47" customFormat="1" spans="1:64">
+      <c r="A103" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="B103" s="52"/>
-      <c r="C103" s="52"/>
-      <c r="D103" s="54"/>
-      <c r="E103" s="56"/>
-      <c r="F103" s="54"/>
-      <c r="G103" s="54"/>
-      <c r="H103" s="54"/>
-      <c r="I103" s="52"/>
-      <c r="J103" s="52"/>
-      <c r="K103" s="52"/>
-      <c r="L103" s="52"/>
-      <c r="M103" s="52"/>
-      <c r="N103" s="52"/>
-      <c r="O103" s="54"/>
-      <c r="P103" s="56"/>
-      <c r="Q103" s="56"/>
-      <c r="R103" s="54"/>
-      <c r="S103" s="54"/>
-      <c r="T103" s="54"/>
-      <c r="U103" s="54"/>
-      <c r="V103" s="54"/>
-      <c r="W103" s="54"/>
-      <c r="X103" s="54"/>
-      <c r="Y103" s="54"/>
-      <c r="Z103" s="54"/>
-      <c r="AA103" s="54"/>
-      <c r="AB103" s="54"/>
-      <c r="AC103" s="54"/>
-      <c r="AD103" s="54"/>
-      <c r="AE103" s="56"/>
-      <c r="AF103" s="52"/>
-      <c r="AG103" s="58"/>
-      <c r="AH103" s="54"/>
-      <c r="AI103" s="52"/>
-      <c r="AJ103" s="52"/>
-      <c r="AK103" s="52"/>
-      <c r="AL103" s="52"/>
-      <c r="AM103" s="52"/>
-      <c r="AN103" s="56"/>
-      <c r="AO103" s="56"/>
-      <c r="AP103" s="54"/>
-      <c r="AQ103" s="54"/>
-      <c r="AR103" s="54"/>
-      <c r="AS103" s="54"/>
-      <c r="AT103" s="54"/>
-      <c r="AU103" s="54"/>
-      <c r="AV103" s="52"/>
-      <c r="AW103" s="52"/>
-      <c r="AX103" s="54"/>
-      <c r="AY103" s="54"/>
-      <c r="AZ103" s="54"/>
-      <c r="BA103" s="54"/>
-      <c r="BB103" s="54"/>
-      <c r="BC103" s="54"/>
-      <c r="BD103" s="54"/>
-      <c r="BE103" s="54"/>
-      <c r="BF103" s="54"/>
-      <c r="BG103" s="54"/>
-      <c r="BH103" s="54"/>
-      <c r="BI103" s="57"/>
-      <c r="BJ103" s="57"/>
-      <c r="BK103" s="57"/>
-      <c r="BL103" s="57"/>
+      <c r="B103" s="49"/>
+      <c r="C103" s="49"/>
+      <c r="D103" s="51"/>
+      <c r="E103" s="53"/>
+      <c r="F103" s="51"/>
+      <c r="G103" s="51"/>
+      <c r="H103" s="51"/>
+      <c r="I103" s="49"/>
+      <c r="J103" s="49"/>
+      <c r="K103" s="49"/>
+      <c r="L103" s="49"/>
+      <c r="M103" s="49"/>
+      <c r="N103" s="49"/>
+      <c r="O103" s="51"/>
+      <c r="P103" s="53"/>
+      <c r="Q103" s="53"/>
+      <c r="R103" s="51"/>
+      <c r="S103" s="51"/>
+      <c r="T103" s="51"/>
+      <c r="U103" s="51"/>
+      <c r="V103" s="51"/>
+      <c r="W103" s="51"/>
+      <c r="X103" s="51"/>
+      <c r="Y103" s="51"/>
+      <c r="Z103" s="51"/>
+      <c r="AA103" s="51"/>
+      <c r="AB103" s="51"/>
+      <c r="AC103" s="51"/>
+      <c r="AD103" s="51"/>
+      <c r="AE103" s="53"/>
+      <c r="AF103" s="49"/>
+      <c r="AG103" s="55"/>
+      <c r="AH103" s="51"/>
+      <c r="AI103" s="49"/>
+      <c r="AJ103" s="49"/>
+      <c r="AK103" s="49"/>
+      <c r="AL103" s="49"/>
+      <c r="AM103" s="49"/>
+      <c r="AN103" s="53"/>
+      <c r="AO103" s="53"/>
+      <c r="AP103" s="51"/>
+      <c r="AQ103" s="51"/>
+      <c r="AR103" s="51"/>
+      <c r="AS103" s="51"/>
+      <c r="AT103" s="51"/>
+      <c r="AU103" s="51"/>
+      <c r="AV103" s="49"/>
+      <c r="AW103" s="49"/>
+      <c r="AX103" s="51"/>
+      <c r="AY103" s="51"/>
+      <c r="AZ103" s="51"/>
+      <c r="BA103" s="51"/>
+      <c r="BB103" s="51"/>
+      <c r="BC103" s="51"/>
+      <c r="BD103" s="51"/>
+      <c r="BE103" s="51"/>
+      <c r="BF103" s="51"/>
+      <c r="BG103" s="51"/>
+      <c r="BH103" s="51"/>
+      <c r="BI103" s="54"/>
+      <c r="BJ103" s="54"/>
+      <c r="BK103" s="54"/>
+      <c r="BL103" s="54"/>
     </row>
     <row r="104" spans="1:11">
       <c r="A104" s="1">
@@ -6329,73 +6320,73 @@
         <v>78</v>
       </c>
     </row>
-    <row r="148" s="50" customFormat="1" spans="1:64">
-      <c r="A148" s="52" t="s">
+    <row r="148" s="47" customFormat="1" spans="1:64">
+      <c r="A148" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="B148" s="52"/>
-      <c r="C148" s="52"/>
-      <c r="D148" s="54"/>
-      <c r="E148" s="56"/>
-      <c r="F148" s="54"/>
-      <c r="G148" s="54"/>
-      <c r="H148" s="54"/>
-      <c r="I148" s="52"/>
-      <c r="J148" s="52"/>
-      <c r="K148" s="52"/>
-      <c r="L148" s="52"/>
-      <c r="M148" s="52"/>
-      <c r="N148" s="52"/>
-      <c r="O148" s="54"/>
-      <c r="P148" s="56"/>
-      <c r="Q148" s="56"/>
-      <c r="R148" s="54"/>
-      <c r="S148" s="54"/>
-      <c r="T148" s="54"/>
-      <c r="U148" s="54"/>
-      <c r="V148" s="54"/>
-      <c r="W148" s="54"/>
-      <c r="X148" s="54"/>
-      <c r="Y148" s="54"/>
-      <c r="Z148" s="54"/>
-      <c r="AA148" s="54"/>
-      <c r="AB148" s="54"/>
-      <c r="AC148" s="54"/>
-      <c r="AD148" s="54"/>
-      <c r="AE148" s="56"/>
-      <c r="AF148" s="52"/>
-      <c r="AG148" s="58"/>
-      <c r="AH148" s="54"/>
-      <c r="AI148" s="52"/>
-      <c r="AJ148" s="52"/>
-      <c r="AK148" s="52"/>
-      <c r="AL148" s="52"/>
-      <c r="AM148" s="52"/>
-      <c r="AN148" s="56"/>
-      <c r="AO148" s="56"/>
-      <c r="AP148" s="54"/>
-      <c r="AQ148" s="54"/>
-      <c r="AR148" s="54"/>
-      <c r="AS148" s="54"/>
-      <c r="AT148" s="54"/>
-      <c r="AU148" s="54"/>
-      <c r="AV148" s="52"/>
-      <c r="AW148" s="52"/>
-      <c r="AX148" s="54"/>
-      <c r="AY148" s="54"/>
-      <c r="AZ148" s="54"/>
-      <c r="BA148" s="54"/>
-      <c r="BB148" s="54"/>
-      <c r="BC148" s="54"/>
-      <c r="BD148" s="54"/>
-      <c r="BE148" s="54"/>
-      <c r="BF148" s="54"/>
-      <c r="BG148" s="54"/>
-      <c r="BH148" s="54"/>
-      <c r="BI148" s="57"/>
-      <c r="BJ148" s="57"/>
-      <c r="BK148" s="57"/>
-      <c r="BL148" s="57"/>
+      <c r="B148" s="49"/>
+      <c r="C148" s="49"/>
+      <c r="D148" s="51"/>
+      <c r="E148" s="53"/>
+      <c r="F148" s="51"/>
+      <c r="G148" s="51"/>
+      <c r="H148" s="51"/>
+      <c r="I148" s="49"/>
+      <c r="J148" s="49"/>
+      <c r="K148" s="49"/>
+      <c r="L148" s="49"/>
+      <c r="M148" s="49"/>
+      <c r="N148" s="49"/>
+      <c r="O148" s="51"/>
+      <c r="P148" s="53"/>
+      <c r="Q148" s="53"/>
+      <c r="R148" s="51"/>
+      <c r="S148" s="51"/>
+      <c r="T148" s="51"/>
+      <c r="U148" s="51"/>
+      <c r="V148" s="51"/>
+      <c r="W148" s="51"/>
+      <c r="X148" s="51"/>
+      <c r="Y148" s="51"/>
+      <c r="Z148" s="51"/>
+      <c r="AA148" s="51"/>
+      <c r="AB148" s="51"/>
+      <c r="AC148" s="51"/>
+      <c r="AD148" s="51"/>
+      <c r="AE148" s="53"/>
+      <c r="AF148" s="49"/>
+      <c r="AG148" s="55"/>
+      <c r="AH148" s="51"/>
+      <c r="AI148" s="49"/>
+      <c r="AJ148" s="49"/>
+      <c r="AK148" s="49"/>
+      <c r="AL148" s="49"/>
+      <c r="AM148" s="49"/>
+      <c r="AN148" s="53"/>
+      <c r="AO148" s="53"/>
+      <c r="AP148" s="51"/>
+      <c r="AQ148" s="51"/>
+      <c r="AR148" s="51"/>
+      <c r="AS148" s="51"/>
+      <c r="AT148" s="51"/>
+      <c r="AU148" s="51"/>
+      <c r="AV148" s="49"/>
+      <c r="AW148" s="49"/>
+      <c r="AX148" s="51"/>
+      <c r="AY148" s="51"/>
+      <c r="AZ148" s="51"/>
+      <c r="BA148" s="51"/>
+      <c r="BB148" s="51"/>
+      <c r="BC148" s="51"/>
+      <c r="BD148" s="51"/>
+      <c r="BE148" s="51"/>
+      <c r="BF148" s="51"/>
+      <c r="BG148" s="51"/>
+      <c r="BH148" s="51"/>
+      <c r="BI148" s="54"/>
+      <c r="BJ148" s="54"/>
+      <c r="BK148" s="54"/>
+      <c r="BL148" s="54"/>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="1">
@@ -6499,8 +6490,8 @@
       </c>
     </row>
     <row r="162" spans="1:2">
-      <c r="A162" s="75"/>
-      <c r="B162" s="75"/>
+      <c r="A162" s="72"/>
+      <c r="B162" s="72"/>
     </row>
     <row r="163" spans="2:2">
       <c r="B163" s="1" t="s">
@@ -6532,8 +6523,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88461538461539" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="8.88461538461539" style="47"/>
-    <col min="2" max="2" width="9.66346153846154" style="47" customWidth="1"/>
+    <col min="1" max="1" width="8.88461538461539" style="44"/>
+    <col min="2" max="2" width="9.66346153846154" style="44" customWidth="1"/>
     <col min="3" max="3" width="20.8846153846154" customWidth="1"/>
     <col min="4" max="4" width="5.66346153846154" customWidth="1"/>
     <col min="5" max="5" width="23.1153846153846" customWidth="1"/>
@@ -6545,10 +6536,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -6606,10 +6597,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -6774,16 +6765,16 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="12" s="46" customFormat="1" spans="1:9">
-      <c r="A12" s="48" t="s">
+    <row r="12" s="43" customFormat="1" spans="1:9">
+      <c r="A12" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48">
+      <c r="B12" s="45"/>
+      <c r="C12" s="45">
         <f>AVERAGE(C2:C11)</f>
         <v>4.995</v>
       </c>
-      <c r="D12" s="48">
+      <c r="D12" s="45">
         <f>AVERAGE(D2:D11)</f>
         <v>1.327</v>
       </c>
@@ -6791,7 +6782,7 @@
       <c r="F12" s="9">
         <v>74.55</v>
       </c>
-      <c r="G12" s="49">
+      <c r="G12" s="46">
         <f>D12/F12</f>
         <v>0.0178001341381623</v>
       </c>
@@ -6938,16 +6929,16 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="23" s="46" customFormat="1" spans="1:9">
-      <c r="A23" s="48" t="s">
+    <row r="23" s="43" customFormat="1" spans="1:9">
+      <c r="A23" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48">
+      <c r="B23" s="45"/>
+      <c r="C23" s="45">
         <f>AVERAGE(C13:C22)</f>
         <v>7.022</v>
       </c>
-      <c r="D23" s="48">
+      <c r="D23" s="45">
         <f>AVERAGE(D13:D22)</f>
         <v>1.616</v>
       </c>
@@ -6955,7 +6946,7 @@
       <c r="F23" s="9">
         <v>53.85</v>
       </c>
-      <c r="G23" s="49">
+      <c r="G23" s="46">
         <f>D23/F23</f>
         <v>0.0300092850510678</v>
       </c>
@@ -7075,22 +7066,22 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="48" t="s">
+      <c r="A32" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48">
+      <c r="B32" s="45"/>
+      <c r="C32" s="45">
         <f>AVERAGE(C25:C31)</f>
         <v>9.32285714285714</v>
       </c>
-      <c r="D32" s="48">
+      <c r="D32" s="45">
         <f>AVERAGE(D25:D31)</f>
         <v>1.45285714285714</v>
       </c>
       <c r="F32" s="1">
         <v>89.73</v>
       </c>
-      <c r="G32" s="49">
+      <c r="G32" s="46">
         <f>D32/F32</f>
         <v>0.0161914314371687</v>
       </c>
@@ -7236,22 +7227,22 @@
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="48" t="s">
+      <c r="A43" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="B43" s="48"/>
-      <c r="C43" s="48">
+      <c r="B43" s="45"/>
+      <c r="C43" s="45">
         <f>AVERAGE(C33:C42)</f>
         <v>10.34</v>
       </c>
-      <c r="D43" s="48">
+      <c r="D43" s="45">
         <f>AVERAGE(D33:D42)</f>
         <v>1.215</v>
       </c>
       <c r="F43" s="1">
         <v>84.13</v>
       </c>
-      <c r="G43" s="49">
+      <c r="G43" s="46">
         <f>D43/F43</f>
         <v>0.0144419351004398</v>
       </c>
@@ -7369,22 +7360,22 @@
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="48" t="s">
+      <c r="A52" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="B52" s="48"/>
-      <c r="C52" s="48">
+      <c r="B52" s="45"/>
+      <c r="C52" s="45">
         <f>AVERAGE(C42:C51)</f>
         <v>12.823</v>
       </c>
-      <c r="D52" s="48">
+      <c r="D52" s="45">
         <f>AVERAGE(D42:D51)</f>
         <v>1.1935</v>
       </c>
       <c r="F52" s="1">
         <v>74.09</v>
       </c>
-      <c r="G52" s="49">
+      <c r="G52" s="46">
         <f>D52/F52</f>
         <v>0.0161087866108787</v>
       </c>
@@ -7530,22 +7521,22 @@
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="48" t="s">
+      <c r="A63" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="B63" s="48"/>
-      <c r="C63" s="48">
+      <c r="B63" s="45"/>
+      <c r="C63" s="45">
         <f>AVERAGE(C53:C62)</f>
         <v>3.386</v>
       </c>
-      <c r="D63" s="48">
+      <c r="D63" s="45">
         <f>AVERAGE(D53:D62)</f>
         <v>0.554</v>
       </c>
       <c r="F63" s="1">
         <v>52.18</v>
       </c>
-      <c r="G63" s="49">
+      <c r="G63" s="46">
         <f>D63/F63</f>
         <v>0.0106170946722882</v>
       </c>
@@ -7691,22 +7682,22 @@
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="48" t="s">
+      <c r="A74" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="B74" s="48"/>
-      <c r="C74" s="48">
+      <c r="B74" s="45"/>
+      <c r="C74" s="45">
         <f>AVERAGE(C64:C73)</f>
         <v>5.209</v>
       </c>
-      <c r="D74" s="48">
+      <c r="D74" s="45">
         <f>AVERAGE(D64:D73)</f>
         <v>0.873</v>
       </c>
       <c r="F74" s="1">
         <v>40.39</v>
       </c>
-      <c r="G74" s="49">
+      <c r="G74" s="46">
         <f>D74/F74</f>
         <v>0.0216142609556821</v>
       </c>
@@ -7720,14 +7711,14 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:CB10"/>
+  <dimension ref="A1:CB11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BJ3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="BQ3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BP6" sqref="BP6"/>
+      <selection pane="bottomRight" activeCell="BU4" sqref="BU4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88461538461539" defaultRowHeight="16.8"/>
@@ -7762,7 +7753,7 @@
     <col min="54" max="54" width="25.4423076923077" style="3" customWidth="1"/>
     <col min="55" max="57" width="27.6634615384615" style="8" customWidth="1"/>
     <col min="58" max="58" width="11.8846153846154" style="9" customWidth="1"/>
-    <col min="59" max="59" width="20.9230769230769" style="7"/>
+    <col min="59" max="59" width="22.0769230769231" style="7"/>
     <col min="60" max="62" width="22.0769230769231" style="7" customWidth="1"/>
     <col min="63" max="63" width="20.9230769230769" style="7" customWidth="1"/>
     <col min="64" max="64" width="18.6634615384615" customWidth="1"/>
@@ -7808,14 +7799,14 @@
       <c r="J1" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
       <c r="Q1" s="16"/>
       <c r="R1" s="16"/>
       <c r="S1" s="16"/>
@@ -7838,32 +7829,32 @@
       <c r="AF1" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="AG1" s="21" t="s">
+      <c r="AG1" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="AH1" s="22" t="s">
+      <c r="AH1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="AI1" s="22"/>
+      <c r="AI1" s="21"/>
       <c r="AJ1" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="AK1" s="25" t="s">
+      <c r="AK1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="AL1" s="25" t="s">
+      <c r="AL1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="AM1" s="26" t="s">
+      <c r="AM1" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="AN1" s="25" t="s">
+      <c r="AN1" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="AO1" s="31" t="s">
+      <c r="AO1" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="AP1" s="31"/>
+      <c r="AP1" s="30"/>
       <c r="AQ1" s="11"/>
       <c r="AR1" s="11" t="s">
         <v>112</v>
@@ -7901,43 +7892,43 @@
       <c r="BC1" s="16"/>
       <c r="BD1" s="16"/>
       <c r="BE1" s="16"/>
-      <c r="BF1" s="36"/>
-      <c r="BG1" s="17" t="s">
+      <c r="BF1" s="34"/>
+      <c r="BG1" s="15" t="s">
         <v>122</v>
       </c>
       <c r="BH1" s="16"/>
       <c r="BI1" s="16"/>
       <c r="BJ1" s="16"/>
       <c r="BK1" s="16"/>
-      <c r="BL1" s="38" t="s">
+      <c r="BL1" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="BM1" s="17" t="s">
+      <c r="BM1" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="BN1" s="17"/>
-      <c r="BO1" s="17"/>
-      <c r="BP1" s="17"/>
-      <c r="BQ1" s="17"/>
-      <c r="BR1" s="17" t="s">
+      <c r="BN1" s="15"/>
+      <c r="BO1" s="15"/>
+      <c r="BP1" s="15"/>
+      <c r="BQ1" s="15"/>
+      <c r="BR1" s="15" t="s">
         <v>125</v>
       </c>
       <c r="BS1" s="16"/>
       <c r="BT1" s="16"/>
       <c r="BU1" s="16"/>
       <c r="BV1" s="16"/>
-      <c r="BW1" s="39" t="s">
+      <c r="BW1" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="BX1" s="40" t="s">
+      <c r="BX1" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="BY1" s="40"/>
-      <c r="BZ1" s="40"/>
-      <c r="CA1" s="40"/>
-      <c r="CB1" s="40"/>
-    </row>
-    <row r="2" ht="118" spans="1:80">
+      <c r="BY1" s="37"/>
+      <c r="BZ1" s="37"/>
+      <c r="CA1" s="37"/>
+      <c r="CB1" s="37"/>
+    </row>
+    <row r="2" ht="68" spans="1:80">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -7951,19 +7942,19 @@
       <c r="K2" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="M2" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="N2" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="O2" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="P2" s="17" t="s">
         <v>133</v>
       </c>
       <c r="Q2" s="14" t="s">
@@ -7978,50 +7969,50 @@
       <c r="T2" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="U2" s="19" t="s">
+      <c r="U2" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="V2" s="20" t="s">
+      <c r="V2" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="W2" s="20" t="s">
+      <c r="W2" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="X2" s="20" t="s">
+      <c r="X2" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="Y2" s="20" t="s">
+      <c r="Y2" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="Z2" s="20" t="s">
+      <c r="Z2" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="AA2" s="19" t="s">
+      <c r="AA2" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="AB2" s="19" t="s">
+      <c r="AB2" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="AC2" s="19" t="s">
+      <c r="AC2" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="AD2" s="19" t="s">
+      <c r="AD2" s="18" t="s">
         <v>137</v>
       </c>
       <c r="AE2" s="16"/>
       <c r="AF2" s="16"/>
       <c r="AG2" s="16"/>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="22"/>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="21"/>
       <c r="AJ2" s="11"/>
-      <c r="AK2" s="25"/>
-      <c r="AL2" s="25"/>
-      <c r="AM2" s="27"/>
-      <c r="AN2" s="25"/>
-      <c r="AO2" s="31" t="s">
+      <c r="AK2" s="24"/>
+      <c r="AL2" s="24"/>
+      <c r="AM2" s="25"/>
+      <c r="AN2" s="24"/>
+      <c r="AO2" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="AP2" s="31" t="s">
+      <c r="AP2" s="30" t="s">
         <v>139</v>
       </c>
       <c r="AQ2" s="11" t="s">
@@ -8043,13 +8034,13 @@
       <c r="BC2" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="BD2" s="21" t="s">
+      <c r="BD2" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="BE2" s="21" t="s">
+      <c r="BE2" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="BF2" s="36" t="s">
+      <c r="BF2" s="34" t="s">
         <v>145</v>
       </c>
       <c r="BG2" s="16" t="s">
@@ -8058,26 +8049,26 @@
       <c r="BH2" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="BI2" s="21" t="s">
+      <c r="BI2" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="BJ2" s="21" t="s">
+      <c r="BJ2" s="20" t="s">
         <v>144</v>
       </c>
       <c r="BK2" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="BL2" s="38"/>
+      <c r="BL2" s="35"/>
       <c r="BM2" s="16" t="s">
         <v>141</v>
       </c>
       <c r="BN2" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="BO2" s="21" t="s">
+      <c r="BO2" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="BP2" s="21" t="s">
+      <c r="BP2" s="20" t="s">
         <v>144</v>
       </c>
       <c r="BQ2" s="16" t="s">
@@ -8089,1388 +8080,1456 @@
       <c r="BS2" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="BT2" s="21" t="s">
+      <c r="BT2" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="BU2" s="21" t="s">
+      <c r="BU2" s="20" t="s">
         <v>144</v>
       </c>
       <c r="BV2" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="BW2" s="39"/>
-      <c r="BX2" s="41" t="s">
+      <c r="BW2" s="36"/>
+      <c r="BX2" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="BY2" s="41" t="s">
+      <c r="BY2" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="BZ2" s="45" t="s">
+      <c r="BZ2" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="CA2" s="45" t="s">
+      <c r="CA2" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="CB2" s="41" t="s">
+      <c r="CB2" s="38" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:80">
-      <c r="A3" s="12">
-        <v>2021</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="13">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12">
         <v>33337724549.58</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="12">
         <v>23499848566.38</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="12">
         <v>98331095.55</v>
       </c>
-      <c r="F3" s="15">
-        <v>4582073.3</v>
-      </c>
-      <c r="G3" s="15">
-        <v>4082874.6</v>
-      </c>
-      <c r="H3" s="15">
-        <v>5456405.46</v>
-      </c>
-      <c r="I3" s="15">
-        <v>7145253.84</v>
-      </c>
-      <c r="J3" s="15">
-        <f>F3+G3+H3+I3</f>
-        <v>21266607.2</v>
-      </c>
-      <c r="K3" s="15">
-        <v>92600000</v>
-      </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15">
-        <v>1239133371.41</v>
-      </c>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13">
-        <v>104600000</v>
-      </c>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13">
-        <v>972021493.04</v>
-      </c>
-      <c r="Z3" s="13">
-        <v>21395441.72</v>
-      </c>
-      <c r="AA3" s="12"/>
-      <c r="AB3" s="12"/>
-      <c r="AC3" s="12"/>
-      <c r="AD3" s="13">
-        <v>54070173.8</v>
-      </c>
-      <c r="AE3" s="13">
-        <f>SUM(K3:T3)</f>
-        <v>1331733371.41</v>
-      </c>
-      <c r="AF3" s="13">
-        <f>SUM(U3:AD3)</f>
-        <v>1152087108.56</v>
-      </c>
-      <c r="AG3" s="15">
-        <f>(AE3+AF3)/2</f>
-        <v>1241910239.985</v>
-      </c>
-      <c r="AH3" s="23">
-        <f>F3/AG3</f>
-        <v>0.00368953661261006</v>
-      </c>
-      <c r="AI3" s="23">
-        <f>J3/AG3</f>
-        <v>0.0171241097104223</v>
-      </c>
-      <c r="AJ3" s="24">
-        <v>0.25</v>
-      </c>
-      <c r="AK3" s="24">
-        <f>(C3-D3)/C3</f>
-        <v>0.295097404400503</v>
-      </c>
-      <c r="AL3" s="24">
-        <f>D3/C3</f>
-        <v>0.704902595599497</v>
-      </c>
-      <c r="AM3" s="28">
-        <v>4174523194.45556</v>
-      </c>
-      <c r="AN3" s="24">
-        <f>AI3*(1-AJ3)*AK3+0.08*AL3</f>
-        <v>0.0601821678941211</v>
-      </c>
-      <c r="AO3" s="24">
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="16"/>
+      <c r="AF3" s="16"/>
+      <c r="AG3" s="16"/>
+      <c r="AH3" s="21"/>
+      <c r="AI3" s="21"/>
+      <c r="AJ3" s="11"/>
+      <c r="AK3" s="24"/>
+      <c r="AL3" s="24"/>
+      <c r="AM3" s="26">
+        <v>5000000000</v>
+      </c>
+      <c r="AN3" s="27">
+        <v>0.0602</v>
+      </c>
+      <c r="AO3" s="23">
         <v>0.04</v>
       </c>
-      <c r="AP3" s="24">
+      <c r="AP3" s="23">
         <v>0.15</v>
       </c>
-      <c r="AQ3" s="32"/>
-      <c r="AR3" s="33">
+      <c r="AQ3" s="11"/>
+      <c r="AR3" s="31">
         <v>19813767427.18</v>
       </c>
-      <c r="AS3" s="33"/>
-      <c r="AT3" s="33"/>
-      <c r="AU3" s="33">
+      <c r="AS3" s="11"/>
+      <c r="AT3" s="11"/>
+      <c r="AU3" s="31">
         <v>5377818664.42</v>
       </c>
-      <c r="AV3" s="33">
+      <c r="AV3" s="31">
         <v>16216013.8</v>
       </c>
-      <c r="AW3" s="33"/>
-      <c r="AX3" s="33"/>
-      <c r="AY3" s="33">
+      <c r="AW3" s="11"/>
+      <c r="AX3" s="11"/>
+      <c r="AY3" s="31">
         <v>4496708</v>
       </c>
-      <c r="AZ3" s="34">
+      <c r="AZ3" s="33">
         <f>SUM(AR3:AY3)</f>
         <v>25212298813.4</v>
       </c>
-      <c r="BA3" s="32">
-        <v>0</v>
-      </c>
+      <c r="BA3" s="11"/>
       <c r="BB3" s="15">
         <f>AM3/AN3</f>
-        <v>69364785957.8575</v>
-      </c>
-      <c r="BC3" s="35">
+        <v>83056478405.3156</v>
+      </c>
+      <c r="BC3" s="16">
         <f>AM3*(1+AO3)/(AN3-AO3)</f>
-        <v>215115846078.083</v>
-      </c>
-      <c r="BD3" s="35">
+        <v>257425742574.257</v>
+      </c>
+      <c r="BD3" s="16">
         <f>AM3*(1+AP3)/(1+AN3)+AM3*(1+AP3)^2/(1+AN3)^2+AM3*(1+AP3)^3/(1+AN3)^3+AM3*(1+AP3)^3*(1+AO3)/(1+AN3)^4/(AN3-AO3)</f>
-        <v>273734643048.847</v>
-      </c>
-      <c r="BE3" s="35">
+        <v>327568087513.837</v>
+      </c>
+      <c r="BE3" s="16">
         <f>AM3*(1+AP3)/(1+AN3)+AM3*(1+AP3)^2/(1+AN3)^2+AM3*(1+AP3)^3/(1+AN3)^3+AM3*(1+AP3)^4/(1+AN3)^4+AM3*(1+AP3)^5/(1+AN3)^5+AM3*(1+AP3)^5*(1+AO3)/(1+AN3)^6/(AN3-AO3)</f>
-        <v>331520512449.727</v>
-      </c>
-      <c r="BF3" s="37"/>
-      <c r="BG3" s="34">
+        <v>396715221266.13</v>
+      </c>
+      <c r="BF3" s="34"/>
+      <c r="BG3" s="33">
         <f>$AZ3+$BA3+BB3</f>
-        <v>94577084771.2575</v>
-      </c>
-      <c r="BH3" s="34">
+        <v>108268777218.716</v>
+      </c>
+      <c r="BH3" s="33">
         <f>$AZ3+$BA3+BC3</f>
-        <v>240328144891.483</v>
-      </c>
-      <c r="BI3" s="34">
+        <v>282638041387.657</v>
+      </c>
+      <c r="BI3" s="33">
         <f>$AZ3+$BA3+BD3</f>
-        <v>298946941862.247</v>
-      </c>
-      <c r="BJ3" s="34">
+        <v>352780386327.237</v>
+      </c>
+      <c r="BJ3" s="33">
         <f>$AZ3+$BA3+BE3</f>
-        <v>356732811263.127</v>
-      </c>
-      <c r="BK3" s="34">
+        <v>421927520079.53</v>
+      </c>
+      <c r="BK3" s="33">
         <f>$AZ3+$BA3+BF3</f>
         <v>25212298813.4</v>
       </c>
-      <c r="BL3" s="33">
+      <c r="BL3" s="31">
         <f>C3-D3</f>
         <v>9837875983.2</v>
       </c>
-      <c r="BM3" s="34">
+      <c r="BM3" s="33">
         <f>BG3-$BL3</f>
-        <v>84739208788.0575</v>
-      </c>
-      <c r="BN3" s="34">
+        <v>98430901235.5156</v>
+      </c>
+      <c r="BN3" s="33">
         <f>BH3-$BL3</f>
-        <v>230490268908.283</v>
-      </c>
-      <c r="BO3" s="34">
+        <v>272800165404.457</v>
+      </c>
+      <c r="BO3" s="33">
         <f>BI3-$BL3</f>
-        <v>289109065879.047</v>
-      </c>
-      <c r="BP3" s="34">
+        <v>342942510344.037</v>
+      </c>
+      <c r="BP3" s="33">
         <f>BJ3-$BL3</f>
-        <v>346894935279.927</v>
-      </c>
-      <c r="BQ3" s="34">
+        <v>412089644096.33</v>
+      </c>
+      <c r="BQ3" s="33">
         <f>BK3-$BL3</f>
         <v>15374422830.2</v>
       </c>
-      <c r="BR3" s="34">
+      <c r="BR3" s="33">
         <f>BM3*(1-$E3/$D3)</f>
-        <v>84384632067.5892</v>
-      </c>
-      <c r="BS3" s="34">
+        <v>98019033970.6214</v>
+      </c>
+      <c r="BS3" s="33">
         <f>BN3*(1-$E3/$D3)</f>
-        <v>229525821814.45</v>
-      </c>
-      <c r="BT3" s="34">
+        <v>271658679787.873</v>
+      </c>
+      <c r="BT3" s="33">
         <f>BO3*(1-$E3/$D3)</f>
-        <v>287899338458.846</v>
-      </c>
-      <c r="BU3" s="34">
+        <v>341507526086.264</v>
+      </c>
+      <c r="BU3" s="33">
         <f>BP3*(1-$E3/$D3)</f>
-        <v>345443412776.262</v>
-      </c>
-      <c r="BV3" s="34">
+        <v>410365325488.304</v>
+      </c>
+      <c r="BV3" s="33">
         <f>BQ3*(1-$E3/$D3)</f>
         <v>15310091188.3993</v>
       </c>
-      <c r="BW3" s="42">
-        <v>4212576170</v>
-      </c>
-      <c r="BX3" s="43">
+      <c r="BW3" s="39">
+        <v>4212576169</v>
+      </c>
+      <c r="BX3" s="40">
         <f>BR3/$BW3</f>
-        <v>20.0315979254066</v>
-      </c>
-      <c r="BY3" s="43">
+        <v>23.2681926778999</v>
+      </c>
+      <c r="BY3" s="40">
         <f>BS3/$BW3</f>
-        <v>54.4858567659916</v>
-      </c>
-      <c r="BZ3" s="43">
+        <v>64.4875413261335</v>
+      </c>
+      <c r="BZ3" s="40">
         <f>BT3/$BW3</f>
-        <v>68.3428208394499</v>
-      </c>
-      <c r="CA3" s="43">
+        <v>81.0685700117163</v>
+      </c>
+      <c r="CA3" s="40">
         <f>BU3/$BW3</f>
-        <v>82.0028882175113</v>
-      </c>
-      <c r="CB3" s="43">
+        <v>97.4143395929902</v>
+      </c>
+      <c r="CB3" s="40">
         <f>BV3/$BW3</f>
-        <v>3.63437729563934</v>
+        <v>3.63437729650208</v>
       </c>
     </row>
     <row r="4" spans="1:80">
-      <c r="A4" s="12">
+      <c r="A4" s="13">
         <v>2021</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
+      <c r="C4" s="12">
+        <v>33337724549.58</v>
+      </c>
+      <c r="D4" s="12">
+        <v>23499848566.38</v>
+      </c>
+      <c r="E4" s="12">
+        <v>98331095.55</v>
+      </c>
+      <c r="F4" s="15">
+        <v>4582073.3</v>
+      </c>
+      <c r="G4" s="15">
+        <v>4082874.6</v>
+      </c>
+      <c r="H4" s="15">
+        <v>5456405.46</v>
+      </c>
+      <c r="I4" s="15">
+        <v>7145253.84</v>
+      </c>
+      <c r="J4" s="15">
+        <f>F4+G4+H4+I4</f>
+        <v>21266607.2</v>
+      </c>
+      <c r="K4" s="15">
+        <v>92600000</v>
+      </c>
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
       <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
+      <c r="O4" s="15">
+        <v>1239133371.41</v>
+      </c>
       <c r="P4" s="15"/>
       <c r="Q4" s="15"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12">
+        <v>104600000</v>
+      </c>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12">
+        <v>972021493.04</v>
+      </c>
+      <c r="Z4" s="12">
+        <v>21395441.72</v>
+      </c>
       <c r="AA4" s="13"/>
       <c r="AB4" s="13"/>
       <c r="AC4" s="13"/>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="13"/>
-      <c r="AF4" s="13"/>
-      <c r="AG4" s="15"/>
-      <c r="AH4" s="23"/>
-      <c r="AI4" s="23"/>
-      <c r="AJ4" s="24"/>
-      <c r="AK4" s="24"/>
-      <c r="AL4" s="24"/>
-      <c r="AM4" s="29"/>
-      <c r="AN4" s="24"/>
-      <c r="AO4" s="24"/>
-      <c r="AP4" s="24"/>
+      <c r="AD4" s="12">
+        <v>54070173.8</v>
+      </c>
+      <c r="AE4" s="12">
+        <f>SUM(K4:T4)</f>
+        <v>1331733371.41</v>
+      </c>
+      <c r="AF4" s="12">
+        <f>SUM(U4:AD4)</f>
+        <v>1152087108.56</v>
+      </c>
+      <c r="AG4" s="15">
+        <f>(AE4+AF4)/2</f>
+        <v>1241910239.985</v>
+      </c>
+      <c r="AH4" s="22">
+        <f>F4/AG4</f>
+        <v>0.00368953661261006</v>
+      </c>
+      <c r="AI4" s="22">
+        <f>J4/AG4</f>
+        <v>0.0171241097104223</v>
+      </c>
+      <c r="AJ4" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="AK4" s="23">
+        <f>(C4-D4)/C4</f>
+        <v>0.295097404400503</v>
+      </c>
+      <c r="AL4" s="23">
+        <f>D4/C4</f>
+        <v>0.704902595599497</v>
+      </c>
+      <c r="AM4" s="26">
+        <v>4174523194.45556</v>
+      </c>
+      <c r="AN4" s="23">
+        <f>AI4*(1-AJ4)*AK4+0.08*AL4</f>
+        <v>0.0601821678941211</v>
+      </c>
+      <c r="AO4" s="23">
+        <v>0.04</v>
+      </c>
+      <c r="AP4" s="23">
+        <v>0.15</v>
+      </c>
       <c r="AQ4" s="32"/>
-      <c r="AR4" s="33"/>
-      <c r="AS4" s="32"/>
-      <c r="AT4" s="32"/>
-      <c r="AU4" s="33"/>
-      <c r="AV4" s="33"/>
-      <c r="AW4" s="33"/>
-      <c r="AX4" s="32"/>
-      <c r="AY4" s="32"/>
-      <c r="AZ4" s="34"/>
-      <c r="BA4" s="33"/>
-      <c r="BB4" s="15"/>
-      <c r="BC4" s="35"/>
-      <c r="BD4" s="35"/>
-      <c r="BE4" s="35"/>
-      <c r="BF4" s="37"/>
-      <c r="BG4" s="34"/>
-      <c r="BH4" s="34"/>
-      <c r="BI4" s="34"/>
-      <c r="BJ4" s="34"/>
-      <c r="BK4" s="34"/>
-      <c r="BL4" s="33"/>
-      <c r="BM4" s="34"/>
-      <c r="BN4" s="34"/>
-      <c r="BO4" s="34"/>
-      <c r="BP4" s="34"/>
-      <c r="BQ4" s="34"/>
-      <c r="BR4" s="34"/>
-      <c r="BS4" s="34"/>
-      <c r="BT4" s="34"/>
-      <c r="BU4" s="34"/>
-      <c r="BV4" s="34"/>
-      <c r="BW4" s="44"/>
-      <c r="BX4" s="43"/>
-      <c r="BY4" s="43"/>
-      <c r="BZ4" s="43"/>
-      <c r="CA4" s="43"/>
-      <c r="CB4" s="43"/>
+      <c r="AR4" s="31">
+        <v>19813767427.18</v>
+      </c>
+      <c r="AS4" s="31"/>
+      <c r="AT4" s="31"/>
+      <c r="AU4" s="31">
+        <v>5377818664.42</v>
+      </c>
+      <c r="AV4" s="31">
+        <v>16216013.8</v>
+      </c>
+      <c r="AW4" s="31"/>
+      <c r="AX4" s="31"/>
+      <c r="AY4" s="31">
+        <v>4496708</v>
+      </c>
+      <c r="AZ4" s="33">
+        <f>SUM(AR4:AY4)</f>
+        <v>25212298813.4</v>
+      </c>
+      <c r="BA4" s="32">
+        <v>0</v>
+      </c>
+      <c r="BB4" s="15">
+        <f>AM4/AN4</f>
+        <v>69364785957.8577</v>
+      </c>
+      <c r="BC4" s="16">
+        <f>AM4*(1+AO4)/(AN4-AO4)</f>
+        <v>215115846078.083</v>
+      </c>
+      <c r="BD4" s="16">
+        <f>AM4*(1+AP4)/(1+AN4)+AM4*(1+AP4)^2/(1+AN4)^2+AM4*(1+AP4)^3/(1+AN4)^3+AM4*(1+AP4)^3*(1+AO4)/(1+AN4)^4/(AN4-AO4)</f>
+        <v>273734643048.848</v>
+      </c>
+      <c r="BE4" s="16">
+        <f>AM4*(1+AP4)/(1+AN4)+AM4*(1+AP4)^2/(1+AN4)^2+AM4*(1+AP4)^3/(1+AN4)^3+AM4*(1+AP4)^4/(1+AN4)^4+AM4*(1+AP4)^5/(1+AN4)^5+AM4*(1+AP4)^5*(1+AO4)/(1+AN4)^6/(AN4-AO4)</f>
+        <v>331520512449.728</v>
+      </c>
+      <c r="BF4" s="34"/>
+      <c r="BG4" s="33">
+        <f>$AZ4+$BA4+BB4</f>
+        <v>94577084771.2577</v>
+      </c>
+      <c r="BH4" s="33">
+        <f>$AZ4+$BA4+BC4</f>
+        <v>240328144891.483</v>
+      </c>
+      <c r="BI4" s="33">
+        <f>$AZ4+$BA4+BD4</f>
+        <v>298946941862.248</v>
+      </c>
+      <c r="BJ4" s="33">
+        <f>$AZ4+$BA4+BE4</f>
+        <v>356732811263.128</v>
+      </c>
+      <c r="BK4" s="33">
+        <f>$AZ4+$BA4+BF4</f>
+        <v>25212298813.4</v>
+      </c>
+      <c r="BL4" s="31">
+        <f>C4-D4</f>
+        <v>9837875983.2</v>
+      </c>
+      <c r="BM4" s="33">
+        <f>BG4-$BL4</f>
+        <v>84739208788.0577</v>
+      </c>
+      <c r="BN4" s="33">
+        <f>BH4-$BL4</f>
+        <v>230490268908.283</v>
+      </c>
+      <c r="BO4" s="33">
+        <f>BI4-$BL4</f>
+        <v>289109065879.048</v>
+      </c>
+      <c r="BP4" s="33">
+        <f>BJ4-$BL4</f>
+        <v>346894935279.928</v>
+      </c>
+      <c r="BQ4" s="33">
+        <f>BK4-$BL4</f>
+        <v>15374422830.2</v>
+      </c>
+      <c r="BR4" s="33">
+        <f>BM4*(1-$E4/$D4)</f>
+        <v>84384632067.5893</v>
+      </c>
+      <c r="BS4" s="33">
+        <f>BN4*(1-$E4/$D4)</f>
+        <v>229525821814.45</v>
+      </c>
+      <c r="BT4" s="33">
+        <f>BO4*(1-$E4/$D4)</f>
+        <v>287899338458.847</v>
+      </c>
+      <c r="BU4" s="33">
+        <f>BP4*(1-$E4/$D4)</f>
+        <v>345443412776.263</v>
+      </c>
+      <c r="BV4" s="33">
+        <f>BQ4*(1-$E4/$D4)</f>
+        <v>15310091188.3993</v>
+      </c>
+      <c r="BW4" s="39">
+        <v>4212576170</v>
+      </c>
+      <c r="BX4" s="40">
+        <f>BR4/$BW4</f>
+        <v>20.0315979254066</v>
+      </c>
+      <c r="BY4" s="40">
+        <f>BS4/$BW4</f>
+        <v>54.4858567659918</v>
+      </c>
+      <c r="BZ4" s="40">
+        <f>BT4/$BW4</f>
+        <v>68.3428208394501</v>
+      </c>
+      <c r="CA4" s="40">
+        <f>BU4/$BW4</f>
+        <v>82.0028882175115</v>
+      </c>
+      <c r="CB4" s="40">
+        <f>BV4/$BW4</f>
+        <v>3.63437729563934</v>
+      </c>
     </row>
     <row r="5" spans="1:80">
-      <c r="A5" s="12">
+      <c r="A5" s="13">
         <v>2021</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="13">
-        <v>13899456422.16</v>
-      </c>
-      <c r="D5" s="13">
-        <v>7658307846.92</v>
-      </c>
-      <c r="E5" s="13">
-        <v>35668094.06</v>
-      </c>
-      <c r="F5" s="15">
-        <v>77737.82</v>
-      </c>
-      <c r="G5" s="15">
-        <v>9999166.62</v>
-      </c>
-      <c r="H5" s="15">
-        <v>9569135.05</v>
-      </c>
-      <c r="I5" s="15">
-        <v>6209153.06</v>
-      </c>
-      <c r="J5" s="15">
-        <f>F5+G5+H5+I5</f>
-        <v>25855192.55</v>
-      </c>
+      <c r="B5" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
       <c r="N5" s="15"/>
-      <c r="O5" s="15">
-        <v>94521442.67</v>
-      </c>
+      <c r="O5" s="15"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="15"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13">
-        <v>157420210.81</v>
-      </c>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13">
-        <v>110605272.21</v>
-      </c>
-      <c r="Z5" s="13">
-        <v>29191343.78</v>
-      </c>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="13"/>
-      <c r="AD5" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="13">
-        <f t="shared" ref="AE5:AE10" si="0">SUM(K5:T5)</f>
-        <v>251941653.48</v>
-      </c>
-      <c r="AF5" s="13">
-        <f t="shared" ref="AF5:AF10" si="1">SUM(U5:AD5)</f>
-        <v>139796615.99</v>
-      </c>
-      <c r="AG5" s="15">
-        <f t="shared" ref="AG5:AG10" si="2">(AE5+AF5)/2</f>
-        <v>195869134.735</v>
-      </c>
-      <c r="AH5" s="23">
-        <f t="shared" ref="AH5:AH10" si="3">F5/AG5</f>
-        <v>0.000396886523776066</v>
-      </c>
-      <c r="AI5" s="23">
-        <f t="shared" ref="AI5:AI10" si="4">J5/AG5</f>
-        <v>0.132002383045091</v>
-      </c>
-      <c r="AJ5" s="24">
-        <v>0.25</v>
-      </c>
-      <c r="AK5" s="24">
-        <f t="shared" ref="AK5:AK10" si="5">(C5-D5)/C5</f>
-        <v>0.449021054182356</v>
-      </c>
-      <c r="AL5" s="24">
-        <f t="shared" ref="AL5:AL10" si="6">D5/C5</f>
-        <v>0.550978945817644</v>
-      </c>
-      <c r="AM5" s="28">
-        <v>1312404990.24778</v>
-      </c>
-      <c r="AN5" s="24">
-        <f t="shared" ref="AN5:AN10" si="7">AI5*(1-AJ5)*AK5+0.08*AL5</f>
-        <v>0.0885322025575289</v>
-      </c>
-      <c r="AO5" s="24">
-        <v>0.04</v>
-      </c>
-      <c r="AP5" s="24">
-        <v>0.15</v>
-      </c>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="15"/>
+      <c r="AH5" s="22"/>
+      <c r="AI5" s="22"/>
+      <c r="AJ5" s="23"/>
+      <c r="AK5" s="23"/>
+      <c r="AL5" s="23"/>
+      <c r="AM5" s="28"/>
+      <c r="AN5" s="23"/>
+      <c r="AO5" s="23"/>
+      <c r="AP5" s="23"/>
       <c r="AQ5" s="32"/>
-      <c r="AR5" s="33">
-        <v>2654052417.47</v>
-      </c>
+      <c r="AR5" s="31"/>
       <c r="AS5" s="32"/>
       <c r="AT5" s="32"/>
-      <c r="AU5" s="33">
-        <v>180312742.31</v>
-      </c>
-      <c r="AV5" s="33">
-        <v>12159756.67</v>
-      </c>
-      <c r="AW5" s="33"/>
+      <c r="AU5" s="31"/>
+      <c r="AV5" s="31"/>
+      <c r="AW5" s="31"/>
       <c r="AX5" s="32"/>
       <c r="AY5" s="32"/>
-      <c r="AZ5" s="34">
-        <f>SUM(AR5:AY5)</f>
-        <v>2846524916.45</v>
-      </c>
-      <c r="BA5" s="33">
-        <f>298191205.49+65600611.64</f>
-        <v>363791817.13</v>
-      </c>
-      <c r="BB5" s="15">
-        <f>AM5/AN5</f>
-        <v>14824040883.8238</v>
-      </c>
-      <c r="BC5" s="35">
-        <f>AM5*(1+AO5)/(AN5-AO5)</f>
-        <v>28123619327.5953</v>
-      </c>
-      <c r="BD5" s="35">
-        <f>AM5*(1+AP5)/(1+AN5)+AM5*(1+AP5)^2/(1+AN5)^2+AM5*(1+AP5)^3/(1+AN5)^3+AM5*(1+AP5)^3*(1+AO5)/(1+AN5)^4/(AN5-AO5)</f>
-        <v>34863737484.9391</v>
-      </c>
-      <c r="BE5" s="35">
-        <f>AM5*(1+AP5)/(1+AN5)+AM5*(1+AP5)^2/(1+AN5)^2+AM5*(1+AP5)^3/(1+AN5)^3+AM5*(1+AP5)^4/(1+AN5)^4+AM5*(1+AP5)^5/(1+AN5)^5+AM5*(1+AP5)^5*(1+AO5)/(1+AN5)^6/(AN5-AO5)</f>
-        <v>41763637764.36</v>
-      </c>
-      <c r="BF5" s="37"/>
-      <c r="BG5" s="34">
-        <f>$AZ5+$BA5+BB5</f>
-        <v>18034357617.4038</v>
-      </c>
-      <c r="BH5" s="34">
-        <f>$AZ5+$BA5+BC5</f>
-        <v>31333936061.1753</v>
-      </c>
-      <c r="BI5" s="34">
-        <f>$AZ5+$BA5+BD5</f>
-        <v>38074054218.5191</v>
-      </c>
-      <c r="BJ5" s="34">
-        <f>$AZ5+$BA5+BE5</f>
-        <v>44973954497.94</v>
-      </c>
-      <c r="BK5" s="34">
-        <f>$AZ5+$BA5+BF5</f>
-        <v>3210316733.58</v>
-      </c>
-      <c r="BL5" s="33">
-        <f>C5-D5</f>
-        <v>6241148575.24</v>
-      </c>
-      <c r="BM5" s="34">
-        <f>BG5-$BL5</f>
-        <v>11793209042.1638</v>
-      </c>
-      <c r="BN5" s="34">
-        <f>BH5-$BL5</f>
-        <v>25092787485.9353</v>
-      </c>
-      <c r="BO5" s="34">
-        <f>BI5-$BL5</f>
-        <v>31832905643.2791</v>
-      </c>
-      <c r="BP5" s="34">
-        <f>BJ5-$BL5</f>
-        <v>38732805922.7</v>
-      </c>
-      <c r="BQ5" s="34">
-        <f>BK5-$BL5</f>
-        <v>-3030831841.66</v>
-      </c>
-      <c r="BR5" s="34">
-        <f>BM5*(1-$E5/$D5)</f>
-        <v>11738282902.1087</v>
-      </c>
-      <c r="BS5" s="34">
-        <f>BN5*(1-$E5/$D5)</f>
-        <v>24975919383.7166</v>
-      </c>
-      <c r="BT5" s="34">
-        <f>BO5*(1-$E5/$D5)</f>
-        <v>31684645858.5612</v>
-      </c>
-      <c r="BU5" s="34">
-        <f>BP5*(1-$E5/$D5)</f>
-        <v>38552410280.1542</v>
-      </c>
-      <c r="BV5" s="34">
-        <f>BQ5*(1-$E5/$D5)</f>
-        <v>-3016715930.23815</v>
-      </c>
-      <c r="BW5" s="44">
-        <v>808678476</v>
-      </c>
-      <c r="BX5" s="43">
-        <f>BR5/$BW5</f>
-        <v>14.5153893054879</v>
-      </c>
-      <c r="BY5" s="43">
-        <f>BS5/$BW5</f>
-        <v>30.8848573629115</v>
-      </c>
-      <c r="BZ5" s="43">
-        <f>BT5/$BW5</f>
-        <v>39.1807706015428</v>
-      </c>
-      <c r="CA5" s="43">
-        <f>BU5/$BW5</f>
-        <v>47.673347843815</v>
-      </c>
-      <c r="CB5" s="43">
-        <f>BV5/$BW5</f>
-        <v>-3.7304268875312</v>
-      </c>
+      <c r="AZ5" s="33"/>
+      <c r="BA5" s="31"/>
+      <c r="BB5" s="15"/>
+      <c r="BC5" s="16"/>
+      <c r="BD5" s="16"/>
+      <c r="BE5" s="16"/>
+      <c r="BF5" s="34"/>
+      <c r="BG5" s="33"/>
+      <c r="BH5" s="33"/>
+      <c r="BI5" s="33"/>
+      <c r="BJ5" s="33"/>
+      <c r="BK5" s="33"/>
+      <c r="BL5" s="31"/>
+      <c r="BM5" s="33"/>
+      <c r="BN5" s="33"/>
+      <c r="BO5" s="33"/>
+      <c r="BP5" s="33"/>
+      <c r="BQ5" s="33"/>
+      <c r="BR5" s="33"/>
+      <c r="BS5" s="33"/>
+      <c r="BT5" s="33"/>
+      <c r="BU5" s="33"/>
+      <c r="BV5" s="33"/>
+      <c r="BW5" s="41"/>
+      <c r="BX5" s="40"/>
+      <c r="BY5" s="40"/>
+      <c r="BZ5" s="40"/>
+      <c r="CA5" s="40"/>
+      <c r="CB5" s="40"/>
     </row>
     <row r="6" spans="1:80">
-      <c r="A6" s="12">
+      <c r="A6" s="13">
         <v>2021</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
+      <c r="B6" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="12">
+        <v>13899456422.16</v>
+      </c>
+      <c r="D6" s="12">
+        <v>7658307846.92</v>
+      </c>
+      <c r="E6" s="12">
+        <v>35668094.06</v>
+      </c>
+      <c r="F6" s="15">
+        <v>77737.82</v>
+      </c>
+      <c r="G6" s="15">
+        <v>9999166.62</v>
+      </c>
+      <c r="H6" s="15">
+        <v>9569135.05</v>
+      </c>
+      <c r="I6" s="15">
+        <v>6209153.06</v>
+      </c>
+      <c r="J6" s="15">
+        <f>F6+G6+H6+I6</f>
+        <v>25855192.55</v>
+      </c>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
       <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
+      <c r="O6" s="15">
+        <v>94521442.67</v>
+      </c>
       <c r="P6" s="15"/>
       <c r="Q6" s="15"/>
       <c r="R6" s="12"/>
       <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
+      <c r="T6" s="12">
+        <v>157420210.81</v>
+      </c>
       <c r="U6" s="12"/>
       <c r="V6" s="12"/>
       <c r="W6" s="12"/>
       <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
+      <c r="Y6" s="12">
+        <v>110605272.21</v>
+      </c>
+      <c r="Z6" s="12">
+        <v>29191343.78</v>
+      </c>
       <c r="AA6" s="12"/>
       <c r="AB6" s="12"/>
       <c r="AC6" s="12"/>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="13">
-        <f t="shared" si="0"/>
+      <c r="AD6" s="12">
         <v>0</v>
       </c>
-      <c r="AF6" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="AE6" s="12">
+        <f t="shared" ref="AE6:AE11" si="0">SUM(K6:T6)</f>
+        <v>251941653.48</v>
+      </c>
+      <c r="AF6" s="12">
+        <f t="shared" ref="AF6:AF11" si="1">SUM(U6:AD6)</f>
+        <v>139796615.99</v>
       </c>
       <c r="AG6" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH6" s="23" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI6" s="23" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ6" s="24">
+        <f t="shared" ref="AG6:AG11" si="2">(AE6+AF6)/2</f>
+        <v>195869134.735</v>
+      </c>
+      <c r="AH6" s="22">
+        <f t="shared" ref="AH6:AH11" si="3">F6/AG6</f>
+        <v>0.000396886523776066</v>
+      </c>
+      <c r="AI6" s="22">
+        <f t="shared" ref="AI6:AI11" si="4">J6/AG6</f>
+        <v>0.132002383045091</v>
+      </c>
+      <c r="AJ6" s="23">
         <v>0.25</v>
       </c>
-      <c r="AK6" s="24" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL6" s="24" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM6" s="29"/>
-      <c r="AN6" s="24" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO6" s="24">
+      <c r="AK6" s="23">
+        <f t="shared" ref="AK6:AK11" si="5">(C6-D6)/C6</f>
+        <v>0.449021054182356</v>
+      </c>
+      <c r="AL6" s="23">
+        <f t="shared" ref="AL6:AL11" si="6">D6/C6</f>
+        <v>0.550978945817644</v>
+      </c>
+      <c r="AM6" s="26">
+        <v>1312404990.24778</v>
+      </c>
+      <c r="AN6" s="23">
+        <f t="shared" ref="AN6:AN11" si="7">AI6*(1-AJ6)*AK6+0.08*AL6</f>
+        <v>0.0885322025575289</v>
+      </c>
+      <c r="AO6" s="23">
         <v>0.04</v>
       </c>
-      <c r="AP6" s="24">
-        <v>0.16</v>
+      <c r="AP6" s="23">
+        <v>0.15</v>
       </c>
       <c r="AQ6" s="32"/>
-      <c r="AR6" s="32"/>
+      <c r="AR6" s="31">
+        <v>2654052417.47</v>
+      </c>
       <c r="AS6" s="32"/>
       <c r="AT6" s="32"/>
-      <c r="AU6" s="32"/>
-      <c r="AV6" s="32"/>
-      <c r="AW6" s="32"/>
+      <c r="AU6" s="31">
+        <v>180312742.31</v>
+      </c>
+      <c r="AV6" s="31">
+        <v>12159756.67</v>
+      </c>
+      <c r="AW6" s="31"/>
       <c r="AX6" s="32"/>
       <c r="AY6" s="32"/>
-      <c r="AZ6" s="34"/>
-      <c r="BA6" s="32"/>
-      <c r="BB6" s="15" t="e">
+      <c r="AZ6" s="33">
+        <f>SUM(AR6:AY6)</f>
+        <v>2846524916.45</v>
+      </c>
+      <c r="BA6" s="31">
+        <f>298191205.49+65600611.64</f>
+        <v>363791817.13</v>
+      </c>
+      <c r="BB6" s="15">
         <f>AM6/AN6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BC6" s="35" t="e">
+        <v>14824040883.8238</v>
+      </c>
+      <c r="BC6" s="16">
         <f>AM6*(1+AO6)/(AN6-AO6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BD6" s="35" t="e">
+        <v>28123619327.5953</v>
+      </c>
+      <c r="BD6" s="16">
         <f>AM6*(1+AP6)/(1+AN6)+AM6*(1+AP6)^2/(1+AN6)^2+AM6*(1+AP6)^3/(1+AN6)^3+AM6*(1+AP6)^3*(1+AO6)/(1+AN6)^4/(AN6-AO6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BE6" s="35" t="e">
+        <v>34863737484.9391</v>
+      </c>
+      <c r="BE6" s="16">
         <f>AM6*(1+AP6)/(1+AN6)+AM6*(1+AP6)^2/(1+AN6)^2+AM6*(1+AP6)^3/(1+AN6)^3+AM6*(1+AP6)^4/(1+AN6)^4+AM6*(1+AP6)^5/(1+AN6)^5+AM6*(1+AP6)^5*(1+AO6)/(1+AN6)^6/(AN6-AO6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BF6" s="37"/>
-      <c r="BG6" s="34" t="e">
+        <v>41763637764.36</v>
+      </c>
+      <c r="BF6" s="34"/>
+      <c r="BG6" s="33">
         <f>$AZ6+$BA6+BB6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BH6" s="34" t="e">
+        <v>18034357617.4038</v>
+      </c>
+      <c r="BH6" s="33">
         <f>$AZ6+$BA6+BC6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BI6" s="34" t="e">
+        <v>31333936061.1753</v>
+      </c>
+      <c r="BI6" s="33">
         <f>$AZ6+$BA6+BD6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BJ6" s="34" t="e">
+        <v>38074054218.5191</v>
+      </c>
+      <c r="BJ6" s="33">
         <f>$AZ6+$BA6+BE6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BK6" s="34">
+        <v>44973954497.94</v>
+      </c>
+      <c r="BK6" s="33">
         <f>$AZ6+$BA6+BF6</f>
-        <v>0</v>
-      </c>
-      <c r="BL6" s="33">
+        <v>3210316733.58</v>
+      </c>
+      <c r="BL6" s="31">
         <f>C6-D6</f>
-        <v>0</v>
-      </c>
-      <c r="BM6" s="34" t="e">
+        <v>6241148575.24</v>
+      </c>
+      <c r="BM6" s="33">
         <f>BG6-$BL6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BN6" s="34" t="e">
+        <v>11793209042.1638</v>
+      </c>
+      <c r="BN6" s="33">
         <f>BH6-$BL6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BO6" s="34" t="e">
+        <v>25092787485.9353</v>
+      </c>
+      <c r="BO6" s="33">
         <f>BI6-$BL6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BP6" s="34" t="e">
+        <v>31832905643.2791</v>
+      </c>
+      <c r="BP6" s="33">
         <f>BJ6-$BL6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BQ6" s="34">
+        <v>38732805922.7</v>
+      </c>
+      <c r="BQ6" s="33">
         <f>BK6-$BL6</f>
-        <v>0</v>
-      </c>
-      <c r="BR6" s="34" t="e">
+        <v>-3030831841.66</v>
+      </c>
+      <c r="BR6" s="33">
         <f>BM6*(1-$E6/$D6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BS6" s="34" t="e">
+        <v>11738282902.1087</v>
+      </c>
+      <c r="BS6" s="33">
         <f>BN6*(1-$E6/$D6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BT6" s="34" t="e">
+        <v>24975919383.7166</v>
+      </c>
+      <c r="BT6" s="33">
         <f>BO6*(1-$E6/$D6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BU6" s="34" t="e">
+        <v>31684645858.5612</v>
+      </c>
+      <c r="BU6" s="33">
         <f>BP6*(1-$E6/$D6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BV6" s="34" t="e">
+        <v>38552410280.1542</v>
+      </c>
+      <c r="BV6" s="33">
         <f>BQ6*(1-$E6/$D6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BW6" s="32"/>
-      <c r="BX6" s="43" t="e">
+        <v>-3016715930.23815</v>
+      </c>
+      <c r="BW6" s="41">
+        <v>808678476</v>
+      </c>
+      <c r="BX6" s="40">
         <f>BR6/$BW6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BY6" s="43" t="e">
+        <v>14.5153893054879</v>
+      </c>
+      <c r="BY6" s="40">
         <f>BS6/$BW6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BZ6" s="43" t="e">
+        <v>30.8848573629115</v>
+      </c>
+      <c r="BZ6" s="40">
         <f>BT6/$BW6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CA6" s="43" t="e">
+        <v>39.1807706015428</v>
+      </c>
+      <c r="CA6" s="40">
         <f>BU6/$BW6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CB6" s="43" t="e">
+        <v>47.673347843815</v>
+      </c>
+      <c r="CB6" s="40">
         <f>BV6/$BW6</f>
-        <v>#DIV/0!</v>
+        <v>-3.7304268875312</v>
       </c>
     </row>
     <row r="7" spans="1:80">
-      <c r="A7" s="12">
+      <c r="A7" s="13">
         <v>2021</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="13">
-        <v>6369307875.78</v>
-      </c>
-      <c r="D7" s="13">
-        <v>5117150498.28</v>
-      </c>
-      <c r="E7" s="13">
-        <v>80966017.91</v>
-      </c>
-      <c r="F7" s="15">
-        <v>8092057.32</v>
-      </c>
+      <c r="B7" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="15"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="15">
-        <v>2350868.48</v>
-      </c>
-      <c r="I7" s="15">
-        <v>1248588.78</v>
-      </c>
-      <c r="J7" s="15">
-        <f>F7+G7+H7+I7</f>
-        <v>11691514.58</v>
-      </c>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
       <c r="N7" s="15"/>
-      <c r="O7" s="15">
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="13"/>
+      <c r="AE7" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG7" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH7" s="22" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI7" s="22" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ7" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="AK7" s="23" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL7" s="23" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM7" s="28"/>
+      <c r="AN7" s="23" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO7" s="23">
+        <v>0.04</v>
+      </c>
+      <c r="AP7" s="23">
+        <v>0.16</v>
+      </c>
+      <c r="AQ7" s="32"/>
+      <c r="AR7" s="32"/>
+      <c r="AS7" s="32"/>
+      <c r="AT7" s="32"/>
+      <c r="AU7" s="32"/>
+      <c r="AV7" s="32"/>
+      <c r="AW7" s="32"/>
+      <c r="AX7" s="32"/>
+      <c r="AY7" s="32"/>
+      <c r="AZ7" s="33"/>
+      <c r="BA7" s="32"/>
+      <c r="BB7" s="15" t="e">
+        <f>AM7/AN7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC7" s="16" t="e">
+        <f>AM7*(1+AO7)/(AN7-AO7)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD7" s="16" t="e">
+        <f>AM7*(1+AP7)/(1+AN7)+AM7*(1+AP7)^2/(1+AN7)^2+AM7*(1+AP7)^3/(1+AN7)^3+AM7*(1+AP7)^3*(1+AO7)/(1+AN7)^4/(AN7-AO7)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE7" s="16" t="e">
+        <f>AM7*(1+AP7)/(1+AN7)+AM7*(1+AP7)^2/(1+AN7)^2+AM7*(1+AP7)^3/(1+AN7)^3+AM7*(1+AP7)^4/(1+AN7)^4+AM7*(1+AP7)^5/(1+AN7)^5+AM7*(1+AP7)^5*(1+AO7)/(1+AN7)^6/(AN7-AO7)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BF7" s="34"/>
+      <c r="BG7" s="33" t="e">
+        <f>$AZ7+$BA7+BB7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BH7" s="33" t="e">
+        <f>$AZ7+$BA7+BC7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BI7" s="33" t="e">
+        <f>$AZ7+$BA7+BD7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BJ7" s="33" t="e">
+        <f>$AZ7+$BA7+BE7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BK7" s="33">
+        <f>$AZ7+$BA7+BF7</f>
+        <v>0</v>
+      </c>
+      <c r="BL7" s="31">
+        <f>C7-D7</f>
+        <v>0</v>
+      </c>
+      <c r="BM7" s="33" t="e">
+        <f>BG7-$BL7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BN7" s="33" t="e">
+        <f>BH7-$BL7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BO7" s="33" t="e">
+        <f>BI7-$BL7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BP7" s="33" t="e">
+        <f>BJ7-$BL7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BQ7" s="33">
+        <f>BK7-$BL7</f>
+        <v>0</v>
+      </c>
+      <c r="BR7" s="33" t="e">
+        <f>BM7*(1-$E7/$D7)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BS7" s="33" t="e">
+        <f>BN7*(1-$E7/$D7)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BT7" s="33" t="e">
+        <f>BO7*(1-$E7/$D7)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BU7" s="33" t="e">
+        <f>BP7*(1-$E7/$D7)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BV7" s="33" t="e">
+        <f>BQ7*(1-$E7/$D7)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BW7" s="32"/>
+      <c r="BX7" s="40" t="e">
+        <f>BR7/$BW7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BY7" s="40" t="e">
+        <f>BS7/$BW7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BZ7" s="40" t="e">
+        <f>BT7/$BW7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CA7" s="40" t="e">
+        <f>BU7/$BW7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CB7" s="40" t="e">
+        <f>BV7/$BW7</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:80">
+      <c r="A8" s="13">
+        <v>2021</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="12">
+        <v>6369307875.78</v>
+      </c>
+      <c r="D8" s="12">
+        <v>5117150498.28</v>
+      </c>
+      <c r="E8" s="12">
+        <v>80966017.91</v>
+      </c>
+      <c r="F8" s="15">
+        <v>8092057.32</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15">
+        <v>2350868.48</v>
+      </c>
+      <c r="I8" s="15">
+        <v>1248588.78</v>
+      </c>
+      <c r="J8" s="15">
+        <f>F8+G8+H8+I8</f>
+        <v>11691514.58</v>
+      </c>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15">
         <v>64978916.01</v>
       </c>
-      <c r="P7" s="15">
+      <c r="P8" s="15">
         <v>170845170.78</v>
       </c>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="13">
+      <c r="Q8" s="15"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="12">
         <v>61486444.69</v>
       </c>
-      <c r="Z7" s="13">
+      <c r="Z8" s="12">
         <v>2016748.68</v>
       </c>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="12"/>
-      <c r="AC7" s="12"/>
-      <c r="AD7" s="12"/>
-      <c r="AE7" s="13">
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="13"/>
+      <c r="AE8" s="12">
         <f t="shared" si="0"/>
         <v>235824086.79</v>
       </c>
-      <c r="AF7" s="13">
+      <c r="AF8" s="12">
         <f t="shared" si="1"/>
         <v>63503193.37</v>
       </c>
-      <c r="AG7" s="15">
+      <c r="AG8" s="15">
         <f t="shared" si="2"/>
         <v>149663640.08</v>
       </c>
-      <c r="AH7" s="23">
+      <c r="AH8" s="22">
         <f t="shared" si="3"/>
         <v>0.0540682915080412</v>
       </c>
-      <c r="AI7" s="23">
+      <c r="AI8" s="22">
         <f t="shared" si="4"/>
         <v>0.0781186036484915</v>
       </c>
-      <c r="AJ7" s="24">
+      <c r="AJ8" s="23">
         <v>0.25</v>
       </c>
-      <c r="AK7" s="24">
+      <c r="AK8" s="23">
         <f t="shared" si="5"/>
         <v>0.196592377369834</v>
       </c>
-      <c r="AL7" s="24">
+      <c r="AL8" s="23">
         <f t="shared" si="6"/>
         <v>0.803407622630166</v>
       </c>
-      <c r="AM7" s="30">
+      <c r="AM8" s="29">
         <v>278344963.561111</v>
       </c>
-      <c r="AN7" s="24">
+      <c r="AN8" s="23">
         <f t="shared" si="7"/>
         <v>0.0757907513164648</v>
       </c>
-      <c r="AO7" s="24">
+      <c r="AO8" s="23">
         <v>0.04</v>
       </c>
-      <c r="AP7" s="24">
+      <c r="AP8" s="23">
         <v>0.19</v>
       </c>
-      <c r="AQ7" s="32"/>
-      <c r="AR7" s="33">
+      <c r="AQ8" s="32"/>
+      <c r="AR8" s="31">
         <v>1829782947.1</v>
       </c>
-      <c r="AS7" s="32"/>
-      <c r="AT7" s="32"/>
-      <c r="AU7" s="33">
+      <c r="AS8" s="32"/>
+      <c r="AT8" s="32"/>
+      <c r="AU8" s="31">
         <v>424541.21</v>
       </c>
-      <c r="AV7" s="33">
+      <c r="AV8" s="31">
         <v>3113131.56</v>
       </c>
-      <c r="AW7" s="32"/>
-      <c r="AX7" s="32"/>
-      <c r="AY7" s="33">
+      <c r="AW8" s="32"/>
+      <c r="AX8" s="32"/>
+      <c r="AY8" s="31">
         <v>8194517.48</v>
       </c>
-      <c r="AZ7" s="34">
-        <f>SUM(AR7:AY7)</f>
+      <c r="AZ8" s="33">
+        <f>SUM(AR8:AY8)</f>
         <v>1841515137.35</v>
       </c>
-      <c r="BA7" s="33">
+      <c r="BA8" s="31">
         <v>272631920.44</v>
       </c>
-      <c r="BB7" s="15">
-        <f>AM7/AN7</f>
+      <c r="BB8" s="15">
+        <f>AM8/AN8</f>
         <v>3672545247.62368</v>
       </c>
-      <c r="BC7" s="35">
-        <f>AM7*(1+AO7)/(AN7-AO7)</f>
+      <c r="BC8" s="16">
+        <f>AM8*(1+AO8)/(AN8-AO8)</f>
         <v>8088088443.40708</v>
       </c>
-      <c r="BD7" s="35">
-        <f>AM7*(1+AP7)/(1+AN7)+AM7*(1+AP7)^2/(1+AN7)^2+AM7*(1+AP7)^3/(1+AN7)^3+AM7*(1+AP7)^3*(1+AO7)/(1+AN7)^4/(AN7-AO7)</f>
+      <c r="BD8" s="16">
+        <f>AM8*(1+AP8)/(1+AN8)+AM8*(1+AP8)^2/(1+AN8)^2+AM8*(1+AP8)^3/(1+AN8)^3+AM8*(1+AP8)^3*(1+AO8)/(1+AN8)^4/(AN8-AO8)</f>
         <v>11201179864.2188</v>
       </c>
-      <c r="BE7" s="35">
-        <f>AM7*(1+AP7)/(1+AN7)+AM7*(1+AP7)^2/(1+AN7)^2+AM7*(1+AP7)^3/(1+AN7)^3+AM7*(1+AP7)^4/(1+AN7)^4+AM7*(1+AP7)^5/(1+AN7)^5+AM7*(1+AP7)^5*(1+AO7)/(1+AN7)^6/(AN7-AO7)</f>
+      <c r="BE8" s="16">
+        <f>AM8*(1+AP8)/(1+AN8)+AM8*(1+AP8)^2/(1+AN8)^2+AM8*(1+AP8)^3/(1+AN8)^3+AM8*(1+AP8)^4/(1+AN8)^4+AM8*(1+AP8)^5/(1+AN8)^5+AM8*(1+AP8)^5*(1+AO8)/(1+AN8)^6/(AN8-AO8)</f>
         <v>14354204042.2797</v>
       </c>
-      <c r="BF7" s="37"/>
-      <c r="BG7" s="34">
-        <f>$AZ7+$BA7+BB7</f>
+      <c r="BF8" s="34"/>
+      <c r="BG8" s="33">
+        <f>$AZ8+$BA8+BB8</f>
         <v>5786692305.41368</v>
       </c>
-      <c r="BH7" s="34">
-        <f>$AZ7+$BA7+BC7</f>
+      <c r="BH8" s="33">
+        <f>$AZ8+$BA8+BC8</f>
         <v>10202235501.1971</v>
       </c>
-      <c r="BI7" s="34">
-        <f>$AZ7+$BA7+BD7</f>
+      <c r="BI8" s="33">
+        <f>$AZ8+$BA8+BD8</f>
         <v>13315326922.0088</v>
       </c>
-      <c r="BJ7" s="34">
-        <f>$AZ7+$BA7+BE7</f>
+      <c r="BJ8" s="33">
+        <f>$AZ8+$BA8+BE8</f>
         <v>16468351100.0697</v>
       </c>
-      <c r="BK7" s="34">
-        <f>$AZ7+$BA7+BF7</f>
+      <c r="BK8" s="33">
+        <f>$AZ8+$BA8+BF8</f>
         <v>2114147057.79</v>
       </c>
-      <c r="BL7" s="33">
-        <f>C7-D7</f>
+      <c r="BL8" s="31">
+        <f>C8-D8</f>
         <v>1252157377.5</v>
       </c>
-      <c r="BM7" s="34">
-        <f>BG7-$BL7</f>
+      <c r="BM8" s="33">
+        <f>BG8-$BL8</f>
         <v>4534534927.91368</v>
       </c>
-      <c r="BN7" s="34">
-        <f>BH7-$BL7</f>
+      <c r="BN8" s="33">
+        <f>BH8-$BL8</f>
         <v>8950078123.69708</v>
       </c>
-      <c r="BO7" s="34">
-        <f>BI7-$BL7</f>
+      <c r="BO8" s="33">
+        <f>BI8-$BL8</f>
         <v>12063169544.5088</v>
       </c>
-      <c r="BP7" s="34">
-        <f>BJ7-$BL7</f>
+      <c r="BP8" s="33">
+        <f>BJ8-$BL8</f>
         <v>15216193722.5697</v>
       </c>
-      <c r="BQ7" s="34">
-        <f>BK7-$BL7</f>
+      <c r="BQ8" s="33">
+        <f>BK8-$BL8</f>
         <v>861989680.29</v>
       </c>
-      <c r="BR7" s="34">
-        <f>BM7*(1-$E7/$D7)</f>
+      <c r="BR8" s="33">
+        <f>BM8*(1-$E8/$D8)</f>
         <v>4462787333.95287</v>
       </c>
-      <c r="BS7" s="34">
-        <f>BN7*(1-$E7/$D7)</f>
+      <c r="BS8" s="33">
+        <f>BN8*(1-$E8/$D8)</f>
         <v>8808465680.22825</v>
       </c>
-      <c r="BT7" s="34">
-        <f>BO7*(1-$E7/$D7)</f>
+      <c r="BT8" s="33">
+        <f>BO8*(1-$E8/$D8)</f>
         <v>11872300270.3453</v>
       </c>
-      <c r="BU7" s="34">
-        <f>BP7*(1-$E7/$D7)</f>
+      <c r="BU8" s="33">
+        <f>BP8*(1-$E8/$D8)</f>
         <v>14975435782.408</v>
       </c>
-      <c r="BV7" s="34">
-        <f>BQ7*(1-$E7/$D7)</f>
+      <c r="BV8" s="33">
+        <f>BQ8*(1-$E8/$D8)</f>
         <v>848350864.719488</v>
       </c>
-      <c r="BW7" s="42">
+      <c r="BW8" s="39">
         <v>405950150</v>
       </c>
-      <c r="BX7" s="43">
-        <f>BR7/$BW7</f>
+      <c r="BX8" s="40">
+        <f>BR8/$BW8</f>
         <v>10.9934368393579</v>
       </c>
-      <c r="BY7" s="43">
-        <f>BS7/$BW7</f>
+      <c r="BY8" s="40">
+        <f>BS8/$BW8</f>
         <v>21.6983924755989</v>
       </c>
-      <c r="BZ7" s="43">
-        <f>BT7/$BW7</f>
+      <c r="BZ8" s="40">
+        <f>BT8/$BW8</f>
         <v>29.2457097758071</v>
       </c>
-      <c r="CA7" s="43">
-        <f>BU7/$BW7</f>
+      <c r="CA8" s="40">
+        <f>BU8/$BW8</f>
         <v>36.8898392632888</v>
       </c>
-      <c r="CB7" s="43">
-        <f>BV7/$BW7</f>
+      <c r="CB8" s="40">
+        <f>BV8/$BW8</f>
         <v>2.08979074085694</v>
       </c>
     </row>
-    <row r="8" spans="1:80">
-      <c r="A8" s="12">
+    <row r="9" spans="1:80">
+      <c r="A9" s="13">
         <v>2021</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B9" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C9" s="12">
         <v>55127388384.03</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D9" s="12">
         <v>38757462615.81</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E9" s="12">
         <v>265952985.21</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F9" s="15">
         <v>68113113.6</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G9" s="15">
         <v>60219890.71</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H9" s="15">
         <v>139234655.8</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I9" s="15">
         <v>8207817.42</v>
       </c>
-      <c r="J8" s="15">
-        <f>F8+G8+H8+I8</f>
+      <c r="J9" s="15">
+        <f>F9+G9+H9+I9</f>
         <v>275775477.53</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K9" s="15">
         <v>1230010900</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L9" s="15">
         <v>16507997</v>
       </c>
-      <c r="M8" s="15">
+      <c r="M9" s="15">
         <v>858612.35</v>
       </c>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15">
+      <c r="N9" s="15"/>
+      <c r="O9" s="15">
         <v>2454568919.68</v>
       </c>
-      <c r="P8" s="15">
+      <c r="P9" s="15">
         <v>177436405.49</v>
       </c>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="13">
+      <c r="Q9" s="15"/>
+      <c r="R9" s="12">
         <v>1819028586.29</v>
       </c>
-      <c r="S8" s="12"/>
-      <c r="T8" s="13">
+      <c r="S9" s="13"/>
+      <c r="T9" s="12">
         <v>1067102918.35</v>
       </c>
-      <c r="U8" s="13">
+      <c r="U9" s="12">
         <v>2261479950</v>
       </c>
-      <c r="V8" s="12"/>
-      <c r="W8" s="13">
+      <c r="V9" s="13"/>
+      <c r="W9" s="12">
         <v>3651608.46</v>
       </c>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="13">
+      <c r="X9" s="13"/>
+      <c r="Y9" s="12">
         <v>3289192625.17</v>
       </c>
-      <c r="Z8" s="13">
+      <c r="Z9" s="12">
         <v>396423607.05</v>
       </c>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="13">
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="12">
         <v>607140031.37</v>
       </c>
-      <c r="AC8" s="12"/>
-      <c r="AD8" s="13">
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="12">
         <v>1018978731.37</v>
       </c>
-      <c r="AE8" s="13">
+      <c r="AE9" s="12">
         <f t="shared" si="0"/>
         <v>6765514339.16</v>
       </c>
-      <c r="AF8" s="13">
+      <c r="AF9" s="12">
         <f t="shared" si="1"/>
         <v>7576866553.42</v>
       </c>
-      <c r="AG8" s="15">
+      <c r="AG9" s="15">
         <f t="shared" si="2"/>
         <v>7171190446.29</v>
       </c>
-      <c r="AH8" s="23">
+      <c r="AH9" s="22">
         <f t="shared" si="3"/>
         <v>0.00949815990945243</v>
       </c>
-      <c r="AI8" s="23">
+      <c r="AI9" s="22">
         <f t="shared" si="4"/>
         <v>0.0384560247835381</v>
       </c>
-      <c r="AJ8" s="24">
+      <c r="AJ9" s="23">
         <v>0.25</v>
       </c>
-      <c r="AK8" s="24">
+      <c r="AK9" s="23">
         <f t="shared" si="5"/>
         <v>0.296947238896633</v>
       </c>
-      <c r="AL8" s="24">
+      <c r="AL9" s="23">
         <f t="shared" si="6"/>
         <v>0.703052761103367</v>
       </c>
-      <c r="AM8" s="29">
+      <c r="AM9" s="28">
         <v>1402046451.92778</v>
       </c>
-      <c r="AN8" s="24">
+      <c r="AN9" s="23">
         <f t="shared" si="7"/>
         <v>0.0648087786720785</v>
       </c>
-      <c r="AO8" s="24">
+      <c r="AO9" s="23">
         <v>0.04</v>
       </c>
-      <c r="AP8" s="24">
+      <c r="AP9" s="23">
         <v>0.23</v>
       </c>
-      <c r="AQ8" s="32"/>
-      <c r="AR8" s="33">
+      <c r="AQ9" s="32"/>
+      <c r="AR9" s="31">
         <v>8238772782.53</v>
       </c>
-      <c r="AS8" s="32"/>
-      <c r="AT8" s="33">
+      <c r="AS9" s="32"/>
+      <c r="AT9" s="31">
         <v>229142186.76</v>
       </c>
-      <c r="AU8" s="33">
+      <c r="AU9" s="31">
         <v>527288380.38</v>
       </c>
-      <c r="AV8" s="33">
+      <c r="AV9" s="31">
         <v>339579823.47</v>
       </c>
-      <c r="AW8" s="32"/>
-      <c r="AX8" s="32"/>
-      <c r="AY8" s="32"/>
-      <c r="AZ8" s="34">
-        <f>SUM(AR8:AY8)+8714098195.97</f>
-        <v>18048881369.11</v>
-      </c>
-      <c r="BA8" s="33">
-        <v>678304556.75</v>
-      </c>
-      <c r="BB8" s="15">
-        <f>AM8/AN8</f>
-        <v>21633588545.4947</v>
-      </c>
-      <c r="BC8" s="35">
-        <f>AM8*(1+AO8)/(AN8-AO8)</f>
-        <v>58774691381.5619</v>
-      </c>
-      <c r="BD8" s="35">
-        <f>AM8*(1+AP8)/(1+AN8)+AM8*(1+AP8)^2/(1+AN8)^2+AM8*(1+AP8)^3/(1+AN8)^3+AM8*(1+AP8)^3*(1+AO8)/(1+AN8)^4/(AN8-AO8)</f>
-        <v>90729782373.1699</v>
-      </c>
-      <c r="BE8" s="35">
-        <f>AM8*(1+AP8)/(1+AN8)+AM8*(1+AP8)^2/(1+AN8)^2+AM8*(1+AP8)^3/(1+AN8)^3+AM8*(1+AP8)^4/(1+AN8)^4+AM8*(1+AP8)^5/(1+AN8)^5+AM8*(1+AP8)^5*(1+AO8)/(1+AN8)^6/(AN8-AO8)</f>
-        <v>124554873714.034</v>
-      </c>
-      <c r="BF8" s="37"/>
-      <c r="BG8" s="34">
-        <f>$AZ8+$BA8+BB8</f>
-        <v>40360774471.3547</v>
-      </c>
-      <c r="BH8" s="34">
-        <f>$AZ8+$BA8+BC8</f>
-        <v>77501877307.4219</v>
-      </c>
-      <c r="BI8" s="34">
-        <f>$AZ8+$BA8+BD8</f>
-        <v>109456968299.03</v>
-      </c>
-      <c r="BJ8" s="34">
-        <f>$AZ8+$BA8+BE8</f>
-        <v>143282059639.894</v>
-      </c>
-      <c r="BK8" s="34">
-        <f>$AZ8+$BA8+BF8</f>
-        <v>18727185925.86</v>
-      </c>
-      <c r="BL8" s="33">
-        <f>C8-D8</f>
-        <v>16369925768.22</v>
-      </c>
-      <c r="BM8" s="34">
-        <f>BG8-$BL8</f>
-        <v>23990848703.1347</v>
-      </c>
-      <c r="BN8" s="34">
-        <f>BH8-$BL8</f>
-        <v>61131951539.2019</v>
-      </c>
-      <c r="BO8" s="34">
-        <f>BI8-$BL8</f>
-        <v>93087042530.8099</v>
-      </c>
-      <c r="BP8" s="34">
-        <f>BJ8-$BL8</f>
-        <v>126912133871.674</v>
-      </c>
-      <c r="BQ8" s="34">
-        <f>BK8-$BL8</f>
-        <v>2357260157.64</v>
-      </c>
-      <c r="BR8" s="34">
-        <f>BM8*(1-$E8/$D8)</f>
-        <v>23826223947.0311</v>
-      </c>
-      <c r="BS8" s="34">
-        <f>BN8*(1-$E8/$D8)</f>
-        <v>60712465228.5338</v>
-      </c>
-      <c r="BT8" s="34">
-        <f>BO8*(1-$E8/$D8)</f>
-        <v>92448280982.0769</v>
-      </c>
-      <c r="BU8" s="34">
-        <f>BP8*(1-$E8/$D8)</f>
-        <v>126041265177.376</v>
-      </c>
-      <c r="BV8" s="34">
-        <f>BQ8*(1-$E8/$D8)</f>
-        <v>2341084682.42751</v>
-      </c>
-      <c r="BW8" s="42">
-        <v>2955826899</v>
-      </c>
-      <c r="BX8" s="43">
-        <f>BR8/$BW8</f>
-        <v>8.06076430087699</v>
-      </c>
-      <c r="BY8" s="43">
-        <f>BS8/$BW8</f>
-        <v>20.5399258153695</v>
-      </c>
-      <c r="BZ8" s="43">
-        <f>BT8/$BW8</f>
-        <v>31.2766221233569</v>
-      </c>
-      <c r="CA8" s="43">
-        <f>BU8/$BW8</f>
-        <v>42.6416260099728</v>
-      </c>
-      <c r="CB8" s="43">
-        <f>BV8/$BW8</f>
-        <v>0.792023607072368</v>
-      </c>
-    </row>
-    <row r="9" spans="1:80">
-      <c r="A9" s="12">
-        <v>2021</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="12"/>
-      <c r="AC9" s="12"/>
-      <c r="AD9" s="12"/>
-      <c r="AE9" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF9" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AG9" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH9" s="23" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI9" s="23" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ9" s="24">
-        <v>0.25</v>
-      </c>
-      <c r="AK9" s="24" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL9" s="24" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM9" s="29"/>
-      <c r="AN9" s="24" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO9" s="24">
-        <v>0.04</v>
-      </c>
-      <c r="AP9" s="24">
-        <v>0.74</v>
-      </c>
-      <c r="AQ9" s="32"/>
-      <c r="AR9" s="32"/>
-      <c r="AS9" s="32"/>
-      <c r="AT9" s="32"/>
-      <c r="AU9" s="32"/>
-      <c r="AV9" s="32"/>
       <c r="AW9" s="32"/>
       <c r="AX9" s="32"/>
       <c r="AY9" s="32"/>
-      <c r="AZ9" s="34"/>
-      <c r="BA9" s="32"/>
-      <c r="BB9" s="15"/>
-      <c r="BC9" s="35"/>
-      <c r="BD9" s="35"/>
-      <c r="BE9" s="35"/>
-      <c r="BF9" s="37"/>
-      <c r="BG9" s="34"/>
-      <c r="BH9" s="34"/>
-      <c r="BI9" s="34"/>
-      <c r="BJ9" s="34"/>
-      <c r="BK9" s="34"/>
-      <c r="BL9" s="32"/>
-      <c r="BM9" s="34"/>
-      <c r="BN9" s="34"/>
-      <c r="BO9" s="34"/>
-      <c r="BP9" s="34"/>
-      <c r="BQ9" s="34"/>
-      <c r="BR9" s="34"/>
-      <c r="BS9" s="34"/>
-      <c r="BT9" s="34"/>
-      <c r="BU9" s="34"/>
-      <c r="BV9" s="34"/>
-      <c r="BW9" s="32"/>
-      <c r="BX9" s="43"/>
-      <c r="BY9" s="43"/>
-      <c r="BZ9" s="43"/>
-      <c r="CA9" s="43"/>
-      <c r="CB9" s="43"/>
+      <c r="AZ9" s="33">
+        <f>SUM(AR9:AY9)+8714098195.97</f>
+        <v>18048881369.11</v>
+      </c>
+      <c r="BA9" s="31">
+        <v>678304556.75</v>
+      </c>
+      <c r="BB9" s="15">
+        <f>AM9/AN9</f>
+        <v>21633588545.4947</v>
+      </c>
+      <c r="BC9" s="16">
+        <f>AM9*(1+AO9)/(AN9-AO9)</f>
+        <v>58774691381.5619</v>
+      </c>
+      <c r="BD9" s="16">
+        <f>AM9*(1+AP9)/(1+AN9)+AM9*(1+AP9)^2/(1+AN9)^2+AM9*(1+AP9)^3/(1+AN9)^3+AM9*(1+AP9)^3*(1+AO9)/(1+AN9)^4/(AN9-AO9)</f>
+        <v>90729782373.1699</v>
+      </c>
+      <c r="BE9" s="16">
+        <f>AM9*(1+AP9)/(1+AN9)+AM9*(1+AP9)^2/(1+AN9)^2+AM9*(1+AP9)^3/(1+AN9)^3+AM9*(1+AP9)^4/(1+AN9)^4+AM9*(1+AP9)^5/(1+AN9)^5+AM9*(1+AP9)^5*(1+AO9)/(1+AN9)^6/(AN9-AO9)</f>
+        <v>124554873714.034</v>
+      </c>
+      <c r="BF9" s="34"/>
+      <c r="BG9" s="33">
+        <f>$AZ9+$BA9+BB9</f>
+        <v>40360774471.3547</v>
+      </c>
+      <c r="BH9" s="33">
+        <f>$AZ9+$BA9+BC9</f>
+        <v>77501877307.4219</v>
+      </c>
+      <c r="BI9" s="33">
+        <f>$AZ9+$BA9+BD9</f>
+        <v>109456968299.03</v>
+      </c>
+      <c r="BJ9" s="33">
+        <f>$AZ9+$BA9+BE9</f>
+        <v>143282059639.894</v>
+      </c>
+      <c r="BK9" s="33">
+        <f>$AZ9+$BA9+BF9</f>
+        <v>18727185925.86</v>
+      </c>
+      <c r="BL9" s="31">
+        <f>C9-D9</f>
+        <v>16369925768.22</v>
+      </c>
+      <c r="BM9" s="33">
+        <f>BG9-$BL9</f>
+        <v>23990848703.1347</v>
+      </c>
+      <c r="BN9" s="33">
+        <f>BH9-$BL9</f>
+        <v>61131951539.2019</v>
+      </c>
+      <c r="BO9" s="33">
+        <f>BI9-$BL9</f>
+        <v>93087042530.8099</v>
+      </c>
+      <c r="BP9" s="33">
+        <f>BJ9-$BL9</f>
+        <v>126912133871.674</v>
+      </c>
+      <c r="BQ9" s="33">
+        <f>BK9-$BL9</f>
+        <v>2357260157.64</v>
+      </c>
+      <c r="BR9" s="33">
+        <f>BM9*(1-$E9/$D9)</f>
+        <v>23826223947.0311</v>
+      </c>
+      <c r="BS9" s="33">
+        <f>BN9*(1-$E9/$D9)</f>
+        <v>60712465228.5338</v>
+      </c>
+      <c r="BT9" s="33">
+        <f>BO9*(1-$E9/$D9)</f>
+        <v>92448280982.0769</v>
+      </c>
+      <c r="BU9" s="33">
+        <f>BP9*(1-$E9/$D9)</f>
+        <v>126041265177.376</v>
+      </c>
+      <c r="BV9" s="33">
+        <f>BQ9*(1-$E9/$D9)</f>
+        <v>2341084682.42751</v>
+      </c>
+      <c r="BW9" s="39">
+        <v>2955826899</v>
+      </c>
+      <c r="BX9" s="40">
+        <f>BR9/$BW9</f>
+        <v>8.06076430087699</v>
+      </c>
+      <c r="BY9" s="40">
+        <f>BS9/$BW9</f>
+        <v>20.5399258153695</v>
+      </c>
+      <c r="BZ9" s="40">
+        <f>BT9/$BW9</f>
+        <v>31.2766221233569</v>
+      </c>
+      <c r="CA9" s="40">
+        <f>BU9/$BW9</f>
+        <v>42.6416260099728</v>
+      </c>
+      <c r="CB9" s="40">
+        <f>BV9/$BW9</f>
+        <v>0.792023607072368</v>
+      </c>
     </row>
     <row r="10" spans="1:80">
-      <c r="A10" s="12">
+      <c r="A10" s="13">
         <v>2021</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="B10" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
@@ -9483,24 +9542,24 @@
       <c r="O10" s="15"/>
       <c r="P10" s="15"/>
       <c r="Q10" s="15"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
-      <c r="AB10" s="12"/>
-      <c r="AC10" s="12"/>
-      <c r="AD10" s="12"/>
-      <c r="AE10" s="13">
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF10" s="13">
+      <c r="AF10" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9508,35 +9567,35 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AH10" s="23" t="e">
+      <c r="AH10" s="22" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI10" s="23" t="e">
+      <c r="AI10" s="22" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ10" s="24">
+      <c r="AJ10" s="23">
         <v>0.25</v>
       </c>
-      <c r="AK10" s="24" t="e">
+      <c r="AK10" s="23" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL10" s="24" t="e">
+      <c r="AL10" s="23" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM10" s="29"/>
-      <c r="AN10" s="24" t="e">
+      <c r="AM10" s="28"/>
+      <c r="AN10" s="23" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO10" s="24">
+      <c r="AO10" s="23">
         <v>0.04</v>
       </c>
-      <c r="AP10" s="24">
-        <v>0.15</v>
+      <c r="AP10" s="23">
+        <v>0.74</v>
       </c>
       <c r="AQ10" s="32"/>
       <c r="AR10" s="32"/>
@@ -9547,35 +9606,151 @@
       <c r="AW10" s="32"/>
       <c r="AX10" s="32"/>
       <c r="AY10" s="32"/>
-      <c r="AZ10" s="34"/>
+      <c r="AZ10" s="33"/>
       <c r="BA10" s="32"/>
       <c r="BB10" s="15"/>
-      <c r="BC10" s="35"/>
-      <c r="BD10" s="35"/>
-      <c r="BE10" s="35"/>
-      <c r="BF10" s="37"/>
-      <c r="BG10" s="34"/>
-      <c r="BH10" s="34"/>
-      <c r="BI10" s="34"/>
-      <c r="BJ10" s="34"/>
-      <c r="BK10" s="34"/>
+      <c r="BC10" s="16"/>
+      <c r="BD10" s="16"/>
+      <c r="BE10" s="16"/>
+      <c r="BF10" s="34"/>
+      <c r="BG10" s="33"/>
+      <c r="BH10" s="33"/>
+      <c r="BI10" s="33"/>
+      <c r="BJ10" s="33"/>
+      <c r="BK10" s="33"/>
       <c r="BL10" s="32"/>
-      <c r="BM10" s="34"/>
-      <c r="BN10" s="34"/>
-      <c r="BO10" s="34"/>
-      <c r="BP10" s="34"/>
-      <c r="BQ10" s="34"/>
-      <c r="BR10" s="34"/>
-      <c r="BS10" s="34"/>
-      <c r="BT10" s="34"/>
-      <c r="BU10" s="34"/>
-      <c r="BV10" s="34"/>
+      <c r="BM10" s="33"/>
+      <c r="BN10" s="33"/>
+      <c r="BO10" s="33"/>
+      <c r="BP10" s="33"/>
+      <c r="BQ10" s="33"/>
+      <c r="BR10" s="33"/>
+      <c r="BS10" s="33"/>
+      <c r="BT10" s="33"/>
+      <c r="BU10" s="33"/>
+      <c r="BV10" s="33"/>
       <c r="BW10" s="32"/>
-      <c r="BX10" s="43"/>
-      <c r="BY10" s="43"/>
-      <c r="BZ10" s="43"/>
-      <c r="CA10" s="43"/>
-      <c r="CB10" s="43"/>
+      <c r="BX10" s="40"/>
+      <c r="BY10" s="40"/>
+      <c r="BZ10" s="40"/>
+      <c r="CA10" s="40"/>
+      <c r="CB10" s="40"/>
+    </row>
+    <row r="11" spans="1:80">
+      <c r="A11" s="13">
+        <v>2021</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH11" s="22" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI11" s="22" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ11" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="AK11" s="23" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL11" s="23" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM11" s="28"/>
+      <c r="AN11" s="23" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO11" s="23">
+        <v>0.04</v>
+      </c>
+      <c r="AP11" s="23">
+        <v>0.15</v>
+      </c>
+      <c r="AQ11" s="32"/>
+      <c r="AR11" s="32"/>
+      <c r="AS11" s="32"/>
+      <c r="AT11" s="32"/>
+      <c r="AU11" s="32"/>
+      <c r="AV11" s="32"/>
+      <c r="AW11" s="32"/>
+      <c r="AX11" s="32"/>
+      <c r="AY11" s="32"/>
+      <c r="AZ11" s="33"/>
+      <c r="BA11" s="32"/>
+      <c r="BB11" s="15"/>
+      <c r="BC11" s="16"/>
+      <c r="BD11" s="16"/>
+      <c r="BE11" s="16"/>
+      <c r="BF11" s="34"/>
+      <c r="BG11" s="33"/>
+      <c r="BH11" s="33"/>
+      <c r="BI11" s="33"/>
+      <c r="BJ11" s="33"/>
+      <c r="BK11" s="33"/>
+      <c r="BL11" s="32"/>
+      <c r="BM11" s="33"/>
+      <c r="BN11" s="33"/>
+      <c r="BO11" s="33"/>
+      <c r="BP11" s="33"/>
+      <c r="BQ11" s="33"/>
+      <c r="BR11" s="33"/>
+      <c r="BS11" s="33"/>
+      <c r="BT11" s="33"/>
+      <c r="BU11" s="33"/>
+      <c r="BV11" s="33"/>
+      <c r="BW11" s="32"/>
+      <c r="BX11" s="40"/>
+      <c r="BY11" s="40"/>
+      <c r="BZ11" s="40"/>
+      <c r="CA11" s="40"/>
+      <c r="CB11" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="39">

--- a/我的创作/财务/证券投资/股票/财务报表分析系统/2023/财务/选股标准.xlsx
+++ b/我的创作/财务/证券投资/股票/财务报表分析系统/2023/财务/选股标准.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27240" windowHeight="13080" activeTab="3"/>
+    <workbookView windowWidth="27240" windowHeight="12760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="154">
   <si>
     <t>年份</t>
   </si>
@@ -407,6 +407,12 @@
   </si>
   <si>
     <t>每股价格</t>
+  </si>
+  <si>
+    <t>自由现金流产生的价值</t>
+  </si>
+  <si>
+    <t>总价值</t>
   </si>
   <si>
     <t>短期借款</t>
@@ -488,12 +494,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="0.00_ ;[Red]\-0.00\ "/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="&quot;￥&quot;#,##0.00_);[Red]\(&quot;￥&quot;#,##0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_ ;[Red]\-0.00\ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -539,29 +545,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -569,46 +552,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -624,6 +567,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -632,8 +628,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -647,10 +659,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -671,13 +684,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -728,7 +734,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,7 +818,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,163 +908,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,22 +958,25 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -987,11 +996,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1022,15 +1037,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1050,152 +1056,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1226,7 +1232,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1274,10 +1280,13 @@
     <xf numFmtId="44" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1287,15 +1296,15 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1305,22 +1314,22 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -1338,76 +1347,76 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1787,10 +1796,10 @@
     <col min="57" max="57" width="24.2211538461538" style="3" customWidth="1"/>
     <col min="58" max="59" width="27.6634615384615" style="3" customWidth="1"/>
     <col min="60" max="60" width="24.2211538461538" style="3" customWidth="1"/>
-    <col min="61" max="61" width="18.6634615384615" style="48" customWidth="1"/>
-    <col min="62" max="62" width="20.8846153846154" style="48" customWidth="1"/>
-    <col min="63" max="63" width="25.4423076923077" style="48" customWidth="1"/>
-    <col min="64" max="64" width="27.3076923076923" style="48" customWidth="1"/>
+    <col min="61" max="61" width="18.6634615384615" style="49" customWidth="1"/>
+    <col min="62" max="62" width="20.8846153846154" style="49" customWidth="1"/>
+    <col min="63" max="63" width="25.4423076923077" style="49" customWidth="1"/>
+    <col min="64" max="64" width="27.3076923076923" style="49" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:64">
@@ -1917,16 +1926,16 @@
       <c r="AO1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="60" t="s">
+      <c r="AP1" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="61" t="s">
+      <c r="AQ1" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="62" t="s">
+      <c r="AR1" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="63" t="s">
+      <c r="AS1" s="64" t="s">
         <v>44</v>
       </c>
       <c r="AT1" s="3" t="s">
@@ -1947,10 +1956,10 @@
       <c r="AY1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="62" t="s">
+      <c r="AZ1" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="63" t="s">
+      <c r="BA1" s="64" t="s">
         <v>52</v>
       </c>
       <c r="BB1" s="8" t="s">
@@ -1965,22 +1974,22 @@
       <c r="BE1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="62" t="s">
+      <c r="BF1" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="63" t="s">
+      <c r="BG1" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="BI1" s="48" t="s">
+      <c r="BI1" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="BJ1" s="48" t="s">
+      <c r="BJ1" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="BK1" s="68" t="s">
+      <c r="BK1" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="BL1" s="69" t="s">
+      <c r="BL1" s="70" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2149,7 +2158,7 @@
       <c r="AN8" s="5">
         <v>0.01</v>
       </c>
-      <c r="AO8" s="56">
+      <c r="AO8" s="57">
         <v>0.05</v>
       </c>
       <c r="AP8" s="3" t="e">
@@ -2167,7 +2176,7 @@
       <c r="AV8" s="2">
         <v>442102317.87</v>
       </c>
-      <c r="AW8" s="64">
+      <c r="AW8" s="65">
         <v>360000000</v>
       </c>
       <c r="AX8" s="3" t="e">
@@ -2194,15 +2203,15 @@
         <f>BA8*(1-E8)</f>
         <v>1589056241.30534</v>
       </c>
-      <c r="BI8" s="48" t="e">
+      <c r="BI8" s="49" t="e">
         <f>BD8/AW8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BJ8" s="48">
+      <c r="BJ8" s="49">
         <f>BE8/AW8</f>
         <v>-72.6181869025684</v>
       </c>
-      <c r="BL8" s="48">
+      <c r="BL8" s="49">
         <f>BG8/AW8</f>
         <v>4.41404511473707</v>
       </c>
@@ -2224,7 +2233,7 @@
         <f t="shared" si="0"/>
         <v>0.21401207431414</v>
       </c>
-      <c r="F9" s="52">
+      <c r="F9" s="53">
         <v>387296112.91</v>
       </c>
       <c r="H9" s="3">
@@ -2246,7 +2255,7 @@
       <c r="AJ9" s="2">
         <v>506730134.35</v>
       </c>
-      <c r="AK9" s="52">
+      <c r="AK9" s="53">
         <v>387296112.91</v>
       </c>
       <c r="AL9" s="2"/>
@@ -2254,7 +2263,7 @@
         <f t="shared" si="2"/>
         <v>0.57142790701933</v>
       </c>
-      <c r="AN9" s="56">
+      <c r="AN9" s="57">
         <v>0.0894</v>
       </c>
       <c r="AO9" s="5">
@@ -2311,19 +2320,19 @@
         <f>BA9*(1-BC9)</f>
         <v>62057191759.6006</v>
       </c>
-      <c r="BI9" s="48">
+      <c r="BI9" s="49">
         <f>BD9/AW9</f>
         <v>14.8605678155326</v>
       </c>
-      <c r="BJ9" s="70">
+      <c r="BJ9" s="71">
         <f>BE9/AW9</f>
         <v>70.5458363693699</v>
       </c>
-      <c r="BK9" s="70">
+      <c r="BK9" s="71">
         <f>BF9/AW9</f>
         <v>112.926566097446</v>
       </c>
-      <c r="BL9" s="48">
+      <c r="BL9" s="49">
         <f>BG9/AW9</f>
         <v>152.868995761181</v>
       </c>
@@ -2414,7 +2423,7 @@
         <f t="shared" si="2"/>
         <v>0.590280642574583</v>
       </c>
-      <c r="AW11" s="65">
+      <c r="AW11" s="66">
         <v>393738756</v>
       </c>
     </row>
@@ -2519,7 +2528,7 @@
         <f t="shared" si="2"/>
         <v>0.431060165431254</v>
       </c>
-      <c r="AN12" s="57">
+      <c r="AN12" s="58">
         <v>0.15</v>
       </c>
       <c r="AO12" s="5">
@@ -2587,96 +2596,96 @@
         <f>BA12*(1-BC12)</f>
         <v>115459706311.813</v>
       </c>
-      <c r="BI12" s="48">
+      <c r="BI12" s="49">
         <f>BD12/AW12</f>
         <v>27.9668535753429</v>
       </c>
-      <c r="BJ12" s="70">
+      <c r="BJ12" s="71">
         <f>BE12/AW12</f>
         <v>84.5929162620123</v>
       </c>
-      <c r="BK12" s="70">
+      <c r="BK12" s="71">
         <f>BF12/AW12</f>
         <v>191.421091093951</v>
       </c>
-      <c r="BL12" s="48">
+      <c r="BL12" s="49">
         <f>BG12/AW12</f>
         <v>284.41843490343</v>
       </c>
     </row>
-    <row r="13" s="47" customFormat="1" spans="1:64">
-      <c r="A13" s="49" t="s">
+    <row r="13" s="48" customFormat="1" spans="1:64">
+      <c r="A13" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="54">
+      <c r="B13" s="50"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="55">
         <f>AVERAGE(K6:K12)</f>
         <v>1.04857142857143</v>
       </c>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="51"/>
-      <c r="T13" s="51"/>
-      <c r="U13" s="51"/>
-      <c r="V13" s="51"/>
-      <c r="W13" s="51"/>
-      <c r="X13" s="51"/>
-      <c r="Y13" s="51"/>
-      <c r="Z13" s="51"/>
-      <c r="AA13" s="51"/>
-      <c r="AB13" s="51"/>
-      <c r="AC13" s="51"/>
-      <c r="AD13" s="51"/>
-      <c r="AE13" s="53"/>
-      <c r="AF13" s="49"/>
-      <c r="AG13" s="55"/>
-      <c r="AH13" s="51"/>
-      <c r="AI13" s="49"/>
-      <c r="AJ13" s="50"/>
-      <c r="AK13" s="50"/>
-      <c r="AL13" s="50"/>
-      <c r="AM13" s="50"/>
-      <c r="AN13" s="53"/>
-      <c r="AO13" s="53"/>
-      <c r="AP13" s="51"/>
-      <c r="AQ13" s="51"/>
-      <c r="AR13" s="51"/>
-      <c r="AS13" s="51"/>
-      <c r="AT13" s="51"/>
-      <c r="AU13" s="51"/>
-      <c r="AV13" s="50"/>
-      <c r="AW13" s="50"/>
-      <c r="AX13" s="51"/>
-      <c r="AY13" s="51"/>
-      <c r="AZ13" s="51"/>
-      <c r="BA13" s="51"/>
-      <c r="BB13" s="51"/>
-      <c r="BC13" s="51"/>
-      <c r="BD13" s="51"/>
-      <c r="BE13" s="51"/>
-      <c r="BF13" s="51"/>
-      <c r="BG13" s="51">
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="52"/>
+      <c r="V13" s="52"/>
+      <c r="W13" s="52"/>
+      <c r="X13" s="52"/>
+      <c r="Y13" s="52"/>
+      <c r="Z13" s="52"/>
+      <c r="AA13" s="52"/>
+      <c r="AB13" s="52"/>
+      <c r="AC13" s="52"/>
+      <c r="AD13" s="52"/>
+      <c r="AE13" s="54"/>
+      <c r="AF13" s="50"/>
+      <c r="AG13" s="56"/>
+      <c r="AH13" s="52"/>
+      <c r="AI13" s="50"/>
+      <c r="AJ13" s="51"/>
+      <c r="AK13" s="51"/>
+      <c r="AL13" s="51"/>
+      <c r="AM13" s="51"/>
+      <c r="AN13" s="54"/>
+      <c r="AO13" s="54"/>
+      <c r="AP13" s="52"/>
+      <c r="AQ13" s="52"/>
+      <c r="AR13" s="52"/>
+      <c r="AS13" s="52"/>
+      <c r="AT13" s="52"/>
+      <c r="AU13" s="52"/>
+      <c r="AV13" s="51"/>
+      <c r="AW13" s="51"/>
+      <c r="AX13" s="52"/>
+      <c r="AY13" s="52"/>
+      <c r="AZ13" s="52"/>
+      <c r="BA13" s="52"/>
+      <c r="BB13" s="52"/>
+      <c r="BC13" s="52"/>
+      <c r="BD13" s="52"/>
+      <c r="BE13" s="52"/>
+      <c r="BF13" s="52"/>
+      <c r="BG13" s="52">
         <f>BA13*(1-BC13)</f>
         <v>0</v>
       </c>
-      <c r="BH13" s="51"/>
-      <c r="BI13" s="54"/>
-      <c r="BJ13" s="71"/>
-      <c r="BK13" s="71"/>
-      <c r="BL13" s="54"/>
+      <c r="BH13" s="52"/>
+      <c r="BI13" s="55"/>
+      <c r="BJ13" s="72"/>
+      <c r="BK13" s="72"/>
+      <c r="BL13" s="55"/>
     </row>
     <row r="14" spans="1:63">
       <c r="A14" s="1">
@@ -2699,8 +2708,8 @@
       <c r="AM14" s="2"/>
       <c r="AV14" s="2"/>
       <c r="AW14" s="2"/>
-      <c r="BJ14" s="70"/>
-      <c r="BK14" s="70"/>
+      <c r="BJ14" s="71"/>
+      <c r="BK14" s="71"/>
     </row>
     <row r="15" spans="1:63">
       <c r="A15" s="1">
@@ -2726,8 +2735,8 @@
       <c r="AM15" s="2"/>
       <c r="AV15" s="2"/>
       <c r="AW15" s="2"/>
-      <c r="BJ15" s="70"/>
-      <c r="BK15" s="70"/>
+      <c r="BJ15" s="71"/>
+      <c r="BK15" s="71"/>
     </row>
     <row r="16" spans="1:63">
       <c r="A16" s="1">
@@ -2753,8 +2762,8 @@
       <c r="AM16" s="2"/>
       <c r="AV16" s="2"/>
       <c r="AW16" s="2"/>
-      <c r="BJ16" s="70"/>
-      <c r="BK16" s="70"/>
+      <c r="BJ16" s="71"/>
+      <c r="BK16" s="71"/>
     </row>
     <row r="17" spans="1:63">
       <c r="A17" s="1">
@@ -2780,8 +2789,8 @@
       <c r="AM17" s="2"/>
       <c r="AV17" s="2"/>
       <c r="AW17" s="2"/>
-      <c r="BJ17" s="70"/>
-      <c r="BK17" s="70"/>
+      <c r="BJ17" s="71"/>
+      <c r="BK17" s="71"/>
     </row>
     <row r="18" spans="1:63">
       <c r="A18" s="1">
@@ -2807,8 +2816,8 @@
       <c r="AM18" s="2"/>
       <c r="AV18" s="2"/>
       <c r="AW18" s="2"/>
-      <c r="BJ18" s="70"/>
-      <c r="BK18" s="70"/>
+      <c r="BJ18" s="71"/>
+      <c r="BK18" s="71"/>
     </row>
     <row r="19" spans="1:63">
       <c r="A19" s="1">
@@ -2840,8 +2849,8 @@
       <c r="AM19" s="2"/>
       <c r="AV19" s="2"/>
       <c r="AW19" s="2"/>
-      <c r="BJ19" s="70"/>
-      <c r="BK19" s="70"/>
+      <c r="BJ19" s="71"/>
+      <c r="BK19" s="71"/>
     </row>
     <row r="20" spans="1:63">
       <c r="A20" s="1">
@@ -2873,8 +2882,8 @@
       <c r="AM20" s="2"/>
       <c r="AV20" s="2"/>
       <c r="AW20" s="2"/>
-      <c r="BJ20" s="70"/>
-      <c r="BK20" s="70"/>
+      <c r="BJ20" s="71"/>
+      <c r="BK20" s="71"/>
     </row>
     <row r="21" spans="1:63">
       <c r="A21" s="1">
@@ -2906,8 +2915,8 @@
       <c r="AM21" s="2"/>
       <c r="AV21" s="2"/>
       <c r="AW21" s="2"/>
-      <c r="BJ21" s="70"/>
-      <c r="BK21" s="70"/>
+      <c r="BJ21" s="71"/>
+      <c r="BK21" s="71"/>
     </row>
     <row r="22" spans="1:63">
       <c r="A22" s="1">
@@ -2939,8 +2948,8 @@
       <c r="AM22" s="2"/>
       <c r="AV22" s="2"/>
       <c r="AW22" s="2"/>
-      <c r="BJ22" s="70"/>
-      <c r="BK22" s="70"/>
+      <c r="BJ22" s="71"/>
+      <c r="BK22" s="71"/>
     </row>
     <row r="23" spans="1:63">
       <c r="A23" s="1">
@@ -2972,8 +2981,8 @@
       <c r="AM23" s="2"/>
       <c r="AV23" s="2"/>
       <c r="AW23" s="2"/>
-      <c r="BJ23" s="70"/>
-      <c r="BK23" s="70"/>
+      <c r="BJ23" s="71"/>
+      <c r="BK23" s="71"/>
     </row>
     <row r="24" spans="1:63">
       <c r="A24" s="1">
@@ -3005,8 +3014,8 @@
       <c r="AM24" s="2"/>
       <c r="AV24" s="2"/>
       <c r="AW24" s="2"/>
-      <c r="BJ24" s="70"/>
-      <c r="BK24" s="70"/>
+      <c r="BJ24" s="71"/>
+      <c r="BK24" s="71"/>
     </row>
     <row r="25" spans="1:63">
       <c r="A25" s="1">
@@ -3038,76 +3047,76 @@
       <c r="AM25" s="2"/>
       <c r="AV25" s="2"/>
       <c r="AW25" s="2"/>
-      <c r="BJ25" s="70"/>
-      <c r="BK25" s="70"/>
-    </row>
-    <row r="26" s="47" customFormat="1" spans="1:64">
-      <c r="A26" s="49" t="s">
+      <c r="BJ25" s="71"/>
+      <c r="BK25" s="71"/>
+    </row>
+    <row r="26" s="48" customFormat="1" spans="1:64">
+      <c r="A26" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="49"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="53"/>
-      <c r="Q26" s="53"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="51"/>
-      <c r="T26" s="51"/>
-      <c r="U26" s="51"/>
-      <c r="V26" s="51"/>
-      <c r="W26" s="51"/>
-      <c r="X26" s="51"/>
-      <c r="Y26" s="51"/>
-      <c r="Z26" s="51"/>
-      <c r="AA26" s="51"/>
-      <c r="AB26" s="51"/>
-      <c r="AC26" s="51"/>
-      <c r="AD26" s="51"/>
-      <c r="AE26" s="53"/>
-      <c r="AF26" s="49"/>
-      <c r="AG26" s="55"/>
-      <c r="AH26" s="51"/>
-      <c r="AI26" s="49"/>
-      <c r="AJ26" s="50"/>
-      <c r="AK26" s="50"/>
-      <c r="AL26" s="50"/>
-      <c r="AM26" s="50"/>
-      <c r="AN26" s="53"/>
-      <c r="AO26" s="53"/>
-      <c r="AP26" s="51"/>
-      <c r="AQ26" s="51"/>
-      <c r="AR26" s="51"/>
-      <c r="AS26" s="51"/>
-      <c r="AT26" s="51"/>
-      <c r="AU26" s="51"/>
-      <c r="AV26" s="50"/>
-      <c r="AW26" s="50"/>
-      <c r="AX26" s="51"/>
-      <c r="AY26" s="51"/>
-      <c r="AZ26" s="51"/>
-      <c r="BA26" s="51"/>
-      <c r="BB26" s="51"/>
-      <c r="BC26" s="51"/>
-      <c r="BD26" s="51"/>
-      <c r="BE26" s="51"/>
-      <c r="BF26" s="51"/>
-      <c r="BG26" s="51"/>
-      <c r="BH26" s="51"/>
-      <c r="BI26" s="54"/>
-      <c r="BJ26" s="71"/>
-      <c r="BK26" s="71"/>
-      <c r="BL26" s="54"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="54"/>
+      <c r="R26" s="52"/>
+      <c r="S26" s="52"/>
+      <c r="T26" s="52"/>
+      <c r="U26" s="52"/>
+      <c r="V26" s="52"/>
+      <c r="W26" s="52"/>
+      <c r="X26" s="52"/>
+      <c r="Y26" s="52"/>
+      <c r="Z26" s="52"/>
+      <c r="AA26" s="52"/>
+      <c r="AB26" s="52"/>
+      <c r="AC26" s="52"/>
+      <c r="AD26" s="52"/>
+      <c r="AE26" s="54"/>
+      <c r="AF26" s="50"/>
+      <c r="AG26" s="56"/>
+      <c r="AH26" s="52"/>
+      <c r="AI26" s="50"/>
+      <c r="AJ26" s="51"/>
+      <c r="AK26" s="51"/>
+      <c r="AL26" s="51"/>
+      <c r="AM26" s="51"/>
+      <c r="AN26" s="54"/>
+      <c r="AO26" s="54"/>
+      <c r="AP26" s="52"/>
+      <c r="AQ26" s="52"/>
+      <c r="AR26" s="52"/>
+      <c r="AS26" s="52"/>
+      <c r="AT26" s="52"/>
+      <c r="AU26" s="52"/>
+      <c r="AV26" s="51"/>
+      <c r="AW26" s="51"/>
+      <c r="AX26" s="52"/>
+      <c r="AY26" s="52"/>
+      <c r="AZ26" s="52"/>
+      <c r="BA26" s="52"/>
+      <c r="BB26" s="52"/>
+      <c r="BC26" s="52"/>
+      <c r="BD26" s="52"/>
+      <c r="BE26" s="52"/>
+      <c r="BF26" s="52"/>
+      <c r="BG26" s="52"/>
+      <c r="BH26" s="52"/>
+      <c r="BI26" s="55"/>
+      <c r="BJ26" s="72"/>
+      <c r="BK26" s="72"/>
+      <c r="BL26" s="55"/>
     </row>
     <row r="27" spans="1:63">
       <c r="A27" s="1">
@@ -3133,8 +3142,8 @@
       <c r="AM27" s="2"/>
       <c r="AV27" s="2"/>
       <c r="AW27" s="2"/>
-      <c r="BJ27" s="70"/>
-      <c r="BK27" s="70"/>
+      <c r="BJ27" s="71"/>
+      <c r="BK27" s="71"/>
     </row>
     <row r="28" spans="1:63">
       <c r="A28" s="1">
@@ -3166,8 +3175,8 @@
       <c r="AM28" s="2"/>
       <c r="AV28" s="2"/>
       <c r="AW28" s="2"/>
-      <c r="BJ28" s="70"/>
-      <c r="BK28" s="70"/>
+      <c r="BJ28" s="71"/>
+      <c r="BK28" s="71"/>
     </row>
     <row r="29" spans="1:63">
       <c r="A29" s="1">
@@ -3199,8 +3208,8 @@
       <c r="AM29" s="2"/>
       <c r="AV29" s="2"/>
       <c r="AW29" s="2"/>
-      <c r="BJ29" s="70"/>
-      <c r="BK29" s="70"/>
+      <c r="BJ29" s="71"/>
+      <c r="BK29" s="71"/>
     </row>
     <row r="30" spans="1:63">
       <c r="A30" s="1">
@@ -3232,8 +3241,8 @@
       <c r="AM30" s="2"/>
       <c r="AV30" s="2"/>
       <c r="AW30" s="2"/>
-      <c r="BJ30" s="70"/>
-      <c r="BK30" s="70"/>
+      <c r="BJ30" s="71"/>
+      <c r="BK30" s="71"/>
     </row>
     <row r="31" spans="1:63">
       <c r="A31" s="1">
@@ -3265,8 +3274,8 @@
       <c r="AM31" s="2"/>
       <c r="AV31" s="2"/>
       <c r="AW31" s="2"/>
-      <c r="BJ31" s="70"/>
-      <c r="BK31" s="70"/>
+      <c r="BJ31" s="71"/>
+      <c r="BK31" s="71"/>
     </row>
     <row r="32" spans="1:63">
       <c r="A32" s="1">
@@ -3298,8 +3307,8 @@
       <c r="AM32" s="2"/>
       <c r="AV32" s="2"/>
       <c r="AW32" s="2"/>
-      <c r="BJ32" s="70"/>
-      <c r="BK32" s="70"/>
+      <c r="BJ32" s="71"/>
+      <c r="BK32" s="71"/>
     </row>
     <row r="33" spans="1:63">
       <c r="A33" s="1">
@@ -3331,8 +3340,8 @@
       <c r="AM33" s="2"/>
       <c r="AV33" s="2"/>
       <c r="AW33" s="2"/>
-      <c r="BJ33" s="70"/>
-      <c r="BK33" s="70"/>
+      <c r="BJ33" s="71"/>
+      <c r="BK33" s="71"/>
     </row>
     <row r="34" spans="1:63">
       <c r="A34" s="1">
@@ -3367,79 +3376,79 @@
       <c r="AM34" s="2"/>
       <c r="AV34" s="2"/>
       <c r="AW34" s="2"/>
-      <c r="BJ34" s="70"/>
-      <c r="BK34" s="70"/>
-    </row>
-    <row r="35" s="47" customFormat="1" spans="1:64">
-      <c r="A35" s="49" t="s">
+      <c r="BJ34" s="71"/>
+      <c r="BK34" s="71"/>
+    </row>
+    <row r="35" s="48" customFormat="1" spans="1:64">
+      <c r="A35" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="B35" s="49"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="54">
+      <c r="B35" s="50"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="55">
         <f>AVERAGE(K27:K34)</f>
         <v>1.3925</v>
       </c>
-      <c r="L35" s="49"/>
-      <c r="M35" s="49"/>
-      <c r="N35" s="50"/>
-      <c r="O35" s="51"/>
-      <c r="P35" s="53"/>
-      <c r="Q35" s="53"/>
-      <c r="R35" s="51"/>
-      <c r="S35" s="51"/>
-      <c r="T35" s="51"/>
-      <c r="U35" s="51"/>
-      <c r="V35" s="51"/>
-      <c r="W35" s="51"/>
-      <c r="X35" s="51"/>
-      <c r="Y35" s="51"/>
-      <c r="Z35" s="51"/>
-      <c r="AA35" s="51"/>
-      <c r="AB35" s="51"/>
-      <c r="AC35" s="51"/>
-      <c r="AD35" s="51"/>
-      <c r="AE35" s="53"/>
-      <c r="AF35" s="49"/>
-      <c r="AG35" s="55"/>
-      <c r="AH35" s="51"/>
-      <c r="AI35" s="49"/>
-      <c r="AJ35" s="50"/>
-      <c r="AK35" s="50"/>
-      <c r="AL35" s="50"/>
-      <c r="AM35" s="50"/>
-      <c r="AN35" s="53"/>
-      <c r="AO35" s="53"/>
-      <c r="AP35" s="51"/>
-      <c r="AQ35" s="51"/>
-      <c r="AR35" s="51"/>
-      <c r="AS35" s="51"/>
-      <c r="AT35" s="51"/>
-      <c r="AU35" s="51"/>
-      <c r="AV35" s="50"/>
-      <c r="AW35" s="50"/>
-      <c r="AX35" s="51"/>
-      <c r="AY35" s="51"/>
-      <c r="AZ35" s="51"/>
-      <c r="BA35" s="51"/>
-      <c r="BB35" s="51"/>
-      <c r="BC35" s="51"/>
-      <c r="BD35" s="51"/>
-      <c r="BE35" s="51"/>
-      <c r="BF35" s="51"/>
-      <c r="BG35" s="51"/>
-      <c r="BH35" s="51"/>
-      <c r="BI35" s="54"/>
-      <c r="BJ35" s="71"/>
-      <c r="BK35" s="71"/>
-      <c r="BL35" s="54"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="51"/>
+      <c r="O35" s="52"/>
+      <c r="P35" s="54"/>
+      <c r="Q35" s="54"/>
+      <c r="R35" s="52"/>
+      <c r="S35" s="52"/>
+      <c r="T35" s="52"/>
+      <c r="U35" s="52"/>
+      <c r="V35" s="52"/>
+      <c r="W35" s="52"/>
+      <c r="X35" s="52"/>
+      <c r="Y35" s="52"/>
+      <c r="Z35" s="52"/>
+      <c r="AA35" s="52"/>
+      <c r="AB35" s="52"/>
+      <c r="AC35" s="52"/>
+      <c r="AD35" s="52"/>
+      <c r="AE35" s="54"/>
+      <c r="AF35" s="50"/>
+      <c r="AG35" s="56"/>
+      <c r="AH35" s="52"/>
+      <c r="AI35" s="50"/>
+      <c r="AJ35" s="51"/>
+      <c r="AK35" s="51"/>
+      <c r="AL35" s="51"/>
+      <c r="AM35" s="51"/>
+      <c r="AN35" s="54"/>
+      <c r="AO35" s="54"/>
+      <c r="AP35" s="52"/>
+      <c r="AQ35" s="52"/>
+      <c r="AR35" s="52"/>
+      <c r="AS35" s="52"/>
+      <c r="AT35" s="52"/>
+      <c r="AU35" s="52"/>
+      <c r="AV35" s="51"/>
+      <c r="AW35" s="51"/>
+      <c r="AX35" s="52"/>
+      <c r="AY35" s="52"/>
+      <c r="AZ35" s="52"/>
+      <c r="BA35" s="52"/>
+      <c r="BB35" s="52"/>
+      <c r="BC35" s="52"/>
+      <c r="BD35" s="52"/>
+      <c r="BE35" s="52"/>
+      <c r="BF35" s="52"/>
+      <c r="BG35" s="52"/>
+      <c r="BH35" s="52"/>
+      <c r="BI35" s="55"/>
+      <c r="BJ35" s="72"/>
+      <c r="BK35" s="72"/>
+      <c r="BL35" s="55"/>
     </row>
     <row r="36" spans="1:63">
       <c r="A36" s="1">
@@ -3456,8 +3465,8 @@
       <c r="AM36" s="2"/>
       <c r="AV36" s="2"/>
       <c r="AW36" s="2"/>
-      <c r="BJ36" s="70"/>
-      <c r="BK36" s="70"/>
+      <c r="BJ36" s="71"/>
+      <c r="BK36" s="71"/>
     </row>
     <row r="37" spans="1:63">
       <c r="A37" s="1">
@@ -3474,8 +3483,8 @@
       <c r="AM37" s="2"/>
       <c r="AV37" s="2"/>
       <c r="AW37" s="2"/>
-      <c r="BJ37" s="70"/>
-      <c r="BK37" s="70"/>
+      <c r="BJ37" s="71"/>
+      <c r="BK37" s="71"/>
     </row>
     <row r="38" spans="1:63">
       <c r="A38" s="1">
@@ -3492,8 +3501,8 @@
       <c r="AM38" s="2"/>
       <c r="AV38" s="2"/>
       <c r="AW38" s="2"/>
-      <c r="BJ38" s="70"/>
-      <c r="BK38" s="70"/>
+      <c r="BJ38" s="71"/>
+      <c r="BK38" s="71"/>
     </row>
     <row r="39" spans="1:63">
       <c r="A39" s="1">
@@ -3510,8 +3519,8 @@
       <c r="AM39" s="2"/>
       <c r="AV39" s="2"/>
       <c r="AW39" s="2"/>
-      <c r="BJ39" s="70"/>
-      <c r="BK39" s="70"/>
+      <c r="BJ39" s="71"/>
+      <c r="BK39" s="71"/>
     </row>
     <row r="40" spans="1:63">
       <c r="A40" s="1">
@@ -3528,8 +3537,8 @@
       <c r="AM40" s="2"/>
       <c r="AV40" s="2"/>
       <c r="AW40" s="2"/>
-      <c r="BJ40" s="70"/>
-      <c r="BK40" s="70"/>
+      <c r="BJ40" s="71"/>
+      <c r="BK40" s="71"/>
     </row>
     <row r="41" spans="1:63">
       <c r="A41" s="1">
@@ -3556,8 +3565,8 @@
         <f t="shared" ref="BG41:BG46" si="3">BA41*(1-BC41)</f>
         <v>0</v>
       </c>
-      <c r="BJ41" s="70"/>
-      <c r="BK41" s="70"/>
+      <c r="BJ41" s="71"/>
+      <c r="BK41" s="71"/>
     </row>
     <row r="42" spans="1:64">
       <c r="A42" s="1">
@@ -3627,7 +3636,7 @@
       <c r="AV42" s="3">
         <v>0</v>
       </c>
-      <c r="AW42" s="65">
+      <c r="AW42" s="66">
         <v>393738756</v>
       </c>
       <c r="AX42" s="3">
@@ -3669,19 +3678,19 @@
         <f t="shared" si="3"/>
         <v>20600951765.5981</v>
       </c>
-      <c r="BI42" s="48">
+      <c r="BI42" s="49">
         <f>BD42/AW42</f>
         <v>4.00899029477376</v>
       </c>
-      <c r="BJ42" s="70">
+      <c r="BJ42" s="71">
         <f>BE42/AW42</f>
         <v>6.12282154110902</v>
       </c>
-      <c r="BK42" s="70">
+      <c r="BK42" s="71">
         <f>BF42/AW42</f>
         <v>23.4242272009576</v>
       </c>
-      <c r="BL42" s="48">
+      <c r="BL42" s="49">
         <f>BG42/AW42</f>
         <v>52.3213715989851</v>
       </c>
@@ -3752,7 +3761,7 @@
         <v>1876529173.79727</v>
       </c>
       <c r="AV43" s="3"/>
-      <c r="AW43" s="66">
+      <c r="AW43" s="67">
         <v>69005147</v>
       </c>
       <c r="AX43" s="3">
@@ -3794,19 +3803,19 @@
         <f t="shared" si="3"/>
         <v>1682576307.84007</v>
       </c>
-      <c r="BI43" s="48">
+      <c r="BI43" s="49">
         <f>BD43/AW43</f>
         <v>6.76415474316685</v>
       </c>
-      <c r="BJ43" s="70">
+      <c r="BJ43" s="71">
         <f>BE43/AW43</f>
         <v>12.1754785377003</v>
       </c>
-      <c r="BK43" s="70">
+      <c r="BK43" s="71">
         <f>BF43/AW43</f>
         <v>19.0552337148415</v>
       </c>
-      <c r="BL43" s="48">
+      <c r="BL43" s="49">
         <f>BG43/AW43</f>
         <v>24.3833450255539</v>
       </c>
@@ -3842,7 +3851,7 @@
       <c r="M44" s="5"/>
       <c r="AK44" s="3"/>
       <c r="AV44" s="3"/>
-      <c r="AW44" s="65"/>
+      <c r="AW44" s="66"/>
       <c r="BB44" s="3">
         <v>5913312.15</v>
       </c>
@@ -3866,8 +3875,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="BJ44" s="70"/>
-      <c r="BK44" s="70"/>
+      <c r="BJ44" s="71"/>
+      <c r="BK44" s="71"/>
     </row>
     <row r="45" spans="1:64">
       <c r="A45" s="1">
@@ -3901,10 +3910,10 @@
       <c r="AG45" s="4">
         <v>0.12</v>
       </c>
-      <c r="AK45" s="58">
+      <c r="AK45" s="59">
         <v>206967659</v>
       </c>
-      <c r="AL45" s="59"/>
+      <c r="AL45" s="60"/>
       <c r="AN45" s="5">
         <v>0.12</v>
       </c>
@@ -3933,7 +3942,7 @@
       <c r="AV45" s="3">
         <v>0</v>
       </c>
-      <c r="AW45" s="67">
+      <c r="AW45" s="68">
         <v>66585147</v>
       </c>
       <c r="AX45" s="3">
@@ -3975,19 +3984,19 @@
         <f t="shared" si="3"/>
         <v>10551672516.1374</v>
       </c>
-      <c r="BI45" s="48">
+      <c r="BI45" s="49">
         <f>BD45/AW45</f>
         <v>25.5986071031079</v>
       </c>
-      <c r="BJ45" s="70">
+      <c r="BJ45" s="71">
         <f>BE45/AW45</f>
         <v>46.0774927855942</v>
       </c>
-      <c r="BK45" s="70">
+      <c r="BK45" s="71">
         <f>BF45/AW45</f>
         <v>100.164299093727</v>
       </c>
-      <c r="BL45" s="48">
+      <c r="BL45" s="49">
         <f>BG45/AW45</f>
         <v>158.468862674996</v>
       </c>
@@ -4024,7 +4033,7 @@
       <c r="AG46" s="4">
         <v>0.12</v>
       </c>
-      <c r="AK46" s="58">
+      <c r="AK46" s="59">
         <v>1008801360.47</v>
       </c>
       <c r="AN46" s="5">
@@ -4055,7 +4064,7 @@
       <c r="AV46" s="3">
         <v>0</v>
       </c>
-      <c r="AW46" s="67">
+      <c r="AW46" s="68">
         <v>104877931</v>
       </c>
       <c r="AX46" s="3">
@@ -4097,19 +4106,19 @@
         <f t="shared" si="3"/>
         <v>57832418307.7574</v>
       </c>
-      <c r="BI46" s="48">
+      <c r="BI46" s="49">
         <f>BD46/AW46</f>
         <v>78.4341933425214</v>
       </c>
-      <c r="BJ46" s="70">
+      <c r="BJ46" s="71">
         <f>BE46/AW46</f>
         <v>141.181548016539</v>
       </c>
-      <c r="BK46" s="70">
+      <c r="BK46" s="71">
         <f>BF46/AW46</f>
         <v>331.441580911198</v>
       </c>
-      <c r="BL46" s="48">
+      <c r="BL46" s="49">
         <f>BG46/AW46</f>
         <v>551.426003128889</v>
       </c>
@@ -4121,7 +4130,7 @@
       <c r="AG47" s="4">
         <v>0.12</v>
       </c>
-      <c r="AK47" s="58">
+      <c r="AK47" s="59">
         <v>1008801360.47</v>
       </c>
       <c r="AN47" s="5">
@@ -4152,7 +4161,7 @@
       <c r="AV47" s="3">
         <v>0</v>
       </c>
-      <c r="AW47" s="66">
+      <c r="AW47" s="67">
         <v>69005147</v>
       </c>
       <c r="AX47" s="3">
@@ -4187,19 +4196,19 @@
         <f>BA47*(1-E47)</f>
         <v>59102550223.8217</v>
       </c>
-      <c r="BI47" s="48">
+      <c r="BI47" s="49">
         <f>BD47/AW47</f>
         <v>121.8268255253</v>
       </c>
-      <c r="BJ47" s="70">
+      <c r="BJ47" s="71">
         <f>BE47/AW47</f>
         <v>219.28828594554</v>
       </c>
-      <c r="BK47" s="70">
+      <c r="BK47" s="71">
         <f>BF47/AW47</f>
         <v>514.807049435258</v>
       </c>
-      <c r="BL47" s="48">
+      <c r="BL47" s="49">
         <f>BG47/AW47</f>
         <v>856.494809348376</v>
       </c>
@@ -4643,93 +4652,93 @@
         <f>BA61*(1-E61)</f>
         <v>4926281961816.99</v>
       </c>
-      <c r="BI61" s="48">
+      <c r="BI61" s="49">
         <f>BD61/AW61</f>
         <v>2.06169747176937</v>
       </c>
-      <c r="BJ61" s="70">
+      <c r="BJ61" s="71">
         <f>BE61/AW61</f>
         <v>93.1957983911378</v>
       </c>
-      <c r="BK61" s="70">
+      <c r="BK61" s="71">
         <f>BF61/AW61</f>
         <v>366.025047482403</v>
       </c>
-      <c r="BL61" s="48">
+      <c r="BL61" s="49">
         <f>BG61/AW61</f>
         <v>910.091446861572</v>
       </c>
     </row>
-    <row r="62" s="47" customFormat="1" spans="1:64">
-      <c r="A62" s="49" t="s">
+    <row r="62" s="48" customFormat="1" spans="1:64">
+      <c r="A62" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="B62" s="49"/>
-      <c r="C62" s="49"/>
-      <c r="D62" s="51"/>
-      <c r="E62" s="53"/>
-      <c r="F62" s="51"/>
-      <c r="G62" s="51"/>
-      <c r="H62" s="51"/>
-      <c r="I62" s="49"/>
-      <c r="J62" s="49"/>
-      <c r="K62" s="54">
+      <c r="B62" s="50"/>
+      <c r="C62" s="50"/>
+      <c r="D62" s="52"/>
+      <c r="E62" s="54"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="52"/>
+      <c r="H62" s="52"/>
+      <c r="I62" s="50"/>
+      <c r="J62" s="50"/>
+      <c r="K62" s="55">
         <f>AVERAGE(K51:K61)</f>
         <v>0.843636363636364</v>
       </c>
-      <c r="L62" s="49"/>
-      <c r="M62" s="49"/>
-      <c r="N62" s="49"/>
-      <c r="O62" s="51"/>
-      <c r="P62" s="53"/>
-      <c r="Q62" s="53"/>
-      <c r="R62" s="51"/>
-      <c r="S62" s="51"/>
-      <c r="T62" s="51"/>
-      <c r="U62" s="51"/>
-      <c r="V62" s="51"/>
-      <c r="W62" s="51"/>
-      <c r="X62" s="51"/>
-      <c r="Y62" s="51"/>
-      <c r="Z62" s="51"/>
-      <c r="AA62" s="51"/>
-      <c r="AB62" s="51"/>
-      <c r="AC62" s="51"/>
-      <c r="AD62" s="51"/>
-      <c r="AE62" s="53"/>
-      <c r="AF62" s="49"/>
-      <c r="AG62" s="55"/>
-      <c r="AH62" s="51"/>
-      <c r="AI62" s="49"/>
-      <c r="AJ62" s="49"/>
-      <c r="AK62" s="49"/>
-      <c r="AL62" s="49"/>
-      <c r="AM62" s="49"/>
-      <c r="AN62" s="53"/>
-      <c r="AO62" s="53"/>
-      <c r="AP62" s="51"/>
-      <c r="AQ62" s="51"/>
-      <c r="AR62" s="51"/>
-      <c r="AS62" s="51"/>
-      <c r="AT62" s="51"/>
-      <c r="AU62" s="51"/>
-      <c r="AV62" s="49"/>
-      <c r="AW62" s="49"/>
-      <c r="AX62" s="51"/>
-      <c r="AY62" s="51"/>
-      <c r="AZ62" s="51"/>
-      <c r="BA62" s="51"/>
-      <c r="BB62" s="51"/>
-      <c r="BC62" s="51"/>
-      <c r="BD62" s="51"/>
-      <c r="BE62" s="51"/>
-      <c r="BF62" s="51"/>
-      <c r="BG62" s="51"/>
-      <c r="BH62" s="51"/>
-      <c r="BI62" s="54"/>
-      <c r="BJ62" s="54"/>
-      <c r="BK62" s="54"/>
-      <c r="BL62" s="54"/>
+      <c r="L62" s="50"/>
+      <c r="M62" s="50"/>
+      <c r="N62" s="50"/>
+      <c r="O62" s="52"/>
+      <c r="P62" s="54"/>
+      <c r="Q62" s="54"/>
+      <c r="R62" s="52"/>
+      <c r="S62" s="52"/>
+      <c r="T62" s="52"/>
+      <c r="U62" s="52"/>
+      <c r="V62" s="52"/>
+      <c r="W62" s="52"/>
+      <c r="X62" s="52"/>
+      <c r="Y62" s="52"/>
+      <c r="Z62" s="52"/>
+      <c r="AA62" s="52"/>
+      <c r="AB62" s="52"/>
+      <c r="AC62" s="52"/>
+      <c r="AD62" s="52"/>
+      <c r="AE62" s="54"/>
+      <c r="AF62" s="50"/>
+      <c r="AG62" s="56"/>
+      <c r="AH62" s="52"/>
+      <c r="AI62" s="50"/>
+      <c r="AJ62" s="50"/>
+      <c r="AK62" s="50"/>
+      <c r="AL62" s="50"/>
+      <c r="AM62" s="50"/>
+      <c r="AN62" s="54"/>
+      <c r="AO62" s="54"/>
+      <c r="AP62" s="52"/>
+      <c r="AQ62" s="52"/>
+      <c r="AR62" s="52"/>
+      <c r="AS62" s="52"/>
+      <c r="AT62" s="52"/>
+      <c r="AU62" s="52"/>
+      <c r="AV62" s="50"/>
+      <c r="AW62" s="50"/>
+      <c r="AX62" s="52"/>
+      <c r="AY62" s="52"/>
+      <c r="AZ62" s="52"/>
+      <c r="BA62" s="52"/>
+      <c r="BB62" s="52"/>
+      <c r="BC62" s="52"/>
+      <c r="BD62" s="52"/>
+      <c r="BE62" s="52"/>
+      <c r="BF62" s="52"/>
+      <c r="BG62" s="52"/>
+      <c r="BH62" s="52"/>
+      <c r="BI62" s="55"/>
+      <c r="BJ62" s="55"/>
+      <c r="BK62" s="55"/>
+      <c r="BL62" s="55"/>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1">
@@ -5014,76 +5023,76 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="77" s="47" customFormat="1" spans="1:64">
-      <c r="A77" s="49" t="s">
+    <row r="77" s="48" customFormat="1" spans="1:64">
+      <c r="A77" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="B77" s="49"/>
-      <c r="C77" s="49"/>
-      <c r="D77" s="51"/>
-      <c r="E77" s="53"/>
-      <c r="F77" s="51"/>
-      <c r="G77" s="51"/>
-      <c r="H77" s="51"/>
-      <c r="I77" s="49"/>
-      <c r="J77" s="49"/>
-      <c r="K77" s="54">
+      <c r="B77" s="50"/>
+      <c r="C77" s="50"/>
+      <c r="D77" s="52"/>
+      <c r="E77" s="54"/>
+      <c r="F77" s="52"/>
+      <c r="G77" s="52"/>
+      <c r="H77" s="52"/>
+      <c r="I77" s="50"/>
+      <c r="J77" s="50"/>
+      <c r="K77" s="55">
         <f>AVERAGE(K64:K76)</f>
         <v>1.52769230769231</v>
       </c>
-      <c r="L77" s="49"/>
-      <c r="M77" s="49"/>
-      <c r="N77" s="49"/>
-      <c r="O77" s="51"/>
-      <c r="P77" s="53"/>
-      <c r="Q77" s="53"/>
-      <c r="R77" s="51"/>
-      <c r="S77" s="51"/>
-      <c r="T77" s="51"/>
-      <c r="U77" s="51"/>
-      <c r="V77" s="51"/>
-      <c r="W77" s="51"/>
-      <c r="X77" s="51"/>
-      <c r="Y77" s="51"/>
-      <c r="Z77" s="51"/>
-      <c r="AA77" s="51"/>
-      <c r="AB77" s="51"/>
-      <c r="AC77" s="51"/>
-      <c r="AD77" s="51"/>
-      <c r="AE77" s="53"/>
-      <c r="AF77" s="49"/>
-      <c r="AG77" s="55"/>
-      <c r="AH77" s="51"/>
-      <c r="AI77" s="49"/>
-      <c r="AJ77" s="49"/>
-      <c r="AK77" s="49"/>
-      <c r="AL77" s="49"/>
-      <c r="AM77" s="49"/>
-      <c r="AN77" s="53"/>
-      <c r="AO77" s="53"/>
-      <c r="AP77" s="51"/>
-      <c r="AQ77" s="51"/>
-      <c r="AR77" s="51"/>
-      <c r="AS77" s="51"/>
-      <c r="AT77" s="51"/>
-      <c r="AU77" s="51"/>
-      <c r="AV77" s="49"/>
-      <c r="AW77" s="49"/>
-      <c r="AX77" s="51"/>
-      <c r="AY77" s="51"/>
-      <c r="AZ77" s="51"/>
-      <c r="BA77" s="51"/>
-      <c r="BB77" s="51"/>
-      <c r="BC77" s="51"/>
-      <c r="BD77" s="51"/>
-      <c r="BE77" s="51"/>
-      <c r="BF77" s="51"/>
-      <c r="BG77" s="51"/>
-      <c r="BH77" s="51"/>
-      <c r="BI77" s="54"/>
-      <c r="BJ77" s="54"/>
-      <c r="BK77" s="54"/>
-      <c r="BL77" s="54"/>
+      <c r="L77" s="50"/>
+      <c r="M77" s="50"/>
+      <c r="N77" s="50"/>
+      <c r="O77" s="52"/>
+      <c r="P77" s="54"/>
+      <c r="Q77" s="54"/>
+      <c r="R77" s="52"/>
+      <c r="S77" s="52"/>
+      <c r="T77" s="52"/>
+      <c r="U77" s="52"/>
+      <c r="V77" s="52"/>
+      <c r="W77" s="52"/>
+      <c r="X77" s="52"/>
+      <c r="Y77" s="52"/>
+      <c r="Z77" s="52"/>
+      <c r="AA77" s="52"/>
+      <c r="AB77" s="52"/>
+      <c r="AC77" s="52"/>
+      <c r="AD77" s="52"/>
+      <c r="AE77" s="54"/>
+      <c r="AF77" s="50"/>
+      <c r="AG77" s="56"/>
+      <c r="AH77" s="52"/>
+      <c r="AI77" s="50"/>
+      <c r="AJ77" s="50"/>
+      <c r="AK77" s="50"/>
+      <c r="AL77" s="50"/>
+      <c r="AM77" s="50"/>
+      <c r="AN77" s="54"/>
+      <c r="AO77" s="54"/>
+      <c r="AP77" s="52"/>
+      <c r="AQ77" s="52"/>
+      <c r="AR77" s="52"/>
+      <c r="AS77" s="52"/>
+      <c r="AT77" s="52"/>
+      <c r="AU77" s="52"/>
+      <c r="AV77" s="50"/>
+      <c r="AW77" s="50"/>
+      <c r="AX77" s="52"/>
+      <c r="AY77" s="52"/>
+      <c r="AZ77" s="52"/>
+      <c r="BA77" s="52"/>
+      <c r="BB77" s="52"/>
+      <c r="BC77" s="52"/>
+      <c r="BD77" s="52"/>
+      <c r="BE77" s="52"/>
+      <c r="BF77" s="52"/>
+      <c r="BG77" s="52"/>
+      <c r="BH77" s="52"/>
+      <c r="BI77" s="55"/>
+      <c r="BJ77" s="55"/>
+      <c r="BK77" s="55"/>
+      <c r="BL77" s="55"/>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="1">
@@ -5197,76 +5206,76 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="86" s="47" customFormat="1" spans="1:64">
-      <c r="A86" s="49" t="s">
+    <row r="86" s="48" customFormat="1" spans="1:64">
+      <c r="A86" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="B86" s="49"/>
-      <c r="C86" s="49"/>
-      <c r="D86" s="51"/>
-      <c r="E86" s="53"/>
-      <c r="F86" s="51"/>
-      <c r="G86" s="51"/>
-      <c r="H86" s="51"/>
-      <c r="I86" s="49"/>
-      <c r="J86" s="49"/>
-      <c r="K86" s="54">
+      <c r="B86" s="50"/>
+      <c r="C86" s="50"/>
+      <c r="D86" s="52"/>
+      <c r="E86" s="54"/>
+      <c r="F86" s="52"/>
+      <c r="G86" s="52"/>
+      <c r="H86" s="52"/>
+      <c r="I86" s="50"/>
+      <c r="J86" s="50"/>
+      <c r="K86" s="55">
         <f>AVERAGE(K78:K85)</f>
         <v>0.67375</v>
       </c>
-      <c r="L86" s="49"/>
-      <c r="M86" s="49"/>
-      <c r="N86" s="49"/>
-      <c r="O86" s="51"/>
-      <c r="P86" s="53"/>
-      <c r="Q86" s="53"/>
-      <c r="R86" s="51"/>
-      <c r="S86" s="51"/>
-      <c r="T86" s="51"/>
-      <c r="U86" s="51"/>
-      <c r="V86" s="51"/>
-      <c r="W86" s="51"/>
-      <c r="X86" s="51"/>
-      <c r="Y86" s="51"/>
-      <c r="Z86" s="51"/>
-      <c r="AA86" s="51"/>
-      <c r="AB86" s="51"/>
-      <c r="AC86" s="51"/>
-      <c r="AD86" s="51"/>
-      <c r="AE86" s="53"/>
-      <c r="AF86" s="49"/>
-      <c r="AG86" s="55"/>
-      <c r="AH86" s="51"/>
-      <c r="AI86" s="49"/>
-      <c r="AJ86" s="49"/>
-      <c r="AK86" s="49"/>
-      <c r="AL86" s="49"/>
-      <c r="AM86" s="49"/>
-      <c r="AN86" s="53"/>
-      <c r="AO86" s="53"/>
-      <c r="AP86" s="51"/>
-      <c r="AQ86" s="51"/>
-      <c r="AR86" s="51"/>
-      <c r="AS86" s="51"/>
-      <c r="AT86" s="51"/>
-      <c r="AU86" s="51"/>
-      <c r="AV86" s="49"/>
-      <c r="AW86" s="49"/>
-      <c r="AX86" s="51"/>
-      <c r="AY86" s="51"/>
-      <c r="AZ86" s="51"/>
-      <c r="BA86" s="51"/>
-      <c r="BB86" s="51"/>
-      <c r="BC86" s="51"/>
-      <c r="BD86" s="51"/>
-      <c r="BE86" s="51"/>
-      <c r="BF86" s="51"/>
-      <c r="BG86" s="51"/>
-      <c r="BH86" s="51"/>
-      <c r="BI86" s="54"/>
-      <c r="BJ86" s="54"/>
-      <c r="BK86" s="54"/>
-      <c r="BL86" s="54"/>
+      <c r="L86" s="50"/>
+      <c r="M86" s="50"/>
+      <c r="N86" s="50"/>
+      <c r="O86" s="52"/>
+      <c r="P86" s="54"/>
+      <c r="Q86" s="54"/>
+      <c r="R86" s="52"/>
+      <c r="S86" s="52"/>
+      <c r="T86" s="52"/>
+      <c r="U86" s="52"/>
+      <c r="V86" s="52"/>
+      <c r="W86" s="52"/>
+      <c r="X86" s="52"/>
+      <c r="Y86" s="52"/>
+      <c r="Z86" s="52"/>
+      <c r="AA86" s="52"/>
+      <c r="AB86" s="52"/>
+      <c r="AC86" s="52"/>
+      <c r="AD86" s="52"/>
+      <c r="AE86" s="54"/>
+      <c r="AF86" s="50"/>
+      <c r="AG86" s="56"/>
+      <c r="AH86" s="52"/>
+      <c r="AI86" s="50"/>
+      <c r="AJ86" s="50"/>
+      <c r="AK86" s="50"/>
+      <c r="AL86" s="50"/>
+      <c r="AM86" s="50"/>
+      <c r="AN86" s="54"/>
+      <c r="AO86" s="54"/>
+      <c r="AP86" s="52"/>
+      <c r="AQ86" s="52"/>
+      <c r="AR86" s="52"/>
+      <c r="AS86" s="52"/>
+      <c r="AT86" s="52"/>
+      <c r="AU86" s="52"/>
+      <c r="AV86" s="50"/>
+      <c r="AW86" s="50"/>
+      <c r="AX86" s="52"/>
+      <c r="AY86" s="52"/>
+      <c r="AZ86" s="52"/>
+      <c r="BA86" s="52"/>
+      <c r="BB86" s="52"/>
+      <c r="BC86" s="52"/>
+      <c r="BD86" s="52"/>
+      <c r="BE86" s="52"/>
+      <c r="BF86" s="52"/>
+      <c r="BG86" s="52"/>
+      <c r="BH86" s="52"/>
+      <c r="BI86" s="55"/>
+      <c r="BJ86" s="55"/>
+      <c r="BK86" s="55"/>
+      <c r="BL86" s="55"/>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="1">
@@ -5500,76 +5509,76 @@
         <v>89.25</v>
       </c>
     </row>
-    <row r="98" s="47" customFormat="1" spans="1:64">
-      <c r="A98" s="49" t="s">
+    <row r="98" s="48" customFormat="1" spans="1:64">
+      <c r="A98" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="B98" s="49"/>
-      <c r="C98" s="49"/>
-      <c r="D98" s="51"/>
-      <c r="E98" s="53"/>
-      <c r="F98" s="51"/>
-      <c r="G98" s="51"/>
-      <c r="H98" s="51"/>
-      <c r="I98" s="49"/>
-      <c r="J98" s="49"/>
-      <c r="K98" s="54">
+      <c r="B98" s="50"/>
+      <c r="C98" s="50"/>
+      <c r="D98" s="52"/>
+      <c r="E98" s="54"/>
+      <c r="F98" s="52"/>
+      <c r="G98" s="52"/>
+      <c r="H98" s="52"/>
+      <c r="I98" s="50"/>
+      <c r="J98" s="50"/>
+      <c r="K98" s="55">
         <f>AVERAGE(K87:K97)</f>
         <v>1.42909090909091</v>
       </c>
-      <c r="L98" s="49"/>
-      <c r="M98" s="49"/>
-      <c r="N98" s="49"/>
-      <c r="O98" s="51"/>
-      <c r="P98" s="53"/>
-      <c r="Q98" s="53"/>
-      <c r="R98" s="51"/>
-      <c r="S98" s="51"/>
-      <c r="T98" s="51"/>
-      <c r="U98" s="51"/>
-      <c r="V98" s="51"/>
-      <c r="W98" s="51"/>
-      <c r="X98" s="51"/>
-      <c r="Y98" s="51"/>
-      <c r="Z98" s="51"/>
-      <c r="AA98" s="51"/>
-      <c r="AB98" s="51"/>
-      <c r="AC98" s="51"/>
-      <c r="AD98" s="51"/>
-      <c r="AE98" s="53"/>
-      <c r="AF98" s="49"/>
-      <c r="AG98" s="55"/>
-      <c r="AH98" s="51"/>
-      <c r="AI98" s="49"/>
-      <c r="AJ98" s="49"/>
-      <c r="AK98" s="49"/>
-      <c r="AL98" s="49"/>
-      <c r="AM98" s="49"/>
-      <c r="AN98" s="53"/>
-      <c r="AO98" s="53"/>
-      <c r="AP98" s="51"/>
-      <c r="AQ98" s="51"/>
-      <c r="AR98" s="51"/>
-      <c r="AS98" s="51"/>
-      <c r="AT98" s="51"/>
-      <c r="AU98" s="51"/>
-      <c r="AV98" s="49"/>
-      <c r="AW98" s="49"/>
-      <c r="AX98" s="51"/>
-      <c r="AY98" s="51"/>
-      <c r="AZ98" s="51"/>
-      <c r="BA98" s="51"/>
-      <c r="BB98" s="51"/>
-      <c r="BC98" s="51"/>
-      <c r="BD98" s="51"/>
-      <c r="BE98" s="51"/>
-      <c r="BF98" s="51"/>
-      <c r="BG98" s="51"/>
-      <c r="BH98" s="51"/>
-      <c r="BI98" s="54"/>
-      <c r="BJ98" s="54"/>
-      <c r="BK98" s="54"/>
-      <c r="BL98" s="54"/>
+      <c r="L98" s="50"/>
+      <c r="M98" s="50"/>
+      <c r="N98" s="50"/>
+      <c r="O98" s="52"/>
+      <c r="P98" s="54"/>
+      <c r="Q98" s="54"/>
+      <c r="R98" s="52"/>
+      <c r="S98" s="52"/>
+      <c r="T98" s="52"/>
+      <c r="U98" s="52"/>
+      <c r="V98" s="52"/>
+      <c r="W98" s="52"/>
+      <c r="X98" s="52"/>
+      <c r="Y98" s="52"/>
+      <c r="Z98" s="52"/>
+      <c r="AA98" s="52"/>
+      <c r="AB98" s="52"/>
+      <c r="AC98" s="52"/>
+      <c r="AD98" s="52"/>
+      <c r="AE98" s="54"/>
+      <c r="AF98" s="50"/>
+      <c r="AG98" s="56"/>
+      <c r="AH98" s="52"/>
+      <c r="AI98" s="50"/>
+      <c r="AJ98" s="50"/>
+      <c r="AK98" s="50"/>
+      <c r="AL98" s="50"/>
+      <c r="AM98" s="50"/>
+      <c r="AN98" s="54"/>
+      <c r="AO98" s="54"/>
+      <c r="AP98" s="52"/>
+      <c r="AQ98" s="52"/>
+      <c r="AR98" s="52"/>
+      <c r="AS98" s="52"/>
+      <c r="AT98" s="52"/>
+      <c r="AU98" s="52"/>
+      <c r="AV98" s="50"/>
+      <c r="AW98" s="50"/>
+      <c r="AX98" s="52"/>
+      <c r="AY98" s="52"/>
+      <c r="AZ98" s="52"/>
+      <c r="BA98" s="52"/>
+      <c r="BB98" s="52"/>
+      <c r="BC98" s="52"/>
+      <c r="BD98" s="52"/>
+      <c r="BE98" s="52"/>
+      <c r="BF98" s="52"/>
+      <c r="BG98" s="52"/>
+      <c r="BH98" s="52"/>
+      <c r="BI98" s="55"/>
+      <c r="BJ98" s="55"/>
+      <c r="BK98" s="55"/>
+      <c r="BL98" s="55"/>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="1">
@@ -5657,73 +5666,73 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="103" s="47" customFormat="1" spans="1:64">
-      <c r="A103" s="49" t="s">
+    <row r="103" s="48" customFormat="1" spans="1:64">
+      <c r="A103" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="B103" s="49"/>
-      <c r="C103" s="49"/>
-      <c r="D103" s="51"/>
-      <c r="E103" s="53"/>
-      <c r="F103" s="51"/>
-      <c r="G103" s="51"/>
-      <c r="H103" s="51"/>
-      <c r="I103" s="49"/>
-      <c r="J103" s="49"/>
-      <c r="K103" s="49"/>
-      <c r="L103" s="49"/>
-      <c r="M103" s="49"/>
-      <c r="N103" s="49"/>
-      <c r="O103" s="51"/>
-      <c r="P103" s="53"/>
-      <c r="Q103" s="53"/>
-      <c r="R103" s="51"/>
-      <c r="S103" s="51"/>
-      <c r="T103" s="51"/>
-      <c r="U103" s="51"/>
-      <c r="V103" s="51"/>
-      <c r="W103" s="51"/>
-      <c r="X103" s="51"/>
-      <c r="Y103" s="51"/>
-      <c r="Z103" s="51"/>
-      <c r="AA103" s="51"/>
-      <c r="AB103" s="51"/>
-      <c r="AC103" s="51"/>
-      <c r="AD103" s="51"/>
-      <c r="AE103" s="53"/>
-      <c r="AF103" s="49"/>
-      <c r="AG103" s="55"/>
-      <c r="AH103" s="51"/>
-      <c r="AI103" s="49"/>
-      <c r="AJ103" s="49"/>
-      <c r="AK103" s="49"/>
-      <c r="AL103" s="49"/>
-      <c r="AM103" s="49"/>
-      <c r="AN103" s="53"/>
-      <c r="AO103" s="53"/>
-      <c r="AP103" s="51"/>
-      <c r="AQ103" s="51"/>
-      <c r="AR103" s="51"/>
-      <c r="AS103" s="51"/>
-      <c r="AT103" s="51"/>
-      <c r="AU103" s="51"/>
-      <c r="AV103" s="49"/>
-      <c r="AW103" s="49"/>
-      <c r="AX103" s="51"/>
-      <c r="AY103" s="51"/>
-      <c r="AZ103" s="51"/>
-      <c r="BA103" s="51"/>
-      <c r="BB103" s="51"/>
-      <c r="BC103" s="51"/>
-      <c r="BD103" s="51"/>
-      <c r="BE103" s="51"/>
-      <c r="BF103" s="51"/>
-      <c r="BG103" s="51"/>
-      <c r="BH103" s="51"/>
-      <c r="BI103" s="54"/>
-      <c r="BJ103" s="54"/>
-      <c r="BK103" s="54"/>
-      <c r="BL103" s="54"/>
+      <c r="B103" s="50"/>
+      <c r="C103" s="50"/>
+      <c r="D103" s="52"/>
+      <c r="E103" s="54"/>
+      <c r="F103" s="52"/>
+      <c r="G103" s="52"/>
+      <c r="H103" s="52"/>
+      <c r="I103" s="50"/>
+      <c r="J103" s="50"/>
+      <c r="K103" s="50"/>
+      <c r="L103" s="50"/>
+      <c r="M103" s="50"/>
+      <c r="N103" s="50"/>
+      <c r="O103" s="52"/>
+      <c r="P103" s="54"/>
+      <c r="Q103" s="54"/>
+      <c r="R103" s="52"/>
+      <c r="S103" s="52"/>
+      <c r="T103" s="52"/>
+      <c r="U103" s="52"/>
+      <c r="V103" s="52"/>
+      <c r="W103" s="52"/>
+      <c r="X103" s="52"/>
+      <c r="Y103" s="52"/>
+      <c r="Z103" s="52"/>
+      <c r="AA103" s="52"/>
+      <c r="AB103" s="52"/>
+      <c r="AC103" s="52"/>
+      <c r="AD103" s="52"/>
+      <c r="AE103" s="54"/>
+      <c r="AF103" s="50"/>
+      <c r="AG103" s="56"/>
+      <c r="AH103" s="52"/>
+      <c r="AI103" s="50"/>
+      <c r="AJ103" s="50"/>
+      <c r="AK103" s="50"/>
+      <c r="AL103" s="50"/>
+      <c r="AM103" s="50"/>
+      <c r="AN103" s="54"/>
+      <c r="AO103" s="54"/>
+      <c r="AP103" s="52"/>
+      <c r="AQ103" s="52"/>
+      <c r="AR103" s="52"/>
+      <c r="AS103" s="52"/>
+      <c r="AT103" s="52"/>
+      <c r="AU103" s="52"/>
+      <c r="AV103" s="50"/>
+      <c r="AW103" s="50"/>
+      <c r="AX103" s="52"/>
+      <c r="AY103" s="52"/>
+      <c r="AZ103" s="52"/>
+      <c r="BA103" s="52"/>
+      <c r="BB103" s="52"/>
+      <c r="BC103" s="52"/>
+      <c r="BD103" s="52"/>
+      <c r="BE103" s="52"/>
+      <c r="BF103" s="52"/>
+      <c r="BG103" s="52"/>
+      <c r="BH103" s="52"/>
+      <c r="BI103" s="55"/>
+      <c r="BJ103" s="55"/>
+      <c r="BK103" s="55"/>
+      <c r="BL103" s="55"/>
     </row>
     <row r="104" spans="1:11">
       <c r="A104" s="1">
@@ -6320,73 +6329,73 @@
         <v>78</v>
       </c>
     </row>
-    <row r="148" s="47" customFormat="1" spans="1:64">
-      <c r="A148" s="49" t="s">
+    <row r="148" s="48" customFormat="1" spans="1:64">
+      <c r="A148" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="B148" s="49"/>
-      <c r="C148" s="49"/>
-      <c r="D148" s="51"/>
-      <c r="E148" s="53"/>
-      <c r="F148" s="51"/>
-      <c r="G148" s="51"/>
-      <c r="H148" s="51"/>
-      <c r="I148" s="49"/>
-      <c r="J148" s="49"/>
-      <c r="K148" s="49"/>
-      <c r="L148" s="49"/>
-      <c r="M148" s="49"/>
-      <c r="N148" s="49"/>
-      <c r="O148" s="51"/>
-      <c r="P148" s="53"/>
-      <c r="Q148" s="53"/>
-      <c r="R148" s="51"/>
-      <c r="S148" s="51"/>
-      <c r="T148" s="51"/>
-      <c r="U148" s="51"/>
-      <c r="V148" s="51"/>
-      <c r="W148" s="51"/>
-      <c r="X148" s="51"/>
-      <c r="Y148" s="51"/>
-      <c r="Z148" s="51"/>
-      <c r="AA148" s="51"/>
-      <c r="AB148" s="51"/>
-      <c r="AC148" s="51"/>
-      <c r="AD148" s="51"/>
-      <c r="AE148" s="53"/>
-      <c r="AF148" s="49"/>
-      <c r="AG148" s="55"/>
-      <c r="AH148" s="51"/>
-      <c r="AI148" s="49"/>
-      <c r="AJ148" s="49"/>
-      <c r="AK148" s="49"/>
-      <c r="AL148" s="49"/>
-      <c r="AM148" s="49"/>
-      <c r="AN148" s="53"/>
-      <c r="AO148" s="53"/>
-      <c r="AP148" s="51"/>
-      <c r="AQ148" s="51"/>
-      <c r="AR148" s="51"/>
-      <c r="AS148" s="51"/>
-      <c r="AT148" s="51"/>
-      <c r="AU148" s="51"/>
-      <c r="AV148" s="49"/>
-      <c r="AW148" s="49"/>
-      <c r="AX148" s="51"/>
-      <c r="AY148" s="51"/>
-      <c r="AZ148" s="51"/>
-      <c r="BA148" s="51"/>
-      <c r="BB148" s="51"/>
-      <c r="BC148" s="51"/>
-      <c r="BD148" s="51"/>
-      <c r="BE148" s="51"/>
-      <c r="BF148" s="51"/>
-      <c r="BG148" s="51"/>
-      <c r="BH148" s="51"/>
-      <c r="BI148" s="54"/>
-      <c r="BJ148" s="54"/>
-      <c r="BK148" s="54"/>
-      <c r="BL148" s="54"/>
+      <c r="B148" s="50"/>
+      <c r="C148" s="50"/>
+      <c r="D148" s="52"/>
+      <c r="E148" s="54"/>
+      <c r="F148" s="52"/>
+      <c r="G148" s="52"/>
+      <c r="H148" s="52"/>
+      <c r="I148" s="50"/>
+      <c r="J148" s="50"/>
+      <c r="K148" s="50"/>
+      <c r="L148" s="50"/>
+      <c r="M148" s="50"/>
+      <c r="N148" s="50"/>
+      <c r="O148" s="52"/>
+      <c r="P148" s="54"/>
+      <c r="Q148" s="54"/>
+      <c r="R148" s="52"/>
+      <c r="S148" s="52"/>
+      <c r="T148" s="52"/>
+      <c r="U148" s="52"/>
+      <c r="V148" s="52"/>
+      <c r="W148" s="52"/>
+      <c r="X148" s="52"/>
+      <c r="Y148" s="52"/>
+      <c r="Z148" s="52"/>
+      <c r="AA148" s="52"/>
+      <c r="AB148" s="52"/>
+      <c r="AC148" s="52"/>
+      <c r="AD148" s="52"/>
+      <c r="AE148" s="54"/>
+      <c r="AF148" s="50"/>
+      <c r="AG148" s="56"/>
+      <c r="AH148" s="52"/>
+      <c r="AI148" s="50"/>
+      <c r="AJ148" s="50"/>
+      <c r="AK148" s="50"/>
+      <c r="AL148" s="50"/>
+      <c r="AM148" s="50"/>
+      <c r="AN148" s="54"/>
+      <c r="AO148" s="54"/>
+      <c r="AP148" s="52"/>
+      <c r="AQ148" s="52"/>
+      <c r="AR148" s="52"/>
+      <c r="AS148" s="52"/>
+      <c r="AT148" s="52"/>
+      <c r="AU148" s="52"/>
+      <c r="AV148" s="50"/>
+      <c r="AW148" s="50"/>
+      <c r="AX148" s="52"/>
+      <c r="AY148" s="52"/>
+      <c r="AZ148" s="52"/>
+      <c r="BA148" s="52"/>
+      <c r="BB148" s="52"/>
+      <c r="BC148" s="52"/>
+      <c r="BD148" s="52"/>
+      <c r="BE148" s="52"/>
+      <c r="BF148" s="52"/>
+      <c r="BG148" s="52"/>
+      <c r="BH148" s="52"/>
+      <c r="BI148" s="55"/>
+      <c r="BJ148" s="55"/>
+      <c r="BK148" s="55"/>
+      <c r="BL148" s="55"/>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="1">
@@ -6490,8 +6499,8 @@
       </c>
     </row>
     <row r="162" spans="1:2">
-      <c r="A162" s="72"/>
-      <c r="B162" s="72"/>
+      <c r="A162" s="73"/>
+      <c r="B162" s="73"/>
     </row>
     <row r="163" spans="2:2">
       <c r="B163" s="1" t="s">
@@ -6523,8 +6532,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88461538461539" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="8.88461538461539" style="44"/>
-    <col min="2" max="2" width="9.66346153846154" style="44" customWidth="1"/>
+    <col min="1" max="1" width="8.88461538461539" style="45"/>
+    <col min="2" max="2" width="9.66346153846154" style="45" customWidth="1"/>
     <col min="3" max="3" width="20.8846153846154" customWidth="1"/>
     <col min="4" max="4" width="5.66346153846154" customWidth="1"/>
     <col min="5" max="5" width="23.1153846153846" customWidth="1"/>
@@ -6536,10 +6545,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -6597,10 +6606,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -6765,16 +6774,16 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="12" s="43" customFormat="1" spans="1:9">
-      <c r="A12" s="45" t="s">
+    <row r="12" s="44" customFormat="1" spans="1:9">
+      <c r="A12" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45">
+      <c r="B12" s="46"/>
+      <c r="C12" s="46">
         <f>AVERAGE(C2:C11)</f>
         <v>4.995</v>
       </c>
-      <c r="D12" s="45">
+      <c r="D12" s="46">
         <f>AVERAGE(D2:D11)</f>
         <v>1.327</v>
       </c>
@@ -6782,7 +6791,7 @@
       <c r="F12" s="9">
         <v>74.55</v>
       </c>
-      <c r="G12" s="46">
+      <c r="G12" s="47">
         <f>D12/F12</f>
         <v>0.0178001341381623</v>
       </c>
@@ -6929,16 +6938,16 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="23" s="43" customFormat="1" spans="1:9">
-      <c r="A23" s="45" t="s">
+    <row r="23" s="44" customFormat="1" spans="1:9">
+      <c r="A23" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45">
+      <c r="B23" s="46"/>
+      <c r="C23" s="46">
         <f>AVERAGE(C13:C22)</f>
         <v>7.022</v>
       </c>
-      <c r="D23" s="45">
+      <c r="D23" s="46">
         <f>AVERAGE(D13:D22)</f>
         <v>1.616</v>
       </c>
@@ -6946,7 +6955,7 @@
       <c r="F23" s="9">
         <v>53.85</v>
       </c>
-      <c r="G23" s="46">
+      <c r="G23" s="47">
         <f>D23/F23</f>
         <v>0.0300092850510678</v>
       </c>
@@ -7066,22 +7075,22 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="45" t="s">
+      <c r="A32" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45">
+      <c r="B32" s="46"/>
+      <c r="C32" s="46">
         <f>AVERAGE(C25:C31)</f>
         <v>9.32285714285714</v>
       </c>
-      <c r="D32" s="45">
+      <c r="D32" s="46">
         <f>AVERAGE(D25:D31)</f>
         <v>1.45285714285714</v>
       </c>
       <c r="F32" s="1">
         <v>89.73</v>
       </c>
-      <c r="G32" s="46">
+      <c r="G32" s="47">
         <f>D32/F32</f>
         <v>0.0161914314371687</v>
       </c>
@@ -7227,22 +7236,22 @@
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="45" t="s">
+      <c r="A43" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="B43" s="45"/>
-      <c r="C43" s="45">
+      <c r="B43" s="46"/>
+      <c r="C43" s="46">
         <f>AVERAGE(C33:C42)</f>
         <v>10.34</v>
       </c>
-      <c r="D43" s="45">
+      <c r="D43" s="46">
         <f>AVERAGE(D33:D42)</f>
         <v>1.215</v>
       </c>
       <c r="F43" s="1">
         <v>84.13</v>
       </c>
-      <c r="G43" s="46">
+      <c r="G43" s="47">
         <f>D43/F43</f>
         <v>0.0144419351004398</v>
       </c>
@@ -7360,22 +7369,22 @@
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="45" t="s">
+      <c r="A52" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="B52" s="45"/>
-      <c r="C52" s="45">
+      <c r="B52" s="46"/>
+      <c r="C52" s="46">
         <f>AVERAGE(C42:C51)</f>
         <v>12.823</v>
       </c>
-      <c r="D52" s="45">
+      <c r="D52" s="46">
         <f>AVERAGE(D42:D51)</f>
         <v>1.1935</v>
       </c>
       <c r="F52" s="1">
         <v>74.09</v>
       </c>
-      <c r="G52" s="46">
+      <c r="G52" s="47">
         <f>D52/F52</f>
         <v>0.0161087866108787</v>
       </c>
@@ -7521,22 +7530,22 @@
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="45" t="s">
+      <c r="A63" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="B63" s="45"/>
-      <c r="C63" s="45">
+      <c r="B63" s="46"/>
+      <c r="C63" s="46">
         <f>AVERAGE(C53:C62)</f>
         <v>3.386</v>
       </c>
-      <c r="D63" s="45">
+      <c r="D63" s="46">
         <f>AVERAGE(D53:D62)</f>
         <v>0.554</v>
       </c>
       <c r="F63" s="1">
         <v>52.18</v>
       </c>
-      <c r="G63" s="46">
+      <c r="G63" s="47">
         <f>D63/F63</f>
         <v>0.0106170946722882</v>
       </c>
@@ -7682,22 +7691,22 @@
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="45" t="s">
+      <c r="A74" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="B74" s="45"/>
-      <c r="C74" s="45">
+      <c r="B74" s="46"/>
+      <c r="C74" s="46">
         <f>AVERAGE(C64:C73)</f>
         <v>5.209</v>
       </c>
-      <c r="D74" s="45">
+      <c r="D74" s="46">
         <f>AVERAGE(D64:D73)</f>
         <v>0.873</v>
       </c>
       <c r="F74" s="1">
         <v>40.39</v>
       </c>
-      <c r="G74" s="46">
+      <c r="G74" s="47">
         <f>D74/F74</f>
         <v>0.0216142609556821</v>
       </c>
@@ -7711,14 +7720,14 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:CB11"/>
+  <dimension ref="A1:CD14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BQ3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AY3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BU4" sqref="BU4"/>
+      <selection pane="bottomRight" activeCell="BD4" sqref="BD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88461538461539" defaultRowHeight="16.8"/>
@@ -7745,9 +7754,13 @@
     <col min="39" max="39" width="23.1153846153846" style="6" customWidth="1"/>
     <col min="40" max="40" width="16.4423076923077" style="5" customWidth="1"/>
     <col min="41" max="42" width="23.1153846153846" style="5" customWidth="1"/>
-    <col min="43" max="49" width="18.6634615384615" customWidth="1"/>
+    <col min="43" max="43" width="18.6634615384615" customWidth="1"/>
+    <col min="44" max="44" width="18.6634615384615" style="7" customWidth="1"/>
+    <col min="45" max="46" width="18.6634615384615" customWidth="1"/>
+    <col min="47" max="47" width="18.6634615384615" style="7" customWidth="1"/>
+    <col min="48" max="49" width="18.6634615384615" customWidth="1"/>
     <col min="50" max="50" width="23.1153846153846" customWidth="1"/>
-    <col min="51" max="51" width="18.6634615384615" customWidth="1"/>
+    <col min="51" max="51" width="18.6634615384615" style="7" customWidth="1"/>
     <col min="52" max="52" width="24.2211538461538" style="7" customWidth="1"/>
     <col min="53" max="53" width="18.6634615384615" customWidth="1"/>
     <col min="54" max="54" width="25.4423076923077" style="3" customWidth="1"/>
@@ -7766,9 +7779,11 @@
     <col min="75" max="75" width="16.4423076923077" customWidth="1"/>
     <col min="76" max="79" width="12.8846153846154" style="10"/>
     <col min="80" max="80" width="11.8846153846154" style="10" customWidth="1"/>
+    <col min="81" max="81" width="23.0769230769231" style="3" customWidth="1"/>
+    <col min="82" max="82" width="24.6730769230769" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:80">
+    <row r="1" spans="1:82">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -7851,12 +7866,12 @@
       <c r="AN1" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="AO1" s="30" t="s">
+      <c r="AO1" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="AP1" s="30"/>
+      <c r="AP1" s="31"/>
       <c r="AQ1" s="11"/>
-      <c r="AR1" s="11" t="s">
+      <c r="AR1" s="14" t="s">
         <v>112</v>
       </c>
       <c r="AS1" s="11" t="s">
@@ -7865,7 +7880,7 @@
       <c r="AT1" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="AU1" s="11" t="s">
+      <c r="AU1" s="14" t="s">
         <v>115</v>
       </c>
       <c r="AV1" s="11" t="s">
@@ -7877,7 +7892,7 @@
       <c r="AX1" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="AY1" s="11" t="s">
+      <c r="AY1" s="14" t="s">
         <v>119</v>
       </c>
       <c r="AZ1" s="16" t="s">
@@ -7892,7 +7907,7 @@
       <c r="BC1" s="16"/>
       <c r="BD1" s="16"/>
       <c r="BE1" s="16"/>
-      <c r="BF1" s="34"/>
+      <c r="BF1" s="35"/>
       <c r="BG1" s="15" t="s">
         <v>122</v>
       </c>
@@ -7900,7 +7915,7 @@
       <c r="BI1" s="16"/>
       <c r="BJ1" s="16"/>
       <c r="BK1" s="16"/>
-      <c r="BL1" s="35" t="s">
+      <c r="BL1" s="36" t="s">
         <v>123</v>
       </c>
       <c r="BM1" s="15" t="s">
@@ -7917,16 +7932,22 @@
       <c r="BT1" s="16"/>
       <c r="BU1" s="16"/>
       <c r="BV1" s="16"/>
-      <c r="BW1" s="36" t="s">
+      <c r="BW1" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="BX1" s="37" t="s">
+      <c r="BX1" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="BY1" s="37"/>
-      <c r="BZ1" s="37"/>
-      <c r="CA1" s="37"/>
-      <c r="CB1" s="37"/>
+      <c r="BY1" s="38"/>
+      <c r="BZ1" s="38"/>
+      <c r="CA1" s="38"/>
+      <c r="CB1" s="38"/>
+      <c r="CC1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="CD1" s="3" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="2" ht="68" spans="1:80">
       <c r="A2" s="11"/>
@@ -7940,64 +7961,64 @@
       <c r="I2" s="14"/>
       <c r="J2" s="16"/>
       <c r="K2" s="14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M2" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="T2" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="U2" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="V2" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="W2" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="X2" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="Y2" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="R2" s="14" t="s">
+      <c r="Z2" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="AA2" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="T2" s="14" t="s">
+      <c r="AB2" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="U2" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="V2" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="W2" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="X2" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y2" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z2" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="AA2" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="AB2" s="18" t="s">
-        <v>135</v>
-      </c>
       <c r="AC2" s="18" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AD2" s="18" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AE2" s="16"/>
       <c r="AF2" s="16"/>
@@ -8009,115 +8030,109 @@
       <c r="AL2" s="24"/>
       <c r="AM2" s="25"/>
       <c r="AN2" s="24"/>
-      <c r="AO2" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="AP2" s="30" t="s">
-        <v>139</v>
+      <c r="AO2" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="AP2" s="31" t="s">
+        <v>141</v>
       </c>
       <c r="AQ2" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="AR2" s="11"/>
+        <v>142</v>
+      </c>
+      <c r="AR2" s="14"/>
       <c r="AS2" s="11"/>
       <c r="AT2" s="11"/>
-      <c r="AU2" s="11"/>
+      <c r="AU2" s="14"/>
       <c r="AV2" s="11"/>
       <c r="AW2" s="11"/>
       <c r="AX2" s="11"/>
-      <c r="AY2" s="11"/>
+      <c r="AY2" s="14"/>
       <c r="AZ2" s="16"/>
       <c r="BA2" s="11"/>
       <c r="BB2" s="16" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="BC2" s="16" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="BD2" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="BE2" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="BF2" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="BG2" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="BE2" s="20" t="s">
+      <c r="BH2" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="BF2" s="34" t="s">
+      <c r="BI2" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="BG2" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="BH2" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="BI2" s="20" t="s">
+      <c r="BJ2" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="BK2" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="BL2" s="36"/>
+      <c r="BM2" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="BJ2" s="20" t="s">
+      <c r="BN2" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="BK2" s="16" t="s">
+      <c r="BO2" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="BL2" s="35"/>
-      <c r="BM2" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="BN2" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="BO2" s="20" t="s">
+      <c r="BP2" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="BQ2" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="BR2" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="BP2" s="20" t="s">
+      <c r="BS2" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="BQ2" s="16" t="s">
+      <c r="BT2" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="BR2" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="BS2" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="BT2" s="20" t="s">
+      <c r="BU2" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="BV2" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="BW2" s="37"/>
+      <c r="BX2" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="BU2" s="20" t="s">
+      <c r="BY2" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="BV2" s="16" t="s">
+      <c r="BZ2" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="BW2" s="36"/>
-      <c r="BX2" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="BY2" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="BZ2" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="CA2" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="CB2" s="38" t="s">
-        <v>145</v>
+      <c r="CA2" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="CB2" s="39" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:80">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
-      <c r="C3" s="12">
-        <v>33337724549.58</v>
-      </c>
-      <c r="D3" s="12">
-        <v>23499848566.38</v>
-      </c>
-      <c r="E3" s="12">
-        <v>98331095.55</v>
-      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
@@ -8151,246 +8166,93 @@
       <c r="AJ3" s="11"/>
       <c r="AK3" s="24"/>
       <c r="AL3" s="24"/>
-      <c r="AM3" s="26">
-        <v>5000000000</v>
-      </c>
-      <c r="AN3" s="27">
-        <v>0.0602</v>
-      </c>
-      <c r="AO3" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="AP3" s="23">
-        <v>0.15</v>
-      </c>
+      <c r="AM3" s="25"/>
+      <c r="AN3" s="24"/>
+      <c r="AO3" s="31"/>
+      <c r="AP3" s="31"/>
       <c r="AQ3" s="11"/>
-      <c r="AR3" s="31">
-        <v>19813767427.18</v>
-      </c>
+      <c r="AR3" s="14"/>
       <c r="AS3" s="11"/>
       <c r="AT3" s="11"/>
-      <c r="AU3" s="31">
-        <v>5377818664.42</v>
-      </c>
-      <c r="AV3" s="31">
-        <v>16216013.8</v>
-      </c>
+      <c r="AU3" s="14"/>
+      <c r="AV3" s="11"/>
       <c r="AW3" s="11"/>
       <c r="AX3" s="11"/>
-      <c r="AY3" s="31">
-        <v>4496708</v>
-      </c>
-      <c r="AZ3" s="33">
-        <f>SUM(AR3:AY3)</f>
-        <v>25212298813.4</v>
-      </c>
+      <c r="AY3" s="14"/>
+      <c r="AZ3" s="16"/>
       <c r="BA3" s="11"/>
-      <c r="BB3" s="15">
-        <f>AM3/AN3</f>
-        <v>83056478405.3156</v>
-      </c>
-      <c r="BC3" s="16">
-        <f>AM3*(1+AO3)/(AN3-AO3)</f>
-        <v>257425742574.257</v>
-      </c>
-      <c r="BD3" s="16">
-        <f>AM3*(1+AP3)/(1+AN3)+AM3*(1+AP3)^2/(1+AN3)^2+AM3*(1+AP3)^3/(1+AN3)^3+AM3*(1+AP3)^3*(1+AO3)/(1+AN3)^4/(AN3-AO3)</f>
-        <v>327568087513.837</v>
-      </c>
-      <c r="BE3" s="16">
-        <f>AM3*(1+AP3)/(1+AN3)+AM3*(1+AP3)^2/(1+AN3)^2+AM3*(1+AP3)^3/(1+AN3)^3+AM3*(1+AP3)^4/(1+AN3)^4+AM3*(1+AP3)^5/(1+AN3)^5+AM3*(1+AP3)^5*(1+AO3)/(1+AN3)^6/(AN3-AO3)</f>
-        <v>396715221266.13</v>
-      </c>
-      <c r="BF3" s="34"/>
-      <c r="BG3" s="33">
-        <f>$AZ3+$BA3+BB3</f>
-        <v>108268777218.716</v>
-      </c>
-      <c r="BH3" s="33">
-        <f>$AZ3+$BA3+BC3</f>
-        <v>282638041387.657</v>
-      </c>
-      <c r="BI3" s="33">
-        <f>$AZ3+$BA3+BD3</f>
-        <v>352780386327.237</v>
-      </c>
-      <c r="BJ3" s="33">
-        <f>$AZ3+$BA3+BE3</f>
-        <v>421927520079.53</v>
-      </c>
-      <c r="BK3" s="33">
-        <f>$AZ3+$BA3+BF3</f>
-        <v>25212298813.4</v>
-      </c>
-      <c r="BL3" s="31">
-        <f>C3-D3</f>
-        <v>9837875983.2</v>
-      </c>
-      <c r="BM3" s="33">
-        <f>BG3-$BL3</f>
-        <v>98430901235.5156</v>
-      </c>
-      <c r="BN3" s="33">
-        <f>BH3-$BL3</f>
-        <v>272800165404.457</v>
-      </c>
-      <c r="BO3" s="33">
-        <f>BI3-$BL3</f>
-        <v>342942510344.037</v>
-      </c>
-      <c r="BP3" s="33">
-        <f>BJ3-$BL3</f>
-        <v>412089644096.33</v>
-      </c>
-      <c r="BQ3" s="33">
-        <f>BK3-$BL3</f>
-        <v>15374422830.2</v>
-      </c>
-      <c r="BR3" s="33">
-        <f>BM3*(1-$E3/$D3)</f>
-        <v>98019033970.6214</v>
-      </c>
-      <c r="BS3" s="33">
-        <f>BN3*(1-$E3/$D3)</f>
-        <v>271658679787.873</v>
-      </c>
-      <c r="BT3" s="33">
-        <f>BO3*(1-$E3/$D3)</f>
-        <v>341507526086.264</v>
-      </c>
-      <c r="BU3" s="33">
-        <f>BP3*(1-$E3/$D3)</f>
-        <v>410365325488.304</v>
-      </c>
-      <c r="BV3" s="33">
-        <f>BQ3*(1-$E3/$D3)</f>
-        <v>15310091188.3993</v>
-      </c>
-      <c r="BW3" s="39">
-        <v>4212576169</v>
-      </c>
-      <c r="BX3" s="40">
-        <f>BR3/$BW3</f>
-        <v>23.2681926778999</v>
-      </c>
-      <c r="BY3" s="40">
-        <f>BS3/$BW3</f>
-        <v>64.4875413261335</v>
-      </c>
-      <c r="BZ3" s="40">
-        <f>BT3/$BW3</f>
-        <v>81.0685700117163</v>
-      </c>
-      <c r="CA3" s="40">
-        <f>BU3/$BW3</f>
-        <v>97.4143395929902</v>
-      </c>
-      <c r="CB3" s="40">
-        <f>BV3/$BW3</f>
-        <v>3.63437729650208</v>
-      </c>
-    </row>
-    <row r="4" spans="1:80">
-      <c r="A4" s="13">
-        <v>2021</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="12">
-        <v>33337724549.58</v>
-      </c>
-      <c r="D4" s="12">
-        <v>23499848566.38</v>
-      </c>
-      <c r="E4" s="12">
-        <v>98331095.55</v>
-      </c>
-      <c r="F4" s="15">
-        <v>4582073.3</v>
-      </c>
-      <c r="G4" s="15">
-        <v>4082874.6</v>
-      </c>
-      <c r="H4" s="15">
-        <v>5456405.46</v>
-      </c>
-      <c r="I4" s="15">
-        <v>7145253.84</v>
-      </c>
-      <c r="J4" s="15">
-        <f>F4+G4+H4+I4</f>
-        <v>21266607.2</v>
-      </c>
-      <c r="K4" s="15">
-        <v>92600000</v>
-      </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15">
-        <v>1239133371.41</v>
-      </c>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12">
-        <v>104600000</v>
-      </c>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12">
-        <v>972021493.04</v>
-      </c>
-      <c r="Z4" s="12">
-        <v>21395441.72</v>
-      </c>
-      <c r="AA4" s="13"/>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="13"/>
-      <c r="AD4" s="12">
-        <v>54070173.8</v>
-      </c>
-      <c r="AE4" s="12">
-        <f>SUM(K4:T4)</f>
-        <v>1331733371.41</v>
-      </c>
-      <c r="AF4" s="12">
-        <f>SUM(U4:AD4)</f>
-        <v>1152087108.56</v>
-      </c>
-      <c r="AG4" s="15">
-        <f>(AE4+AF4)/2</f>
-        <v>1241910239.985</v>
-      </c>
-      <c r="AH4" s="22">
-        <f>F4/AG4</f>
-        <v>0.00368953661261006</v>
-      </c>
-      <c r="AI4" s="22">
-        <f>J4/AG4</f>
-        <v>0.0171241097104223</v>
-      </c>
-      <c r="AJ4" s="23">
-        <v>0.25</v>
-      </c>
-      <c r="AK4" s="23">
-        <f>(C4-D4)/C4</f>
-        <v>0.295097404400503</v>
-      </c>
-      <c r="AL4" s="23">
-        <f>D4/C4</f>
-        <v>0.704902595599497</v>
-      </c>
+      <c r="BB3" s="16"/>
+      <c r="BC3" s="16"/>
+      <c r="BD3" s="20"/>
+      <c r="BE3" s="20"/>
+      <c r="BF3" s="35"/>
+      <c r="BG3" s="16"/>
+      <c r="BH3" s="16"/>
+      <c r="BI3" s="20"/>
+      <c r="BJ3" s="20"/>
+      <c r="BK3" s="16"/>
+      <c r="BL3" s="36"/>
+      <c r="BM3" s="16"/>
+      <c r="BN3" s="16"/>
+      <c r="BO3" s="20"/>
+      <c r="BP3" s="20"/>
+      <c r="BQ3" s="16"/>
+      <c r="BR3" s="16"/>
+      <c r="BS3" s="16"/>
+      <c r="BT3" s="20"/>
+      <c r="BU3" s="20"/>
+      <c r="BV3" s="16"/>
+      <c r="BW3" s="37"/>
+      <c r="BX3" s="39"/>
+      <c r="BY3" s="39"/>
+      <c r="BZ3" s="43"/>
+      <c r="CA3" s="43"/>
+      <c r="CB3" s="39"/>
+    </row>
+    <row r="4" spans="1:82">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="16"/>
+      <c r="AF4" s="16"/>
+      <c r="AG4" s="16"/>
+      <c r="AH4" s="21"/>
+      <c r="AI4" s="21"/>
+      <c r="AJ4" s="11"/>
+      <c r="AK4" s="24"/>
+      <c r="AL4" s="24"/>
       <c r="AM4" s="26">
-        <v>4174523194.45556</v>
-      </c>
-      <c r="AN4" s="23">
-        <f>AI4*(1-AJ4)*AK4+0.08*AL4</f>
-        <v>0.0601821678941211</v>
+        <v>6253994132.97455</v>
+      </c>
+      <c r="AN4" s="24">
+        <v>0.035</v>
       </c>
       <c r="AO4" s="23">
         <v>0.04</v>
@@ -8398,320 +8260,293 @@
       <c r="AP4" s="23">
         <v>0.15</v>
       </c>
-      <c r="AQ4" s="32"/>
-      <c r="AR4" s="31">
-        <v>19813767427.18</v>
-      </c>
-      <c r="AS4" s="31"/>
-      <c r="AT4" s="31"/>
-      <c r="AU4" s="31">
-        <v>5377818664.42</v>
-      </c>
-      <c r="AV4" s="31">
-        <v>16216013.8</v>
-      </c>
-      <c r="AW4" s="31"/>
-      <c r="AX4" s="31"/>
-      <c r="AY4" s="31">
-        <v>4496708</v>
-      </c>
-      <c r="AZ4" s="33">
+      <c r="AQ4" s="11"/>
+      <c r="AR4" s="32">
+        <v>18223307402.03</v>
+      </c>
+      <c r="AS4" s="11"/>
+      <c r="AT4" s="11"/>
+      <c r="AU4" s="32">
+        <v>6081662998.97</v>
+      </c>
+      <c r="AV4" s="26">
+        <v>10738064.59</v>
+      </c>
+      <c r="AW4" s="11"/>
+      <c r="AX4" s="11"/>
+      <c r="AY4" s="32">
+        <v>4131328.25</v>
+      </c>
+      <c r="AZ4" s="32">
         <f>SUM(AR4:AY4)</f>
-        <v>25212298813.4</v>
-      </c>
-      <c r="BA4" s="32">
-        <v>0</v>
-      </c>
+        <v>24319839793.84</v>
+      </c>
+      <c r="BA4" s="11"/>
       <c r="BB4" s="15">
         <f>AM4/AN4</f>
-        <v>69364785957.8577</v>
+        <v>178685546656.416</v>
       </c>
       <c r="BC4" s="16">
         <f>AM4*(1+AO4)/(AN4-AO4)</f>
-        <v>215115846078.083</v>
+        <v>-1300830779658.71</v>
       </c>
       <c r="BD4" s="16">
         <f>AM4*(1+AP4)/(1+AN4)+AM4*(1+AP4)^2/(1+AN4)^2+AM4*(1+AP4)^3/(1+AN4)^3+AM4*(1+AP4)^3*(1+AO4)/(1+AN4)^4/(AN4-AO4)</f>
-        <v>273734643048.848</v>
+        <v>-1700813455285.63</v>
       </c>
       <c r="BE4" s="16">
         <f>AM4*(1+AP4)/(1+AN4)+AM4*(1+AP4)^2/(1+AN4)^2+AM4*(1+AP4)^3/(1+AN4)^3+AM4*(1+AP4)^4/(1+AN4)^4+AM4*(1+AP4)^5/(1+AN4)^5+AM4*(1+AP4)^5*(1+AO4)/(1+AN4)^6/(AN4-AO4)</f>
-        <v>331520512449.728</v>
-      </c>
-      <c r="BF4" s="34"/>
-      <c r="BG4" s="33">
-        <f>$AZ4+$BA4+BB4</f>
-        <v>94577084771.2577</v>
-      </c>
-      <c r="BH4" s="33">
-        <f>$AZ4+$BA4+BC4</f>
-        <v>240328144891.483</v>
-      </c>
-      <c r="BI4" s="33">
-        <f>$AZ4+$BA4+BD4</f>
-        <v>298946941862.248</v>
-      </c>
-      <c r="BJ4" s="33">
-        <f>$AZ4+$BA4+BE4</f>
-        <v>356732811263.128</v>
-      </c>
-      <c r="BK4" s="33">
-        <f>$AZ4+$BA4+BF4</f>
-        <v>25212298813.4</v>
-      </c>
-      <c r="BL4" s="31">
-        <f>C4-D4</f>
+        <v>-2085099835102.44</v>
+      </c>
+      <c r="BF4" s="35"/>
+      <c r="BG4" s="16"/>
+      <c r="BH4" s="16"/>
+      <c r="BI4" s="20"/>
+      <c r="BJ4" s="20"/>
+      <c r="BK4" s="16"/>
+      <c r="BL4" s="36"/>
+      <c r="BM4" s="16"/>
+      <c r="BN4" s="16"/>
+      <c r="BO4" s="20"/>
+      <c r="BP4" s="20"/>
+      <c r="BQ4" s="16"/>
+      <c r="BR4" s="16"/>
+      <c r="BS4" s="16"/>
+      <c r="BT4" s="20"/>
+      <c r="BU4" s="20"/>
+      <c r="BV4" s="16"/>
+      <c r="BW4" s="37"/>
+      <c r="BX4" s="39"/>
+      <c r="BY4" s="39"/>
+      <c r="BZ4" s="43"/>
+      <c r="CA4" s="43"/>
+      <c r="CB4" s="39"/>
+      <c r="CC4" s="3">
+        <f>(AM4*(1+AP4)^5)/(1+AN4)^5</f>
+        <v>10591193979.5332</v>
+      </c>
+      <c r="CD4" s="3">
+        <f>CC4+AZ4</f>
+        <v>34911033773.3732</v>
+      </c>
+    </row>
+    <row r="5" spans="1:80">
+      <c r="A5" s="11">
+        <v>2022</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12">
+        <v>33337724549.58</v>
+      </c>
+      <c r="D5" s="12">
+        <v>23499848566.38</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="18"/>
+      <c r="AD5" s="18"/>
+      <c r="AE5" s="16"/>
+      <c r="AF5" s="16"/>
+      <c r="AG5" s="16"/>
+      <c r="AH5" s="21"/>
+      <c r="AI5" s="21"/>
+      <c r="AJ5" s="11"/>
+      <c r="AK5" s="24"/>
+      <c r="AL5" s="24"/>
+      <c r="AM5" s="26">
+        <v>6253994132.97455</v>
+      </c>
+      <c r="AN5" s="27">
+        <v>0.0602</v>
+      </c>
+      <c r="AO5" s="23">
+        <v>0.04</v>
+      </c>
+      <c r="AP5" s="23">
+        <v>0.15</v>
+      </c>
+      <c r="AQ5" s="11"/>
+      <c r="AR5" s="32">
+        <v>18223307402.03</v>
+      </c>
+      <c r="AS5" s="11"/>
+      <c r="AT5" s="11"/>
+      <c r="AU5" s="32">
+        <v>6081662998.97</v>
+      </c>
+      <c r="AV5" s="26">
+        <v>10738064.59</v>
+      </c>
+      <c r="AW5" s="11"/>
+      <c r="AX5" s="11"/>
+      <c r="AY5" s="32">
+        <v>4131328.25</v>
+      </c>
+      <c r="AZ5" s="32">
+        <f>SUM(AR5:AY5)</f>
+        <v>24319839793.84</v>
+      </c>
+      <c r="BA5" s="11"/>
+      <c r="BB5" s="15">
+        <f>AM5/AN5</f>
+        <v>103886945730.474</v>
+      </c>
+      <c r="BC5" s="16">
+        <f>AM5*(1+AO5)/(AN5-AO5)</f>
+        <v>321987816747.205</v>
+      </c>
+      <c r="BD5" s="16">
+        <f>AM5*(1+AP5)/(1+AN5)+AM5*(1+AP5)^2/(1+AN5)^2+AM5*(1+AP5)^3/(1+AN5)^3+AM5*(1+AP5)^3*(1+AO5)/(1+AN5)^4/(AN5-AO5)</f>
+        <v>409721779492.246</v>
+      </c>
+      <c r="BE5" s="16">
+        <f>AM5*(1+AP5)/(1+AN5)+AM5*(1+AP5)^2/(1+AN5)^2+AM5*(1+AP5)^3/(1+AN5)^3+AM5*(1+AP5)^4/(1+AN5)^4+AM5*(1+AP5)^5/(1+AN5)^5+AM5*(1+AP5)^5*(1+AO5)/(1+AN5)^6/(AN5-AO5)</f>
+        <v>496210933252.015</v>
+      </c>
+      <c r="BF5" s="35"/>
+      <c r="BG5" s="32">
+        <f>$AZ5+$BA5+BB5</f>
+        <v>128206785524.314</v>
+      </c>
+      <c r="BH5" s="32">
+        <f>$AZ5+$BA5+BC5</f>
+        <v>346307656541.045</v>
+      </c>
+      <c r="BI5" s="32">
+        <f>$AZ5+$BA5+BD5</f>
+        <v>434041619286.086</v>
+      </c>
+      <c r="BJ5" s="32">
+        <f>$AZ5+$BA5+BE5</f>
+        <v>520530773045.855</v>
+      </c>
+      <c r="BK5" s="32">
+        <f>$AZ5+$BA5+BF5</f>
+        <v>24319839793.84</v>
+      </c>
+      <c r="BL5" s="34">
+        <f>C5-D5</f>
         <v>9837875983.2</v>
       </c>
-      <c r="BM4" s="33">
-        <f>BG4-$BL4</f>
-        <v>84739208788.0577</v>
-      </c>
-      <c r="BN4" s="33">
-        <f>BH4-$BL4</f>
-        <v>230490268908.283</v>
-      </c>
-      <c r="BO4" s="33">
-        <f>BI4-$BL4</f>
-        <v>289109065879.048</v>
-      </c>
-      <c r="BP4" s="33">
-        <f>BJ4-$BL4</f>
-        <v>346894935279.928</v>
-      </c>
-      <c r="BQ4" s="33">
-        <f>BK4-$BL4</f>
-        <v>15374422830.2</v>
-      </c>
-      <c r="BR4" s="33">
-        <f>BM4*(1-$E4/$D4)</f>
-        <v>84384632067.5893</v>
-      </c>
-      <c r="BS4" s="33">
-        <f>BN4*(1-$E4/$D4)</f>
-        <v>229525821814.45</v>
-      </c>
-      <c r="BT4" s="33">
-        <f>BO4*(1-$E4/$D4)</f>
-        <v>287899338458.847</v>
-      </c>
-      <c r="BU4" s="33">
-        <f>BP4*(1-$E4/$D4)</f>
-        <v>345443412776.263</v>
-      </c>
-      <c r="BV4" s="33">
-        <f>BQ4*(1-$E4/$D4)</f>
-        <v>15310091188.3993</v>
-      </c>
-      <c r="BW4" s="39">
-        <v>4212576170</v>
-      </c>
-      <c r="BX4" s="40">
-        <f>BR4/$BW4</f>
-        <v>20.0315979254066</v>
-      </c>
-      <c r="BY4" s="40">
-        <f>BS4/$BW4</f>
-        <v>54.4858567659918</v>
-      </c>
-      <c r="BZ4" s="40">
-        <f>BT4/$BW4</f>
-        <v>68.3428208394501</v>
-      </c>
-      <c r="CA4" s="40">
-        <f>BU4/$BW4</f>
-        <v>82.0028882175115</v>
-      </c>
-      <c r="CB4" s="40">
-        <f>BV4/$BW4</f>
-        <v>3.63437729563934</v>
-      </c>
-    </row>
-    <row r="5" spans="1:80">
-      <c r="A5" s="13">
-        <v>2021</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="15"/>
-      <c r="AH5" s="22"/>
-      <c r="AI5" s="22"/>
-      <c r="AJ5" s="23"/>
-      <c r="AK5" s="23"/>
-      <c r="AL5" s="23"/>
-      <c r="AM5" s="28"/>
-      <c r="AN5" s="23"/>
-      <c r="AO5" s="23"/>
-      <c r="AP5" s="23"/>
-      <c r="AQ5" s="32"/>
-      <c r="AR5" s="31"/>
-      <c r="AS5" s="32"/>
-      <c r="AT5" s="32"/>
-      <c r="AU5" s="31"/>
-      <c r="AV5" s="31"/>
-      <c r="AW5" s="31"/>
-      <c r="AX5" s="32"/>
-      <c r="AY5" s="32"/>
-      <c r="AZ5" s="33"/>
-      <c r="BA5" s="31"/>
-      <c r="BB5" s="15"/>
-      <c r="BC5" s="16"/>
-      <c r="BD5" s="16"/>
-      <c r="BE5" s="16"/>
-      <c r="BF5" s="34"/>
-      <c r="BG5" s="33"/>
-      <c r="BH5" s="33"/>
-      <c r="BI5" s="33"/>
-      <c r="BJ5" s="33"/>
-      <c r="BK5" s="33"/>
-      <c r="BL5" s="31"/>
-      <c r="BM5" s="33"/>
-      <c r="BN5" s="33"/>
-      <c r="BO5" s="33"/>
-      <c r="BP5" s="33"/>
-      <c r="BQ5" s="33"/>
-      <c r="BR5" s="33"/>
-      <c r="BS5" s="33"/>
-      <c r="BT5" s="33"/>
-      <c r="BU5" s="33"/>
-      <c r="BV5" s="33"/>
-      <c r="BW5" s="41"/>
-      <c r="BX5" s="40"/>
-      <c r="BY5" s="40"/>
-      <c r="BZ5" s="40"/>
-      <c r="CA5" s="40"/>
-      <c r="CB5" s="40"/>
+      <c r="BM5" s="32">
+        <f>BG5-$BL5</f>
+        <v>118368909541.114</v>
+      </c>
+      <c r="BN5" s="32">
+        <f>BH5-$BL5</f>
+        <v>336469780557.845</v>
+      </c>
+      <c r="BO5" s="32">
+        <f>BI5-$BL5</f>
+        <v>424203743302.886</v>
+      </c>
+      <c r="BP5" s="32">
+        <f>BJ5-$BL5</f>
+        <v>510692897062.655</v>
+      </c>
+      <c r="BQ5" s="32">
+        <f>BK5-$BL5</f>
+        <v>14481963810.64</v>
+      </c>
+      <c r="BR5" s="32">
+        <f>BM5*(1-$E5/$D5)</f>
+        <v>118368909541.114</v>
+      </c>
+      <c r="BS5" s="32">
+        <f>BN5*(1-$E5/$D5)</f>
+        <v>336469780557.845</v>
+      </c>
+      <c r="BT5" s="32">
+        <f>BO5*(1-$E5/$D5)</f>
+        <v>424203743302.886</v>
+      </c>
+      <c r="BU5" s="32">
+        <f>BP5*(1-$E5/$D5)</f>
+        <v>510692897062.655</v>
+      </c>
+      <c r="BV5" s="32">
+        <f>BQ5*(1-$E5/$D5)</f>
+        <v>14481963810.64</v>
+      </c>
+      <c r="BW5" s="37"/>
+      <c r="BX5" s="39"/>
+      <c r="BY5" s="39"/>
+      <c r="BZ5" s="43"/>
+      <c r="CA5" s="43"/>
+      <c r="CB5" s="39"/>
     </row>
     <row r="6" spans="1:80">
-      <c r="A6" s="13">
-        <v>2021</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>80</v>
-      </c>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="12">
-        <v>13899456422.16</v>
+        <v>33337724549.58</v>
       </c>
       <c r="D6" s="12">
-        <v>7658307846.92</v>
+        <v>23499848566.38</v>
       </c>
       <c r="E6" s="12">
-        <v>35668094.06</v>
-      </c>
-      <c r="F6" s="15">
-        <v>77737.82</v>
-      </c>
-      <c r="G6" s="15">
-        <v>9999166.62</v>
-      </c>
-      <c r="H6" s="15">
-        <v>9569135.05</v>
-      </c>
-      <c r="I6" s="15">
-        <v>6209153.06</v>
-      </c>
-      <c r="J6" s="15">
-        <f>F6+G6+H6+I6</f>
-        <v>25855192.55</v>
-      </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15">
-        <v>94521442.67</v>
-      </c>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12">
-        <v>157420210.81</v>
-      </c>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12">
-        <v>110605272.21</v>
-      </c>
-      <c r="Z6" s="12">
-        <v>29191343.78</v>
-      </c>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="12">
-        <f t="shared" ref="AE6:AE11" si="0">SUM(K6:T6)</f>
-        <v>251941653.48</v>
-      </c>
-      <c r="AF6" s="12">
-        <f t="shared" ref="AF6:AF11" si="1">SUM(U6:AD6)</f>
-        <v>139796615.99</v>
-      </c>
-      <c r="AG6" s="15">
-        <f t="shared" ref="AG6:AG11" si="2">(AE6+AF6)/2</f>
-        <v>195869134.735</v>
-      </c>
-      <c r="AH6" s="22">
-        <f t="shared" ref="AH6:AH11" si="3">F6/AG6</f>
-        <v>0.000396886523776066</v>
-      </c>
-      <c r="AI6" s="22">
-        <f t="shared" ref="AI6:AI11" si="4">J6/AG6</f>
-        <v>0.132002383045091</v>
-      </c>
-      <c r="AJ6" s="23">
-        <v>0.25</v>
-      </c>
-      <c r="AK6" s="23">
-        <f t="shared" ref="AK6:AK11" si="5">(C6-D6)/C6</f>
-        <v>0.449021054182356</v>
-      </c>
-      <c r="AL6" s="23">
-        <f t="shared" ref="AL6:AL11" si="6">D6/C6</f>
-        <v>0.550978945817644</v>
-      </c>
-      <c r="AM6" s="26">
-        <v>1312404990.24778</v>
-      </c>
-      <c r="AN6" s="23">
-        <f t="shared" ref="AN6:AN11" si="7">AI6*(1-AJ6)*AK6+0.08*AL6</f>
-        <v>0.0885322025575289</v>
+        <v>98331095.55</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="18"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="18"/>
+      <c r="AE6" s="16"/>
+      <c r="AF6" s="16"/>
+      <c r="AG6" s="16"/>
+      <c r="AH6" s="21"/>
+      <c r="AI6" s="21"/>
+      <c r="AJ6" s="11"/>
+      <c r="AK6" s="24"/>
+      <c r="AL6" s="24"/>
+      <c r="AM6" s="28">
+        <v>5000000000</v>
+      </c>
+      <c r="AN6" s="27">
+        <v>0.0602</v>
       </c>
       <c r="AO6" s="23">
         <v>0.04</v>
@@ -8719,132 +8554,131 @@
       <c r="AP6" s="23">
         <v>0.15</v>
       </c>
-      <c r="AQ6" s="32"/>
-      <c r="AR6" s="31">
-        <v>2654052417.47</v>
-      </c>
-      <c r="AS6" s="32"/>
-      <c r="AT6" s="32"/>
-      <c r="AU6" s="31">
-        <v>180312742.31</v>
-      </c>
-      <c r="AV6" s="31">
-        <v>12159756.67</v>
-      </c>
-      <c r="AW6" s="31"/>
-      <c r="AX6" s="32"/>
-      <c r="AY6" s="32"/>
-      <c r="AZ6" s="33">
+      <c r="AQ6" s="11"/>
+      <c r="AR6" s="32">
+        <v>19813767427.18</v>
+      </c>
+      <c r="AS6" s="11"/>
+      <c r="AT6" s="11"/>
+      <c r="AU6" s="32">
+        <v>5377818664.42</v>
+      </c>
+      <c r="AV6" s="34">
+        <v>16216013.8</v>
+      </c>
+      <c r="AW6" s="11"/>
+      <c r="AX6" s="11"/>
+      <c r="AY6" s="32">
+        <v>4496708</v>
+      </c>
+      <c r="AZ6" s="32">
         <f>SUM(AR6:AY6)</f>
-        <v>2846524916.45</v>
-      </c>
-      <c r="BA6" s="31">
-        <f>298191205.49+65600611.64</f>
-        <v>363791817.13</v>
-      </c>
+        <v>25212298813.4</v>
+      </c>
+      <c r="BA6" s="11"/>
       <c r="BB6" s="15">
         <f>AM6/AN6</f>
-        <v>14824040883.8238</v>
+        <v>83056478405.3156</v>
       </c>
       <c r="BC6" s="16">
         <f>AM6*(1+AO6)/(AN6-AO6)</f>
-        <v>28123619327.5953</v>
+        <v>257425742574.257</v>
       </c>
       <c r="BD6" s="16">
         <f>AM6*(1+AP6)/(1+AN6)+AM6*(1+AP6)^2/(1+AN6)^2+AM6*(1+AP6)^3/(1+AN6)^3+AM6*(1+AP6)^3*(1+AO6)/(1+AN6)^4/(AN6-AO6)</f>
-        <v>34863737484.9391</v>
+        <v>327568087513.837</v>
       </c>
       <c r="BE6" s="16">
         <f>AM6*(1+AP6)/(1+AN6)+AM6*(1+AP6)^2/(1+AN6)^2+AM6*(1+AP6)^3/(1+AN6)^3+AM6*(1+AP6)^4/(1+AN6)^4+AM6*(1+AP6)^5/(1+AN6)^5+AM6*(1+AP6)^5*(1+AO6)/(1+AN6)^6/(AN6-AO6)</f>
-        <v>41763637764.36</v>
-      </c>
-      <c r="BF6" s="34"/>
-      <c r="BG6" s="33">
+        <v>396715221266.13</v>
+      </c>
+      <c r="BF6" s="35"/>
+      <c r="BG6" s="32">
         <f>$AZ6+$BA6+BB6</f>
-        <v>18034357617.4038</v>
-      </c>
-      <c r="BH6" s="33">
+        <v>108268777218.716</v>
+      </c>
+      <c r="BH6" s="32">
         <f>$AZ6+$BA6+BC6</f>
-        <v>31333936061.1753</v>
-      </c>
-      <c r="BI6" s="33">
+        <v>282638041387.657</v>
+      </c>
+      <c r="BI6" s="32">
         <f>$AZ6+$BA6+BD6</f>
-        <v>38074054218.5191</v>
-      </c>
-      <c r="BJ6" s="33">
+        <v>352780386327.237</v>
+      </c>
+      <c r="BJ6" s="32">
         <f>$AZ6+$BA6+BE6</f>
-        <v>44973954497.94</v>
-      </c>
-      <c r="BK6" s="33">
+        <v>421927520079.53</v>
+      </c>
+      <c r="BK6" s="32">
         <f>$AZ6+$BA6+BF6</f>
-        <v>3210316733.58</v>
-      </c>
-      <c r="BL6" s="31">
+        <v>25212298813.4</v>
+      </c>
+      <c r="BL6" s="34">
         <f>C6-D6</f>
-        <v>6241148575.24</v>
-      </c>
-      <c r="BM6" s="33">
+        <v>9837875983.2</v>
+      </c>
+      <c r="BM6" s="32">
         <f>BG6-$BL6</f>
-        <v>11793209042.1638</v>
-      </c>
-      <c r="BN6" s="33">
+        <v>98430901235.5156</v>
+      </c>
+      <c r="BN6" s="32">
         <f>BH6-$BL6</f>
-        <v>25092787485.9353</v>
-      </c>
-      <c r="BO6" s="33">
+        <v>272800165404.457</v>
+      </c>
+      <c r="BO6" s="32">
         <f>BI6-$BL6</f>
-        <v>31832905643.2791</v>
-      </c>
-      <c r="BP6" s="33">
+        <v>342942510344.037</v>
+      </c>
+      <c r="BP6" s="32">
         <f>BJ6-$BL6</f>
-        <v>38732805922.7</v>
-      </c>
-      <c r="BQ6" s="33">
+        <v>412089644096.33</v>
+      </c>
+      <c r="BQ6" s="32">
         <f>BK6-$BL6</f>
-        <v>-3030831841.66</v>
-      </c>
-      <c r="BR6" s="33">
+        <v>15374422830.2</v>
+      </c>
+      <c r="BR6" s="32">
         <f>BM6*(1-$E6/$D6)</f>
-        <v>11738282902.1087</v>
-      </c>
-      <c r="BS6" s="33">
+        <v>98019033970.6214</v>
+      </c>
+      <c r="BS6" s="32">
         <f>BN6*(1-$E6/$D6)</f>
-        <v>24975919383.7166</v>
-      </c>
-      <c r="BT6" s="33">
+        <v>271658679787.873</v>
+      </c>
+      <c r="BT6" s="32">
         <f>BO6*(1-$E6/$D6)</f>
-        <v>31684645858.5612</v>
-      </c>
-      <c r="BU6" s="33">
+        <v>341507526086.264</v>
+      </c>
+      <c r="BU6" s="32">
         <f>BP6*(1-$E6/$D6)</f>
-        <v>38552410280.1542</v>
-      </c>
-      <c r="BV6" s="33">
+        <v>410365325488.304</v>
+      </c>
+      <c r="BV6" s="32">
         <f>BQ6*(1-$E6/$D6)</f>
-        <v>-3016715930.23815</v>
-      </c>
-      <c r="BW6" s="41">
-        <v>808678476</v>
-      </c>
-      <c r="BX6" s="40">
+        <v>15310091188.3993</v>
+      </c>
+      <c r="BW6" s="40">
+        <v>4212576169</v>
+      </c>
+      <c r="BX6" s="41">
         <f>BR6/$BW6</f>
-        <v>14.5153893054879</v>
-      </c>
-      <c r="BY6" s="40">
+        <v>23.2681926778999</v>
+      </c>
+      <c r="BY6" s="41">
         <f>BS6/$BW6</f>
-        <v>30.8848573629115</v>
-      </c>
-      <c r="BZ6" s="40">
+        <v>64.4875413261335</v>
+      </c>
+      <c r="BZ6" s="41">
         <f>BT6/$BW6</f>
-        <v>39.1807706015428</v>
-      </c>
-      <c r="CA6" s="40">
+        <v>81.0685700117163</v>
+      </c>
+      <c r="CA6" s="41">
         <f>BU6/$BW6</f>
-        <v>47.673347843815</v>
-      </c>
-      <c r="CB6" s="40">
+        <v>97.4143395929902</v>
+      </c>
+      <c r="CB6" s="41">
         <f>BV6/$BW6</f>
-        <v>-3.7304268875312</v>
+        <v>3.63437729650208</v>
       </c>
     </row>
     <row r="7" spans="1:80">
@@ -8852,190 +8686,236 @@
         <v>2021</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
+        <v>81</v>
+      </c>
+      <c r="C7" s="12">
+        <v>33337724549.58</v>
+      </c>
+      <c r="D7" s="12">
+        <v>23499848566.38</v>
+      </c>
+      <c r="E7" s="12">
+        <v>98331095.55</v>
+      </c>
+      <c r="F7" s="15">
+        <v>4582073.3</v>
+      </c>
+      <c r="G7" s="15">
+        <v>4082874.6</v>
+      </c>
+      <c r="H7" s="15">
+        <v>5456405.46</v>
+      </c>
+      <c r="I7" s="15">
+        <v>7145253.84</v>
+      </c>
+      <c r="J7" s="15">
+        <f>F7+G7+H7+I7</f>
+        <v>21266607.2</v>
+      </c>
+      <c r="K7" s="15">
+        <v>92600000</v>
+      </c>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
       <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
+      <c r="O7" s="15">
+        <v>1239133371.41</v>
+      </c>
       <c r="P7" s="15"/>
       <c r="Q7" s="15"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12">
+        <v>104600000</v>
+      </c>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12">
+        <v>972021493.04</v>
+      </c>
+      <c r="Z7" s="12">
+        <v>21395441.72</v>
+      </c>
       <c r="AA7" s="13"/>
       <c r="AB7" s="13"/>
       <c r="AC7" s="13"/>
-      <c r="AD7" s="13"/>
+      <c r="AD7" s="12">
+        <v>54070173.8</v>
+      </c>
       <c r="AE7" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(K7:T7)</f>
+        <v>1331733371.41</v>
       </c>
       <c r="AF7" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(U7:AD7)</f>
+        <v>1152087108.56</v>
       </c>
       <c r="AG7" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH7" s="22" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI7" s="22" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <f>(AE7+AF7)/2</f>
+        <v>1241910239.985</v>
+      </c>
+      <c r="AH7" s="22">
+        <f>F7/AG7</f>
+        <v>0.00368953661261006</v>
+      </c>
+      <c r="AI7" s="22">
+        <f>J7/AG7</f>
+        <v>0.0171241097104223</v>
       </c>
       <c r="AJ7" s="23">
         <v>0.25</v>
       </c>
-      <c r="AK7" s="23" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL7" s="23" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM7" s="28"/>
-      <c r="AN7" s="23" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+      <c r="AK7" s="23">
+        <f>(C7-D7)/C7</f>
+        <v>0.295097404400503</v>
+      </c>
+      <c r="AL7" s="23">
+        <f>D7/C7</f>
+        <v>0.704902595599497</v>
+      </c>
+      <c r="AM7" s="28">
+        <v>4174523194.45556</v>
+      </c>
+      <c r="AN7" s="23">
+        <f>AI7*(1-AJ7)*AK7+0.08*AL7</f>
+        <v>0.0601821678941211</v>
       </c>
       <c r="AO7" s="23">
         <v>0.04</v>
       </c>
       <c r="AP7" s="23">
-        <v>0.16</v>
-      </c>
-      <c r="AQ7" s="32"/>
-      <c r="AR7" s="32"/>
-      <c r="AS7" s="32"/>
-      <c r="AT7" s="32"/>
-      <c r="AU7" s="32"/>
-      <c r="AV7" s="32"/>
-      <c r="AW7" s="32"/>
-      <c r="AX7" s="32"/>
-      <c r="AY7" s="32"/>
-      <c r="AZ7" s="33"/>
-      <c r="BA7" s="32"/>
-      <c r="BB7" s="15" t="e">
+        <v>0.15</v>
+      </c>
+      <c r="AQ7" s="33"/>
+      <c r="AR7" s="32">
+        <v>19813767427.18</v>
+      </c>
+      <c r="AS7" s="34"/>
+      <c r="AT7" s="34"/>
+      <c r="AU7" s="32">
+        <v>5377818664.42</v>
+      </c>
+      <c r="AV7" s="34">
+        <v>16216013.8</v>
+      </c>
+      <c r="AW7" s="34"/>
+      <c r="AX7" s="34"/>
+      <c r="AY7" s="32">
+        <v>4496708</v>
+      </c>
+      <c r="AZ7" s="32">
+        <f>SUM(AR7:AY7)</f>
+        <v>25212298813.4</v>
+      </c>
+      <c r="BA7" s="33">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="15">
         <f>AM7/AN7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BC7" s="16" t="e">
+        <v>69364785957.8577</v>
+      </c>
+      <c r="BC7" s="16">
         <f>AM7*(1+AO7)/(AN7-AO7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BD7" s="16" t="e">
+        <v>215115846078.083</v>
+      </c>
+      <c r="BD7" s="16">
         <f>AM7*(1+AP7)/(1+AN7)+AM7*(1+AP7)^2/(1+AN7)^2+AM7*(1+AP7)^3/(1+AN7)^3+AM7*(1+AP7)^3*(1+AO7)/(1+AN7)^4/(AN7-AO7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BE7" s="16" t="e">
+        <v>273734643048.848</v>
+      </c>
+      <c r="BE7" s="16">
         <f>AM7*(1+AP7)/(1+AN7)+AM7*(1+AP7)^2/(1+AN7)^2+AM7*(1+AP7)^3/(1+AN7)^3+AM7*(1+AP7)^4/(1+AN7)^4+AM7*(1+AP7)^5/(1+AN7)^5+AM7*(1+AP7)^5*(1+AO7)/(1+AN7)^6/(AN7-AO7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BF7" s="34"/>
-      <c r="BG7" s="33" t="e">
+        <v>331520512449.728</v>
+      </c>
+      <c r="BF7" s="35"/>
+      <c r="BG7" s="32">
         <f>$AZ7+$BA7+BB7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BH7" s="33" t="e">
+        <v>94577084771.2577</v>
+      </c>
+      <c r="BH7" s="32">
         <f>$AZ7+$BA7+BC7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BI7" s="33" t="e">
+        <v>240328144891.483</v>
+      </c>
+      <c r="BI7" s="32">
         <f>$AZ7+$BA7+BD7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BJ7" s="33" t="e">
+        <v>298946941862.248</v>
+      </c>
+      <c r="BJ7" s="32">
         <f>$AZ7+$BA7+BE7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BK7" s="33">
+        <v>356732811263.128</v>
+      </c>
+      <c r="BK7" s="32">
         <f>$AZ7+$BA7+BF7</f>
-        <v>0</v>
-      </c>
-      <c r="BL7" s="31">
+        <v>25212298813.4</v>
+      </c>
+      <c r="BL7" s="34">
         <f>C7-D7</f>
-        <v>0</v>
-      </c>
-      <c r="BM7" s="33" t="e">
+        <v>9837875983.2</v>
+      </c>
+      <c r="BM7" s="32">
         <f>BG7-$BL7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BN7" s="33" t="e">
+        <v>84739208788.0577</v>
+      </c>
+      <c r="BN7" s="32">
         <f>BH7-$BL7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BO7" s="33" t="e">
+        <v>230490268908.283</v>
+      </c>
+      <c r="BO7" s="32">
         <f>BI7-$BL7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BP7" s="33" t="e">
+        <v>289109065879.048</v>
+      </c>
+      <c r="BP7" s="32">
         <f>BJ7-$BL7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BQ7" s="33">
+        <v>346894935279.928</v>
+      </c>
+      <c r="BQ7" s="32">
         <f>BK7-$BL7</f>
-        <v>0</v>
-      </c>
-      <c r="BR7" s="33" t="e">
+        <v>15374422830.2</v>
+      </c>
+      <c r="BR7" s="32">
         <f>BM7*(1-$E7/$D7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BS7" s="33" t="e">
+        <v>84384632067.5893</v>
+      </c>
+      <c r="BS7" s="32">
         <f>BN7*(1-$E7/$D7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BT7" s="33" t="e">
+        <v>229525821814.45</v>
+      </c>
+      <c r="BT7" s="32">
         <f>BO7*(1-$E7/$D7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BU7" s="33" t="e">
+        <v>287899338458.847</v>
+      </c>
+      <c r="BU7" s="32">
         <f>BP7*(1-$E7/$D7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BV7" s="33" t="e">
+        <v>345443412776.263</v>
+      </c>
+      <c r="BV7" s="32">
         <f>BQ7*(1-$E7/$D7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BW7" s="32"/>
-      <c r="BX7" s="40" t="e">
+        <v>15310091188.3993</v>
+      </c>
+      <c r="BW7" s="40">
+        <v>4212576170</v>
+      </c>
+      <c r="BX7" s="41">
         <f>BR7/$BW7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BY7" s="40" t="e">
+        <v>20.0315979254066</v>
+      </c>
+      <c r="BY7" s="41">
         <f>BS7/$BW7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BZ7" s="40" t="e">
+        <v>54.4858567659917</v>
+      </c>
+      <c r="BZ7" s="41">
         <f>BT7/$BW7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CA7" s="40" t="e">
+        <v>68.3428208394501</v>
+      </c>
+      <c r="CA7" s="41">
         <f>BU7/$BW7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CB7" s="40" t="e">
+        <v>82.0028882175116</v>
+      </c>
+      <c r="CB7" s="41">
         <f>BV7/$BW7</f>
-        <v>#DIV/0!</v>
+        <v>3.63437729563934</v>
       </c>
     </row>
     <row r="8" spans="1:80">
@@ -9043,481 +8923,319 @@
         <v>2021</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" s="12">
-        <v>6369307875.78</v>
-      </c>
-      <c r="D8" s="12">
-        <v>5117150498.28</v>
-      </c>
-      <c r="E8" s="12">
-        <v>80966017.91</v>
-      </c>
-      <c r="F8" s="15">
-        <v>8092057.32</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="15"/>
       <c r="G8" s="15"/>
-      <c r="H8" s="15">
-        <v>2350868.48</v>
-      </c>
-      <c r="I8" s="15">
-        <v>1248588.78</v>
-      </c>
-      <c r="J8" s="15">
-        <f>F8+G8+H8+I8</f>
-        <v>11691514.58</v>
-      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
       <c r="N8" s="15"/>
-      <c r="O8" s="15">
-        <v>64978916.01</v>
-      </c>
-      <c r="P8" s="15">
-        <v>170845170.78</v>
-      </c>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
       <c r="Q8" s="15"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="12">
-        <v>61486444.69</v>
-      </c>
-      <c r="Z8" s="12">
-        <v>2016748.68</v>
-      </c>
-      <c r="AA8" s="13"/>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="13"/>
-      <c r="AE8" s="12">
-        <f t="shared" si="0"/>
-        <v>235824086.79</v>
-      </c>
-      <c r="AF8" s="12">
-        <f t="shared" si="1"/>
-        <v>63503193.37</v>
-      </c>
-      <c r="AG8" s="15">
-        <f t="shared" si="2"/>
-        <v>149663640.08</v>
-      </c>
-      <c r="AH8" s="22">
-        <f t="shared" si="3"/>
-        <v>0.0540682915080412</v>
-      </c>
-      <c r="AI8" s="22">
-        <f t="shared" si="4"/>
-        <v>0.0781186036484915</v>
-      </c>
-      <c r="AJ8" s="23">
-        <v>0.25</v>
-      </c>
-      <c r="AK8" s="23">
-        <f t="shared" si="5"/>
-        <v>0.196592377369834</v>
-      </c>
-      <c r="AL8" s="23">
-        <f t="shared" si="6"/>
-        <v>0.803407622630166</v>
-      </c>
-      <c r="AM8" s="29">
-        <v>278344963.561111</v>
-      </c>
-      <c r="AN8" s="23">
-        <f t="shared" si="7"/>
-        <v>0.0757907513164648</v>
-      </c>
-      <c r="AO8" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="AP8" s="23">
-        <v>0.19</v>
-      </c>
-      <c r="AQ8" s="32"/>
-      <c r="AR8" s="31">
-        <v>1829782947.1</v>
-      </c>
-      <c r="AS8" s="32"/>
-      <c r="AT8" s="32"/>
-      <c r="AU8" s="31">
-        <v>424541.21</v>
-      </c>
-      <c r="AV8" s="31">
-        <v>3113131.56</v>
-      </c>
-      <c r="AW8" s="32"/>
-      <c r="AX8" s="32"/>
-      <c r="AY8" s="31">
-        <v>8194517.48</v>
-      </c>
-      <c r="AZ8" s="33">
-        <f>SUM(AR8:AY8)</f>
-        <v>1841515137.35</v>
-      </c>
-      <c r="BA8" s="31">
-        <v>272631920.44</v>
-      </c>
-      <c r="BB8" s="15">
-        <f>AM8/AN8</f>
-        <v>3672545247.62368</v>
-      </c>
-      <c r="BC8" s="16">
-        <f>AM8*(1+AO8)/(AN8-AO8)</f>
-        <v>8088088443.40708</v>
-      </c>
-      <c r="BD8" s="16">
-        <f>AM8*(1+AP8)/(1+AN8)+AM8*(1+AP8)^2/(1+AN8)^2+AM8*(1+AP8)^3/(1+AN8)^3+AM8*(1+AP8)^3*(1+AO8)/(1+AN8)^4/(AN8-AO8)</f>
-        <v>11201179864.2188</v>
-      </c>
-      <c r="BE8" s="16">
-        <f>AM8*(1+AP8)/(1+AN8)+AM8*(1+AP8)^2/(1+AN8)^2+AM8*(1+AP8)^3/(1+AN8)^3+AM8*(1+AP8)^4/(1+AN8)^4+AM8*(1+AP8)^5/(1+AN8)^5+AM8*(1+AP8)^5*(1+AO8)/(1+AN8)^6/(AN8-AO8)</f>
-        <v>14354204042.2797</v>
-      </c>
-      <c r="BF8" s="34"/>
-      <c r="BG8" s="33">
-        <f>$AZ8+$BA8+BB8</f>
-        <v>5786692305.41368</v>
-      </c>
-      <c r="BH8" s="33">
-        <f>$AZ8+$BA8+BC8</f>
-        <v>10202235501.1971</v>
-      </c>
-      <c r="BI8" s="33">
-        <f>$AZ8+$BA8+BD8</f>
-        <v>13315326922.0088</v>
-      </c>
-      <c r="BJ8" s="33">
-        <f>$AZ8+$BA8+BE8</f>
-        <v>16468351100.0697</v>
-      </c>
-      <c r="BK8" s="33">
-        <f>$AZ8+$BA8+BF8</f>
-        <v>2114147057.79</v>
-      </c>
-      <c r="BL8" s="31">
-        <f>C8-D8</f>
-        <v>1252157377.5</v>
-      </c>
-      <c r="BM8" s="33">
-        <f>BG8-$BL8</f>
-        <v>4534534927.91368</v>
-      </c>
-      <c r="BN8" s="33">
-        <f>BH8-$BL8</f>
-        <v>8950078123.69708</v>
-      </c>
-      <c r="BO8" s="33">
-        <f>BI8-$BL8</f>
-        <v>12063169544.5088</v>
-      </c>
-      <c r="BP8" s="33">
-        <f>BJ8-$BL8</f>
-        <v>15216193722.5697</v>
-      </c>
-      <c r="BQ8" s="33">
-        <f>BK8-$BL8</f>
-        <v>861989680.29</v>
-      </c>
-      <c r="BR8" s="33">
-        <f>BM8*(1-$E8/$D8)</f>
-        <v>4462787333.95287</v>
-      </c>
-      <c r="BS8" s="33">
-        <f>BN8*(1-$E8/$D8)</f>
-        <v>8808465680.22825</v>
-      </c>
-      <c r="BT8" s="33">
-        <f>BO8*(1-$E8/$D8)</f>
-        <v>11872300270.3453</v>
-      </c>
-      <c r="BU8" s="33">
-        <f>BP8*(1-$E8/$D8)</f>
-        <v>14975435782.408</v>
-      </c>
-      <c r="BV8" s="33">
-        <f>BQ8*(1-$E8/$D8)</f>
-        <v>848350864.719488</v>
-      </c>
-      <c r="BW8" s="39">
-        <v>405950150</v>
-      </c>
-      <c r="BX8" s="40">
-        <f>BR8/$BW8</f>
-        <v>10.9934368393579</v>
-      </c>
-      <c r="BY8" s="40">
-        <f>BS8/$BW8</f>
-        <v>21.6983924755989</v>
-      </c>
-      <c r="BZ8" s="40">
-        <f>BT8/$BW8</f>
-        <v>29.2457097758071</v>
-      </c>
-      <c r="CA8" s="40">
-        <f>BU8/$BW8</f>
-        <v>36.8898392632888</v>
-      </c>
-      <c r="CB8" s="40">
-        <f>BV8/$BW8</f>
-        <v>2.08979074085694</v>
-      </c>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="12"/>
+      <c r="AF8" s="12"/>
+      <c r="AG8" s="15"/>
+      <c r="AH8" s="22"/>
+      <c r="AI8" s="22"/>
+      <c r="AJ8" s="23"/>
+      <c r="AK8" s="23"/>
+      <c r="AL8" s="23"/>
+      <c r="AM8" s="29"/>
+      <c r="AN8" s="23"/>
+      <c r="AO8" s="23"/>
+      <c r="AP8" s="23"/>
+      <c r="AQ8" s="33"/>
+      <c r="AR8" s="32"/>
+      <c r="AS8" s="33"/>
+      <c r="AT8" s="33"/>
+      <c r="AU8" s="32"/>
+      <c r="AV8" s="34"/>
+      <c r="AW8" s="34"/>
+      <c r="AX8" s="33"/>
+      <c r="AY8" s="32"/>
+      <c r="AZ8" s="32"/>
+      <c r="BA8" s="34"/>
+      <c r="BB8" s="15"/>
+      <c r="BC8" s="16"/>
+      <c r="BD8" s="16"/>
+      <c r="BE8" s="16"/>
+      <c r="BF8" s="35"/>
+      <c r="BG8" s="32"/>
+      <c r="BH8" s="32"/>
+      <c r="BI8" s="32"/>
+      <c r="BJ8" s="32"/>
+      <c r="BK8" s="32"/>
+      <c r="BL8" s="34"/>
+      <c r="BM8" s="32"/>
+      <c r="BN8" s="32"/>
+      <c r="BO8" s="32"/>
+      <c r="BP8" s="32"/>
+      <c r="BQ8" s="32"/>
+      <c r="BR8" s="32"/>
+      <c r="BS8" s="32"/>
+      <c r="BT8" s="32"/>
+      <c r="BU8" s="32"/>
+      <c r="BV8" s="32"/>
+      <c r="BW8" s="42"/>
+      <c r="BX8" s="41"/>
+      <c r="BY8" s="41"/>
+      <c r="BZ8" s="41"/>
+      <c r="CA8" s="41"/>
+      <c r="CB8" s="41"/>
     </row>
     <row r="9" spans="1:80">
       <c r="A9" s="13">
         <v>2021</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C9" s="12">
-        <v>55127388384.03</v>
+        <v>13899456422.16</v>
       </c>
       <c r="D9" s="12">
-        <v>38757462615.81</v>
+        <v>7658307846.92</v>
       </c>
       <c r="E9" s="12">
-        <v>265952985.21</v>
+        <v>35668094.06</v>
       </c>
       <c r="F9" s="15">
-        <v>68113113.6</v>
+        <v>77737.82</v>
       </c>
       <c r="G9" s="15">
-        <v>60219890.71</v>
+        <v>9999166.62</v>
       </c>
       <c r="H9" s="15">
-        <v>139234655.8</v>
+        <v>9569135.05</v>
       </c>
       <c r="I9" s="15">
-        <v>8207817.42</v>
+        <v>6209153.06</v>
       </c>
       <c r="J9" s="15">
         <f>F9+G9+H9+I9</f>
-        <v>275775477.53</v>
-      </c>
-      <c r="K9" s="15">
-        <v>1230010900</v>
-      </c>
-      <c r="L9" s="15">
-        <v>16507997</v>
-      </c>
-      <c r="M9" s="15">
-        <v>858612.35</v>
-      </c>
+        <v>25855192.55</v>
+      </c>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
       <c r="N9" s="15"/>
       <c r="O9" s="15">
-        <v>2454568919.68</v>
-      </c>
-      <c r="P9" s="15">
-        <v>177436405.49</v>
-      </c>
+        <v>94521442.67</v>
+      </c>
+      <c r="P9" s="15"/>
       <c r="Q9" s="15"/>
-      <c r="R9" s="12">
-        <v>1819028586.29</v>
-      </c>
-      <c r="S9" s="13"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
       <c r="T9" s="12">
-        <v>1067102918.35</v>
-      </c>
-      <c r="U9" s="12">
-        <v>2261479950</v>
-      </c>
-      <c r="V9" s="13"/>
-      <c r="W9" s="12">
-        <v>3651608.46</v>
-      </c>
-      <c r="X9" s="13"/>
+        <v>157420210.81</v>
+      </c>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
       <c r="Y9" s="12">
-        <v>3289192625.17</v>
+        <v>110605272.21</v>
       </c>
       <c r="Z9" s="12">
-        <v>396423607.05</v>
-      </c>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="12">
-        <v>607140031.37</v>
-      </c>
-      <c r="AC9" s="13"/>
+        <v>29191343.78</v>
+      </c>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="12"/>
       <c r="AD9" s="12">
-        <v>1018978731.37</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="12">
-        <f t="shared" si="0"/>
-        <v>6765514339.16</v>
+        <f t="shared" ref="AE9:AE14" si="0">SUM(K9:T9)</f>
+        <v>251941653.48</v>
       </c>
       <c r="AF9" s="12">
-        <f t="shared" si="1"/>
-        <v>7576866553.42</v>
+        <f t="shared" ref="AF9:AF14" si="1">SUM(U9:AD9)</f>
+        <v>139796615.99</v>
       </c>
       <c r="AG9" s="15">
-        <f t="shared" si="2"/>
-        <v>7171190446.29</v>
+        <f t="shared" ref="AG9:AG14" si="2">(AE9+AF9)/2</f>
+        <v>195869134.735</v>
       </c>
       <c r="AH9" s="22">
-        <f t="shared" si="3"/>
-        <v>0.00949815990945243</v>
+        <f t="shared" ref="AH9:AH14" si="3">F9/AG9</f>
+        <v>0.000396886523776066</v>
       </c>
       <c r="AI9" s="22">
-        <f t="shared" si="4"/>
-        <v>0.0384560247835381</v>
+        <f t="shared" ref="AI9:AI14" si="4">J9/AG9</f>
+        <v>0.132002383045091</v>
       </c>
       <c r="AJ9" s="23">
         <v>0.25</v>
       </c>
       <c r="AK9" s="23">
-        <f t="shared" si="5"/>
-        <v>0.296947238896633</v>
+        <f t="shared" ref="AK9:AK14" si="5">(C9-D9)/C9</f>
+        <v>0.449021054182356</v>
       </c>
       <c r="AL9" s="23">
-        <f t="shared" si="6"/>
-        <v>0.703052761103367</v>
+        <f t="shared" ref="AL9:AL14" si="6">D9/C9</f>
+        <v>0.550978945817644</v>
       </c>
       <c r="AM9" s="28">
-        <v>1402046451.92778</v>
+        <v>1312404990.24778</v>
       </c>
       <c r="AN9" s="23">
-        <f t="shared" si="7"/>
-        <v>0.0648087786720785</v>
+        <f t="shared" ref="AN9:AN14" si="7">AI9*(1-AJ9)*AK9+0.08*AL9</f>
+        <v>0.0885322025575289</v>
       </c>
       <c r="AO9" s="23">
         <v>0.04</v>
       </c>
       <c r="AP9" s="23">
-        <v>0.23</v>
-      </c>
-      <c r="AQ9" s="32"/>
-      <c r="AR9" s="31">
-        <v>8238772782.53</v>
-      </c>
-      <c r="AS9" s="32"/>
-      <c r="AT9" s="31">
-        <v>229142186.76</v>
-      </c>
-      <c r="AU9" s="31">
-        <v>527288380.38</v>
-      </c>
-      <c r="AV9" s="31">
-        <v>339579823.47</v>
-      </c>
-      <c r="AW9" s="32"/>
-      <c r="AX9" s="32"/>
+        <v>0.15</v>
+      </c>
+      <c r="AQ9" s="33"/>
+      <c r="AR9" s="32">
+        <v>2654052417.47</v>
+      </c>
+      <c r="AS9" s="33"/>
+      <c r="AT9" s="33"/>
+      <c r="AU9" s="32">
+        <v>180312742.31</v>
+      </c>
+      <c r="AV9" s="34">
+        <v>12159756.67</v>
+      </c>
+      <c r="AW9" s="34"/>
+      <c r="AX9" s="33"/>
       <c r="AY9" s="32"/>
-      <c r="AZ9" s="33">
-        <f>SUM(AR9:AY9)+8714098195.97</f>
-        <v>18048881369.11</v>
-      </c>
-      <c r="BA9" s="31">
-        <v>678304556.75</v>
+      <c r="AZ9" s="32">
+        <f>SUM(AR9:AY9)</f>
+        <v>2846524916.45</v>
+      </c>
+      <c r="BA9" s="34">
+        <f>298191205.49+65600611.64</f>
+        <v>363791817.13</v>
       </c>
       <c r="BB9" s="15">
         <f>AM9/AN9</f>
-        <v>21633588545.4947</v>
+        <v>14824040883.8238</v>
       </c>
       <c r="BC9" s="16">
         <f>AM9*(1+AO9)/(AN9-AO9)</f>
-        <v>58774691381.5619</v>
+        <v>28123619327.5953</v>
       </c>
       <c r="BD9" s="16">
         <f>AM9*(1+AP9)/(1+AN9)+AM9*(1+AP9)^2/(1+AN9)^2+AM9*(1+AP9)^3/(1+AN9)^3+AM9*(1+AP9)^3*(1+AO9)/(1+AN9)^4/(AN9-AO9)</f>
-        <v>90729782373.1699</v>
+        <v>34863737484.9391</v>
       </c>
       <c r="BE9" s="16">
         <f>AM9*(1+AP9)/(1+AN9)+AM9*(1+AP9)^2/(1+AN9)^2+AM9*(1+AP9)^3/(1+AN9)^3+AM9*(1+AP9)^4/(1+AN9)^4+AM9*(1+AP9)^5/(1+AN9)^5+AM9*(1+AP9)^5*(1+AO9)/(1+AN9)^6/(AN9-AO9)</f>
-        <v>124554873714.034</v>
-      </c>
-      <c r="BF9" s="34"/>
-      <c r="BG9" s="33">
+        <v>41763637764.36</v>
+      </c>
+      <c r="BF9" s="35"/>
+      <c r="BG9" s="32">
         <f>$AZ9+$BA9+BB9</f>
-        <v>40360774471.3547</v>
-      </c>
-      <c r="BH9" s="33">
+        <v>18034357617.4038</v>
+      </c>
+      <c r="BH9" s="32">
         <f>$AZ9+$BA9+BC9</f>
-        <v>77501877307.4219</v>
-      </c>
-      <c r="BI9" s="33">
+        <v>31333936061.1753</v>
+      </c>
+      <c r="BI9" s="32">
         <f>$AZ9+$BA9+BD9</f>
-        <v>109456968299.03</v>
-      </c>
-      <c r="BJ9" s="33">
+        <v>38074054218.5191</v>
+      </c>
+      <c r="BJ9" s="32">
         <f>$AZ9+$BA9+BE9</f>
-        <v>143282059639.894</v>
-      </c>
-      <c r="BK9" s="33">
+        <v>44973954497.94</v>
+      </c>
+      <c r="BK9" s="32">
         <f>$AZ9+$BA9+BF9</f>
-        <v>18727185925.86</v>
-      </c>
-      <c r="BL9" s="31">
+        <v>3210316733.58</v>
+      </c>
+      <c r="BL9" s="34">
         <f>C9-D9</f>
-        <v>16369925768.22</v>
-      </c>
-      <c r="BM9" s="33">
+        <v>6241148575.24</v>
+      </c>
+      <c r="BM9" s="32">
         <f>BG9-$BL9</f>
-        <v>23990848703.1347</v>
-      </c>
-      <c r="BN9" s="33">
+        <v>11793209042.1638</v>
+      </c>
+      <c r="BN9" s="32">
         <f>BH9-$BL9</f>
-        <v>61131951539.2019</v>
-      </c>
-      <c r="BO9" s="33">
+        <v>25092787485.9353</v>
+      </c>
+      <c r="BO9" s="32">
         <f>BI9-$BL9</f>
-        <v>93087042530.8099</v>
-      </c>
-      <c r="BP9" s="33">
+        <v>31832905643.2791</v>
+      </c>
+      <c r="BP9" s="32">
         <f>BJ9-$BL9</f>
-        <v>126912133871.674</v>
-      </c>
-      <c r="BQ9" s="33">
+        <v>38732805922.7</v>
+      </c>
+      <c r="BQ9" s="32">
         <f>BK9-$BL9</f>
-        <v>2357260157.64</v>
-      </c>
-      <c r="BR9" s="33">
+        <v>-3030831841.66</v>
+      </c>
+      <c r="BR9" s="32">
         <f>BM9*(1-$E9/$D9)</f>
-        <v>23826223947.0311</v>
-      </c>
-      <c r="BS9" s="33">
+        <v>11738282902.1087</v>
+      </c>
+      <c r="BS9" s="32">
         <f>BN9*(1-$E9/$D9)</f>
-        <v>60712465228.5338</v>
-      </c>
-      <c r="BT9" s="33">
+        <v>24975919383.7166</v>
+      </c>
+      <c r="BT9" s="32">
         <f>BO9*(1-$E9/$D9)</f>
-        <v>92448280982.0769</v>
-      </c>
-      <c r="BU9" s="33">
+        <v>31684645858.5612</v>
+      </c>
+      <c r="BU9" s="32">
         <f>BP9*(1-$E9/$D9)</f>
-        <v>126041265177.376</v>
-      </c>
-      <c r="BV9" s="33">
+        <v>38552410280.1542</v>
+      </c>
+      <c r="BV9" s="32">
         <f>BQ9*(1-$E9/$D9)</f>
-        <v>2341084682.42751</v>
-      </c>
-      <c r="BW9" s="39">
-        <v>2955826899</v>
-      </c>
-      <c r="BX9" s="40">
+        <v>-3016715930.23815</v>
+      </c>
+      <c r="BW9" s="42">
+        <v>808678476</v>
+      </c>
+      <c r="BX9" s="41">
         <f>BR9/$BW9</f>
-        <v>8.06076430087699</v>
-      </c>
-      <c r="BY9" s="40">
+        <v>14.5153893054879</v>
+      </c>
+      <c r="BY9" s="41">
         <f>BS9/$BW9</f>
-        <v>20.5399258153695</v>
-      </c>
-      <c r="BZ9" s="40">
+        <v>30.8848573629115</v>
+      </c>
+      <c r="BZ9" s="41">
         <f>BT9/$BW9</f>
-        <v>31.2766221233569</v>
-      </c>
-      <c r="CA9" s="40">
+        <v>39.1807706015428</v>
+      </c>
+      <c r="CA9" s="41">
         <f>BU9/$BW9</f>
-        <v>42.6416260099728</v>
-      </c>
-      <c r="CB9" s="40">
+        <v>47.673347843815</v>
+      </c>
+      <c r="CB9" s="41">
         <f>BV9/$BW9</f>
-        <v>0.792023607072368</v>
+        <v>-3.7304268875312</v>
       </c>
     </row>
     <row r="10" spans="1:80">
@@ -9525,7 +9243,7 @@
         <v>2021</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -9586,7 +9304,7 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM10" s="28"/>
+      <c r="AM10" s="29"/>
       <c r="AN10" s="23" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
@@ -9595,68 +9313,162 @@
         <v>0.04</v>
       </c>
       <c r="AP10" s="23">
-        <v>0.74</v>
-      </c>
-      <c r="AQ10" s="32"/>
+        <v>0.16</v>
+      </c>
+      <c r="AQ10" s="33"/>
       <c r="AR10" s="32"/>
-      <c r="AS10" s="32"/>
-      <c r="AT10" s="32"/>
+      <c r="AS10" s="33"/>
+      <c r="AT10" s="33"/>
       <c r="AU10" s="32"/>
-      <c r="AV10" s="32"/>
-      <c r="AW10" s="32"/>
-      <c r="AX10" s="32"/>
+      <c r="AV10" s="33"/>
+      <c r="AW10" s="33"/>
+      <c r="AX10" s="33"/>
       <c r="AY10" s="32"/>
-      <c r="AZ10" s="33"/>
-      <c r="BA10" s="32"/>
-      <c r="BB10" s="15"/>
-      <c r="BC10" s="16"/>
-      <c r="BD10" s="16"/>
-      <c r="BE10" s="16"/>
-      <c r="BF10" s="34"/>
-      <c r="BG10" s="33"/>
-      <c r="BH10" s="33"/>
-      <c r="BI10" s="33"/>
-      <c r="BJ10" s="33"/>
-      <c r="BK10" s="33"/>
-      <c r="BL10" s="32"/>
-      <c r="BM10" s="33"/>
-      <c r="BN10" s="33"/>
-      <c r="BO10" s="33"/>
-      <c r="BP10" s="33"/>
-      <c r="BQ10" s="33"/>
-      <c r="BR10" s="33"/>
-      <c r="BS10" s="33"/>
-      <c r="BT10" s="33"/>
-      <c r="BU10" s="33"/>
-      <c r="BV10" s="33"/>
-      <c r="BW10" s="32"/>
-      <c r="BX10" s="40"/>
-      <c r="BY10" s="40"/>
-      <c r="BZ10" s="40"/>
-      <c r="CA10" s="40"/>
-      <c r="CB10" s="40"/>
+      <c r="AZ10" s="32"/>
+      <c r="BA10" s="33"/>
+      <c r="BB10" s="15" t="e">
+        <f>AM10/AN10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC10" s="16" t="e">
+        <f>AM10*(1+AO10)/(AN10-AO10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD10" s="16" t="e">
+        <f>AM10*(1+AP10)/(1+AN10)+AM10*(1+AP10)^2/(1+AN10)^2+AM10*(1+AP10)^3/(1+AN10)^3+AM10*(1+AP10)^3*(1+AO10)/(1+AN10)^4/(AN10-AO10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE10" s="16" t="e">
+        <f>AM10*(1+AP10)/(1+AN10)+AM10*(1+AP10)^2/(1+AN10)^2+AM10*(1+AP10)^3/(1+AN10)^3+AM10*(1+AP10)^4/(1+AN10)^4+AM10*(1+AP10)^5/(1+AN10)^5+AM10*(1+AP10)^5*(1+AO10)/(1+AN10)^6/(AN10-AO10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BF10" s="35"/>
+      <c r="BG10" s="32" t="e">
+        <f>$AZ10+$BA10+BB10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BH10" s="32" t="e">
+        <f>$AZ10+$BA10+BC10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BI10" s="32" t="e">
+        <f>$AZ10+$BA10+BD10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BJ10" s="32" t="e">
+        <f>$AZ10+$BA10+BE10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BK10" s="32">
+        <f>$AZ10+$BA10+BF10</f>
+        <v>0</v>
+      </c>
+      <c r="BL10" s="34">
+        <f>C10-D10</f>
+        <v>0</v>
+      </c>
+      <c r="BM10" s="32" t="e">
+        <f>BG10-$BL10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BN10" s="32" t="e">
+        <f>BH10-$BL10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BO10" s="32" t="e">
+        <f>BI10-$BL10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BP10" s="32" t="e">
+        <f>BJ10-$BL10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BQ10" s="32">
+        <f>BK10-$BL10</f>
+        <v>0</v>
+      </c>
+      <c r="BR10" s="32" t="e">
+        <f>BM10*(1-$E10/$D10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BS10" s="32" t="e">
+        <f>BN10*(1-$E10/$D10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BT10" s="32" t="e">
+        <f>BO10*(1-$E10/$D10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BU10" s="32" t="e">
+        <f>BP10*(1-$E10/$D10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BV10" s="32" t="e">
+        <f>BQ10*(1-$E10/$D10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BW10" s="33"/>
+      <c r="BX10" s="41" t="e">
+        <f>BR10/$BW10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BY10" s="41" t="e">
+        <f>BS10/$BW10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BZ10" s="41" t="e">
+        <f>BT10/$BW10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CA10" s="41" t="e">
+        <f>BU10/$BW10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CB10" s="41" t="e">
+        <f>BV10/$BW10</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="11" spans="1:80">
       <c r="A11" s="13">
         <v>2021</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="15"/>
+        <v>99</v>
+      </c>
+      <c r="C11" s="12">
+        <v>6369307875.78</v>
+      </c>
+      <c r="D11" s="12">
+        <v>5117150498.28</v>
+      </c>
+      <c r="E11" s="12">
+        <v>80966017.91</v>
+      </c>
+      <c r="F11" s="15">
+        <v>8092057.32</v>
+      </c>
       <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
+      <c r="H11" s="15">
+        <v>2350868.48</v>
+      </c>
+      <c r="I11" s="15">
+        <v>1248588.78</v>
+      </c>
+      <c r="J11" s="15">
+        <f>F11+G11+H11+I11</f>
+        <v>11691514.58</v>
+      </c>
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
       <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
+      <c r="O11" s="15">
+        <v>64978916.01</v>
+      </c>
+      <c r="P11" s="15">
+        <v>170845170.78</v>
+      </c>
       <c r="Q11" s="15"/>
       <c r="R11" s="13"/>
       <c r="S11" s="13"/>
@@ -9665,92 +9477,671 @@
       <c r="V11" s="13"/>
       <c r="W11" s="13"/>
       <c r="X11" s="13"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="13"/>
+      <c r="Y11" s="12">
+        <v>61486444.69</v>
+      </c>
+      <c r="Z11" s="12">
+        <v>2016748.68</v>
+      </c>
       <c r="AA11" s="13"/>
       <c r="AB11" s="13"/>
       <c r="AC11" s="13"/>
       <c r="AD11" s="13"/>
       <c r="AE11" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>235824086.79</v>
       </c>
       <c r="AF11" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>63503193.37</v>
       </c>
       <c r="AG11" s="15">
         <f t="shared" si="2"/>
+        <v>149663640.08</v>
+      </c>
+      <c r="AH11" s="22">
+        <f t="shared" si="3"/>
+        <v>0.0540682915080412</v>
+      </c>
+      <c r="AI11" s="22">
+        <f t="shared" si="4"/>
+        <v>0.0781186036484915</v>
+      </c>
+      <c r="AJ11" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="AK11" s="23">
+        <f t="shared" si="5"/>
+        <v>0.196592377369834</v>
+      </c>
+      <c r="AL11" s="23">
+        <f t="shared" si="6"/>
+        <v>0.803407622630166</v>
+      </c>
+      <c r="AM11" s="30">
+        <v>278344963.561111</v>
+      </c>
+      <c r="AN11" s="23">
+        <f t="shared" si="7"/>
+        <v>0.0757907513164648</v>
+      </c>
+      <c r="AO11" s="23">
+        <v>0.04</v>
+      </c>
+      <c r="AP11" s="23">
+        <v>0.19</v>
+      </c>
+      <c r="AQ11" s="33"/>
+      <c r="AR11" s="32">
+        <v>1829782947.1</v>
+      </c>
+      <c r="AS11" s="33"/>
+      <c r="AT11" s="33"/>
+      <c r="AU11" s="32">
+        <v>424541.21</v>
+      </c>
+      <c r="AV11" s="34">
+        <v>3113131.56</v>
+      </c>
+      <c r="AW11" s="33"/>
+      <c r="AX11" s="33"/>
+      <c r="AY11" s="32">
+        <v>8194517.48</v>
+      </c>
+      <c r="AZ11" s="32">
+        <f>SUM(AR11:AY11)</f>
+        <v>1841515137.35</v>
+      </c>
+      <c r="BA11" s="34">
+        <v>272631920.44</v>
+      </c>
+      <c r="BB11" s="15">
+        <f>AM11/AN11</f>
+        <v>3672545247.62368</v>
+      </c>
+      <c r="BC11" s="16">
+        <f>AM11*(1+AO11)/(AN11-AO11)</f>
+        <v>8088088443.40708</v>
+      </c>
+      <c r="BD11" s="16">
+        <f>AM11*(1+AP11)/(1+AN11)+AM11*(1+AP11)^2/(1+AN11)^2+AM11*(1+AP11)^3/(1+AN11)^3+AM11*(1+AP11)^3*(1+AO11)/(1+AN11)^4/(AN11-AO11)</f>
+        <v>11201179864.2188</v>
+      </c>
+      <c r="BE11" s="16">
+        <f>AM11*(1+AP11)/(1+AN11)+AM11*(1+AP11)^2/(1+AN11)^2+AM11*(1+AP11)^3/(1+AN11)^3+AM11*(1+AP11)^4/(1+AN11)^4+AM11*(1+AP11)^5/(1+AN11)^5+AM11*(1+AP11)^5*(1+AO11)/(1+AN11)^6/(AN11-AO11)</f>
+        <v>14354204042.2797</v>
+      </c>
+      <c r="BF11" s="35"/>
+      <c r="BG11" s="32">
+        <f>$AZ11+$BA11+BB11</f>
+        <v>5786692305.41368</v>
+      </c>
+      <c r="BH11" s="32">
+        <f>$AZ11+$BA11+BC11</f>
+        <v>10202235501.1971</v>
+      </c>
+      <c r="BI11" s="32">
+        <f>$AZ11+$BA11+BD11</f>
+        <v>13315326922.0088</v>
+      </c>
+      <c r="BJ11" s="32">
+        <f>$AZ11+$BA11+BE11</f>
+        <v>16468351100.0697</v>
+      </c>
+      <c r="BK11" s="32">
+        <f>$AZ11+$BA11+BF11</f>
+        <v>2114147057.79</v>
+      </c>
+      <c r="BL11" s="34">
+        <f>C11-D11</f>
+        <v>1252157377.5</v>
+      </c>
+      <c r="BM11" s="32">
+        <f>BG11-$BL11</f>
+        <v>4534534927.91368</v>
+      </c>
+      <c r="BN11" s="32">
+        <f>BH11-$BL11</f>
+        <v>8950078123.69708</v>
+      </c>
+      <c r="BO11" s="32">
+        <f>BI11-$BL11</f>
+        <v>12063169544.5088</v>
+      </c>
+      <c r="BP11" s="32">
+        <f>BJ11-$BL11</f>
+        <v>15216193722.5697</v>
+      </c>
+      <c r="BQ11" s="32">
+        <f>BK11-$BL11</f>
+        <v>861989680.29</v>
+      </c>
+      <c r="BR11" s="32">
+        <f>BM11*(1-$E11/$D11)</f>
+        <v>4462787333.95287</v>
+      </c>
+      <c r="BS11" s="32">
+        <f>BN11*(1-$E11/$D11)</f>
+        <v>8808465680.22825</v>
+      </c>
+      <c r="BT11" s="32">
+        <f>BO11*(1-$E11/$D11)</f>
+        <v>11872300270.3453</v>
+      </c>
+      <c r="BU11" s="32">
+        <f>BP11*(1-$E11/$D11)</f>
+        <v>14975435782.408</v>
+      </c>
+      <c r="BV11" s="32">
+        <f>BQ11*(1-$E11/$D11)</f>
+        <v>848350864.719488</v>
+      </c>
+      <c r="BW11" s="40">
+        <v>405950150</v>
+      </c>
+      <c r="BX11" s="41">
+        <f>BR11/$BW11</f>
+        <v>10.9934368393579</v>
+      </c>
+      <c r="BY11" s="41">
+        <f>BS11/$BW11</f>
+        <v>21.6983924755989</v>
+      </c>
+      <c r="BZ11" s="41">
+        <f>BT11/$BW11</f>
+        <v>29.2457097758071</v>
+      </c>
+      <c r="CA11" s="41">
+        <f>BU11/$BW11</f>
+        <v>36.8898392632888</v>
+      </c>
+      <c r="CB11" s="41">
+        <f>BV11/$BW11</f>
+        <v>2.08979074085694</v>
+      </c>
+    </row>
+    <row r="12" spans="1:80">
+      <c r="A12" s="13">
+        <v>2021</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="12">
+        <v>55127388384.03</v>
+      </c>
+      <c r="D12" s="12">
+        <v>38757462615.81</v>
+      </c>
+      <c r="E12" s="12">
+        <v>265952985.21</v>
+      </c>
+      <c r="F12" s="15">
+        <v>68113113.6</v>
+      </c>
+      <c r="G12" s="15">
+        <v>60219890.71</v>
+      </c>
+      <c r="H12" s="15">
+        <v>139234655.8</v>
+      </c>
+      <c r="I12" s="15">
+        <v>8207817.42</v>
+      </c>
+      <c r="J12" s="15">
+        <f>F12+G12+H12+I12</f>
+        <v>275775477.53</v>
+      </c>
+      <c r="K12" s="15">
+        <v>1230010900</v>
+      </c>
+      <c r="L12" s="15">
+        <v>16507997</v>
+      </c>
+      <c r="M12" s="15">
+        <v>858612.35</v>
+      </c>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15">
+        <v>2454568919.68</v>
+      </c>
+      <c r="P12" s="15">
+        <v>177436405.49</v>
+      </c>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="12">
+        <v>1819028586.29</v>
+      </c>
+      <c r="S12" s="13"/>
+      <c r="T12" s="12">
+        <v>1067102918.35</v>
+      </c>
+      <c r="U12" s="12">
+        <v>2261479950</v>
+      </c>
+      <c r="V12" s="13"/>
+      <c r="W12" s="12">
+        <v>3651608.46</v>
+      </c>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="12">
+        <v>3289192625.17</v>
+      </c>
+      <c r="Z12" s="12">
+        <v>396423607.05</v>
+      </c>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="12">
+        <v>607140031.37</v>
+      </c>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="12">
+        <v>1018978731.37</v>
+      </c>
+      <c r="AE12" s="12">
+        <f t="shared" si="0"/>
+        <v>6765514339.16</v>
+      </c>
+      <c r="AF12" s="12">
+        <f t="shared" si="1"/>
+        <v>7576866553.42</v>
+      </c>
+      <c r="AG12" s="15">
+        <f t="shared" si="2"/>
+        <v>7171190446.29</v>
+      </c>
+      <c r="AH12" s="22">
+        <f t="shared" si="3"/>
+        <v>0.00949815990945243</v>
+      </c>
+      <c r="AI12" s="22">
+        <f t="shared" si="4"/>
+        <v>0.0384560247835381</v>
+      </c>
+      <c r="AJ12" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="AK12" s="23">
+        <f t="shared" si="5"/>
+        <v>0.296947238896633</v>
+      </c>
+      <c r="AL12" s="23">
+        <f t="shared" si="6"/>
+        <v>0.703052761103367</v>
+      </c>
+      <c r="AM12" s="29">
+        <v>1402046451.92778</v>
+      </c>
+      <c r="AN12" s="23">
+        <f t="shared" si="7"/>
+        <v>0.0648087786720785</v>
+      </c>
+      <c r="AO12" s="23">
+        <v>0.04</v>
+      </c>
+      <c r="AP12" s="23">
+        <v>0.23</v>
+      </c>
+      <c r="AQ12" s="33"/>
+      <c r="AR12" s="32">
+        <v>8238772782.53</v>
+      </c>
+      <c r="AS12" s="33"/>
+      <c r="AT12" s="34">
+        <v>229142186.76</v>
+      </c>
+      <c r="AU12" s="32">
+        <v>527288380.38</v>
+      </c>
+      <c r="AV12" s="34">
+        <v>339579823.47</v>
+      </c>
+      <c r="AW12" s="33"/>
+      <c r="AX12" s="33"/>
+      <c r="AY12" s="32"/>
+      <c r="AZ12" s="32">
+        <f>SUM(AR12:AY12)+8714098195.97</f>
+        <v>18048881369.11</v>
+      </c>
+      <c r="BA12" s="34">
+        <v>678304556.75</v>
+      </c>
+      <c r="BB12" s="15">
+        <f>AM12/AN12</f>
+        <v>21633588545.4947</v>
+      </c>
+      <c r="BC12" s="16">
+        <f>AM12*(1+AO12)/(AN12-AO12)</f>
+        <v>58774691381.5619</v>
+      </c>
+      <c r="BD12" s="16">
+        <f>AM12*(1+AP12)/(1+AN12)+AM12*(1+AP12)^2/(1+AN12)^2+AM12*(1+AP12)^3/(1+AN12)^3+AM12*(1+AP12)^3*(1+AO12)/(1+AN12)^4/(AN12-AO12)</f>
+        <v>90729782373.1699</v>
+      </c>
+      <c r="BE12" s="16">
+        <f>AM12*(1+AP12)/(1+AN12)+AM12*(1+AP12)^2/(1+AN12)^2+AM12*(1+AP12)^3/(1+AN12)^3+AM12*(1+AP12)^4/(1+AN12)^4+AM12*(1+AP12)^5/(1+AN12)^5+AM12*(1+AP12)^5*(1+AO12)/(1+AN12)^6/(AN12-AO12)</f>
+        <v>124554873714.034</v>
+      </c>
+      <c r="BF12" s="35"/>
+      <c r="BG12" s="32">
+        <f>$AZ12+$BA12+BB12</f>
+        <v>40360774471.3547</v>
+      </c>
+      <c r="BH12" s="32">
+        <f>$AZ12+$BA12+BC12</f>
+        <v>77501877307.4219</v>
+      </c>
+      <c r="BI12" s="32">
+        <f>$AZ12+$BA12+BD12</f>
+        <v>109456968299.03</v>
+      </c>
+      <c r="BJ12" s="32">
+        <f>$AZ12+$BA12+BE12</f>
+        <v>143282059639.894</v>
+      </c>
+      <c r="BK12" s="32">
+        <f>$AZ12+$BA12+BF12</f>
+        <v>18727185925.86</v>
+      </c>
+      <c r="BL12" s="34">
+        <f>C12-D12</f>
+        <v>16369925768.22</v>
+      </c>
+      <c r="BM12" s="32">
+        <f>BG12-$BL12</f>
+        <v>23990848703.1347</v>
+      </c>
+      <c r="BN12" s="32">
+        <f>BH12-$BL12</f>
+        <v>61131951539.2019</v>
+      </c>
+      <c r="BO12" s="32">
+        <f>BI12-$BL12</f>
+        <v>93087042530.8099</v>
+      </c>
+      <c r="BP12" s="32">
+        <f>BJ12-$BL12</f>
+        <v>126912133871.674</v>
+      </c>
+      <c r="BQ12" s="32">
+        <f>BK12-$BL12</f>
+        <v>2357260157.64</v>
+      </c>
+      <c r="BR12" s="32">
+        <f>BM12*(1-$E12/$D12)</f>
+        <v>23826223947.0311</v>
+      </c>
+      <c r="BS12" s="32">
+        <f>BN12*(1-$E12/$D12)</f>
+        <v>60712465228.5338</v>
+      </c>
+      <c r="BT12" s="32">
+        <f>BO12*(1-$E12/$D12)</f>
+        <v>92448280982.0769</v>
+      </c>
+      <c r="BU12" s="32">
+        <f>BP12*(1-$E12/$D12)</f>
+        <v>126041265177.376</v>
+      </c>
+      <c r="BV12" s="32">
+        <f>BQ12*(1-$E12/$D12)</f>
+        <v>2341084682.42751</v>
+      </c>
+      <c r="BW12" s="40">
+        <v>2955826899</v>
+      </c>
+      <c r="BX12" s="41">
+        <f>BR12/$BW12</f>
+        <v>8.06076430087699</v>
+      </c>
+      <c r="BY12" s="41">
+        <f>BS12/$BW12</f>
+        <v>20.5399258153695</v>
+      </c>
+      <c r="BZ12" s="41">
+        <f>BT12/$BW12</f>
+        <v>31.2766221233569</v>
+      </c>
+      <c r="CA12" s="41">
+        <f>BU12/$BW12</f>
+        <v>42.6416260099728</v>
+      </c>
+      <c r="CB12" s="41">
+        <f>BV12/$BW12</f>
+        <v>0.792023607072368</v>
+      </c>
+    </row>
+    <row r="13" spans="1:80">
+      <c r="A13" s="13">
+        <v>2021</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="13"/>
+      <c r="AE13" s="12">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AH11" s="22" t="e">
+      <c r="AF13" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH13" s="22" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI11" s="22" t="e">
+      <c r="AI13" s="22" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ11" s="23">
+      <c r="AJ13" s="23">
         <v>0.25</v>
       </c>
-      <c r="AK11" s="23" t="e">
+      <c r="AK13" s="23" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL11" s="23" t="e">
+      <c r="AL13" s="23" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM11" s="28"/>
-      <c r="AN11" s="23" t="e">
+      <c r="AM13" s="29"/>
+      <c r="AN13" s="23" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO11" s="23">
+      <c r="AO13" s="23">
         <v>0.04</v>
       </c>
-      <c r="AP11" s="23">
+      <c r="AP13" s="23">
+        <v>0.74</v>
+      </c>
+      <c r="AQ13" s="33"/>
+      <c r="AR13" s="32"/>
+      <c r="AS13" s="33"/>
+      <c r="AT13" s="33"/>
+      <c r="AU13" s="32"/>
+      <c r="AV13" s="33"/>
+      <c r="AW13" s="33"/>
+      <c r="AX13" s="33"/>
+      <c r="AY13" s="32"/>
+      <c r="AZ13" s="32"/>
+      <c r="BA13" s="33"/>
+      <c r="BB13" s="15"/>
+      <c r="BC13" s="16"/>
+      <c r="BD13" s="16"/>
+      <c r="BE13" s="16"/>
+      <c r="BF13" s="35"/>
+      <c r="BG13" s="32"/>
+      <c r="BH13" s="32"/>
+      <c r="BI13" s="32"/>
+      <c r="BJ13" s="32"/>
+      <c r="BK13" s="32"/>
+      <c r="BL13" s="33"/>
+      <c r="BM13" s="32"/>
+      <c r="BN13" s="32"/>
+      <c r="BO13" s="32"/>
+      <c r="BP13" s="32"/>
+      <c r="BQ13" s="32"/>
+      <c r="BR13" s="32"/>
+      <c r="BS13" s="32"/>
+      <c r="BT13" s="32"/>
+      <c r="BU13" s="32"/>
+      <c r="BV13" s="32"/>
+      <c r="BW13" s="33"/>
+      <c r="BX13" s="41"/>
+      <c r="BY13" s="41"/>
+      <c r="BZ13" s="41"/>
+      <c r="CA13" s="41"/>
+      <c r="CB13" s="41"/>
+    </row>
+    <row r="14" spans="1:80">
+      <c r="A14" s="13">
+        <v>2021</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="13"/>
+      <c r="AE14" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH14" s="22" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI14" s="22" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ14" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="AK14" s="23" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL14" s="23" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM14" s="29"/>
+      <c r="AN14" s="23" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO14" s="23">
+        <v>0.04</v>
+      </c>
+      <c r="AP14" s="23">
         <v>0.15</v>
       </c>
-      <c r="AQ11" s="32"/>
-      <c r="AR11" s="32"/>
-      <c r="AS11" s="32"/>
-      <c r="AT11" s="32"/>
-      <c r="AU11" s="32"/>
-      <c r="AV11" s="32"/>
-      <c r="AW11" s="32"/>
-      <c r="AX11" s="32"/>
-      <c r="AY11" s="32"/>
-      <c r="AZ11" s="33"/>
-      <c r="BA11" s="32"/>
-      <c r="BB11" s="15"/>
-      <c r="BC11" s="16"/>
-      <c r="BD11" s="16"/>
-      <c r="BE11" s="16"/>
-      <c r="BF11" s="34"/>
-      <c r="BG11" s="33"/>
-      <c r="BH11" s="33"/>
-      <c r="BI11" s="33"/>
-      <c r="BJ11" s="33"/>
-      <c r="BK11" s="33"/>
-      <c r="BL11" s="32"/>
-      <c r="BM11" s="33"/>
-      <c r="BN11" s="33"/>
-      <c r="BO11" s="33"/>
-      <c r="BP11" s="33"/>
-      <c r="BQ11" s="33"/>
-      <c r="BR11" s="33"/>
-      <c r="BS11" s="33"/>
-      <c r="BT11" s="33"/>
-      <c r="BU11" s="33"/>
-      <c r="BV11" s="33"/>
-      <c r="BW11" s="32"/>
-      <c r="BX11" s="40"/>
-      <c r="BY11" s="40"/>
-      <c r="BZ11" s="40"/>
-      <c r="CA11" s="40"/>
-      <c r="CB11" s="40"/>
+      <c r="AQ14" s="33"/>
+      <c r="AR14" s="32"/>
+      <c r="AS14" s="33"/>
+      <c r="AT14" s="33"/>
+      <c r="AU14" s="32"/>
+      <c r="AV14" s="33"/>
+      <c r="AW14" s="33"/>
+      <c r="AX14" s="33"/>
+      <c r="AY14" s="32"/>
+      <c r="AZ14" s="32"/>
+      <c r="BA14" s="33"/>
+      <c r="BB14" s="15"/>
+      <c r="BC14" s="16"/>
+      <c r="BD14" s="16"/>
+      <c r="BE14" s="16"/>
+      <c r="BF14" s="35"/>
+      <c r="BG14" s="32"/>
+      <c r="BH14" s="32"/>
+      <c r="BI14" s="32"/>
+      <c r="BJ14" s="32"/>
+      <c r="BK14" s="32"/>
+      <c r="BL14" s="33"/>
+      <c r="BM14" s="32"/>
+      <c r="BN14" s="32"/>
+      <c r="BO14" s="32"/>
+      <c r="BP14" s="32"/>
+      <c r="BQ14" s="32"/>
+      <c r="BR14" s="32"/>
+      <c r="BS14" s="32"/>
+      <c r="BT14" s="32"/>
+      <c r="BU14" s="32"/>
+      <c r="BV14" s="32"/>
+      <c r="BW14" s="33"/>
+      <c r="BX14" s="41"/>
+      <c r="BY14" s="41"/>
+      <c r="BZ14" s="41"/>
+      <c r="CA14" s="41"/>
+      <c r="CB14" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="39">
@@ -9821,25 +10212,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:7">

--- a/我的创作/财务/证券投资/股票/财务报表分析系统/2023/财务/选股标准.xlsx
+++ b/我的创作/财务/证券投资/股票/财务报表分析系统/2023/财务/选股标准.xlsx
@@ -7727,7 +7727,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BD4" sqref="BD4"/>
+      <selection pane="bottomRight" activeCell="BB4" sqref="BB4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88461538461539" defaultRowHeight="16.8"/>

--- a/我的创作/财务/证券投资/股票/财务报表分析系统/2023/财务/选股标准.xlsx
+++ b/我的创作/财务/证券投资/股票/财务报表分析系统/2023/财务/选股标准.xlsx
@@ -494,13 +494,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="&quot;￥&quot;#,##0.00_);[Red]\(&quot;￥&quot;#,##0.00\)"/>
-    <numFmt numFmtId="178" formatCode="0.00_ ;[Red]\-0.00\ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ ;[Red]\-0.00\ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="&quot;￥&quot;#,##0.00_);[Red]\(&quot;￥&quot;#,##0.00\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -545,10 +545,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -560,30 +569,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -591,22 +585,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -620,50 +598,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -683,9 +622,70 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -734,7 +734,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,175 +914,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -958,7 +958,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -967,7 +967,63 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -995,209 +1051,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1232,7 +1232,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1314,22 +1314,22 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -1347,76 +1347,76 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7723,11 +7723,11 @@
   <dimension ref="A1:CD14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AY3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="BO3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BB4" sqref="BB4"/>
+      <selection pane="bottomRight" activeCell="BU7" sqref="BU7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88461538461539" defaultRowHeight="16.8"/>

--- a/我的创作/财务/证券投资/股票/财务报表分析系统/2023/财务/选股标准.xlsx
+++ b/我的创作/财务/证券投资/股票/财务报表分析系统/2023/财务/选股标准.xlsx
@@ -495,12 +495,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="176" formatCode="0.00_ ;[Red]\-0.00\ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="&quot;￥&quot;#,##0.00_);[Red]\(&quot;￥&quot;#,##0.00\)"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="&quot;￥&quot;#,##0.00_);[Red]\(&quot;￥&quot;#,##0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -545,6 +545,20 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -561,46 +575,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -615,14 +592,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -636,13 +652,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -651,17 +660,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -671,21 +686,6 @@
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -734,7 +734,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,13 +752,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -764,25 +782,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -794,19 +824,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -824,43 +842,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -878,7 +884,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -890,31 +914,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -957,6 +957,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -984,16 +993,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1014,40 +1038,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1056,152 +1056,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1232,7 +1232,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1311,25 +1314,28 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -1347,7 +1353,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1365,7 +1371,7 @@
     <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1395,7 +1401,7 @@
     <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1407,10 +1413,10 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1796,10 +1802,10 @@
     <col min="57" max="57" width="24.2211538461538" style="3" customWidth="1"/>
     <col min="58" max="59" width="27.6634615384615" style="3" customWidth="1"/>
     <col min="60" max="60" width="24.2211538461538" style="3" customWidth="1"/>
-    <col min="61" max="61" width="18.6634615384615" style="49" customWidth="1"/>
-    <col min="62" max="62" width="20.8846153846154" style="49" customWidth="1"/>
-    <col min="63" max="63" width="25.4423076923077" style="49" customWidth="1"/>
-    <col min="64" max="64" width="27.3076923076923" style="49" customWidth="1"/>
+    <col min="61" max="61" width="18.6634615384615" style="51" customWidth="1"/>
+    <col min="62" max="62" width="20.8846153846154" style="51" customWidth="1"/>
+    <col min="63" max="63" width="25.4423076923077" style="51" customWidth="1"/>
+    <col min="64" max="64" width="27.3076923076923" style="51" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:64">
@@ -1926,16 +1932,16 @@
       <c r="AO1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="61" t="s">
+      <c r="AP1" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="62" t="s">
+      <c r="AQ1" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="63" t="s">
+      <c r="AR1" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="64" t="s">
+      <c r="AS1" s="66" t="s">
         <v>44</v>
       </c>
       <c r="AT1" s="3" t="s">
@@ -1956,10 +1962,10 @@
       <c r="AY1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="63" t="s">
+      <c r="AZ1" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="64" t="s">
+      <c r="BA1" s="66" t="s">
         <v>52</v>
       </c>
       <c r="BB1" s="8" t="s">
@@ -1974,22 +1980,22 @@
       <c r="BE1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="63" t="s">
+      <c r="BF1" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="64" t="s">
+      <c r="BG1" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="BI1" s="49" t="s">
+      <c r="BI1" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="BJ1" s="49" t="s">
+      <c r="BJ1" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="BK1" s="69" t="s">
+      <c r="BK1" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="BL1" s="70" t="s">
+      <c r="BL1" s="72" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2158,7 +2164,7 @@
       <c r="AN8" s="5">
         <v>0.01</v>
       </c>
-      <c r="AO8" s="57">
+      <c r="AO8" s="59">
         <v>0.05</v>
       </c>
       <c r="AP8" s="3" t="e">
@@ -2176,7 +2182,7 @@
       <c r="AV8" s="2">
         <v>442102317.87</v>
       </c>
-      <c r="AW8" s="65">
+      <c r="AW8" s="67">
         <v>360000000</v>
       </c>
       <c r="AX8" s="3" t="e">
@@ -2203,15 +2209,15 @@
         <f>BA8*(1-E8)</f>
         <v>1589056241.30534</v>
       </c>
-      <c r="BI8" s="49" t="e">
+      <c r="BI8" s="51" t="e">
         <f>BD8/AW8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BJ8" s="49">
+      <c r="BJ8" s="51">
         <f>BE8/AW8</f>
         <v>-72.6181869025684</v>
       </c>
-      <c r="BL8" s="49">
+      <c r="BL8" s="51">
         <f>BG8/AW8</f>
         <v>4.41404511473707</v>
       </c>
@@ -2233,7 +2239,7 @@
         <f t="shared" si="0"/>
         <v>0.21401207431414</v>
       </c>
-      <c r="F9" s="53">
+      <c r="F9" s="55">
         <v>387296112.91</v>
       </c>
       <c r="H9" s="3">
@@ -2255,7 +2261,7 @@
       <c r="AJ9" s="2">
         <v>506730134.35</v>
       </c>
-      <c r="AK9" s="53">
+      <c r="AK9" s="55">
         <v>387296112.91</v>
       </c>
       <c r="AL9" s="2"/>
@@ -2263,7 +2269,7 @@
         <f t="shared" si="2"/>
         <v>0.57142790701933</v>
       </c>
-      <c r="AN9" s="57">
+      <c r="AN9" s="59">
         <v>0.0894</v>
       </c>
       <c r="AO9" s="5">
@@ -2320,19 +2326,19 @@
         <f>BA9*(1-BC9)</f>
         <v>62057191759.6006</v>
       </c>
-      <c r="BI9" s="49">
+      <c r="BI9" s="51">
         <f>BD9/AW9</f>
         <v>14.8605678155326</v>
       </c>
-      <c r="BJ9" s="71">
+      <c r="BJ9" s="73">
         <f>BE9/AW9</f>
         <v>70.5458363693699</v>
       </c>
-      <c r="BK9" s="71">
+      <c r="BK9" s="73">
         <f>BF9/AW9</f>
         <v>112.926566097446</v>
       </c>
-      <c r="BL9" s="49">
+      <c r="BL9" s="51">
         <f>BG9/AW9</f>
         <v>152.868995761181</v>
       </c>
@@ -2423,7 +2429,7 @@
         <f t="shared" si="2"/>
         <v>0.590280642574583</v>
       </c>
-      <c r="AW11" s="66">
+      <c r="AW11" s="68">
         <v>393738756</v>
       </c>
     </row>
@@ -2528,7 +2534,7 @@
         <f t="shared" si="2"/>
         <v>0.431060165431254</v>
       </c>
-      <c r="AN12" s="58">
+      <c r="AN12" s="60">
         <v>0.15</v>
       </c>
       <c r="AO12" s="5">
@@ -2596,96 +2602,96 @@
         <f>BA12*(1-BC12)</f>
         <v>115459706311.813</v>
       </c>
-      <c r="BI12" s="49">
+      <c r="BI12" s="51">
         <f>BD12/AW12</f>
         <v>27.9668535753429</v>
       </c>
-      <c r="BJ12" s="71">
+      <c r="BJ12" s="73">
         <f>BE12/AW12</f>
         <v>84.5929162620123</v>
       </c>
-      <c r="BK12" s="71">
+      <c r="BK12" s="73">
         <f>BF12/AW12</f>
         <v>191.421091093951</v>
       </c>
-      <c r="BL12" s="49">
+      <c r="BL12" s="51">
         <f>BG12/AW12</f>
         <v>284.41843490343</v>
       </c>
     </row>
-    <row r="13" s="48" customFormat="1" spans="1:64">
-      <c r="A13" s="50" t="s">
+    <row r="13" s="50" customFormat="1" spans="1:64">
+      <c r="A13" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="55">
+      <c r="B13" s="52"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="57">
         <f>AVERAGE(K6:K12)</f>
         <v>1.04857142857143</v>
       </c>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="52"/>
-      <c r="S13" s="52"/>
-      <c r="T13" s="52"/>
-      <c r="U13" s="52"/>
-      <c r="V13" s="52"/>
-      <c r="W13" s="52"/>
-      <c r="X13" s="52"/>
-      <c r="Y13" s="52"/>
-      <c r="Z13" s="52"/>
-      <c r="AA13" s="52"/>
-      <c r="AB13" s="52"/>
-      <c r="AC13" s="52"/>
-      <c r="AD13" s="52"/>
-      <c r="AE13" s="54"/>
-      <c r="AF13" s="50"/>
-      <c r="AG13" s="56"/>
-      <c r="AH13" s="52"/>
-      <c r="AI13" s="50"/>
-      <c r="AJ13" s="51"/>
-      <c r="AK13" s="51"/>
-      <c r="AL13" s="51"/>
-      <c r="AM13" s="51"/>
-      <c r="AN13" s="54"/>
-      <c r="AO13" s="54"/>
-      <c r="AP13" s="52"/>
-      <c r="AQ13" s="52"/>
-      <c r="AR13" s="52"/>
-      <c r="AS13" s="52"/>
-      <c r="AT13" s="52"/>
-      <c r="AU13" s="52"/>
-      <c r="AV13" s="51"/>
-      <c r="AW13" s="51"/>
-      <c r="AX13" s="52"/>
-      <c r="AY13" s="52"/>
-      <c r="AZ13" s="52"/>
-      <c r="BA13" s="52"/>
-      <c r="BB13" s="52"/>
-      <c r="BC13" s="52"/>
-      <c r="BD13" s="52"/>
-      <c r="BE13" s="52"/>
-      <c r="BF13" s="52"/>
-      <c r="BG13" s="52">
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="54"/>
+      <c r="S13" s="54"/>
+      <c r="T13" s="54"/>
+      <c r="U13" s="54"/>
+      <c r="V13" s="54"/>
+      <c r="W13" s="54"/>
+      <c r="X13" s="54"/>
+      <c r="Y13" s="54"/>
+      <c r="Z13" s="54"/>
+      <c r="AA13" s="54"/>
+      <c r="AB13" s="54"/>
+      <c r="AC13" s="54"/>
+      <c r="AD13" s="54"/>
+      <c r="AE13" s="56"/>
+      <c r="AF13" s="52"/>
+      <c r="AG13" s="58"/>
+      <c r="AH13" s="54"/>
+      <c r="AI13" s="52"/>
+      <c r="AJ13" s="53"/>
+      <c r="AK13" s="53"/>
+      <c r="AL13" s="53"/>
+      <c r="AM13" s="53"/>
+      <c r="AN13" s="56"/>
+      <c r="AO13" s="56"/>
+      <c r="AP13" s="54"/>
+      <c r="AQ13" s="54"/>
+      <c r="AR13" s="54"/>
+      <c r="AS13" s="54"/>
+      <c r="AT13" s="54"/>
+      <c r="AU13" s="54"/>
+      <c r="AV13" s="53"/>
+      <c r="AW13" s="53"/>
+      <c r="AX13" s="54"/>
+      <c r="AY13" s="54"/>
+      <c r="AZ13" s="54"/>
+      <c r="BA13" s="54"/>
+      <c r="BB13" s="54"/>
+      <c r="BC13" s="54"/>
+      <c r="BD13" s="54"/>
+      <c r="BE13" s="54"/>
+      <c r="BF13" s="54"/>
+      <c r="BG13" s="54">
         <f>BA13*(1-BC13)</f>
         <v>0</v>
       </c>
-      <c r="BH13" s="52"/>
-      <c r="BI13" s="55"/>
-      <c r="BJ13" s="72"/>
-      <c r="BK13" s="72"/>
-      <c r="BL13" s="55"/>
+      <c r="BH13" s="54"/>
+      <c r="BI13" s="57"/>
+      <c r="BJ13" s="74"/>
+      <c r="BK13" s="74"/>
+      <c r="BL13" s="57"/>
     </row>
     <row r="14" spans="1:63">
       <c r="A14" s="1">
@@ -2708,8 +2714,8 @@
       <c r="AM14" s="2"/>
       <c r="AV14" s="2"/>
       <c r="AW14" s="2"/>
-      <c r="BJ14" s="71"/>
-      <c r="BK14" s="71"/>
+      <c r="BJ14" s="73"/>
+      <c r="BK14" s="73"/>
     </row>
     <row r="15" spans="1:63">
       <c r="A15" s="1">
@@ -2735,8 +2741,8 @@
       <c r="AM15" s="2"/>
       <c r="AV15" s="2"/>
       <c r="AW15" s="2"/>
-      <c r="BJ15" s="71"/>
-      <c r="BK15" s="71"/>
+      <c r="BJ15" s="73"/>
+      <c r="BK15" s="73"/>
     </row>
     <row r="16" spans="1:63">
       <c r="A16" s="1">
@@ -2762,8 +2768,8 @@
       <c r="AM16" s="2"/>
       <c r="AV16" s="2"/>
       <c r="AW16" s="2"/>
-      <c r="BJ16" s="71"/>
-      <c r="BK16" s="71"/>
+      <c r="BJ16" s="73"/>
+      <c r="BK16" s="73"/>
     </row>
     <row r="17" spans="1:63">
       <c r="A17" s="1">
@@ -2789,8 +2795,8 @@
       <c r="AM17" s="2"/>
       <c r="AV17" s="2"/>
       <c r="AW17" s="2"/>
-      <c r="BJ17" s="71"/>
-      <c r="BK17" s="71"/>
+      <c r="BJ17" s="73"/>
+      <c r="BK17" s="73"/>
     </row>
     <row r="18" spans="1:63">
       <c r="A18" s="1">
@@ -2816,8 +2822,8 @@
       <c r="AM18" s="2"/>
       <c r="AV18" s="2"/>
       <c r="AW18" s="2"/>
-      <c r="BJ18" s="71"/>
-      <c r="BK18" s="71"/>
+      <c r="BJ18" s="73"/>
+      <c r="BK18" s="73"/>
     </row>
     <row r="19" spans="1:63">
       <c r="A19" s="1">
@@ -2849,8 +2855,8 @@
       <c r="AM19" s="2"/>
       <c r="AV19" s="2"/>
       <c r="AW19" s="2"/>
-      <c r="BJ19" s="71"/>
-      <c r="BK19" s="71"/>
+      <c r="BJ19" s="73"/>
+      <c r="BK19" s="73"/>
     </row>
     <row r="20" spans="1:63">
       <c r="A20" s="1">
@@ -2882,8 +2888,8 @@
       <c r="AM20" s="2"/>
       <c r="AV20" s="2"/>
       <c r="AW20" s="2"/>
-      <c r="BJ20" s="71"/>
-      <c r="BK20" s="71"/>
+      <c r="BJ20" s="73"/>
+      <c r="BK20" s="73"/>
     </row>
     <row r="21" spans="1:63">
       <c r="A21" s="1">
@@ -2915,8 +2921,8 @@
       <c r="AM21" s="2"/>
       <c r="AV21" s="2"/>
       <c r="AW21" s="2"/>
-      <c r="BJ21" s="71"/>
-      <c r="BK21" s="71"/>
+      <c r="BJ21" s="73"/>
+      <c r="BK21" s="73"/>
     </row>
     <row r="22" spans="1:63">
       <c r="A22" s="1">
@@ -2948,8 +2954,8 @@
       <c r="AM22" s="2"/>
       <c r="AV22" s="2"/>
       <c r="AW22" s="2"/>
-      <c r="BJ22" s="71"/>
-      <c r="BK22" s="71"/>
+      <c r="BJ22" s="73"/>
+      <c r="BK22" s="73"/>
     </row>
     <row r="23" spans="1:63">
       <c r="A23" s="1">
@@ -2981,8 +2987,8 @@
       <c r="AM23" s="2"/>
       <c r="AV23" s="2"/>
       <c r="AW23" s="2"/>
-      <c r="BJ23" s="71"/>
-      <c r="BK23" s="71"/>
+      <c r="BJ23" s="73"/>
+      <c r="BK23" s="73"/>
     </row>
     <row r="24" spans="1:63">
       <c r="A24" s="1">
@@ -3014,8 +3020,8 @@
       <c r="AM24" s="2"/>
       <c r="AV24" s="2"/>
       <c r="AW24" s="2"/>
-      <c r="BJ24" s="71"/>
-      <c r="BK24" s="71"/>
+      <c r="BJ24" s="73"/>
+      <c r="BK24" s="73"/>
     </row>
     <row r="25" spans="1:63">
       <c r="A25" s="1">
@@ -3047,76 +3053,76 @@
       <c r="AM25" s="2"/>
       <c r="AV25" s="2"/>
       <c r="AW25" s="2"/>
-      <c r="BJ25" s="71"/>
-      <c r="BK25" s="71"/>
-    </row>
-    <row r="26" s="48" customFormat="1" spans="1:64">
-      <c r="A26" s="50" t="s">
+      <c r="BJ25" s="73"/>
+      <c r="BK25" s="73"/>
+    </row>
+    <row r="26" s="50" customFormat="1" spans="1:64">
+      <c r="A26" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="50"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="52"/>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="54"/>
-      <c r="R26" s="52"/>
-      <c r="S26" s="52"/>
-      <c r="T26" s="52"/>
-      <c r="U26" s="52"/>
-      <c r="V26" s="52"/>
-      <c r="W26" s="52"/>
-      <c r="X26" s="52"/>
-      <c r="Y26" s="52"/>
-      <c r="Z26" s="52"/>
-      <c r="AA26" s="52"/>
-      <c r="AB26" s="52"/>
-      <c r="AC26" s="52"/>
-      <c r="AD26" s="52"/>
-      <c r="AE26" s="54"/>
-      <c r="AF26" s="50"/>
-      <c r="AG26" s="56"/>
-      <c r="AH26" s="52"/>
-      <c r="AI26" s="50"/>
-      <c r="AJ26" s="51"/>
-      <c r="AK26" s="51"/>
-      <c r="AL26" s="51"/>
-      <c r="AM26" s="51"/>
-      <c r="AN26" s="54"/>
-      <c r="AO26" s="54"/>
-      <c r="AP26" s="52"/>
-      <c r="AQ26" s="52"/>
-      <c r="AR26" s="52"/>
-      <c r="AS26" s="52"/>
-      <c r="AT26" s="52"/>
-      <c r="AU26" s="52"/>
-      <c r="AV26" s="51"/>
-      <c r="AW26" s="51"/>
-      <c r="AX26" s="52"/>
-      <c r="AY26" s="52"/>
-      <c r="AZ26" s="52"/>
-      <c r="BA26" s="52"/>
-      <c r="BB26" s="52"/>
-      <c r="BC26" s="52"/>
-      <c r="BD26" s="52"/>
-      <c r="BE26" s="52"/>
-      <c r="BF26" s="52"/>
-      <c r="BG26" s="52"/>
-      <c r="BH26" s="52"/>
-      <c r="BI26" s="55"/>
-      <c r="BJ26" s="72"/>
-      <c r="BK26" s="72"/>
-      <c r="BL26" s="55"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="56"/>
+      <c r="Q26" s="56"/>
+      <c r="R26" s="54"/>
+      <c r="S26" s="54"/>
+      <c r="T26" s="54"/>
+      <c r="U26" s="54"/>
+      <c r="V26" s="54"/>
+      <c r="W26" s="54"/>
+      <c r="X26" s="54"/>
+      <c r="Y26" s="54"/>
+      <c r="Z26" s="54"/>
+      <c r="AA26" s="54"/>
+      <c r="AB26" s="54"/>
+      <c r="AC26" s="54"/>
+      <c r="AD26" s="54"/>
+      <c r="AE26" s="56"/>
+      <c r="AF26" s="52"/>
+      <c r="AG26" s="58"/>
+      <c r="AH26" s="54"/>
+      <c r="AI26" s="52"/>
+      <c r="AJ26" s="53"/>
+      <c r="AK26" s="53"/>
+      <c r="AL26" s="53"/>
+      <c r="AM26" s="53"/>
+      <c r="AN26" s="56"/>
+      <c r="AO26" s="56"/>
+      <c r="AP26" s="54"/>
+      <c r="AQ26" s="54"/>
+      <c r="AR26" s="54"/>
+      <c r="AS26" s="54"/>
+      <c r="AT26" s="54"/>
+      <c r="AU26" s="54"/>
+      <c r="AV26" s="53"/>
+      <c r="AW26" s="53"/>
+      <c r="AX26" s="54"/>
+      <c r="AY26" s="54"/>
+      <c r="AZ26" s="54"/>
+      <c r="BA26" s="54"/>
+      <c r="BB26" s="54"/>
+      <c r="BC26" s="54"/>
+      <c r="BD26" s="54"/>
+      <c r="BE26" s="54"/>
+      <c r="BF26" s="54"/>
+      <c r="BG26" s="54"/>
+      <c r="BH26" s="54"/>
+      <c r="BI26" s="57"/>
+      <c r="BJ26" s="74"/>
+      <c r="BK26" s="74"/>
+      <c r="BL26" s="57"/>
     </row>
     <row r="27" spans="1:63">
       <c r="A27" s="1">
@@ -3142,8 +3148,8 @@
       <c r="AM27" s="2"/>
       <c r="AV27" s="2"/>
       <c r="AW27" s="2"/>
-      <c r="BJ27" s="71"/>
-      <c r="BK27" s="71"/>
+      <c r="BJ27" s="73"/>
+      <c r="BK27" s="73"/>
     </row>
     <row r="28" spans="1:63">
       <c r="A28" s="1">
@@ -3175,8 +3181,8 @@
       <c r="AM28" s="2"/>
       <c r="AV28" s="2"/>
       <c r="AW28" s="2"/>
-      <c r="BJ28" s="71"/>
-      <c r="BK28" s="71"/>
+      <c r="BJ28" s="73"/>
+      <c r="BK28" s="73"/>
     </row>
     <row r="29" spans="1:63">
       <c r="A29" s="1">
@@ -3208,8 +3214,8 @@
       <c r="AM29" s="2"/>
       <c r="AV29" s="2"/>
       <c r="AW29" s="2"/>
-      <c r="BJ29" s="71"/>
-      <c r="BK29" s="71"/>
+      <c r="BJ29" s="73"/>
+      <c r="BK29" s="73"/>
     </row>
     <row r="30" spans="1:63">
       <c r="A30" s="1">
@@ -3241,8 +3247,8 @@
       <c r="AM30" s="2"/>
       <c r="AV30" s="2"/>
       <c r="AW30" s="2"/>
-      <c r="BJ30" s="71"/>
-      <c r="BK30" s="71"/>
+      <c r="BJ30" s="73"/>
+      <c r="BK30" s="73"/>
     </row>
     <row r="31" spans="1:63">
       <c r="A31" s="1">
@@ -3274,8 +3280,8 @@
       <c r="AM31" s="2"/>
       <c r="AV31" s="2"/>
       <c r="AW31" s="2"/>
-      <c r="BJ31" s="71"/>
-      <c r="BK31" s="71"/>
+      <c r="BJ31" s="73"/>
+      <c r="BK31" s="73"/>
     </row>
     <row r="32" spans="1:63">
       <c r="A32" s="1">
@@ -3307,8 +3313,8 @@
       <c r="AM32" s="2"/>
       <c r="AV32" s="2"/>
       <c r="AW32" s="2"/>
-      <c r="BJ32" s="71"/>
-      <c r="BK32" s="71"/>
+      <c r="BJ32" s="73"/>
+      <c r="BK32" s="73"/>
     </row>
     <row r="33" spans="1:63">
       <c r="A33" s="1">
@@ -3340,8 +3346,8 @@
       <c r="AM33" s="2"/>
       <c r="AV33" s="2"/>
       <c r="AW33" s="2"/>
-      <c r="BJ33" s="71"/>
-      <c r="BK33" s="71"/>
+      <c r="BJ33" s="73"/>
+      <c r="BK33" s="73"/>
     </row>
     <row r="34" spans="1:63">
       <c r="A34" s="1">
@@ -3376,79 +3382,79 @@
       <c r="AM34" s="2"/>
       <c r="AV34" s="2"/>
       <c r="AW34" s="2"/>
-      <c r="BJ34" s="71"/>
-      <c r="BK34" s="71"/>
-    </row>
-    <row r="35" s="48" customFormat="1" spans="1:64">
-      <c r="A35" s="50" t="s">
+      <c r="BJ34" s="73"/>
+      <c r="BK34" s="73"/>
+    </row>
+    <row r="35" s="50" customFormat="1" spans="1:64">
+      <c r="A35" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="B35" s="50"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="55">
+      <c r="B35" s="52"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="57">
         <f>AVERAGE(K27:K34)</f>
         <v>1.3925</v>
       </c>
-      <c r="L35" s="50"/>
-      <c r="M35" s="50"/>
-      <c r="N35" s="51"/>
-      <c r="O35" s="52"/>
-      <c r="P35" s="54"/>
-      <c r="Q35" s="54"/>
-      <c r="R35" s="52"/>
-      <c r="S35" s="52"/>
-      <c r="T35" s="52"/>
-      <c r="U35" s="52"/>
-      <c r="V35" s="52"/>
-      <c r="W35" s="52"/>
-      <c r="X35" s="52"/>
-      <c r="Y35" s="52"/>
-      <c r="Z35" s="52"/>
-      <c r="AA35" s="52"/>
-      <c r="AB35" s="52"/>
-      <c r="AC35" s="52"/>
-      <c r="AD35" s="52"/>
-      <c r="AE35" s="54"/>
-      <c r="AF35" s="50"/>
-      <c r="AG35" s="56"/>
-      <c r="AH35" s="52"/>
-      <c r="AI35" s="50"/>
-      <c r="AJ35" s="51"/>
-      <c r="AK35" s="51"/>
-      <c r="AL35" s="51"/>
-      <c r="AM35" s="51"/>
-      <c r="AN35" s="54"/>
-      <c r="AO35" s="54"/>
-      <c r="AP35" s="52"/>
-      <c r="AQ35" s="52"/>
-      <c r="AR35" s="52"/>
-      <c r="AS35" s="52"/>
-      <c r="AT35" s="52"/>
-      <c r="AU35" s="52"/>
-      <c r="AV35" s="51"/>
-      <c r="AW35" s="51"/>
-      <c r="AX35" s="52"/>
-      <c r="AY35" s="52"/>
-      <c r="AZ35" s="52"/>
-      <c r="BA35" s="52"/>
-      <c r="BB35" s="52"/>
-      <c r="BC35" s="52"/>
-      <c r="BD35" s="52"/>
-      <c r="BE35" s="52"/>
-      <c r="BF35" s="52"/>
-      <c r="BG35" s="52"/>
-      <c r="BH35" s="52"/>
-      <c r="BI35" s="55"/>
-      <c r="BJ35" s="72"/>
-      <c r="BK35" s="72"/>
-      <c r="BL35" s="55"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="53"/>
+      <c r="O35" s="54"/>
+      <c r="P35" s="56"/>
+      <c r="Q35" s="56"/>
+      <c r="R35" s="54"/>
+      <c r="S35" s="54"/>
+      <c r="T35" s="54"/>
+      <c r="U35" s="54"/>
+      <c r="V35" s="54"/>
+      <c r="W35" s="54"/>
+      <c r="X35" s="54"/>
+      <c r="Y35" s="54"/>
+      <c r="Z35" s="54"/>
+      <c r="AA35" s="54"/>
+      <c r="AB35" s="54"/>
+      <c r="AC35" s="54"/>
+      <c r="AD35" s="54"/>
+      <c r="AE35" s="56"/>
+      <c r="AF35" s="52"/>
+      <c r="AG35" s="58"/>
+      <c r="AH35" s="54"/>
+      <c r="AI35" s="52"/>
+      <c r="AJ35" s="53"/>
+      <c r="AK35" s="53"/>
+      <c r="AL35" s="53"/>
+      <c r="AM35" s="53"/>
+      <c r="AN35" s="56"/>
+      <c r="AO35" s="56"/>
+      <c r="AP35" s="54"/>
+      <c r="AQ35" s="54"/>
+      <c r="AR35" s="54"/>
+      <c r="AS35" s="54"/>
+      <c r="AT35" s="54"/>
+      <c r="AU35" s="54"/>
+      <c r="AV35" s="53"/>
+      <c r="AW35" s="53"/>
+      <c r="AX35" s="54"/>
+      <c r="AY35" s="54"/>
+      <c r="AZ35" s="54"/>
+      <c r="BA35" s="54"/>
+      <c r="BB35" s="54"/>
+      <c r="BC35" s="54"/>
+      <c r="BD35" s="54"/>
+      <c r="BE35" s="54"/>
+      <c r="BF35" s="54"/>
+      <c r="BG35" s="54"/>
+      <c r="BH35" s="54"/>
+      <c r="BI35" s="57"/>
+      <c r="BJ35" s="74"/>
+      <c r="BK35" s="74"/>
+      <c r="BL35" s="57"/>
     </row>
     <row r="36" spans="1:63">
       <c r="A36" s="1">
@@ -3465,8 +3471,8 @@
       <c r="AM36" s="2"/>
       <c r="AV36" s="2"/>
       <c r="AW36" s="2"/>
-      <c r="BJ36" s="71"/>
-      <c r="BK36" s="71"/>
+      <c r="BJ36" s="73"/>
+      <c r="BK36" s="73"/>
     </row>
     <row r="37" spans="1:63">
       <c r="A37" s="1">
@@ -3483,8 +3489,8 @@
       <c r="AM37" s="2"/>
       <c r="AV37" s="2"/>
       <c r="AW37" s="2"/>
-      <c r="BJ37" s="71"/>
-      <c r="BK37" s="71"/>
+      <c r="BJ37" s="73"/>
+      <c r="BK37" s="73"/>
     </row>
     <row r="38" spans="1:63">
       <c r="A38" s="1">
@@ -3501,8 +3507,8 @@
       <c r="AM38" s="2"/>
       <c r="AV38" s="2"/>
       <c r="AW38" s="2"/>
-      <c r="BJ38" s="71"/>
-      <c r="BK38" s="71"/>
+      <c r="BJ38" s="73"/>
+      <c r="BK38" s="73"/>
     </row>
     <row r="39" spans="1:63">
       <c r="A39" s="1">
@@ -3519,8 +3525,8 @@
       <c r="AM39" s="2"/>
       <c r="AV39" s="2"/>
       <c r="AW39" s="2"/>
-      <c r="BJ39" s="71"/>
-      <c r="BK39" s="71"/>
+      <c r="BJ39" s="73"/>
+      <c r="BK39" s="73"/>
     </row>
     <row r="40" spans="1:63">
       <c r="A40" s="1">
@@ -3537,8 +3543,8 @@
       <c r="AM40" s="2"/>
       <c r="AV40" s="2"/>
       <c r="AW40" s="2"/>
-      <c r="BJ40" s="71"/>
-      <c r="BK40" s="71"/>
+      <c r="BJ40" s="73"/>
+      <c r="BK40" s="73"/>
     </row>
     <row r="41" spans="1:63">
       <c r="A41" s="1">
@@ -3565,8 +3571,8 @@
         <f t="shared" ref="BG41:BG46" si="3">BA41*(1-BC41)</f>
         <v>0</v>
       </c>
-      <c r="BJ41" s="71"/>
-      <c r="BK41" s="71"/>
+      <c r="BJ41" s="73"/>
+      <c r="BK41" s="73"/>
     </row>
     <row r="42" spans="1:64">
       <c r="A42" s="1">
@@ -3636,7 +3642,7 @@
       <c r="AV42" s="3">
         <v>0</v>
       </c>
-      <c r="AW42" s="66">
+      <c r="AW42" s="68">
         <v>393738756</v>
       </c>
       <c r="AX42" s="3">
@@ -3678,19 +3684,19 @@
         <f t="shared" si="3"/>
         <v>20600951765.5981</v>
       </c>
-      <c r="BI42" s="49">
+      <c r="BI42" s="51">
         <f>BD42/AW42</f>
         <v>4.00899029477376</v>
       </c>
-      <c r="BJ42" s="71">
+      <c r="BJ42" s="73">
         <f>BE42/AW42</f>
         <v>6.12282154110902</v>
       </c>
-      <c r="BK42" s="71">
+      <c r="BK42" s="73">
         <f>BF42/AW42</f>
         <v>23.4242272009576</v>
       </c>
-      <c r="BL42" s="49">
+      <c r="BL42" s="51">
         <f>BG42/AW42</f>
         <v>52.3213715989851</v>
       </c>
@@ -3761,7 +3767,7 @@
         <v>1876529173.79727</v>
       </c>
       <c r="AV43" s="3"/>
-      <c r="AW43" s="67">
+      <c r="AW43" s="69">
         <v>69005147</v>
       </c>
       <c r="AX43" s="3">
@@ -3803,19 +3809,19 @@
         <f t="shared" si="3"/>
         <v>1682576307.84007</v>
       </c>
-      <c r="BI43" s="49">
+      <c r="BI43" s="51">
         <f>BD43/AW43</f>
         <v>6.76415474316685</v>
       </c>
-      <c r="BJ43" s="71">
+      <c r="BJ43" s="73">
         <f>BE43/AW43</f>
         <v>12.1754785377003</v>
       </c>
-      <c r="BK43" s="71">
+      <c r="BK43" s="73">
         <f>BF43/AW43</f>
         <v>19.0552337148415</v>
       </c>
-      <c r="BL43" s="49">
+      <c r="BL43" s="51">
         <f>BG43/AW43</f>
         <v>24.3833450255539</v>
       </c>
@@ -3851,7 +3857,7 @@
       <c r="M44" s="5"/>
       <c r="AK44" s="3"/>
       <c r="AV44" s="3"/>
-      <c r="AW44" s="66"/>
+      <c r="AW44" s="68"/>
       <c r="BB44" s="3">
         <v>5913312.15</v>
       </c>
@@ -3875,8 +3881,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="BJ44" s="71"/>
-      <c r="BK44" s="71"/>
+      <c r="BJ44" s="73"/>
+      <c r="BK44" s="73"/>
     </row>
     <row r="45" spans="1:64">
       <c r="A45" s="1">
@@ -3910,10 +3916,10 @@
       <c r="AG45" s="4">
         <v>0.12</v>
       </c>
-      <c r="AK45" s="59">
+      <c r="AK45" s="61">
         <v>206967659</v>
       </c>
-      <c r="AL45" s="60"/>
+      <c r="AL45" s="62"/>
       <c r="AN45" s="5">
         <v>0.12</v>
       </c>
@@ -3942,7 +3948,7 @@
       <c r="AV45" s="3">
         <v>0</v>
       </c>
-      <c r="AW45" s="68">
+      <c r="AW45" s="70">
         <v>66585147</v>
       </c>
       <c r="AX45" s="3">
@@ -3984,19 +3990,19 @@
         <f t="shared" si="3"/>
         <v>10551672516.1374</v>
       </c>
-      <c r="BI45" s="49">
+      <c r="BI45" s="51">
         <f>BD45/AW45</f>
         <v>25.5986071031079</v>
       </c>
-      <c r="BJ45" s="71">
+      <c r="BJ45" s="73">
         <f>BE45/AW45</f>
         <v>46.0774927855942</v>
       </c>
-      <c r="BK45" s="71">
+      <c r="BK45" s="73">
         <f>BF45/AW45</f>
         <v>100.164299093727</v>
       </c>
-      <c r="BL45" s="49">
+      <c r="BL45" s="51">
         <f>BG45/AW45</f>
         <v>158.468862674996</v>
       </c>
@@ -4033,7 +4039,7 @@
       <c r="AG46" s="4">
         <v>0.12</v>
       </c>
-      <c r="AK46" s="59">
+      <c r="AK46" s="61">
         <v>1008801360.47</v>
       </c>
       <c r="AN46" s="5">
@@ -4064,7 +4070,7 @@
       <c r="AV46" s="3">
         <v>0</v>
       </c>
-      <c r="AW46" s="68">
+      <c r="AW46" s="70">
         <v>104877931</v>
       </c>
       <c r="AX46" s="3">
@@ -4106,19 +4112,19 @@
         <f t="shared" si="3"/>
         <v>57832418307.7574</v>
       </c>
-      <c r="BI46" s="49">
+      <c r="BI46" s="51">
         <f>BD46/AW46</f>
         <v>78.4341933425214</v>
       </c>
-      <c r="BJ46" s="71">
+      <c r="BJ46" s="73">
         <f>BE46/AW46</f>
         <v>141.181548016539</v>
       </c>
-      <c r="BK46" s="71">
+      <c r="BK46" s="73">
         <f>BF46/AW46</f>
         <v>331.441580911198</v>
       </c>
-      <c r="BL46" s="49">
+      <c r="BL46" s="51">
         <f>BG46/AW46</f>
         <v>551.426003128889</v>
       </c>
@@ -4130,7 +4136,7 @@
       <c r="AG47" s="4">
         <v>0.12</v>
       </c>
-      <c r="AK47" s="59">
+      <c r="AK47" s="61">
         <v>1008801360.47</v>
       </c>
       <c r="AN47" s="5">
@@ -4161,7 +4167,7 @@
       <c r="AV47" s="3">
         <v>0</v>
       </c>
-      <c r="AW47" s="67">
+      <c r="AW47" s="69">
         <v>69005147</v>
       </c>
       <c r="AX47" s="3">
@@ -4196,19 +4202,19 @@
         <f>BA47*(1-E47)</f>
         <v>59102550223.8217</v>
       </c>
-      <c r="BI47" s="49">
+      <c r="BI47" s="51">
         <f>BD47/AW47</f>
         <v>121.8268255253</v>
       </c>
-      <c r="BJ47" s="71">
+      <c r="BJ47" s="73">
         <f>BE47/AW47</f>
         <v>219.28828594554</v>
       </c>
-      <c r="BK47" s="71">
+      <c r="BK47" s="73">
         <f>BF47/AW47</f>
         <v>514.807049435258</v>
       </c>
-      <c r="BL47" s="49">
+      <c r="BL47" s="51">
         <f>BG47/AW47</f>
         <v>856.494809348376</v>
       </c>
@@ -4652,93 +4658,93 @@
         <f>BA61*(1-E61)</f>
         <v>4926281961816.99</v>
       </c>
-      <c r="BI61" s="49">
+      <c r="BI61" s="51">
         <f>BD61/AW61</f>
         <v>2.06169747176937</v>
       </c>
-      <c r="BJ61" s="71">
+      <c r="BJ61" s="73">
         <f>BE61/AW61</f>
         <v>93.1957983911378</v>
       </c>
-      <c r="BK61" s="71">
+      <c r="BK61" s="73">
         <f>BF61/AW61</f>
         <v>366.025047482403</v>
       </c>
-      <c r="BL61" s="49">
+      <c r="BL61" s="51">
         <f>BG61/AW61</f>
         <v>910.091446861572</v>
       </c>
     </row>
-    <row r="62" s="48" customFormat="1" spans="1:64">
-      <c r="A62" s="50" t="s">
+    <row r="62" s="50" customFormat="1" spans="1:64">
+      <c r="A62" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="B62" s="50"/>
-      <c r="C62" s="50"/>
-      <c r="D62" s="52"/>
-      <c r="E62" s="54"/>
-      <c r="F62" s="52"/>
-      <c r="G62" s="52"/>
-      <c r="H62" s="52"/>
-      <c r="I62" s="50"/>
-      <c r="J62" s="50"/>
-      <c r="K62" s="55">
+      <c r="B62" s="52"/>
+      <c r="C62" s="52"/>
+      <c r="D62" s="54"/>
+      <c r="E62" s="56"/>
+      <c r="F62" s="54"/>
+      <c r="G62" s="54"/>
+      <c r="H62" s="54"/>
+      <c r="I62" s="52"/>
+      <c r="J62" s="52"/>
+      <c r="K62" s="57">
         <f>AVERAGE(K51:K61)</f>
         <v>0.843636363636364</v>
       </c>
-      <c r="L62" s="50"/>
-      <c r="M62" s="50"/>
-      <c r="N62" s="50"/>
-      <c r="O62" s="52"/>
-      <c r="P62" s="54"/>
-      <c r="Q62" s="54"/>
-      <c r="R62" s="52"/>
-      <c r="S62" s="52"/>
-      <c r="T62" s="52"/>
-      <c r="U62" s="52"/>
-      <c r="V62" s="52"/>
-      <c r="W62" s="52"/>
-      <c r="X62" s="52"/>
-      <c r="Y62" s="52"/>
-      <c r="Z62" s="52"/>
-      <c r="AA62" s="52"/>
-      <c r="AB62" s="52"/>
-      <c r="AC62" s="52"/>
-      <c r="AD62" s="52"/>
-      <c r="AE62" s="54"/>
-      <c r="AF62" s="50"/>
-      <c r="AG62" s="56"/>
-      <c r="AH62" s="52"/>
-      <c r="AI62" s="50"/>
-      <c r="AJ62" s="50"/>
-      <c r="AK62" s="50"/>
-      <c r="AL62" s="50"/>
-      <c r="AM62" s="50"/>
-      <c r="AN62" s="54"/>
-      <c r="AO62" s="54"/>
-      <c r="AP62" s="52"/>
-      <c r="AQ62" s="52"/>
-      <c r="AR62" s="52"/>
-      <c r="AS62" s="52"/>
-      <c r="AT62" s="52"/>
-      <c r="AU62" s="52"/>
-      <c r="AV62" s="50"/>
-      <c r="AW62" s="50"/>
-      <c r="AX62" s="52"/>
-      <c r="AY62" s="52"/>
-      <c r="AZ62" s="52"/>
-      <c r="BA62" s="52"/>
-      <c r="BB62" s="52"/>
-      <c r="BC62" s="52"/>
-      <c r="BD62" s="52"/>
-      <c r="BE62" s="52"/>
-      <c r="BF62" s="52"/>
-      <c r="BG62" s="52"/>
-      <c r="BH62" s="52"/>
-      <c r="BI62" s="55"/>
-      <c r="BJ62" s="55"/>
-      <c r="BK62" s="55"/>
-      <c r="BL62" s="55"/>
+      <c r="L62" s="52"/>
+      <c r="M62" s="52"/>
+      <c r="N62" s="52"/>
+      <c r="O62" s="54"/>
+      <c r="P62" s="56"/>
+      <c r="Q62" s="56"/>
+      <c r="R62" s="54"/>
+      <c r="S62" s="54"/>
+      <c r="T62" s="54"/>
+      <c r="U62" s="54"/>
+      <c r="V62" s="54"/>
+      <c r="W62" s="54"/>
+      <c r="X62" s="54"/>
+      <c r="Y62" s="54"/>
+      <c r="Z62" s="54"/>
+      <c r="AA62" s="54"/>
+      <c r="AB62" s="54"/>
+      <c r="AC62" s="54"/>
+      <c r="AD62" s="54"/>
+      <c r="AE62" s="56"/>
+      <c r="AF62" s="52"/>
+      <c r="AG62" s="58"/>
+      <c r="AH62" s="54"/>
+      <c r="AI62" s="52"/>
+      <c r="AJ62" s="52"/>
+      <c r="AK62" s="52"/>
+      <c r="AL62" s="52"/>
+      <c r="AM62" s="52"/>
+      <c r="AN62" s="56"/>
+      <c r="AO62" s="56"/>
+      <c r="AP62" s="54"/>
+      <c r="AQ62" s="54"/>
+      <c r="AR62" s="54"/>
+      <c r="AS62" s="54"/>
+      <c r="AT62" s="54"/>
+      <c r="AU62" s="54"/>
+      <c r="AV62" s="52"/>
+      <c r="AW62" s="52"/>
+      <c r="AX62" s="54"/>
+      <c r="AY62" s="54"/>
+      <c r="AZ62" s="54"/>
+      <c r="BA62" s="54"/>
+      <c r="BB62" s="54"/>
+      <c r="BC62" s="54"/>
+      <c r="BD62" s="54"/>
+      <c r="BE62" s="54"/>
+      <c r="BF62" s="54"/>
+      <c r="BG62" s="54"/>
+      <c r="BH62" s="54"/>
+      <c r="BI62" s="57"/>
+      <c r="BJ62" s="57"/>
+      <c r="BK62" s="57"/>
+      <c r="BL62" s="57"/>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1">
@@ -5023,76 +5029,76 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="77" s="48" customFormat="1" spans="1:64">
-      <c r="A77" s="50" t="s">
+    <row r="77" s="50" customFormat="1" spans="1:64">
+      <c r="A77" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="B77" s="50"/>
-      <c r="C77" s="50"/>
-      <c r="D77" s="52"/>
-      <c r="E77" s="54"/>
-      <c r="F77" s="52"/>
-      <c r="G77" s="52"/>
-      <c r="H77" s="52"/>
-      <c r="I77" s="50"/>
-      <c r="J77" s="50"/>
-      <c r="K77" s="55">
+      <c r="B77" s="52"/>
+      <c r="C77" s="52"/>
+      <c r="D77" s="54"/>
+      <c r="E77" s="56"/>
+      <c r="F77" s="54"/>
+      <c r="G77" s="54"/>
+      <c r="H77" s="54"/>
+      <c r="I77" s="52"/>
+      <c r="J77" s="52"/>
+      <c r="K77" s="57">
         <f>AVERAGE(K64:K76)</f>
         <v>1.52769230769231</v>
       </c>
-      <c r="L77" s="50"/>
-      <c r="M77" s="50"/>
-      <c r="N77" s="50"/>
-      <c r="O77" s="52"/>
-      <c r="P77" s="54"/>
-      <c r="Q77" s="54"/>
-      <c r="R77" s="52"/>
-      <c r="S77" s="52"/>
-      <c r="T77" s="52"/>
-      <c r="U77" s="52"/>
-      <c r="V77" s="52"/>
-      <c r="W77" s="52"/>
-      <c r="X77" s="52"/>
-      <c r="Y77" s="52"/>
-      <c r="Z77" s="52"/>
-      <c r="AA77" s="52"/>
-      <c r="AB77" s="52"/>
-      <c r="AC77" s="52"/>
-      <c r="AD77" s="52"/>
-      <c r="AE77" s="54"/>
-      <c r="AF77" s="50"/>
-      <c r="AG77" s="56"/>
-      <c r="AH77" s="52"/>
-      <c r="AI77" s="50"/>
-      <c r="AJ77" s="50"/>
-      <c r="AK77" s="50"/>
-      <c r="AL77" s="50"/>
-      <c r="AM77" s="50"/>
-      <c r="AN77" s="54"/>
-      <c r="AO77" s="54"/>
-      <c r="AP77" s="52"/>
-      <c r="AQ77" s="52"/>
-      <c r="AR77" s="52"/>
-      <c r="AS77" s="52"/>
-      <c r="AT77" s="52"/>
-      <c r="AU77" s="52"/>
-      <c r="AV77" s="50"/>
-      <c r="AW77" s="50"/>
-      <c r="AX77" s="52"/>
-      <c r="AY77" s="52"/>
-      <c r="AZ77" s="52"/>
-      <c r="BA77" s="52"/>
-      <c r="BB77" s="52"/>
-      <c r="BC77" s="52"/>
-      <c r="BD77" s="52"/>
-      <c r="BE77" s="52"/>
-      <c r="BF77" s="52"/>
-      <c r="BG77" s="52"/>
-      <c r="BH77" s="52"/>
-      <c r="BI77" s="55"/>
-      <c r="BJ77" s="55"/>
-      <c r="BK77" s="55"/>
-      <c r="BL77" s="55"/>
+      <c r="L77" s="52"/>
+      <c r="M77" s="52"/>
+      <c r="N77" s="52"/>
+      <c r="O77" s="54"/>
+      <c r="P77" s="56"/>
+      <c r="Q77" s="56"/>
+      <c r="R77" s="54"/>
+      <c r="S77" s="54"/>
+      <c r="T77" s="54"/>
+      <c r="U77" s="54"/>
+      <c r="V77" s="54"/>
+      <c r="W77" s="54"/>
+      <c r="X77" s="54"/>
+      <c r="Y77" s="54"/>
+      <c r="Z77" s="54"/>
+      <c r="AA77" s="54"/>
+      <c r="AB77" s="54"/>
+      <c r="AC77" s="54"/>
+      <c r="AD77" s="54"/>
+      <c r="AE77" s="56"/>
+      <c r="AF77" s="52"/>
+      <c r="AG77" s="58"/>
+      <c r="AH77" s="54"/>
+      <c r="AI77" s="52"/>
+      <c r="AJ77" s="52"/>
+      <c r="AK77" s="52"/>
+      <c r="AL77" s="52"/>
+      <c r="AM77" s="52"/>
+      <c r="AN77" s="56"/>
+      <c r="AO77" s="56"/>
+      <c r="AP77" s="54"/>
+      <c r="AQ77" s="54"/>
+      <c r="AR77" s="54"/>
+      <c r="AS77" s="54"/>
+      <c r="AT77" s="54"/>
+      <c r="AU77" s="54"/>
+      <c r="AV77" s="52"/>
+      <c r="AW77" s="52"/>
+      <c r="AX77" s="54"/>
+      <c r="AY77" s="54"/>
+      <c r="AZ77" s="54"/>
+      <c r="BA77" s="54"/>
+      <c r="BB77" s="54"/>
+      <c r="BC77" s="54"/>
+      <c r="BD77" s="54"/>
+      <c r="BE77" s="54"/>
+      <c r="BF77" s="54"/>
+      <c r="BG77" s="54"/>
+      <c r="BH77" s="54"/>
+      <c r="BI77" s="57"/>
+      <c r="BJ77" s="57"/>
+      <c r="BK77" s="57"/>
+      <c r="BL77" s="57"/>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="1">
@@ -5206,76 +5212,76 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="86" s="48" customFormat="1" spans="1:64">
-      <c r="A86" s="50" t="s">
+    <row r="86" s="50" customFormat="1" spans="1:64">
+      <c r="A86" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="B86" s="50"/>
-      <c r="C86" s="50"/>
-      <c r="D86" s="52"/>
-      <c r="E86" s="54"/>
-      <c r="F86" s="52"/>
-      <c r="G86" s="52"/>
-      <c r="H86" s="52"/>
-      <c r="I86" s="50"/>
-      <c r="J86" s="50"/>
-      <c r="K86" s="55">
+      <c r="B86" s="52"/>
+      <c r="C86" s="52"/>
+      <c r="D86" s="54"/>
+      <c r="E86" s="56"/>
+      <c r="F86" s="54"/>
+      <c r="G86" s="54"/>
+      <c r="H86" s="54"/>
+      <c r="I86" s="52"/>
+      <c r="J86" s="52"/>
+      <c r="K86" s="57">
         <f>AVERAGE(K78:K85)</f>
         <v>0.67375</v>
       </c>
-      <c r="L86" s="50"/>
-      <c r="M86" s="50"/>
-      <c r="N86" s="50"/>
-      <c r="O86" s="52"/>
-      <c r="P86" s="54"/>
-      <c r="Q86" s="54"/>
-      <c r="R86" s="52"/>
-      <c r="S86" s="52"/>
-      <c r="T86" s="52"/>
-      <c r="U86" s="52"/>
-      <c r="V86" s="52"/>
-      <c r="W86" s="52"/>
-      <c r="X86" s="52"/>
-      <c r="Y86" s="52"/>
-      <c r="Z86" s="52"/>
-      <c r="AA86" s="52"/>
-      <c r="AB86" s="52"/>
-      <c r="AC86" s="52"/>
-      <c r="AD86" s="52"/>
-      <c r="AE86" s="54"/>
-      <c r="AF86" s="50"/>
-      <c r="AG86" s="56"/>
-      <c r="AH86" s="52"/>
-      <c r="AI86" s="50"/>
-      <c r="AJ86" s="50"/>
-      <c r="AK86" s="50"/>
-      <c r="AL86" s="50"/>
-      <c r="AM86" s="50"/>
-      <c r="AN86" s="54"/>
-      <c r="AO86" s="54"/>
-      <c r="AP86" s="52"/>
-      <c r="AQ86" s="52"/>
-      <c r="AR86" s="52"/>
-      <c r="AS86" s="52"/>
-      <c r="AT86" s="52"/>
-      <c r="AU86" s="52"/>
-      <c r="AV86" s="50"/>
-      <c r="AW86" s="50"/>
-      <c r="AX86" s="52"/>
-      <c r="AY86" s="52"/>
-      <c r="AZ86" s="52"/>
-      <c r="BA86" s="52"/>
-      <c r="BB86" s="52"/>
-      <c r="BC86" s="52"/>
-      <c r="BD86" s="52"/>
-      <c r="BE86" s="52"/>
-      <c r="BF86" s="52"/>
-      <c r="BG86" s="52"/>
-      <c r="BH86" s="52"/>
-      <c r="BI86" s="55"/>
-      <c r="BJ86" s="55"/>
-      <c r="BK86" s="55"/>
-      <c r="BL86" s="55"/>
+      <c r="L86" s="52"/>
+      <c r="M86" s="52"/>
+      <c r="N86" s="52"/>
+      <c r="O86" s="54"/>
+      <c r="P86" s="56"/>
+      <c r="Q86" s="56"/>
+      <c r="R86" s="54"/>
+      <c r="S86" s="54"/>
+      <c r="T86" s="54"/>
+      <c r="U86" s="54"/>
+      <c r="V86" s="54"/>
+      <c r="W86" s="54"/>
+      <c r="X86" s="54"/>
+      <c r="Y86" s="54"/>
+      <c r="Z86" s="54"/>
+      <c r="AA86" s="54"/>
+      <c r="AB86" s="54"/>
+      <c r="AC86" s="54"/>
+      <c r="AD86" s="54"/>
+      <c r="AE86" s="56"/>
+      <c r="AF86" s="52"/>
+      <c r="AG86" s="58"/>
+      <c r="AH86" s="54"/>
+      <c r="AI86" s="52"/>
+      <c r="AJ86" s="52"/>
+      <c r="AK86" s="52"/>
+      <c r="AL86" s="52"/>
+      <c r="AM86" s="52"/>
+      <c r="AN86" s="56"/>
+      <c r="AO86" s="56"/>
+      <c r="AP86" s="54"/>
+      <c r="AQ86" s="54"/>
+      <c r="AR86" s="54"/>
+      <c r="AS86" s="54"/>
+      <c r="AT86" s="54"/>
+      <c r="AU86" s="54"/>
+      <c r="AV86" s="52"/>
+      <c r="AW86" s="52"/>
+      <c r="AX86" s="54"/>
+      <c r="AY86" s="54"/>
+      <c r="AZ86" s="54"/>
+      <c r="BA86" s="54"/>
+      <c r="BB86" s="54"/>
+      <c r="BC86" s="54"/>
+      <c r="BD86" s="54"/>
+      <c r="BE86" s="54"/>
+      <c r="BF86" s="54"/>
+      <c r="BG86" s="54"/>
+      <c r="BH86" s="54"/>
+      <c r="BI86" s="57"/>
+      <c r="BJ86" s="57"/>
+      <c r="BK86" s="57"/>
+      <c r="BL86" s="57"/>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="1">
@@ -5509,76 +5515,76 @@
         <v>89.25</v>
       </c>
     </row>
-    <row r="98" s="48" customFormat="1" spans="1:64">
-      <c r="A98" s="50" t="s">
+    <row r="98" s="50" customFormat="1" spans="1:64">
+      <c r="A98" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="B98" s="50"/>
-      <c r="C98" s="50"/>
-      <c r="D98" s="52"/>
-      <c r="E98" s="54"/>
-      <c r="F98" s="52"/>
-      <c r="G98" s="52"/>
-      <c r="H98" s="52"/>
-      <c r="I98" s="50"/>
-      <c r="J98" s="50"/>
-      <c r="K98" s="55">
+      <c r="B98" s="52"/>
+      <c r="C98" s="52"/>
+      <c r="D98" s="54"/>
+      <c r="E98" s="56"/>
+      <c r="F98" s="54"/>
+      <c r="G98" s="54"/>
+      <c r="H98" s="54"/>
+      <c r="I98" s="52"/>
+      <c r="J98" s="52"/>
+      <c r="K98" s="57">
         <f>AVERAGE(K87:K97)</f>
         <v>1.42909090909091</v>
       </c>
-      <c r="L98" s="50"/>
-      <c r="M98" s="50"/>
-      <c r="N98" s="50"/>
-      <c r="O98" s="52"/>
-      <c r="P98" s="54"/>
-      <c r="Q98" s="54"/>
-      <c r="R98" s="52"/>
-      <c r="S98" s="52"/>
-      <c r="T98" s="52"/>
-      <c r="U98" s="52"/>
-      <c r="V98" s="52"/>
-      <c r="W98" s="52"/>
-      <c r="X98" s="52"/>
-      <c r="Y98" s="52"/>
-      <c r="Z98" s="52"/>
-      <c r="AA98" s="52"/>
-      <c r="AB98" s="52"/>
-      <c r="AC98" s="52"/>
-      <c r="AD98" s="52"/>
-      <c r="AE98" s="54"/>
-      <c r="AF98" s="50"/>
-      <c r="AG98" s="56"/>
-      <c r="AH98" s="52"/>
-      <c r="AI98" s="50"/>
-      <c r="AJ98" s="50"/>
-      <c r="AK98" s="50"/>
-      <c r="AL98" s="50"/>
-      <c r="AM98" s="50"/>
-      <c r="AN98" s="54"/>
-      <c r="AO98" s="54"/>
-      <c r="AP98" s="52"/>
-      <c r="AQ98" s="52"/>
-      <c r="AR98" s="52"/>
-      <c r="AS98" s="52"/>
-      <c r="AT98" s="52"/>
-      <c r="AU98" s="52"/>
-      <c r="AV98" s="50"/>
-      <c r="AW98" s="50"/>
-      <c r="AX98" s="52"/>
-      <c r="AY98" s="52"/>
-      <c r="AZ98" s="52"/>
-      <c r="BA98" s="52"/>
-      <c r="BB98" s="52"/>
-      <c r="BC98" s="52"/>
-      <c r="BD98" s="52"/>
-      <c r="BE98" s="52"/>
-      <c r="BF98" s="52"/>
-      <c r="BG98" s="52"/>
-      <c r="BH98" s="52"/>
-      <c r="BI98" s="55"/>
-      <c r="BJ98" s="55"/>
-      <c r="BK98" s="55"/>
-      <c r="BL98" s="55"/>
+      <c r="L98" s="52"/>
+      <c r="M98" s="52"/>
+      <c r="N98" s="52"/>
+      <c r="O98" s="54"/>
+      <c r="P98" s="56"/>
+      <c r="Q98" s="56"/>
+      <c r="R98" s="54"/>
+      <c r="S98" s="54"/>
+      <c r="T98" s="54"/>
+      <c r="U98" s="54"/>
+      <c r="V98" s="54"/>
+      <c r="W98" s="54"/>
+      <c r="X98" s="54"/>
+      <c r="Y98" s="54"/>
+      <c r="Z98" s="54"/>
+      <c r="AA98" s="54"/>
+      <c r="AB98" s="54"/>
+      <c r="AC98" s="54"/>
+      <c r="AD98" s="54"/>
+      <c r="AE98" s="56"/>
+      <c r="AF98" s="52"/>
+      <c r="AG98" s="58"/>
+      <c r="AH98" s="54"/>
+      <c r="AI98" s="52"/>
+      <c r="AJ98" s="52"/>
+      <c r="AK98" s="52"/>
+      <c r="AL98" s="52"/>
+      <c r="AM98" s="52"/>
+      <c r="AN98" s="56"/>
+      <c r="AO98" s="56"/>
+      <c r="AP98" s="54"/>
+      <c r="AQ98" s="54"/>
+      <c r="AR98" s="54"/>
+      <c r="AS98" s="54"/>
+      <c r="AT98" s="54"/>
+      <c r="AU98" s="54"/>
+      <c r="AV98" s="52"/>
+      <c r="AW98" s="52"/>
+      <c r="AX98" s="54"/>
+      <c r="AY98" s="54"/>
+      <c r="AZ98" s="54"/>
+      <c r="BA98" s="54"/>
+      <c r="BB98" s="54"/>
+      <c r="BC98" s="54"/>
+      <c r="BD98" s="54"/>
+      <c r="BE98" s="54"/>
+      <c r="BF98" s="54"/>
+      <c r="BG98" s="54"/>
+      <c r="BH98" s="54"/>
+      <c r="BI98" s="57"/>
+      <c r="BJ98" s="57"/>
+      <c r="BK98" s="57"/>
+      <c r="BL98" s="57"/>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="1">
@@ -5666,73 +5672,73 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="103" s="48" customFormat="1" spans="1:64">
-      <c r="A103" s="50" t="s">
+    <row r="103" s="50" customFormat="1" spans="1:64">
+      <c r="A103" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="B103" s="50"/>
-      <c r="C103" s="50"/>
-      <c r="D103" s="52"/>
-      <c r="E103" s="54"/>
-      <c r="F103" s="52"/>
-      <c r="G103" s="52"/>
-      <c r="H103" s="52"/>
-      <c r="I103" s="50"/>
-      <c r="J103" s="50"/>
-      <c r="K103" s="50"/>
-      <c r="L103" s="50"/>
-      <c r="M103" s="50"/>
-      <c r="N103" s="50"/>
-      <c r="O103" s="52"/>
-      <c r="P103" s="54"/>
-      <c r="Q103" s="54"/>
-      <c r="R103" s="52"/>
-      <c r="S103" s="52"/>
-      <c r="T103" s="52"/>
-      <c r="U103" s="52"/>
-      <c r="V103" s="52"/>
-      <c r="W103" s="52"/>
-      <c r="X103" s="52"/>
-      <c r="Y103" s="52"/>
-      <c r="Z103" s="52"/>
-      <c r="AA103" s="52"/>
-      <c r="AB103" s="52"/>
-      <c r="AC103" s="52"/>
-      <c r="AD103" s="52"/>
-      <c r="AE103" s="54"/>
-      <c r="AF103" s="50"/>
-      <c r="AG103" s="56"/>
-      <c r="AH103" s="52"/>
-      <c r="AI103" s="50"/>
-      <c r="AJ103" s="50"/>
-      <c r="AK103" s="50"/>
-      <c r="AL103" s="50"/>
-      <c r="AM103" s="50"/>
-      <c r="AN103" s="54"/>
-      <c r="AO103" s="54"/>
-      <c r="AP103" s="52"/>
-      <c r="AQ103" s="52"/>
-      <c r="AR103" s="52"/>
-      <c r="AS103" s="52"/>
-      <c r="AT103" s="52"/>
-      <c r="AU103" s="52"/>
-      <c r="AV103" s="50"/>
-      <c r="AW103" s="50"/>
-      <c r="AX103" s="52"/>
-      <c r="AY103" s="52"/>
-      <c r="AZ103" s="52"/>
-      <c r="BA103" s="52"/>
-      <c r="BB103" s="52"/>
-      <c r="BC103" s="52"/>
-      <c r="BD103" s="52"/>
-      <c r="BE103" s="52"/>
-      <c r="BF103" s="52"/>
-      <c r="BG103" s="52"/>
-      <c r="BH103" s="52"/>
-      <c r="BI103" s="55"/>
-      <c r="BJ103" s="55"/>
-      <c r="BK103" s="55"/>
-      <c r="BL103" s="55"/>
+      <c r="B103" s="52"/>
+      <c r="C103" s="52"/>
+      <c r="D103" s="54"/>
+      <c r="E103" s="56"/>
+      <c r="F103" s="54"/>
+      <c r="G103" s="54"/>
+      <c r="H103" s="54"/>
+      <c r="I103" s="52"/>
+      <c r="J103" s="52"/>
+      <c r="K103" s="52"/>
+      <c r="L103" s="52"/>
+      <c r="M103" s="52"/>
+      <c r="N103" s="52"/>
+      <c r="O103" s="54"/>
+      <c r="P103" s="56"/>
+      <c r="Q103" s="56"/>
+      <c r="R103" s="54"/>
+      <c r="S103" s="54"/>
+      <c r="T103" s="54"/>
+      <c r="U103" s="54"/>
+      <c r="V103" s="54"/>
+      <c r="W103" s="54"/>
+      <c r="X103" s="54"/>
+      <c r="Y103" s="54"/>
+      <c r="Z103" s="54"/>
+      <c r="AA103" s="54"/>
+      <c r="AB103" s="54"/>
+      <c r="AC103" s="54"/>
+      <c r="AD103" s="54"/>
+      <c r="AE103" s="56"/>
+      <c r="AF103" s="52"/>
+      <c r="AG103" s="58"/>
+      <c r="AH103" s="54"/>
+      <c r="AI103" s="52"/>
+      <c r="AJ103" s="52"/>
+      <c r="AK103" s="52"/>
+      <c r="AL103" s="52"/>
+      <c r="AM103" s="52"/>
+      <c r="AN103" s="56"/>
+      <c r="AO103" s="56"/>
+      <c r="AP103" s="54"/>
+      <c r="AQ103" s="54"/>
+      <c r="AR103" s="54"/>
+      <c r="AS103" s="54"/>
+      <c r="AT103" s="54"/>
+      <c r="AU103" s="54"/>
+      <c r="AV103" s="52"/>
+      <c r="AW103" s="52"/>
+      <c r="AX103" s="54"/>
+      <c r="AY103" s="54"/>
+      <c r="AZ103" s="54"/>
+      <c r="BA103" s="54"/>
+      <c r="BB103" s="54"/>
+      <c r="BC103" s="54"/>
+      <c r="BD103" s="54"/>
+      <c r="BE103" s="54"/>
+      <c r="BF103" s="54"/>
+      <c r="BG103" s="54"/>
+      <c r="BH103" s="54"/>
+      <c r="BI103" s="57"/>
+      <c r="BJ103" s="57"/>
+      <c r="BK103" s="57"/>
+      <c r="BL103" s="57"/>
     </row>
     <row r="104" spans="1:11">
       <c r="A104" s="1">
@@ -6329,73 +6335,73 @@
         <v>78</v>
       </c>
     </row>
-    <row r="148" s="48" customFormat="1" spans="1:64">
-      <c r="A148" s="50" t="s">
+    <row r="148" s="50" customFormat="1" spans="1:64">
+      <c r="A148" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="B148" s="50"/>
-      <c r="C148" s="50"/>
-      <c r="D148" s="52"/>
-      <c r="E148" s="54"/>
-      <c r="F148" s="52"/>
-      <c r="G148" s="52"/>
-      <c r="H148" s="52"/>
-      <c r="I148" s="50"/>
-      <c r="J148" s="50"/>
-      <c r="K148" s="50"/>
-      <c r="L148" s="50"/>
-      <c r="M148" s="50"/>
-      <c r="N148" s="50"/>
-      <c r="O148" s="52"/>
-      <c r="P148" s="54"/>
-      <c r="Q148" s="54"/>
-      <c r="R148" s="52"/>
-      <c r="S148" s="52"/>
-      <c r="T148" s="52"/>
-      <c r="U148" s="52"/>
-      <c r="V148" s="52"/>
-      <c r="W148" s="52"/>
-      <c r="X148" s="52"/>
-      <c r="Y148" s="52"/>
-      <c r="Z148" s="52"/>
-      <c r="AA148" s="52"/>
-      <c r="AB148" s="52"/>
-      <c r="AC148" s="52"/>
-      <c r="AD148" s="52"/>
-      <c r="AE148" s="54"/>
-      <c r="AF148" s="50"/>
-      <c r="AG148" s="56"/>
-      <c r="AH148" s="52"/>
-      <c r="AI148" s="50"/>
-      <c r="AJ148" s="50"/>
-      <c r="AK148" s="50"/>
-      <c r="AL148" s="50"/>
-      <c r="AM148" s="50"/>
-      <c r="AN148" s="54"/>
-      <c r="AO148" s="54"/>
-      <c r="AP148" s="52"/>
-      <c r="AQ148" s="52"/>
-      <c r="AR148" s="52"/>
-      <c r="AS148" s="52"/>
-      <c r="AT148" s="52"/>
-      <c r="AU148" s="52"/>
-      <c r="AV148" s="50"/>
-      <c r="AW148" s="50"/>
-      <c r="AX148" s="52"/>
-      <c r="AY148" s="52"/>
-      <c r="AZ148" s="52"/>
-      <c r="BA148" s="52"/>
-      <c r="BB148" s="52"/>
-      <c r="BC148" s="52"/>
-      <c r="BD148" s="52"/>
-      <c r="BE148" s="52"/>
-      <c r="BF148" s="52"/>
-      <c r="BG148" s="52"/>
-      <c r="BH148" s="52"/>
-      <c r="BI148" s="55"/>
-      <c r="BJ148" s="55"/>
-      <c r="BK148" s="55"/>
-      <c r="BL148" s="55"/>
+      <c r="B148" s="52"/>
+      <c r="C148" s="52"/>
+      <c r="D148" s="54"/>
+      <c r="E148" s="56"/>
+      <c r="F148" s="54"/>
+      <c r="G148" s="54"/>
+      <c r="H148" s="54"/>
+      <c r="I148" s="52"/>
+      <c r="J148" s="52"/>
+      <c r="K148" s="52"/>
+      <c r="L148" s="52"/>
+      <c r="M148" s="52"/>
+      <c r="N148" s="52"/>
+      <c r="O148" s="54"/>
+      <c r="P148" s="56"/>
+      <c r="Q148" s="56"/>
+      <c r="R148" s="54"/>
+      <c r="S148" s="54"/>
+      <c r="T148" s="54"/>
+      <c r="U148" s="54"/>
+      <c r="V148" s="54"/>
+      <c r="W148" s="54"/>
+      <c r="X148" s="54"/>
+      <c r="Y148" s="54"/>
+      <c r="Z148" s="54"/>
+      <c r="AA148" s="54"/>
+      <c r="AB148" s="54"/>
+      <c r="AC148" s="54"/>
+      <c r="AD148" s="54"/>
+      <c r="AE148" s="56"/>
+      <c r="AF148" s="52"/>
+      <c r="AG148" s="58"/>
+      <c r="AH148" s="54"/>
+      <c r="AI148" s="52"/>
+      <c r="AJ148" s="52"/>
+      <c r="AK148" s="52"/>
+      <c r="AL148" s="52"/>
+      <c r="AM148" s="52"/>
+      <c r="AN148" s="56"/>
+      <c r="AO148" s="56"/>
+      <c r="AP148" s="54"/>
+      <c r="AQ148" s="54"/>
+      <c r="AR148" s="54"/>
+      <c r="AS148" s="54"/>
+      <c r="AT148" s="54"/>
+      <c r="AU148" s="54"/>
+      <c r="AV148" s="52"/>
+      <c r="AW148" s="52"/>
+      <c r="AX148" s="54"/>
+      <c r="AY148" s="54"/>
+      <c r="AZ148" s="54"/>
+      <c r="BA148" s="54"/>
+      <c r="BB148" s="54"/>
+      <c r="BC148" s="54"/>
+      <c r="BD148" s="54"/>
+      <c r="BE148" s="54"/>
+      <c r="BF148" s="54"/>
+      <c r="BG148" s="54"/>
+      <c r="BH148" s="54"/>
+      <c r="BI148" s="57"/>
+      <c r="BJ148" s="57"/>
+      <c r="BK148" s="57"/>
+      <c r="BL148" s="57"/>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="1">
@@ -6499,8 +6505,8 @@
       </c>
     </row>
     <row r="162" spans="1:2">
-      <c r="A162" s="73"/>
-      <c r="B162" s="73"/>
+      <c r="A162" s="75"/>
+      <c r="B162" s="75"/>
     </row>
     <row r="163" spans="2:2">
       <c r="B163" s="1" t="s">
@@ -6532,8 +6538,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88461538461539" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="8.88461538461539" style="45"/>
-    <col min="2" max="2" width="9.66346153846154" style="45" customWidth="1"/>
+    <col min="1" max="1" width="8.88461538461539" style="47"/>
+    <col min="2" max="2" width="9.66346153846154" style="47" customWidth="1"/>
     <col min="3" max="3" width="20.8846153846154" customWidth="1"/>
     <col min="4" max="4" width="5.66346153846154" customWidth="1"/>
     <col min="5" max="5" width="23.1153846153846" customWidth="1"/>
@@ -6545,10 +6551,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -6606,10 +6612,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -6774,16 +6780,16 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="12" s="44" customFormat="1" spans="1:9">
-      <c r="A12" s="46" t="s">
+    <row r="12" s="46" customFormat="1" spans="1:9">
+      <c r="A12" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46">
+      <c r="B12" s="48"/>
+      <c r="C12" s="48">
         <f>AVERAGE(C2:C11)</f>
         <v>4.995</v>
       </c>
-      <c r="D12" s="46">
+      <c r="D12" s="48">
         <f>AVERAGE(D2:D11)</f>
         <v>1.327</v>
       </c>
@@ -6791,7 +6797,7 @@
       <c r="F12" s="9">
         <v>74.55</v>
       </c>
-      <c r="G12" s="47">
+      <c r="G12" s="49">
         <f>D12/F12</f>
         <v>0.0178001341381623</v>
       </c>
@@ -6938,16 +6944,16 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="23" s="44" customFormat="1" spans="1:9">
-      <c r="A23" s="46" t="s">
+    <row r="23" s="46" customFormat="1" spans="1:9">
+      <c r="A23" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46">
+      <c r="B23" s="48"/>
+      <c r="C23" s="48">
         <f>AVERAGE(C13:C22)</f>
         <v>7.022</v>
       </c>
-      <c r="D23" s="46">
+      <c r="D23" s="48">
         <f>AVERAGE(D13:D22)</f>
         <v>1.616</v>
       </c>
@@ -6955,7 +6961,7 @@
       <c r="F23" s="9">
         <v>53.85</v>
       </c>
-      <c r="G23" s="47">
+      <c r="G23" s="49">
         <f>D23/F23</f>
         <v>0.0300092850510678</v>
       </c>
@@ -7075,22 +7081,22 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="46" t="s">
+      <c r="A32" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="B32" s="46"/>
-      <c r="C32" s="46">
+      <c r="B32" s="48"/>
+      <c r="C32" s="48">
         <f>AVERAGE(C25:C31)</f>
         <v>9.32285714285714</v>
       </c>
-      <c r="D32" s="46">
+      <c r="D32" s="48">
         <f>AVERAGE(D25:D31)</f>
         <v>1.45285714285714</v>
       </c>
       <c r="F32" s="1">
         <v>89.73</v>
       </c>
-      <c r="G32" s="47">
+      <c r="G32" s="49">
         <f>D32/F32</f>
         <v>0.0161914314371687</v>
       </c>
@@ -7236,22 +7242,22 @@
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="46" t="s">
+      <c r="A43" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="B43" s="46"/>
-      <c r="C43" s="46">
+      <c r="B43" s="48"/>
+      <c r="C43" s="48">
         <f>AVERAGE(C33:C42)</f>
         <v>10.34</v>
       </c>
-      <c r="D43" s="46">
+      <c r="D43" s="48">
         <f>AVERAGE(D33:D42)</f>
         <v>1.215</v>
       </c>
       <c r="F43" s="1">
         <v>84.13</v>
       </c>
-      <c r="G43" s="47">
+      <c r="G43" s="49">
         <f>D43/F43</f>
         <v>0.0144419351004398</v>
       </c>
@@ -7369,22 +7375,22 @@
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="46" t="s">
+      <c r="A52" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="B52" s="46"/>
-      <c r="C52" s="46">
+      <c r="B52" s="48"/>
+      <c r="C52" s="48">
         <f>AVERAGE(C42:C51)</f>
         <v>12.823</v>
       </c>
-      <c r="D52" s="46">
+      <c r="D52" s="48">
         <f>AVERAGE(D42:D51)</f>
         <v>1.1935</v>
       </c>
       <c r="F52" s="1">
         <v>74.09</v>
       </c>
-      <c r="G52" s="47">
+      <c r="G52" s="49">
         <f>D52/F52</f>
         <v>0.0161087866108787</v>
       </c>
@@ -7530,22 +7536,22 @@
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="46" t="s">
+      <c r="A63" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="B63" s="46"/>
-      <c r="C63" s="46">
+      <c r="B63" s="48"/>
+      <c r="C63" s="48">
         <f>AVERAGE(C53:C62)</f>
         <v>3.386</v>
       </c>
-      <c r="D63" s="46">
+      <c r="D63" s="48">
         <f>AVERAGE(D53:D62)</f>
         <v>0.554</v>
       </c>
       <c r="F63" s="1">
         <v>52.18</v>
       </c>
-      <c r="G63" s="47">
+      <c r="G63" s="49">
         <f>D63/F63</f>
         <v>0.0106170946722882</v>
       </c>
@@ -7691,22 +7697,22 @@
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="46" t="s">
+      <c r="A74" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="B74" s="46"/>
-      <c r="C74" s="46">
+      <c r="B74" s="48"/>
+      <c r="C74" s="48">
         <f>AVERAGE(C64:C73)</f>
         <v>5.209</v>
       </c>
-      <c r="D74" s="46">
+      <c r="D74" s="48">
         <f>AVERAGE(D64:D73)</f>
         <v>0.873</v>
       </c>
       <c r="F74" s="1">
         <v>40.39</v>
       </c>
-      <c r="G74" s="47">
+      <c r="G74" s="49">
         <f>D74/F74</f>
         <v>0.0216142609556821</v>
       </c>
@@ -7723,11 +7729,11 @@
   <dimension ref="A1:CD14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BO3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AJ3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BU7" sqref="BU7"/>
+      <selection pane="bottomRight" activeCell="AN7" sqref="AN7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88461538461539" defaultRowHeight="16.8"/>
@@ -7776,172 +7782,172 @@
     <col min="69" max="70" width="20.9230769230769" style="7" customWidth="1"/>
     <col min="71" max="73" width="22.0769230769231" style="7" customWidth="1"/>
     <col min="74" max="74" width="20.9230769230769" style="7" customWidth="1"/>
-    <col min="75" max="75" width="16.4423076923077" customWidth="1"/>
-    <col min="76" max="79" width="12.8846153846154" style="10"/>
-    <col min="80" max="80" width="11.8846153846154" style="10" customWidth="1"/>
+    <col min="75" max="75" width="19.8461538461538" style="10" customWidth="1"/>
+    <col min="76" max="79" width="12.8846153846154" style="11"/>
+    <col min="80" max="80" width="11.8846153846154" style="11" customWidth="1"/>
     <col min="81" max="81" width="23.0769230769231" style="3" customWidth="1"/>
     <col min="82" max="82" width="24.6730769230769" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:82">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16" t="s">
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="16" t="s">
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="AF1" s="16" t="s">
+      <c r="AF1" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="AG1" s="20" t="s">
+      <c r="AG1" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="AH1" s="21" t="s">
+      <c r="AH1" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="11" t="s">
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="AK1" s="24" t="s">
+      <c r="AK1" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="AL1" s="24" t="s">
+      <c r="AL1" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="AM1" s="25" t="s">
+      <c r="AM1" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="AN1" s="24" t="s">
+      <c r="AN1" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="AO1" s="31" t="s">
+      <c r="AO1" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="AP1" s="31"/>
-      <c r="AQ1" s="11"/>
-      <c r="AR1" s="14" t="s">
+      <c r="AP1" s="32"/>
+      <c r="AQ1" s="12"/>
+      <c r="AR1" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="AS1" s="11" t="s">
+      <c r="AS1" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="AT1" s="11" t="s">
+      <c r="AT1" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="AU1" s="14" t="s">
+      <c r="AU1" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="AV1" s="11" t="s">
+      <c r="AV1" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="AW1" s="11" t="s">
+      <c r="AW1" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="AX1" s="11" t="s">
+      <c r="AX1" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="AY1" s="14" t="s">
+      <c r="AY1" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="AZ1" s="16" t="s">
+      <c r="AZ1" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="BA1" s="11" t="s">
+      <c r="BA1" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="BB1" s="16" t="s">
+      <c r="BB1" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="BC1" s="16"/>
-      <c r="BD1" s="16"/>
-      <c r="BE1" s="16"/>
-      <c r="BF1" s="35"/>
-      <c r="BG1" s="15" t="s">
+      <c r="BC1" s="17"/>
+      <c r="BD1" s="17"/>
+      <c r="BE1" s="17"/>
+      <c r="BF1" s="36"/>
+      <c r="BG1" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="BH1" s="16"/>
-      <c r="BI1" s="16"/>
-      <c r="BJ1" s="16"/>
-      <c r="BK1" s="16"/>
-      <c r="BL1" s="36" t="s">
+      <c r="BH1" s="17"/>
+      <c r="BI1" s="17"/>
+      <c r="BJ1" s="17"/>
+      <c r="BK1" s="17"/>
+      <c r="BL1" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="BM1" s="15" t="s">
+      <c r="BM1" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="BN1" s="15"/>
-      <c r="BO1" s="15"/>
-      <c r="BP1" s="15"/>
-      <c r="BQ1" s="15"/>
-      <c r="BR1" s="15" t="s">
+      <c r="BN1" s="16"/>
+      <c r="BO1" s="16"/>
+      <c r="BP1" s="16"/>
+      <c r="BQ1" s="16"/>
+      <c r="BR1" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="BS1" s="16"/>
-      <c r="BT1" s="16"/>
-      <c r="BU1" s="16"/>
-      <c r="BV1" s="16"/>
-      <c r="BW1" s="37" t="s">
+      <c r="BS1" s="17"/>
+      <c r="BT1" s="17"/>
+      <c r="BU1" s="17"/>
+      <c r="BV1" s="17"/>
+      <c r="BW1" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="BX1" s="38" t="s">
+      <c r="BX1" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="BY1" s="38"/>
-      <c r="BZ1" s="38"/>
-      <c r="CA1" s="38"/>
-      <c r="CB1" s="38"/>
+      <c r="BY1" s="39"/>
+      <c r="BZ1" s="39"/>
+      <c r="CA1" s="39"/>
+      <c r="CB1" s="39"/>
       <c r="CC1" s="3" t="s">
         <v>128</v>
       </c>
@@ -7950,377 +7956,377 @@
       </c>
     </row>
     <row r="2" ht="68" spans="1:80">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="14" t="s">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="O2" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="P2" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="Q2" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="R2" s="14" t="s">
+      <c r="R2" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="S2" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="T2" s="14" t="s">
+      <c r="T2" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="U2" s="18" t="s">
+      <c r="U2" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="V2" s="19" t="s">
+      <c r="V2" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="W2" s="19" t="s">
+      <c r="W2" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="X2" s="19" t="s">
+      <c r="X2" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="Y2" s="19" t="s">
+      <c r="Y2" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="Z2" s="19" t="s">
+      <c r="Z2" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="AA2" s="18" t="s">
+      <c r="AA2" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="AB2" s="18" t="s">
+      <c r="AB2" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="AC2" s="18" t="s">
+      <c r="AC2" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="AD2" s="18" t="s">
+      <c r="AD2" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="AE2" s="16"/>
-      <c r="AF2" s="16"/>
-      <c r="AG2" s="16"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="11"/>
-      <c r="AK2" s="24"/>
-      <c r="AL2" s="24"/>
-      <c r="AM2" s="25"/>
-      <c r="AN2" s="24"/>
-      <c r="AO2" s="31" t="s">
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="17"/>
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="25"/>
+      <c r="AL2" s="25"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="25"/>
+      <c r="AO2" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="AP2" s="31" t="s">
+      <c r="AP2" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="AQ2" s="11" t="s">
+      <c r="AQ2" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="AR2" s="14"/>
-      <c r="AS2" s="11"/>
-      <c r="AT2" s="11"/>
-      <c r="AU2" s="14"/>
-      <c r="AV2" s="11"/>
-      <c r="AW2" s="11"/>
-      <c r="AX2" s="11"/>
-      <c r="AY2" s="14"/>
-      <c r="AZ2" s="16"/>
-      <c r="BA2" s="11"/>
-      <c r="BB2" s="16" t="s">
+      <c r="AR2" s="15"/>
+      <c r="AS2" s="12"/>
+      <c r="AT2" s="12"/>
+      <c r="AU2" s="15"/>
+      <c r="AV2" s="12"/>
+      <c r="AW2" s="12"/>
+      <c r="AX2" s="12"/>
+      <c r="AY2" s="15"/>
+      <c r="AZ2" s="17"/>
+      <c r="BA2" s="12"/>
+      <c r="BB2" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="BC2" s="16" t="s">
+      <c r="BC2" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="BD2" s="20" t="s">
+      <c r="BD2" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="BE2" s="20" t="s">
+      <c r="BE2" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="BF2" s="35" t="s">
+      <c r="BF2" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="BG2" s="16" t="s">
+      <c r="BG2" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="BH2" s="16" t="s">
+      <c r="BH2" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="BI2" s="20" t="s">
+      <c r="BI2" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="BJ2" s="20" t="s">
+      <c r="BJ2" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="BK2" s="16" t="s">
+      <c r="BK2" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="BL2" s="36"/>
-      <c r="BM2" s="16" t="s">
+      <c r="BL2" s="37"/>
+      <c r="BM2" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="BN2" s="16" t="s">
+      <c r="BN2" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="BO2" s="20" t="s">
+      <c r="BO2" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="BP2" s="20" t="s">
+      <c r="BP2" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="BQ2" s="16" t="s">
+      <c r="BQ2" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="BR2" s="16" t="s">
+      <c r="BR2" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="BS2" s="16" t="s">
+      <c r="BS2" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="BT2" s="20" t="s">
+      <c r="BT2" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="BU2" s="20" t="s">
+      <c r="BU2" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="BV2" s="16" t="s">
+      <c r="BV2" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="BW2" s="37"/>
-      <c r="BX2" s="39" t="s">
+      <c r="BW2" s="40"/>
+      <c r="BX2" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="BY2" s="39" t="s">
+      <c r="BY2" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="BZ2" s="43" t="s">
+      <c r="BZ2" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="CA2" s="43" t="s">
+      <c r="CA2" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="CB2" s="39" t="s">
+      <c r="CB2" s="41" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:80">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="18"/>
-      <c r="AB3" s="18"/>
-      <c r="AC3" s="18"/>
-      <c r="AD3" s="18"/>
-      <c r="AE3" s="16"/>
-      <c r="AF3" s="16"/>
-      <c r="AG3" s="16"/>
-      <c r="AH3" s="21"/>
-      <c r="AI3" s="21"/>
-      <c r="AJ3" s="11"/>
-      <c r="AK3" s="24"/>
-      <c r="AL3" s="24"/>
-      <c r="AM3" s="25"/>
-      <c r="AN3" s="24"/>
-      <c r="AO3" s="31"/>
-      <c r="AP3" s="31"/>
-      <c r="AQ3" s="11"/>
-      <c r="AR3" s="14"/>
-      <c r="AS3" s="11"/>
-      <c r="AT3" s="11"/>
-      <c r="AU3" s="14"/>
-      <c r="AV3" s="11"/>
-      <c r="AW3" s="11"/>
-      <c r="AX3" s="11"/>
-      <c r="AY3" s="14"/>
-      <c r="AZ3" s="16"/>
-      <c r="BA3" s="11"/>
-      <c r="BB3" s="16"/>
-      <c r="BC3" s="16"/>
-      <c r="BD3" s="20"/>
-      <c r="BE3" s="20"/>
-      <c r="BF3" s="35"/>
-      <c r="BG3" s="16"/>
-      <c r="BH3" s="16"/>
-      <c r="BI3" s="20"/>
-      <c r="BJ3" s="20"/>
-      <c r="BK3" s="16"/>
-      <c r="BL3" s="36"/>
-      <c r="BM3" s="16"/>
-      <c r="BN3" s="16"/>
-      <c r="BO3" s="20"/>
-      <c r="BP3" s="20"/>
-      <c r="BQ3" s="16"/>
-      <c r="BR3" s="16"/>
-      <c r="BS3" s="16"/>
-      <c r="BT3" s="20"/>
-      <c r="BU3" s="20"/>
-      <c r="BV3" s="16"/>
-      <c r="BW3" s="37"/>
-      <c r="BX3" s="39"/>
-      <c r="BY3" s="39"/>
-      <c r="BZ3" s="43"/>
-      <c r="CA3" s="43"/>
-      <c r="CB3" s="39"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="19"/>
+      <c r="AE3" s="17"/>
+      <c r="AF3" s="17"/>
+      <c r="AG3" s="17"/>
+      <c r="AH3" s="22"/>
+      <c r="AI3" s="22"/>
+      <c r="AJ3" s="12"/>
+      <c r="AK3" s="25"/>
+      <c r="AL3" s="25"/>
+      <c r="AM3" s="26"/>
+      <c r="AN3" s="25"/>
+      <c r="AO3" s="32"/>
+      <c r="AP3" s="32"/>
+      <c r="AQ3" s="12"/>
+      <c r="AR3" s="15"/>
+      <c r="AS3" s="12"/>
+      <c r="AT3" s="12"/>
+      <c r="AU3" s="15"/>
+      <c r="AV3" s="12"/>
+      <c r="AW3" s="12"/>
+      <c r="AX3" s="12"/>
+      <c r="AY3" s="15"/>
+      <c r="AZ3" s="17"/>
+      <c r="BA3" s="12"/>
+      <c r="BB3" s="17"/>
+      <c r="BC3" s="17"/>
+      <c r="BD3" s="21"/>
+      <c r="BE3" s="21"/>
+      <c r="BF3" s="36"/>
+      <c r="BG3" s="17"/>
+      <c r="BH3" s="17"/>
+      <c r="BI3" s="21"/>
+      <c r="BJ3" s="21"/>
+      <c r="BK3" s="17"/>
+      <c r="BL3" s="37"/>
+      <c r="BM3" s="17"/>
+      <c r="BN3" s="17"/>
+      <c r="BO3" s="21"/>
+      <c r="BP3" s="21"/>
+      <c r="BQ3" s="17"/>
+      <c r="BR3" s="17"/>
+      <c r="BS3" s="17"/>
+      <c r="BT3" s="21"/>
+      <c r="BU3" s="21"/>
+      <c r="BV3" s="17"/>
+      <c r="BW3" s="40"/>
+      <c r="BX3" s="41"/>
+      <c r="BY3" s="41"/>
+      <c r="BZ3" s="45"/>
+      <c r="CA3" s="45"/>
+      <c r="CB3" s="41"/>
     </row>
     <row r="4" spans="1:82">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="18"/>
-      <c r="AB4" s="18"/>
-      <c r="AC4" s="18"/>
-      <c r="AD4" s="18"/>
-      <c r="AE4" s="16"/>
-      <c r="AF4" s="16"/>
-      <c r="AG4" s="16"/>
-      <c r="AH4" s="21"/>
-      <c r="AI4" s="21"/>
-      <c r="AJ4" s="11"/>
-      <c r="AK4" s="24"/>
-      <c r="AL4" s="24"/>
-      <c r="AM4" s="26">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="19"/>
+      <c r="AD4" s="19"/>
+      <c r="AE4" s="17"/>
+      <c r="AF4" s="17"/>
+      <c r="AG4" s="17"/>
+      <c r="AH4" s="22"/>
+      <c r="AI4" s="22"/>
+      <c r="AJ4" s="12"/>
+      <c r="AK4" s="25"/>
+      <c r="AL4" s="25"/>
+      <c r="AM4" s="27">
         <v>6253994132.97455</v>
       </c>
-      <c r="AN4" s="24">
+      <c r="AN4" s="25">
         <v>0.035</v>
       </c>
-      <c r="AO4" s="23">
+      <c r="AO4" s="24">
         <v>0.04</v>
       </c>
-      <c r="AP4" s="23">
+      <c r="AP4" s="24">
         <v>0.15</v>
       </c>
-      <c r="AQ4" s="11"/>
-      <c r="AR4" s="32">
+      <c r="AQ4" s="12"/>
+      <c r="AR4" s="33">
         <v>18223307402.03</v>
       </c>
-      <c r="AS4" s="11"/>
-      <c r="AT4" s="11"/>
-      <c r="AU4" s="32">
+      <c r="AS4" s="12"/>
+      <c r="AT4" s="12"/>
+      <c r="AU4" s="33">
         <v>6081662998.97</v>
       </c>
-      <c r="AV4" s="26">
+      <c r="AV4" s="27">
         <v>10738064.59</v>
       </c>
-      <c r="AW4" s="11"/>
-      <c r="AX4" s="11"/>
-      <c r="AY4" s="32">
+      <c r="AW4" s="12"/>
+      <c r="AX4" s="12"/>
+      <c r="AY4" s="33">
         <v>4131328.25</v>
       </c>
-      <c r="AZ4" s="32">
+      <c r="AZ4" s="33">
         <f>SUM(AR4:AY4)</f>
         <v>24319839793.84</v>
       </c>
-      <c r="BA4" s="11"/>
-      <c r="BB4" s="15">
+      <c r="BA4" s="12"/>
+      <c r="BB4" s="16">
         <f>AM4/AN4</f>
         <v>178685546656.416</v>
       </c>
-      <c r="BC4" s="16">
+      <c r="BC4" s="17">
         <f>AM4*(1+AO4)/(AN4-AO4)</f>
         <v>-1300830779658.71</v>
       </c>
-      <c r="BD4" s="16">
+      <c r="BD4" s="17">
         <f>AM4*(1+AP4)/(1+AN4)+AM4*(1+AP4)^2/(1+AN4)^2+AM4*(1+AP4)^3/(1+AN4)^3+AM4*(1+AP4)^3*(1+AO4)/(1+AN4)^4/(AN4-AO4)</f>
         <v>-1700813455285.63</v>
       </c>
-      <c r="BE4" s="16">
+      <c r="BE4" s="17">
         <f>AM4*(1+AP4)/(1+AN4)+AM4*(1+AP4)^2/(1+AN4)^2+AM4*(1+AP4)^3/(1+AN4)^3+AM4*(1+AP4)^4/(1+AN4)^4+AM4*(1+AP4)^5/(1+AN4)^5+AM4*(1+AP4)^5*(1+AO4)/(1+AN4)^6/(AN4-AO4)</f>
         <v>-2085099835102.44</v>
       </c>
-      <c r="BF4" s="35"/>
-      <c r="BG4" s="16"/>
-      <c r="BH4" s="16"/>
-      <c r="BI4" s="20"/>
-      <c r="BJ4" s="20"/>
-      <c r="BK4" s="16"/>
-      <c r="BL4" s="36"/>
-      <c r="BM4" s="16"/>
-      <c r="BN4" s="16"/>
-      <c r="BO4" s="20"/>
-      <c r="BP4" s="20"/>
-      <c r="BQ4" s="16"/>
-      <c r="BR4" s="16"/>
-      <c r="BS4" s="16"/>
-      <c r="BT4" s="20"/>
-      <c r="BU4" s="20"/>
-      <c r="BV4" s="16"/>
-      <c r="BW4" s="37"/>
-      <c r="BX4" s="39"/>
-      <c r="BY4" s="39"/>
-      <c r="BZ4" s="43"/>
-      <c r="CA4" s="43"/>
-      <c r="CB4" s="39"/>
+      <c r="BF4" s="36"/>
+      <c r="BG4" s="17"/>
+      <c r="BH4" s="17"/>
+      <c r="BI4" s="21"/>
+      <c r="BJ4" s="21"/>
+      <c r="BK4" s="17"/>
+      <c r="BL4" s="37"/>
+      <c r="BM4" s="17"/>
+      <c r="BN4" s="17"/>
+      <c r="BO4" s="21"/>
+      <c r="BP4" s="21"/>
+      <c r="BQ4" s="17"/>
+      <c r="BR4" s="17"/>
+      <c r="BS4" s="17"/>
+      <c r="BT4" s="21"/>
+      <c r="BU4" s="21"/>
+      <c r="BV4" s="17"/>
+      <c r="BW4" s="40"/>
+      <c r="BX4" s="41"/>
+      <c r="BY4" s="41"/>
+      <c r="BZ4" s="45"/>
+      <c r="CA4" s="45"/>
+      <c r="CB4" s="41"/>
       <c r="CC4" s="3">
         <f>(AM4*(1+AP4)^5)/(1+AN4)^5</f>
         <v>10591193979.5332</v>
@@ -8331,1817 +8337,1833 @@
       </c>
     </row>
     <row r="5" spans="1:80">
-      <c r="A5" s="11">
+      <c r="A5" s="12">
         <v>2022</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12">
+      <c r="B5" s="12"/>
+      <c r="C5" s="13">
         <v>33337724549.58</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="13">
         <v>23499848566.38</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="19"/>
-      <c r="Y5" s="19"/>
-      <c r="Z5" s="19"/>
-      <c r="AA5" s="18"/>
-      <c r="AB5" s="18"/>
-      <c r="AC5" s="18"/>
-      <c r="AD5" s="18"/>
-      <c r="AE5" s="16"/>
-      <c r="AF5" s="16"/>
-      <c r="AG5" s="16"/>
-      <c r="AH5" s="21"/>
-      <c r="AI5" s="21"/>
-      <c r="AJ5" s="11"/>
-      <c r="AK5" s="24"/>
-      <c r="AL5" s="24"/>
-      <c r="AM5" s="26">
+      <c r="E5" s="12"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="20"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="17"/>
+      <c r="AF5" s="17"/>
+      <c r="AG5" s="17"/>
+      <c r="AH5" s="22"/>
+      <c r="AI5" s="22"/>
+      <c r="AJ5" s="12"/>
+      <c r="AK5" s="25"/>
+      <c r="AL5" s="25"/>
+      <c r="AM5" s="27">
         <v>6253994132.97455</v>
       </c>
-      <c r="AN5" s="27">
-        <v>0.0602</v>
-      </c>
-      <c r="AO5" s="23">
+      <c r="AN5" s="28">
+        <v>0.07</v>
+      </c>
+      <c r="AO5" s="24">
         <v>0.04</v>
       </c>
-      <c r="AP5" s="23">
+      <c r="AP5" s="24">
         <v>0.15</v>
       </c>
-      <c r="AQ5" s="11"/>
-      <c r="AR5" s="32">
+      <c r="AQ5" s="12"/>
+      <c r="AR5" s="33">
         <v>18223307402.03</v>
       </c>
-      <c r="AS5" s="11"/>
-      <c r="AT5" s="11"/>
-      <c r="AU5" s="32">
+      <c r="AS5" s="12"/>
+      <c r="AT5" s="12"/>
+      <c r="AU5" s="33">
         <v>6081662998.97</v>
       </c>
-      <c r="AV5" s="26">
+      <c r="AV5" s="27">
         <v>10738064.59</v>
       </c>
-      <c r="AW5" s="11"/>
-      <c r="AX5" s="11"/>
-      <c r="AY5" s="32">
+      <c r="AW5" s="12"/>
+      <c r="AX5" s="12"/>
+      <c r="AY5" s="33">
         <v>4131328.25</v>
       </c>
-      <c r="AZ5" s="32">
+      <c r="AZ5" s="33">
         <f>SUM(AR5:AY5)</f>
         <v>24319839793.84</v>
       </c>
-      <c r="BA5" s="11"/>
-      <c r="BB5" s="15">
+      <c r="BA5" s="12"/>
+      <c r="BB5" s="16">
         <f>AM5/AN5</f>
-        <v>103886945730.474</v>
-      </c>
-      <c r="BC5" s="16">
+        <v>89342773328.2079</v>
+      </c>
+      <c r="BC5" s="17">
         <f>AM5*(1+AO5)/(AN5-AO5)</f>
-        <v>321987816747.205</v>
-      </c>
-      <c r="BD5" s="16">
+        <v>216805129943.118</v>
+      </c>
+      <c r="BD5" s="17">
         <f>AM5*(1+AP5)/(1+AN5)+AM5*(1+AP5)^2/(1+AN5)^2+AM5*(1+AP5)^3/(1+AN5)^3+AM5*(1+AP5)^3*(1+AO5)/(1+AN5)^4/(AN5-AO5)</f>
-        <v>409721779492.246</v>
-      </c>
-      <c r="BE5" s="16">
+        <v>273262075734.433</v>
+      </c>
+      <c r="BE5" s="17">
         <f>AM5*(1+AP5)/(1+AN5)+AM5*(1+AP5)^2/(1+AN5)^2+AM5*(1+AP5)^3/(1+AN5)^3+AM5*(1+AP5)^4/(1+AN5)^4+AM5*(1+AP5)^5/(1+AN5)^5+AM5*(1+AP5)^5*(1+AO5)/(1+AN5)^6/(AN5-AO5)</f>
-        <v>496210933252.015</v>
-      </c>
-      <c r="BF5" s="35"/>
-      <c r="BG5" s="32">
+        <v>329596944868.785</v>
+      </c>
+      <c r="BF5" s="36"/>
+      <c r="BG5" s="33">
         <f>$AZ5+$BA5+BB5</f>
-        <v>128206785524.314</v>
-      </c>
-      <c r="BH5" s="32">
+        <v>113662613122.048</v>
+      </c>
+      <c r="BH5" s="33">
         <f>$AZ5+$BA5+BC5</f>
-        <v>346307656541.045</v>
-      </c>
-      <c r="BI5" s="32">
+        <v>241124969736.958</v>
+      </c>
+      <c r="BI5" s="33">
         <f>$AZ5+$BA5+BD5</f>
-        <v>434041619286.086</v>
-      </c>
-      <c r="BJ5" s="32">
+        <v>297581915528.273</v>
+      </c>
+      <c r="BJ5" s="33">
         <f>$AZ5+$BA5+BE5</f>
-        <v>520530773045.855</v>
-      </c>
-      <c r="BK5" s="32">
+        <v>353916784662.625</v>
+      </c>
+      <c r="BK5" s="33">
         <f>$AZ5+$BA5+BF5</f>
         <v>24319839793.84</v>
       </c>
-      <c r="BL5" s="34">
+      <c r="BL5" s="35">
         <f>C5-D5</f>
         <v>9837875983.2</v>
       </c>
-      <c r="BM5" s="32">
+      <c r="BM5" s="33">
         <f>BG5-$BL5</f>
-        <v>118368909541.114</v>
-      </c>
-      <c r="BN5" s="32">
+        <v>103824737138.848</v>
+      </c>
+      <c r="BN5" s="33">
         <f>BH5-$BL5</f>
-        <v>336469780557.845</v>
-      </c>
-      <c r="BO5" s="32">
+        <v>231287093753.758</v>
+      </c>
+      <c r="BO5" s="33">
         <f>BI5-$BL5</f>
-        <v>424203743302.886</v>
-      </c>
-      <c r="BP5" s="32">
+        <v>287744039545.073</v>
+      </c>
+      <c r="BP5" s="33">
         <f>BJ5-$BL5</f>
-        <v>510692897062.655</v>
-      </c>
-      <c r="BQ5" s="32">
+        <v>344078908679.425</v>
+      </c>
+      <c r="BQ5" s="33">
         <f>BK5-$BL5</f>
         <v>14481963810.64</v>
       </c>
-      <c r="BR5" s="32">
+      <c r="BR5" s="33">
         <f>BM5*(1-$E5/$D5)</f>
-        <v>118368909541.114</v>
-      </c>
-      <c r="BS5" s="32">
+        <v>103824737138.848</v>
+      </c>
+      <c r="BS5" s="33">
         <f>BN5*(1-$E5/$D5)</f>
-        <v>336469780557.845</v>
-      </c>
-      <c r="BT5" s="32">
+        <v>231287093753.758</v>
+      </c>
+      <c r="BT5" s="33">
         <f>BO5*(1-$E5/$D5)</f>
-        <v>424203743302.886</v>
-      </c>
-      <c r="BU5" s="32">
+        <v>287744039545.073</v>
+      </c>
+      <c r="BU5" s="33">
         <f>BP5*(1-$E5/$D5)</f>
-        <v>510692897062.655</v>
-      </c>
-      <c r="BV5" s="32">
+        <v>344078908679.425</v>
+      </c>
+      <c r="BV5" s="33">
         <f>BQ5*(1-$E5/$D5)</f>
         <v>14481963810.64</v>
       </c>
-      <c r="BW5" s="37"/>
-      <c r="BX5" s="39"/>
-      <c r="BY5" s="39"/>
-      <c r="BZ5" s="43"/>
-      <c r="CA5" s="43"/>
-      <c r="CB5" s="39"/>
+      <c r="BW5" s="40">
+        <v>4633833787</v>
+      </c>
+      <c r="BX5" s="42">
+        <f>BR5/$BW5</f>
+        <v>22.405796563123</v>
+      </c>
+      <c r="BY5" s="42">
+        <f>BS5/$BW5</f>
+        <v>49.9126866402983</v>
+      </c>
+      <c r="BZ5" s="42">
+        <f>BT5/$BW5</f>
+        <v>62.096322995513</v>
+      </c>
+      <c r="CA5" s="42">
+        <f>BU5/$BW5</f>
+        <v>74.2536147163331</v>
+      </c>
+      <c r="CB5" s="42">
+        <f>BV5/$BW5</f>
+        <v>3.1252661351964</v>
+      </c>
     </row>
     <row r="6" spans="1:80">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13">
         <v>33337724549.58</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="13">
         <v>23499848566.38</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="13">
         <v>98331095.55</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="19"/>
-      <c r="Y6" s="19"/>
-      <c r="Z6" s="19"/>
-      <c r="AA6" s="18"/>
-      <c r="AB6" s="18"/>
-      <c r="AC6" s="18"/>
-      <c r="AD6" s="18"/>
-      <c r="AE6" s="16"/>
-      <c r="AF6" s="16"/>
-      <c r="AG6" s="16"/>
-      <c r="AH6" s="21"/>
-      <c r="AI6" s="21"/>
-      <c r="AJ6" s="11"/>
-      <c r="AK6" s="24"/>
-      <c r="AL6" s="24"/>
-      <c r="AM6" s="28">
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="17"/>
+      <c r="AF6" s="17"/>
+      <c r="AG6" s="17"/>
+      <c r="AH6" s="22"/>
+      <c r="AI6" s="22"/>
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="25"/>
+      <c r="AL6" s="25"/>
+      <c r="AM6" s="29">
         <v>5000000000</v>
       </c>
-      <c r="AN6" s="27">
-        <v>0.0602</v>
-      </c>
-      <c r="AO6" s="23">
+      <c r="AN6" s="28">
+        <v>0.07</v>
+      </c>
+      <c r="AO6" s="24">
         <v>0.04</v>
       </c>
-      <c r="AP6" s="23">
+      <c r="AP6" s="24">
         <v>0.15</v>
       </c>
-      <c r="AQ6" s="11"/>
-      <c r="AR6" s="32">
+      <c r="AQ6" s="12"/>
+      <c r="AR6" s="33">
         <v>19813767427.18</v>
       </c>
-      <c r="AS6" s="11"/>
-      <c r="AT6" s="11"/>
-      <c r="AU6" s="32">
+      <c r="AS6" s="12"/>
+      <c r="AT6" s="12"/>
+      <c r="AU6" s="33">
         <v>5377818664.42</v>
       </c>
-      <c r="AV6" s="34">
+      <c r="AV6" s="35">
         <v>16216013.8</v>
       </c>
-      <c r="AW6" s="11"/>
-      <c r="AX6" s="11"/>
-      <c r="AY6" s="32">
+      <c r="AW6" s="12"/>
+      <c r="AX6" s="12"/>
+      <c r="AY6" s="33">
         <v>4496708</v>
       </c>
-      <c r="AZ6" s="32">
+      <c r="AZ6" s="33">
         <f>SUM(AR6:AY6)</f>
         <v>25212298813.4</v>
       </c>
-      <c r="BA6" s="11"/>
-      <c r="BB6" s="15">
+      <c r="BA6" s="12"/>
+      <c r="BB6" s="16">
         <f>AM6/AN6</f>
-        <v>83056478405.3156</v>
-      </c>
-      <c r="BC6" s="16">
+        <v>71428571428.5714</v>
+      </c>
+      <c r="BC6" s="17">
         <f>AM6*(1+AO6)/(AN6-AO6)</f>
-        <v>257425742574.257</v>
-      </c>
-      <c r="BD6" s="16">
+        <v>173333333333.333</v>
+      </c>
+      <c r="BD6" s="17">
         <f>AM6*(1+AP6)/(1+AN6)+AM6*(1+AP6)^2/(1+AN6)^2+AM6*(1+AP6)^3/(1+AN6)^3+AM6*(1+AP6)^3*(1+AO6)/(1+AN6)^4/(AN6-AO6)</f>
-        <v>327568087513.837</v>
-      </c>
-      <c r="BE6" s="16">
+        <v>218470044841.938</v>
+      </c>
+      <c r="BE6" s="17">
         <f>AM6*(1+AP6)/(1+AN6)+AM6*(1+AP6)^2/(1+AN6)^2+AM6*(1+AP6)^3/(1+AN6)^3+AM6*(1+AP6)^4/(1+AN6)^4+AM6*(1+AP6)^5/(1+AN6)^5+AM6*(1+AP6)^5*(1+AO6)/(1+AN6)^6/(AN6-AO6)</f>
-        <v>396715221266.13</v>
-      </c>
-      <c r="BF6" s="35"/>
-      <c r="BG6" s="32">
+        <v>263509157396.683</v>
+      </c>
+      <c r="BF6" s="36"/>
+      <c r="BG6" s="33">
         <f>$AZ6+$BA6+BB6</f>
-        <v>108268777218.716</v>
-      </c>
-      <c r="BH6" s="32">
+        <v>96640870241.9714</v>
+      </c>
+      <c r="BH6" s="33">
         <f>$AZ6+$BA6+BC6</f>
-        <v>282638041387.657</v>
-      </c>
-      <c r="BI6" s="32">
+        <v>198545632146.733</v>
+      </c>
+      <c r="BI6" s="33">
         <f>$AZ6+$BA6+BD6</f>
-        <v>352780386327.237</v>
-      </c>
-      <c r="BJ6" s="32">
+        <v>243682343655.338</v>
+      </c>
+      <c r="BJ6" s="33">
         <f>$AZ6+$BA6+BE6</f>
-        <v>421927520079.53</v>
-      </c>
-      <c r="BK6" s="32">
+        <v>288721456210.083</v>
+      </c>
+      <c r="BK6" s="33">
         <f>$AZ6+$BA6+BF6</f>
         <v>25212298813.4</v>
       </c>
-      <c r="BL6" s="34">
+      <c r="BL6" s="35">
         <f>C6-D6</f>
         <v>9837875983.2</v>
       </c>
-      <c r="BM6" s="32">
+      <c r="BM6" s="33">
         <f>BG6-$BL6</f>
-        <v>98430901235.5156</v>
-      </c>
-      <c r="BN6" s="32">
+        <v>86802994258.7714</v>
+      </c>
+      <c r="BN6" s="33">
         <f>BH6-$BL6</f>
-        <v>272800165404.457</v>
-      </c>
-      <c r="BO6" s="32">
+        <v>188707756163.533</v>
+      </c>
+      <c r="BO6" s="33">
         <f>BI6-$BL6</f>
-        <v>342942510344.037</v>
-      </c>
-      <c r="BP6" s="32">
+        <v>233844467672.138</v>
+      </c>
+      <c r="BP6" s="33">
         <f>BJ6-$BL6</f>
-        <v>412089644096.33</v>
-      </c>
-      <c r="BQ6" s="32">
+        <v>278883580226.883</v>
+      </c>
+      <c r="BQ6" s="33">
         <f>BK6-$BL6</f>
         <v>15374422830.2</v>
       </c>
-      <c r="BR6" s="32">
+      <c r="BR6" s="33">
         <f>BM6*(1-$E6/$D6)</f>
-        <v>98019033970.6214</v>
-      </c>
-      <c r="BS6" s="32">
+        <v>86439781981.1104</v>
+      </c>
+      <c r="BS6" s="33">
         <f>BN6*(1-$E6/$D6)</f>
-        <v>271658679787.873</v>
-      </c>
-      <c r="BT6" s="32">
+        <v>187918140845.378</v>
+      </c>
+      <c r="BT6" s="33">
         <f>BO6*(1-$E6/$D6)</f>
-        <v>341507526086.264</v>
-      </c>
-      <c r="BU6" s="32">
+        <v>232865985507.474</v>
+      </c>
+      <c r="BU6" s="33">
         <f>BP6*(1-$E6/$D6)</f>
-        <v>410365325488.304</v>
-      </c>
-      <c r="BV6" s="32">
+        <v>277716639601.834</v>
+      </c>
+      <c r="BV6" s="33">
         <f>BQ6*(1-$E6/$D6)</f>
         <v>15310091188.3993</v>
       </c>
-      <c r="BW6" s="40">
+      <c r="BW6" s="43">
         <v>4212576169</v>
       </c>
-      <c r="BX6" s="41">
+      <c r="BX6" s="42">
         <f>BR6/$BW6</f>
-        <v>23.2681926778999</v>
-      </c>
-      <c r="BY6" s="41">
+        <v>20.5194585245042</v>
+      </c>
+      <c r="BY6" s="42">
         <f>BS6/$BW6</f>
-        <v>64.4875413261335</v>
-      </c>
-      <c r="BZ6" s="41">
+        <v>44.6088410764539</v>
+      </c>
+      <c r="BZ6" s="42">
         <f>BT6/$BW6</f>
-        <v>81.0685700117163</v>
-      </c>
-      <c r="CA6" s="41">
+        <v>55.2787596390815</v>
+      </c>
+      <c r="CA6" s="42">
         <f>BU6/$BW6</f>
-        <v>97.4143395929902</v>
-      </c>
-      <c r="CB6" s="41">
+        <v>65.9256066740176</v>
+      </c>
+      <c r="CB6" s="42">
         <f>BV6/$BW6</f>
         <v>3.63437729650208</v>
       </c>
     </row>
     <row r="7" spans="1:80">
-      <c r="A7" s="13">
+      <c r="A7" s="14">
         <v>2021</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="13">
         <v>33337724549.58</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="13">
         <v>23499848566.38</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="13">
         <v>98331095.55</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="16">
         <v>4582073.3</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="16">
         <v>4082874.6</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="16">
         <v>5456405.46</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="16">
         <v>7145253.84</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="16">
         <f>F7+G7+H7+I7</f>
         <v>21266607.2</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="16">
         <v>92600000</v>
       </c>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15">
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16">
         <v>1239133371.41</v>
       </c>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12">
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13">
         <v>104600000</v>
       </c>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12">
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13">
         <v>972021493.04</v>
       </c>
-      <c r="Z7" s="12">
+      <c r="Z7" s="13">
         <v>21395441.72</v>
       </c>
-      <c r="AA7" s="13"/>
-      <c r="AB7" s="13"/>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="12">
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="13">
         <v>54070173.8</v>
       </c>
-      <c r="AE7" s="12">
+      <c r="AE7" s="13">
         <f>SUM(K7:T7)</f>
         <v>1331733371.41</v>
       </c>
-      <c r="AF7" s="12">
+      <c r="AF7" s="13">
         <f>SUM(U7:AD7)</f>
         <v>1152087108.56</v>
       </c>
-      <c r="AG7" s="15">
+      <c r="AG7" s="16">
         <f>(AE7+AF7)/2</f>
         <v>1241910239.985</v>
       </c>
-      <c r="AH7" s="22">
+      <c r="AH7" s="23">
         <f>F7/AG7</f>
         <v>0.00368953661261006</v>
       </c>
-      <c r="AI7" s="22">
+      <c r="AI7" s="23">
         <f>J7/AG7</f>
         <v>0.0171241097104223</v>
       </c>
-      <c r="AJ7" s="23">
+      <c r="AJ7" s="24">
         <v>0.25</v>
       </c>
-      <c r="AK7" s="23">
+      <c r="AK7" s="24">
         <f>(C7-D7)/C7</f>
         <v>0.295097404400503</v>
       </c>
-      <c r="AL7" s="23">
+      <c r="AL7" s="24">
         <f>D7/C7</f>
         <v>0.704902595599497</v>
       </c>
-      <c r="AM7" s="28">
+      <c r="AM7" s="29">
         <v>4174523194.45556</v>
       </c>
-      <c r="AN7" s="23">
-        <f>AI7*(1-AJ7)*AK7+0.08*AL7</f>
-        <v>0.0601821678941211</v>
-      </c>
-      <c r="AO7" s="23">
+      <c r="AN7" s="24">
+        <v>0.07</v>
+      </c>
+      <c r="AO7" s="24">
         <v>0.04</v>
       </c>
-      <c r="AP7" s="23">
+      <c r="AP7" s="24">
         <v>0.15</v>
       </c>
-      <c r="AQ7" s="33"/>
-      <c r="AR7" s="32">
+      <c r="AQ7" s="34"/>
+      <c r="AR7" s="33">
         <v>19813767427.18</v>
       </c>
-      <c r="AS7" s="34"/>
-      <c r="AT7" s="34"/>
-      <c r="AU7" s="32">
+      <c r="AS7" s="35"/>
+      <c r="AT7" s="35"/>
+      <c r="AU7" s="33">
         <v>5377818664.42</v>
       </c>
-      <c r="AV7" s="34">
+      <c r="AV7" s="35">
         <v>16216013.8</v>
       </c>
-      <c r="AW7" s="34"/>
-      <c r="AX7" s="34"/>
-      <c r="AY7" s="32">
+      <c r="AW7" s="35"/>
+      <c r="AX7" s="35"/>
+      <c r="AY7" s="33">
         <v>4496708</v>
       </c>
-      <c r="AZ7" s="32">
+      <c r="AZ7" s="33">
         <f>SUM(AR7:AY7)</f>
         <v>25212298813.4</v>
       </c>
-      <c r="BA7" s="33">
+      <c r="BA7" s="34">
         <v>0</v>
       </c>
-      <c r="BB7" s="15">
+      <c r="BB7" s="16">
         <f>AM7/AN7</f>
-        <v>69364785957.8577</v>
-      </c>
-      <c r="BC7" s="16">
+        <v>59636045635.0794</v>
+      </c>
+      <c r="BC7" s="17">
         <f>AM7*(1+AO7)/(AN7-AO7)</f>
-        <v>215115846078.083</v>
-      </c>
-      <c r="BD7" s="16">
+        <v>144716804074.459</v>
+      </c>
+      <c r="BD7" s="17">
         <f>AM7*(1+AP7)/(1+AN7)+AM7*(1+AP7)^2/(1+AN7)^2+AM7*(1+AP7)^3/(1+AN7)^3+AM7*(1+AP7)^3*(1+AO7)/(1+AN7)^4/(AN7-AO7)</f>
-        <v>273734643048.848</v>
-      </c>
-      <c r="BE7" s="16">
+        <v>182401653897.283</v>
+      </c>
+      <c r="BE7" s="17">
         <f>AM7*(1+AP7)/(1+AN7)+AM7*(1+AP7)^2/(1+AN7)^2+AM7*(1+AP7)^3/(1+AN7)^3+AM7*(1+AP7)^4/(1+AN7)^4+AM7*(1+AP7)^5/(1+AN7)^5+AM7*(1+AP7)^5*(1+AO7)/(1+AN7)^6/(AN7-AO7)</f>
-        <v>331520512449.728</v>
-      </c>
-      <c r="BF7" s="35"/>
-      <c r="BG7" s="32">
+        <v>220005017900.779</v>
+      </c>
+      <c r="BF7" s="36"/>
+      <c r="BG7" s="33">
         <f>$AZ7+$BA7+BB7</f>
-        <v>94577084771.2577</v>
-      </c>
-      <c r="BH7" s="32">
+        <v>84848344448.4794</v>
+      </c>
+      <c r="BH7" s="33">
         <f>$AZ7+$BA7+BC7</f>
-        <v>240328144891.483</v>
-      </c>
-      <c r="BI7" s="32">
+        <v>169929102887.859</v>
+      </c>
+      <c r="BI7" s="33">
         <f>$AZ7+$BA7+BD7</f>
-        <v>298946941862.248</v>
-      </c>
-      <c r="BJ7" s="32">
+        <v>207613952710.683</v>
+      </c>
+      <c r="BJ7" s="33">
         <f>$AZ7+$BA7+BE7</f>
-        <v>356732811263.128</v>
-      </c>
-      <c r="BK7" s="32">
+        <v>245217316714.179</v>
+      </c>
+      <c r="BK7" s="33">
         <f>$AZ7+$BA7+BF7</f>
         <v>25212298813.4</v>
       </c>
-      <c r="BL7" s="34">
+      <c r="BL7" s="35">
         <f>C7-D7</f>
         <v>9837875983.2</v>
       </c>
-      <c r="BM7" s="32">
+      <c r="BM7" s="33">
         <f>BG7-$BL7</f>
-        <v>84739208788.0577</v>
-      </c>
-      <c r="BN7" s="32">
+        <v>75010468465.2794</v>
+      </c>
+      <c r="BN7" s="33">
         <f>BH7-$BL7</f>
-        <v>230490268908.283</v>
-      </c>
-      <c r="BO7" s="32">
+        <v>160091226904.659</v>
+      </c>
+      <c r="BO7" s="33">
         <f>BI7-$BL7</f>
-        <v>289109065879.048</v>
-      </c>
-      <c r="BP7" s="32">
+        <v>197776076727.483</v>
+      </c>
+      <c r="BP7" s="33">
         <f>BJ7-$BL7</f>
-        <v>346894935279.928</v>
-      </c>
-      <c r="BQ7" s="32">
+        <v>235379440730.979</v>
+      </c>
+      <c r="BQ7" s="33">
         <f>BK7-$BL7</f>
         <v>15374422830.2</v>
       </c>
-      <c r="BR7" s="32">
+      <c r="BR7" s="33">
         <f>BM7*(1-$E7/$D7)</f>
-        <v>84384632067.5893</v>
-      </c>
-      <c r="BS7" s="32">
+        <v>74696599994.1242</v>
+      </c>
+      <c r="BS7" s="33">
         <f>BN7*(1-$E7/$D7)</f>
-        <v>229525821814.45</v>
-      </c>
-      <c r="BT7" s="32">
+        <v>159421352556.958</v>
+      </c>
+      <c r="BT7" s="33">
         <f>BO7*(1-$E7/$D7)</f>
-        <v>287899338458.847</v>
-      </c>
-      <c r="BU7" s="32">
+        <v>196948516573.499</v>
+      </c>
+      <c r="BU7" s="33">
         <f>BP7*(1-$E7/$D7)</f>
-        <v>345443412776.263</v>
-      </c>
-      <c r="BV7" s="32">
+        <v>234394535734.181</v>
+      </c>
+      <c r="BV7" s="33">
         <f>BQ7*(1-$E7/$D7)</f>
         <v>15310091188.3993</v>
       </c>
-      <c r="BW7" s="40">
+      <c r="BW7" s="43">
         <v>4212576170</v>
       </c>
-      <c r="BX7" s="41">
+      <c r="BX7" s="42">
         <f>BR7/$BW7</f>
-        <v>20.0315979254066</v>
-      </c>
-      <c r="BY7" s="41">
+        <v>17.731809937605</v>
+      </c>
+      <c r="BY7" s="42">
         <f>BS7/$BW7</f>
-        <v>54.4858567659917</v>
-      </c>
-      <c r="BZ7" s="41">
+        <v>37.8441471734761</v>
+      </c>
+      <c r="BZ7" s="42">
         <f>BT7/$BW7</f>
-        <v>68.3428208394501</v>
-      </c>
-      <c r="CA7" s="41">
+        <v>46.7525116758896</v>
+      </c>
+      <c r="CA7" s="42">
         <f>BU7/$BW7</f>
-        <v>82.0028882175116</v>
-      </c>
-      <c r="CB7" s="41">
+        <v>55.6416136528117</v>
+      </c>
+      <c r="CB7" s="42">
         <f>BV7/$BW7</f>
         <v>3.63437729563934</v>
       </c>
     </row>
     <row r="8" spans="1:80">
-      <c r="A8" s="13">
+      <c r="A8" s="14">
         <v>2021</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="12"/>
-      <c r="AD8" s="12"/>
-      <c r="AE8" s="12"/>
-      <c r="AF8" s="12"/>
-      <c r="AG8" s="15"/>
-      <c r="AH8" s="22"/>
-      <c r="AI8" s="22"/>
-      <c r="AJ8" s="23"/>
-      <c r="AK8" s="23"/>
-      <c r="AL8" s="23"/>
-      <c r="AM8" s="29"/>
-      <c r="AN8" s="23"/>
-      <c r="AO8" s="23"/>
-      <c r="AP8" s="23"/>
-      <c r="AQ8" s="33"/>
-      <c r="AR8" s="32"/>
-      <c r="AS8" s="33"/>
-      <c r="AT8" s="33"/>
-      <c r="AU8" s="32"/>
-      <c r="AV8" s="34"/>
-      <c r="AW8" s="34"/>
-      <c r="AX8" s="33"/>
-      <c r="AY8" s="32"/>
-      <c r="AZ8" s="32"/>
-      <c r="BA8" s="34"/>
-      <c r="BB8" s="15"/>
-      <c r="BC8" s="16"/>
-      <c r="BD8" s="16"/>
-      <c r="BE8" s="16"/>
-      <c r="BF8" s="35"/>
-      <c r="BG8" s="32"/>
-      <c r="BH8" s="32"/>
-      <c r="BI8" s="32"/>
-      <c r="BJ8" s="32"/>
-      <c r="BK8" s="32"/>
-      <c r="BL8" s="34"/>
-      <c r="BM8" s="32"/>
-      <c r="BN8" s="32"/>
-      <c r="BO8" s="32"/>
-      <c r="BP8" s="32"/>
-      <c r="BQ8" s="32"/>
-      <c r="BR8" s="32"/>
-      <c r="BS8" s="32"/>
-      <c r="BT8" s="32"/>
-      <c r="BU8" s="32"/>
-      <c r="BV8" s="32"/>
-      <c r="BW8" s="42"/>
-      <c r="BX8" s="41"/>
-      <c r="BY8" s="41"/>
-      <c r="BZ8" s="41"/>
-      <c r="CA8" s="41"/>
-      <c r="CB8" s="41"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="13"/>
+      <c r="AE8" s="13"/>
+      <c r="AF8" s="13"/>
+      <c r="AG8" s="16"/>
+      <c r="AH8" s="23"/>
+      <c r="AI8" s="23"/>
+      <c r="AJ8" s="24"/>
+      <c r="AK8" s="24"/>
+      <c r="AL8" s="24"/>
+      <c r="AM8" s="30"/>
+      <c r="AN8" s="24"/>
+      <c r="AO8" s="24"/>
+      <c r="AP8" s="24"/>
+      <c r="AQ8" s="34"/>
+      <c r="AR8" s="33"/>
+      <c r="AS8" s="34"/>
+      <c r="AT8" s="34"/>
+      <c r="AU8" s="33"/>
+      <c r="AV8" s="35"/>
+      <c r="AW8" s="35"/>
+      <c r="AX8" s="34"/>
+      <c r="AY8" s="33"/>
+      <c r="AZ8" s="33"/>
+      <c r="BA8" s="35"/>
+      <c r="BB8" s="16"/>
+      <c r="BC8" s="17"/>
+      <c r="BD8" s="17"/>
+      <c r="BE8" s="17"/>
+      <c r="BF8" s="36"/>
+      <c r="BG8" s="33"/>
+      <c r="BH8" s="33"/>
+      <c r="BI8" s="33"/>
+      <c r="BJ8" s="33"/>
+      <c r="BK8" s="33"/>
+      <c r="BL8" s="35"/>
+      <c r="BM8" s="33"/>
+      <c r="BN8" s="33"/>
+      <c r="BO8" s="33"/>
+      <c r="BP8" s="33"/>
+      <c r="BQ8" s="33"/>
+      <c r="BR8" s="33"/>
+      <c r="BS8" s="33"/>
+      <c r="BT8" s="33"/>
+      <c r="BU8" s="33"/>
+      <c r="BV8" s="33"/>
+      <c r="BW8" s="44"/>
+      <c r="BX8" s="42"/>
+      <c r="BY8" s="42"/>
+      <c r="BZ8" s="42"/>
+      <c r="CA8" s="42"/>
+      <c r="CB8" s="42"/>
     </row>
     <row r="9" spans="1:80">
-      <c r="A9" s="13">
+      <c r="A9" s="14">
         <v>2021</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="13">
         <v>13899456422.16</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="13">
         <v>7658307846.92</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="13">
         <v>35668094.06</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="16">
         <v>77737.82</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="16">
         <v>9999166.62</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="16">
         <v>9569135.05</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="16">
         <v>6209153.06</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="16">
         <f>F9+G9+H9+I9</f>
         <v>25855192.55</v>
       </c>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15">
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16">
         <v>94521442.67</v>
       </c>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12">
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13">
         <v>157420210.81</v>
       </c>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="12">
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13">
         <v>110605272.21</v>
       </c>
-      <c r="Z9" s="12">
+      <c r="Z9" s="13">
         <v>29191343.78</v>
       </c>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="12"/>
-      <c r="AC9" s="12"/>
-      <c r="AD9" s="12">
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13">
         <v>0</v>
       </c>
-      <c r="AE9" s="12">
+      <c r="AE9" s="13">
         <f t="shared" ref="AE9:AE14" si="0">SUM(K9:T9)</f>
         <v>251941653.48</v>
       </c>
-      <c r="AF9" s="12">
+      <c r="AF9" s="13">
         <f t="shared" ref="AF9:AF14" si="1">SUM(U9:AD9)</f>
         <v>139796615.99</v>
       </c>
-      <c r="AG9" s="15">
+      <c r="AG9" s="16">
         <f t="shared" ref="AG9:AG14" si="2">(AE9+AF9)/2</f>
         <v>195869134.735</v>
       </c>
-      <c r="AH9" s="22">
+      <c r="AH9" s="23">
         <f t="shared" ref="AH9:AH14" si="3">F9/AG9</f>
         <v>0.000396886523776066</v>
       </c>
-      <c r="AI9" s="22">
+      <c r="AI9" s="23">
         <f t="shared" ref="AI9:AI14" si="4">J9/AG9</f>
         <v>0.132002383045091</v>
       </c>
-      <c r="AJ9" s="23">
+      <c r="AJ9" s="24">
         <v>0.25</v>
       </c>
-      <c r="AK9" s="23">
+      <c r="AK9" s="24">
         <f t="shared" ref="AK9:AK14" si="5">(C9-D9)/C9</f>
         <v>0.449021054182356</v>
       </c>
-      <c r="AL9" s="23">
+      <c r="AL9" s="24">
         <f t="shared" ref="AL9:AL14" si="6">D9/C9</f>
         <v>0.550978945817644</v>
       </c>
-      <c r="AM9" s="28">
+      <c r="AM9" s="29">
         <v>1312404990.24778</v>
       </c>
-      <c r="AN9" s="23">
+      <c r="AN9" s="24">
         <f t="shared" ref="AN9:AN14" si="7">AI9*(1-AJ9)*AK9+0.08*AL9</f>
         <v>0.0885322025575289</v>
       </c>
-      <c r="AO9" s="23">
+      <c r="AO9" s="24">
         <v>0.04</v>
       </c>
-      <c r="AP9" s="23">
+      <c r="AP9" s="24">
         <v>0.15</v>
       </c>
-      <c r="AQ9" s="33"/>
-      <c r="AR9" s="32">
+      <c r="AQ9" s="34"/>
+      <c r="AR9" s="33">
         <v>2654052417.47</v>
       </c>
-      <c r="AS9" s="33"/>
-      <c r="AT9" s="33"/>
-      <c r="AU9" s="32">
+      <c r="AS9" s="34"/>
+      <c r="AT9" s="34"/>
+      <c r="AU9" s="33">
         <v>180312742.31</v>
       </c>
-      <c r="AV9" s="34">
+      <c r="AV9" s="35">
         <v>12159756.67</v>
       </c>
-      <c r="AW9" s="34"/>
-      <c r="AX9" s="33"/>
-      <c r="AY9" s="32"/>
-      <c r="AZ9" s="32">
+      <c r="AW9" s="35"/>
+      <c r="AX9" s="34"/>
+      <c r="AY9" s="33"/>
+      <c r="AZ9" s="33">
         <f>SUM(AR9:AY9)</f>
         <v>2846524916.45</v>
       </c>
-      <c r="BA9" s="34">
+      <c r="BA9" s="35">
         <f>298191205.49+65600611.64</f>
         <v>363791817.13</v>
       </c>
-      <c r="BB9" s="15">
+      <c r="BB9" s="16">
         <f>AM9/AN9</f>
         <v>14824040883.8238</v>
       </c>
-      <c r="BC9" s="16">
+      <c r="BC9" s="17">
         <f>AM9*(1+AO9)/(AN9-AO9)</f>
         <v>28123619327.5953</v>
       </c>
-      <c r="BD9" s="16">
+      <c r="BD9" s="17">
         <f>AM9*(1+AP9)/(1+AN9)+AM9*(1+AP9)^2/(1+AN9)^2+AM9*(1+AP9)^3/(1+AN9)^3+AM9*(1+AP9)^3*(1+AO9)/(1+AN9)^4/(AN9-AO9)</f>
         <v>34863737484.9391</v>
       </c>
-      <c r="BE9" s="16">
+      <c r="BE9" s="17">
         <f>AM9*(1+AP9)/(1+AN9)+AM9*(1+AP9)^2/(1+AN9)^2+AM9*(1+AP9)^3/(1+AN9)^3+AM9*(1+AP9)^4/(1+AN9)^4+AM9*(1+AP9)^5/(1+AN9)^5+AM9*(1+AP9)^5*(1+AO9)/(1+AN9)^6/(AN9-AO9)</f>
         <v>41763637764.36</v>
       </c>
-      <c r="BF9" s="35"/>
-      <c r="BG9" s="32">
+      <c r="BF9" s="36"/>
+      <c r="BG9" s="33">
         <f>$AZ9+$BA9+BB9</f>
         <v>18034357617.4038</v>
       </c>
-      <c r="BH9" s="32">
+      <c r="BH9" s="33">
         <f>$AZ9+$BA9+BC9</f>
         <v>31333936061.1753</v>
       </c>
-      <c r="BI9" s="32">
+      <c r="BI9" s="33">
         <f>$AZ9+$BA9+BD9</f>
         <v>38074054218.5191</v>
       </c>
-      <c r="BJ9" s="32">
+      <c r="BJ9" s="33">
         <f>$AZ9+$BA9+BE9</f>
         <v>44973954497.94</v>
       </c>
-      <c r="BK9" s="32">
+      <c r="BK9" s="33">
         <f>$AZ9+$BA9+BF9</f>
         <v>3210316733.58</v>
       </c>
-      <c r="BL9" s="34">
+      <c r="BL9" s="35">
         <f>C9-D9</f>
         <v>6241148575.24</v>
       </c>
-      <c r="BM9" s="32">
+      <c r="BM9" s="33">
         <f>BG9-$BL9</f>
         <v>11793209042.1638</v>
       </c>
-      <c r="BN9" s="32">
+      <c r="BN9" s="33">
         <f>BH9-$BL9</f>
         <v>25092787485.9353</v>
       </c>
-      <c r="BO9" s="32">
+      <c r="BO9" s="33">
         <f>BI9-$BL9</f>
         <v>31832905643.2791</v>
       </c>
-      <c r="BP9" s="32">
+      <c r="BP9" s="33">
         <f>BJ9-$BL9</f>
         <v>38732805922.7</v>
       </c>
-      <c r="BQ9" s="32">
+      <c r="BQ9" s="33">
         <f>BK9-$BL9</f>
         <v>-3030831841.66</v>
       </c>
-      <c r="BR9" s="32">
+      <c r="BR9" s="33">
         <f>BM9*(1-$E9/$D9)</f>
         <v>11738282902.1087</v>
       </c>
-      <c r="BS9" s="32">
+      <c r="BS9" s="33">
         <f>BN9*(1-$E9/$D9)</f>
         <v>24975919383.7166</v>
       </c>
-      <c r="BT9" s="32">
+      <c r="BT9" s="33">
         <f>BO9*(1-$E9/$D9)</f>
         <v>31684645858.5612</v>
       </c>
-      <c r="BU9" s="32">
+      <c r="BU9" s="33">
         <f>BP9*(1-$E9/$D9)</f>
         <v>38552410280.1542</v>
       </c>
-      <c r="BV9" s="32">
+      <c r="BV9" s="33">
         <f>BQ9*(1-$E9/$D9)</f>
         <v>-3016715930.23815</v>
       </c>
-      <c r="BW9" s="42">
+      <c r="BW9" s="44">
         <v>808678476</v>
       </c>
-      <c r="BX9" s="41">
+      <c r="BX9" s="42">
         <f>BR9/$BW9</f>
         <v>14.5153893054879</v>
       </c>
-      <c r="BY9" s="41">
+      <c r="BY9" s="42">
         <f>BS9/$BW9</f>
         <v>30.8848573629115</v>
       </c>
-      <c r="BZ9" s="41">
+      <c r="BZ9" s="42">
         <f>BT9/$BW9</f>
         <v>39.1807706015428</v>
       </c>
-      <c r="CA9" s="41">
+      <c r="CA9" s="42">
         <f>BU9/$BW9</f>
         <v>47.673347843815</v>
       </c>
-      <c r="CB9" s="41">
+      <c r="CB9" s="42">
         <f>BV9/$BW9</f>
         <v>-3.7304268875312</v>
       </c>
     </row>
     <row r="10" spans="1:80">
-      <c r="A10" s="13">
+      <c r="A10" s="14">
         <v>2021</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="13"/>
-      <c r="AA10" s="13"/>
-      <c r="AB10" s="13"/>
-      <c r="AC10" s="13"/>
-      <c r="AD10" s="13"/>
-      <c r="AE10" s="12">
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF10" s="12">
+      <c r="AF10" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AG10" s="15">
+      <c r="AG10" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AH10" s="22" t="e">
+      <c r="AH10" s="23" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI10" s="22" t="e">
+      <c r="AI10" s="23" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ10" s="23">
+      <c r="AJ10" s="24">
         <v>0.25</v>
       </c>
-      <c r="AK10" s="23" t="e">
+      <c r="AK10" s="24" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL10" s="23" t="e">
+      <c r="AL10" s="24" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM10" s="29"/>
-      <c r="AN10" s="23" t="e">
+      <c r="AM10" s="30"/>
+      <c r="AN10" s="24" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO10" s="23">
+      <c r="AO10" s="24">
         <v>0.04</v>
       </c>
-      <c r="AP10" s="23">
+      <c r="AP10" s="24">
         <v>0.16</v>
       </c>
-      <c r="AQ10" s="33"/>
-      <c r="AR10" s="32"/>
-      <c r="AS10" s="33"/>
-      <c r="AT10" s="33"/>
-      <c r="AU10" s="32"/>
-      <c r="AV10" s="33"/>
-      <c r="AW10" s="33"/>
-      <c r="AX10" s="33"/>
-      <c r="AY10" s="32"/>
-      <c r="AZ10" s="32"/>
-      <c r="BA10" s="33"/>
-      <c r="BB10" s="15" t="e">
+      <c r="AQ10" s="34"/>
+      <c r="AR10" s="33"/>
+      <c r="AS10" s="34"/>
+      <c r="AT10" s="34"/>
+      <c r="AU10" s="33"/>
+      <c r="AV10" s="34"/>
+      <c r="AW10" s="34"/>
+      <c r="AX10" s="34"/>
+      <c r="AY10" s="33"/>
+      <c r="AZ10" s="33"/>
+      <c r="BA10" s="34"/>
+      <c r="BB10" s="16" t="e">
         <f>AM10/AN10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BC10" s="16" t="e">
+      <c r="BC10" s="17" t="e">
         <f>AM10*(1+AO10)/(AN10-AO10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BD10" s="16" t="e">
+      <c r="BD10" s="17" t="e">
         <f>AM10*(1+AP10)/(1+AN10)+AM10*(1+AP10)^2/(1+AN10)^2+AM10*(1+AP10)^3/(1+AN10)^3+AM10*(1+AP10)^3*(1+AO10)/(1+AN10)^4/(AN10-AO10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BE10" s="16" t="e">
+      <c r="BE10" s="17" t="e">
         <f>AM10*(1+AP10)/(1+AN10)+AM10*(1+AP10)^2/(1+AN10)^2+AM10*(1+AP10)^3/(1+AN10)^3+AM10*(1+AP10)^4/(1+AN10)^4+AM10*(1+AP10)^5/(1+AN10)^5+AM10*(1+AP10)^5*(1+AO10)/(1+AN10)^6/(AN10-AO10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BF10" s="35"/>
-      <c r="BG10" s="32" t="e">
+      <c r="BF10" s="36"/>
+      <c r="BG10" s="33" t="e">
         <f>$AZ10+$BA10+BB10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BH10" s="32" t="e">
+      <c r="BH10" s="33" t="e">
         <f>$AZ10+$BA10+BC10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BI10" s="32" t="e">
+      <c r="BI10" s="33" t="e">
         <f>$AZ10+$BA10+BD10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BJ10" s="32" t="e">
+      <c r="BJ10" s="33" t="e">
         <f>$AZ10+$BA10+BE10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BK10" s="32">
+      <c r="BK10" s="33">
         <f>$AZ10+$BA10+BF10</f>
         <v>0</v>
       </c>
-      <c r="BL10" s="34">
+      <c r="BL10" s="35">
         <f>C10-D10</f>
         <v>0</v>
       </c>
-      <c r="BM10" s="32" t="e">
+      <c r="BM10" s="33" t="e">
         <f>BG10-$BL10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BN10" s="32" t="e">
+      <c r="BN10" s="33" t="e">
         <f>BH10-$BL10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BO10" s="32" t="e">
+      <c r="BO10" s="33" t="e">
         <f>BI10-$BL10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BP10" s="32" t="e">
+      <c r="BP10" s="33" t="e">
         <f>BJ10-$BL10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BQ10" s="32">
+      <c r="BQ10" s="33">
         <f>BK10-$BL10</f>
         <v>0</v>
       </c>
-      <c r="BR10" s="32" t="e">
+      <c r="BR10" s="33" t="e">
         <f>BM10*(1-$E10/$D10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BS10" s="32" t="e">
+      <c r="BS10" s="33" t="e">
         <f>BN10*(1-$E10/$D10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BT10" s="32" t="e">
+      <c r="BT10" s="33" t="e">
         <f>BO10*(1-$E10/$D10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BU10" s="32" t="e">
+      <c r="BU10" s="33" t="e">
         <f>BP10*(1-$E10/$D10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BV10" s="32" t="e">
+      <c r="BV10" s="33" t="e">
         <f>BQ10*(1-$E10/$D10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BW10" s="33"/>
-      <c r="BX10" s="41" t="e">
+      <c r="BW10" s="43"/>
+      <c r="BX10" s="42" t="e">
         <f>BR10/$BW10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BY10" s="41" t="e">
+      <c r="BY10" s="42" t="e">
         <f>BS10/$BW10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BZ10" s="41" t="e">
+      <c r="BZ10" s="42" t="e">
         <f>BT10/$BW10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="CA10" s="41" t="e">
+      <c r="CA10" s="42" t="e">
         <f>BU10/$BW10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="CB10" s="41" t="e">
+      <c r="CB10" s="42" t="e">
         <f>BV10/$BW10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:80">
-      <c r="A11" s="13">
+      <c r="A11" s="14">
         <v>2021</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="13">
         <v>6369307875.78</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="13">
         <v>5117150498.28</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="13">
         <v>80966017.91</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="16">
         <v>8092057.32</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15">
+      <c r="G11" s="16"/>
+      <c r="H11" s="16">
         <v>2350868.48</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="16">
         <v>1248588.78</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="16">
         <f>F11+G11+H11+I11</f>
         <v>11691514.58</v>
       </c>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15">
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16">
         <v>64978916.01</v>
       </c>
-      <c r="P11" s="15">
+      <c r="P11" s="16">
         <v>170845170.78</v>
       </c>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="12">
+      <c r="Q11" s="16"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="13">
         <v>61486444.69</v>
       </c>
-      <c r="Z11" s="12">
+      <c r="Z11" s="13">
         <v>2016748.68</v>
       </c>
-      <c r="AA11" s="13"/>
-      <c r="AB11" s="13"/>
-      <c r="AC11" s="13"/>
-      <c r="AD11" s="13"/>
-      <c r="AE11" s="12">
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="14"/>
+      <c r="AE11" s="13">
         <f t="shared" si="0"/>
         <v>235824086.79</v>
       </c>
-      <c r="AF11" s="12">
+      <c r="AF11" s="13">
         <f t="shared" si="1"/>
         <v>63503193.37</v>
       </c>
-      <c r="AG11" s="15">
+      <c r="AG11" s="16">
         <f t="shared" si="2"/>
         <v>149663640.08</v>
       </c>
-      <c r="AH11" s="22">
+      <c r="AH11" s="23">
         <f t="shared" si="3"/>
         <v>0.0540682915080412</v>
       </c>
-      <c r="AI11" s="22">
+      <c r="AI11" s="23">
         <f t="shared" si="4"/>
         <v>0.0781186036484915</v>
       </c>
-      <c r="AJ11" s="23">
+      <c r="AJ11" s="24">
         <v>0.25</v>
       </c>
-      <c r="AK11" s="23">
+      <c r="AK11" s="24">
         <f t="shared" si="5"/>
         <v>0.196592377369834</v>
       </c>
-      <c r="AL11" s="23">
+      <c r="AL11" s="24">
         <f t="shared" si="6"/>
         <v>0.803407622630166</v>
       </c>
-      <c r="AM11" s="30">
+      <c r="AM11" s="31">
         <v>278344963.561111</v>
       </c>
-      <c r="AN11" s="23">
+      <c r="AN11" s="24">
         <f t="shared" si="7"/>
         <v>0.0757907513164648</v>
       </c>
-      <c r="AO11" s="23">
+      <c r="AO11" s="24">
         <v>0.04</v>
       </c>
-      <c r="AP11" s="23">
+      <c r="AP11" s="24">
         <v>0.19</v>
       </c>
-      <c r="AQ11" s="33"/>
-      <c r="AR11" s="32">
+      <c r="AQ11" s="34"/>
+      <c r="AR11" s="33">
         <v>1829782947.1</v>
       </c>
-      <c r="AS11" s="33"/>
-      <c r="AT11" s="33"/>
-      <c r="AU11" s="32">
+      <c r="AS11" s="34"/>
+      <c r="AT11" s="34"/>
+      <c r="AU11" s="33">
         <v>424541.21</v>
       </c>
-      <c r="AV11" s="34">
+      <c r="AV11" s="35">
         <v>3113131.56</v>
       </c>
-      <c r="AW11" s="33"/>
-      <c r="AX11" s="33"/>
-      <c r="AY11" s="32">
+      <c r="AW11" s="34"/>
+      <c r="AX11" s="34"/>
+      <c r="AY11" s="33">
         <v>8194517.48</v>
       </c>
-      <c r="AZ11" s="32">
+      <c r="AZ11" s="33">
         <f>SUM(AR11:AY11)</f>
         <v>1841515137.35</v>
       </c>
-      <c r="BA11" s="34">
+      <c r="BA11" s="35">
         <v>272631920.44</v>
       </c>
-      <c r="BB11" s="15">
+      <c r="BB11" s="16">
         <f>AM11/AN11</f>
         <v>3672545247.62368</v>
       </c>
-      <c r="BC11" s="16">
+      <c r="BC11" s="17">
         <f>AM11*(1+AO11)/(AN11-AO11)</f>
         <v>8088088443.40708</v>
       </c>
-      <c r="BD11" s="16">
+      <c r="BD11" s="17">
         <f>AM11*(1+AP11)/(1+AN11)+AM11*(1+AP11)^2/(1+AN11)^2+AM11*(1+AP11)^3/(1+AN11)^3+AM11*(1+AP11)^3*(1+AO11)/(1+AN11)^4/(AN11-AO11)</f>
         <v>11201179864.2188</v>
       </c>
-      <c r="BE11" s="16">
+      <c r="BE11" s="17">
         <f>AM11*(1+AP11)/(1+AN11)+AM11*(1+AP11)^2/(1+AN11)^2+AM11*(1+AP11)^3/(1+AN11)^3+AM11*(1+AP11)^4/(1+AN11)^4+AM11*(1+AP11)^5/(1+AN11)^5+AM11*(1+AP11)^5*(1+AO11)/(1+AN11)^6/(AN11-AO11)</f>
         <v>14354204042.2797</v>
       </c>
-      <c r="BF11" s="35"/>
-      <c r="BG11" s="32">
+      <c r="BF11" s="36"/>
+      <c r="BG11" s="33">
         <f>$AZ11+$BA11+BB11</f>
         <v>5786692305.41368</v>
       </c>
-      <c r="BH11" s="32">
+      <c r="BH11" s="33">
         <f>$AZ11+$BA11+BC11</f>
         <v>10202235501.1971</v>
       </c>
-      <c r="BI11" s="32">
+      <c r="BI11" s="33">
         <f>$AZ11+$BA11+BD11</f>
         <v>13315326922.0088</v>
       </c>
-      <c r="BJ11" s="32">
+      <c r="BJ11" s="33">
         <f>$AZ11+$BA11+BE11</f>
         <v>16468351100.0697</v>
       </c>
-      <c r="BK11" s="32">
+      <c r="BK11" s="33">
         <f>$AZ11+$BA11+BF11</f>
         <v>2114147057.79</v>
       </c>
-      <c r="BL11" s="34">
+      <c r="BL11" s="35">
         <f>C11-D11</f>
         <v>1252157377.5</v>
       </c>
-      <c r="BM11" s="32">
+      <c r="BM11" s="33">
         <f>BG11-$BL11</f>
         <v>4534534927.91368</v>
       </c>
-      <c r="BN11" s="32">
+      <c r="BN11" s="33">
         <f>BH11-$BL11</f>
         <v>8950078123.69708</v>
       </c>
-      <c r="BO11" s="32">
+      <c r="BO11" s="33">
         <f>BI11-$BL11</f>
         <v>12063169544.5088</v>
       </c>
-      <c r="BP11" s="32">
+      <c r="BP11" s="33">
         <f>BJ11-$BL11</f>
         <v>15216193722.5697</v>
       </c>
-      <c r="BQ11" s="32">
+      <c r="BQ11" s="33">
         <f>BK11-$BL11</f>
         <v>861989680.29</v>
       </c>
-      <c r="BR11" s="32">
+      <c r="BR11" s="33">
         <f>BM11*(1-$E11/$D11)</f>
         <v>4462787333.95287</v>
       </c>
-      <c r="BS11" s="32">
+      <c r="BS11" s="33">
         <f>BN11*(1-$E11/$D11)</f>
         <v>8808465680.22825</v>
       </c>
-      <c r="BT11" s="32">
+      <c r="BT11" s="33">
         <f>BO11*(1-$E11/$D11)</f>
         <v>11872300270.3453</v>
       </c>
-      <c r="BU11" s="32">
+      <c r="BU11" s="33">
         <f>BP11*(1-$E11/$D11)</f>
         <v>14975435782.408</v>
       </c>
-      <c r="BV11" s="32">
+      <c r="BV11" s="33">
         <f>BQ11*(1-$E11/$D11)</f>
         <v>848350864.719488</v>
       </c>
-      <c r="BW11" s="40">
+      <c r="BW11" s="43">
         <v>405950150</v>
       </c>
-      <c r="BX11" s="41">
+      <c r="BX11" s="42">
         <f>BR11/$BW11</f>
         <v>10.9934368393579</v>
       </c>
-      <c r="BY11" s="41">
+      <c r="BY11" s="42">
         <f>BS11/$BW11</f>
         <v>21.6983924755989</v>
       </c>
-      <c r="BZ11" s="41">
+      <c r="BZ11" s="42">
         <f>BT11/$BW11</f>
         <v>29.2457097758071</v>
       </c>
-      <c r="CA11" s="41">
+      <c r="CA11" s="42">
         <f>BU11/$BW11</f>
         <v>36.8898392632888</v>
       </c>
-      <c r="CB11" s="41">
+      <c r="CB11" s="42">
         <f>BV11/$BW11</f>
         <v>2.08979074085694</v>
       </c>
     </row>
     <row r="12" spans="1:80">
-      <c r="A12" s="13">
+      <c r="A12" s="14">
         <v>2021</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="13">
         <v>55127388384.03</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="13">
         <v>38757462615.81</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="13">
         <v>265952985.21</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="16">
         <v>68113113.6</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="16">
         <v>60219890.71</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="16">
         <v>139234655.8</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="16">
         <v>8207817.42</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="16">
         <f>F12+G12+H12+I12</f>
         <v>275775477.53</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K12" s="16">
         <v>1230010900</v>
       </c>
-      <c r="L12" s="15">
+      <c r="L12" s="16">
         <v>16507997</v>
       </c>
-      <c r="M12" s="15">
+      <c r="M12" s="16">
         <v>858612.35</v>
       </c>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15">
+      <c r="N12" s="16"/>
+      <c r="O12" s="16">
         <v>2454568919.68</v>
       </c>
-      <c r="P12" s="15">
+      <c r="P12" s="16">
         <v>177436405.49</v>
       </c>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="12">
+      <c r="Q12" s="16"/>
+      <c r="R12" s="13">
         <v>1819028586.29</v>
       </c>
-      <c r="S12" s="13"/>
-      <c r="T12" s="12">
+      <c r="S12" s="14"/>
+      <c r="T12" s="13">
         <v>1067102918.35</v>
       </c>
-      <c r="U12" s="12">
+      <c r="U12" s="13">
         <v>2261479950</v>
       </c>
-      <c r="V12" s="13"/>
-      <c r="W12" s="12">
+      <c r="V12" s="14"/>
+      <c r="W12" s="13">
         <v>3651608.46</v>
       </c>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="12">
+      <c r="X12" s="14"/>
+      <c r="Y12" s="13">
         <v>3289192625.17</v>
       </c>
-      <c r="Z12" s="12">
+      <c r="Z12" s="13">
         <v>396423607.05</v>
       </c>
-      <c r="AA12" s="13"/>
-      <c r="AB12" s="12">
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="13">
         <v>607140031.37</v>
       </c>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="12">
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="13">
         <v>1018978731.37</v>
       </c>
-      <c r="AE12" s="12">
+      <c r="AE12" s="13">
         <f t="shared" si="0"/>
         <v>6765514339.16</v>
       </c>
-      <c r="AF12" s="12">
+      <c r="AF12" s="13">
         <f t="shared" si="1"/>
         <v>7576866553.42</v>
       </c>
-      <c r="AG12" s="15">
+      <c r="AG12" s="16">
         <f t="shared" si="2"/>
         <v>7171190446.29</v>
       </c>
-      <c r="AH12" s="22">
+      <c r="AH12" s="23">
         <f t="shared" si="3"/>
         <v>0.00949815990945243</v>
       </c>
-      <c r="AI12" s="22">
+      <c r="AI12" s="23">
         <f t="shared" si="4"/>
         <v>0.0384560247835381</v>
       </c>
-      <c r="AJ12" s="23">
+      <c r="AJ12" s="24">
         <v>0.25</v>
       </c>
-      <c r="AK12" s="23">
+      <c r="AK12" s="24">
         <f t="shared" si="5"/>
         <v>0.296947238896633</v>
       </c>
-      <c r="AL12" s="23">
+      <c r="AL12" s="24">
         <f t="shared" si="6"/>
         <v>0.703052761103367</v>
       </c>
-      <c r="AM12" s="29">
+      <c r="AM12" s="30">
         <v>1402046451.92778</v>
       </c>
-      <c r="AN12" s="23">
+      <c r="AN12" s="24">
         <f t="shared" si="7"/>
         <v>0.0648087786720785</v>
       </c>
-      <c r="AO12" s="23">
+      <c r="AO12" s="24">
         <v>0.04</v>
       </c>
-      <c r="AP12" s="23">
+      <c r="AP12" s="24">
         <v>0.23</v>
       </c>
-      <c r="AQ12" s="33"/>
-      <c r="AR12" s="32">
+      <c r="AQ12" s="34"/>
+      <c r="AR12" s="33">
         <v>8238772782.53</v>
       </c>
-      <c r="AS12" s="33"/>
-      <c r="AT12" s="34">
+      <c r="AS12" s="34"/>
+      <c r="AT12" s="35">
         <v>229142186.76</v>
       </c>
-      <c r="AU12" s="32">
+      <c r="AU12" s="33">
         <v>527288380.38</v>
       </c>
-      <c r="AV12" s="34">
+      <c r="AV12" s="35">
         <v>339579823.47</v>
       </c>
-      <c r="AW12" s="33"/>
-      <c r="AX12" s="33"/>
-      <c r="AY12" s="32"/>
-      <c r="AZ12" s="32">
+      <c r="AW12" s="34"/>
+      <c r="AX12" s="34"/>
+      <c r="AY12" s="33"/>
+      <c r="AZ12" s="33">
         <f>SUM(AR12:AY12)+8714098195.97</f>
         <v>18048881369.11</v>
       </c>
-      <c r="BA12" s="34">
+      <c r="BA12" s="35">
         <v>678304556.75</v>
       </c>
-      <c r="BB12" s="15">
+      <c r="BB12" s="16">
         <f>AM12/AN12</f>
         <v>21633588545.4947</v>
       </c>
-      <c r="BC12" s="16">
+      <c r="BC12" s="17">
         <f>AM12*(1+AO12)/(AN12-AO12)</f>
         <v>58774691381.5619</v>
       </c>
-      <c r="BD12" s="16">
+      <c r="BD12" s="17">
         <f>AM12*(1+AP12)/(1+AN12)+AM12*(1+AP12)^2/(1+AN12)^2+AM12*(1+AP12)^3/(1+AN12)^3+AM12*(1+AP12)^3*(1+AO12)/(1+AN12)^4/(AN12-AO12)</f>
         <v>90729782373.1699</v>
       </c>
-      <c r="BE12" s="16">
+      <c r="BE12" s="17">
         <f>AM12*(1+AP12)/(1+AN12)+AM12*(1+AP12)^2/(1+AN12)^2+AM12*(1+AP12)^3/(1+AN12)^3+AM12*(1+AP12)^4/(1+AN12)^4+AM12*(1+AP12)^5/(1+AN12)^5+AM12*(1+AP12)^5*(1+AO12)/(1+AN12)^6/(AN12-AO12)</f>
         <v>124554873714.034</v>
       </c>
-      <c r="BF12" s="35"/>
-      <c r="BG12" s="32">
+      <c r="BF12" s="36"/>
+      <c r="BG12" s="33">
         <f>$AZ12+$BA12+BB12</f>
         <v>40360774471.3547</v>
       </c>
-      <c r="BH12" s="32">
+      <c r="BH12" s="33">
         <f>$AZ12+$BA12+BC12</f>
         <v>77501877307.4219</v>
       </c>
-      <c r="BI12" s="32">
+      <c r="BI12" s="33">
         <f>$AZ12+$BA12+BD12</f>
         <v>109456968299.03</v>
       </c>
-      <c r="BJ12" s="32">
+      <c r="BJ12" s="33">
         <f>$AZ12+$BA12+BE12</f>
         <v>143282059639.894</v>
       </c>
-      <c r="BK12" s="32">
+      <c r="BK12" s="33">
         <f>$AZ12+$BA12+BF12</f>
         <v>18727185925.86</v>
       </c>
-      <c r="BL12" s="34">
+      <c r="BL12" s="35">
         <f>C12-D12</f>
         <v>16369925768.22</v>
       </c>
-      <c r="BM12" s="32">
+      <c r="BM12" s="33">
         <f>BG12-$BL12</f>
         <v>23990848703.1347</v>
       </c>
-      <c r="BN12" s="32">
+      <c r="BN12" s="33">
         <f>BH12-$BL12</f>
         <v>61131951539.2019</v>
       </c>
-      <c r="BO12" s="32">
+      <c r="BO12" s="33">
         <f>BI12-$BL12</f>
         <v>93087042530.8099</v>
       </c>
-      <c r="BP12" s="32">
+      <c r="BP12" s="33">
         <f>BJ12-$BL12</f>
         <v>126912133871.674</v>
       </c>
-      <c r="BQ12" s="32">
+      <c r="BQ12" s="33">
         <f>BK12-$BL12</f>
         <v>2357260157.64</v>
       </c>
-      <c r="BR12" s="32">
+      <c r="BR12" s="33">
         <f>BM12*(1-$E12/$D12)</f>
         <v>23826223947.0311</v>
       </c>
-      <c r="BS12" s="32">
+      <c r="BS12" s="33">
         <f>BN12*(1-$E12/$D12)</f>
         <v>60712465228.5338</v>
       </c>
-      <c r="BT12" s="32">
+      <c r="BT12" s="33">
         <f>BO12*(1-$E12/$D12)</f>
         <v>92448280982.0769</v>
       </c>
-      <c r="BU12" s="32">
+      <c r="BU12" s="33">
         <f>BP12*(1-$E12/$D12)</f>
         <v>126041265177.376</v>
       </c>
-      <c r="BV12" s="32">
+      <c r="BV12" s="33">
         <f>BQ12*(1-$E12/$D12)</f>
         <v>2341084682.42751</v>
       </c>
-      <c r="BW12" s="40">
+      <c r="BW12" s="43">
         <v>2955826899</v>
       </c>
-      <c r="BX12" s="41">
+      <c r="BX12" s="42">
         <f>BR12/$BW12</f>
         <v>8.06076430087699</v>
       </c>
-      <c r="BY12" s="41">
+      <c r="BY12" s="42">
         <f>BS12/$BW12</f>
         <v>20.5399258153695</v>
       </c>
-      <c r="BZ12" s="41">
+      <c r="BZ12" s="42">
         <f>BT12/$BW12</f>
         <v>31.2766221233569</v>
       </c>
-      <c r="CA12" s="41">
+      <c r="CA12" s="42">
         <f>BU12/$BW12</f>
         <v>42.6416260099728</v>
       </c>
-      <c r="CB12" s="41">
+      <c r="CB12" s="42">
         <f>BV12/$BW12</f>
         <v>0.792023607072368</v>
       </c>
     </row>
     <row r="13" spans="1:80">
-      <c r="A13" s="13">
+      <c r="A13" s="14">
         <v>2021</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="13"/>
-      <c r="AA13" s="13"/>
-      <c r="AB13" s="13"/>
-      <c r="AC13" s="13"/>
-      <c r="AD13" s="13"/>
-      <c r="AE13" s="12">
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14"/>
+      <c r="AE13" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF13" s="12">
+      <c r="AF13" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AG13" s="15">
+      <c r="AG13" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AH13" s="22" t="e">
+      <c r="AH13" s="23" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI13" s="22" t="e">
+      <c r="AI13" s="23" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ13" s="23">
+      <c r="AJ13" s="24">
         <v>0.25</v>
       </c>
-      <c r="AK13" s="23" t="e">
+      <c r="AK13" s="24" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL13" s="23" t="e">
+      <c r="AL13" s="24" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM13" s="29"/>
-      <c r="AN13" s="23" t="e">
+      <c r="AM13" s="30"/>
+      <c r="AN13" s="24" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO13" s="23">
+      <c r="AO13" s="24">
         <v>0.04</v>
       </c>
-      <c r="AP13" s="23">
+      <c r="AP13" s="24">
         <v>0.74</v>
       </c>
-      <c r="AQ13" s="33"/>
-      <c r="AR13" s="32"/>
-      <c r="AS13" s="33"/>
-      <c r="AT13" s="33"/>
-      <c r="AU13" s="32"/>
-      <c r="AV13" s="33"/>
-      <c r="AW13" s="33"/>
-      <c r="AX13" s="33"/>
-      <c r="AY13" s="32"/>
-      <c r="AZ13" s="32"/>
-      <c r="BA13" s="33"/>
-      <c r="BB13" s="15"/>
-      <c r="BC13" s="16"/>
-      <c r="BD13" s="16"/>
-      <c r="BE13" s="16"/>
-      <c r="BF13" s="35"/>
-      <c r="BG13" s="32"/>
-      <c r="BH13" s="32"/>
-      <c r="BI13" s="32"/>
-      <c r="BJ13" s="32"/>
-      <c r="BK13" s="32"/>
-      <c r="BL13" s="33"/>
-      <c r="BM13" s="32"/>
-      <c r="BN13" s="32"/>
-      <c r="BO13" s="32"/>
-      <c r="BP13" s="32"/>
-      <c r="BQ13" s="32"/>
-      <c r="BR13" s="32"/>
-      <c r="BS13" s="32"/>
-      <c r="BT13" s="32"/>
-      <c r="BU13" s="32"/>
-      <c r="BV13" s="32"/>
-      <c r="BW13" s="33"/>
-      <c r="BX13" s="41"/>
-      <c r="BY13" s="41"/>
-      <c r="BZ13" s="41"/>
-      <c r="CA13" s="41"/>
-      <c r="CB13" s="41"/>
+      <c r="AQ13" s="34"/>
+      <c r="AR13" s="33"/>
+      <c r="AS13" s="34"/>
+      <c r="AT13" s="34"/>
+      <c r="AU13" s="33"/>
+      <c r="AV13" s="34"/>
+      <c r="AW13" s="34"/>
+      <c r="AX13" s="34"/>
+      <c r="AY13" s="33"/>
+      <c r="AZ13" s="33"/>
+      <c r="BA13" s="34"/>
+      <c r="BB13" s="16"/>
+      <c r="BC13" s="17"/>
+      <c r="BD13" s="17"/>
+      <c r="BE13" s="17"/>
+      <c r="BF13" s="36"/>
+      <c r="BG13" s="33"/>
+      <c r="BH13" s="33"/>
+      <c r="BI13" s="33"/>
+      <c r="BJ13" s="33"/>
+      <c r="BK13" s="33"/>
+      <c r="BL13" s="34"/>
+      <c r="BM13" s="33"/>
+      <c r="BN13" s="33"/>
+      <c r="BO13" s="33"/>
+      <c r="BP13" s="33"/>
+      <c r="BQ13" s="33"/>
+      <c r="BR13" s="33"/>
+      <c r="BS13" s="33"/>
+      <c r="BT13" s="33"/>
+      <c r="BU13" s="33"/>
+      <c r="BV13" s="33"/>
+      <c r="BW13" s="43"/>
+      <c r="BX13" s="42"/>
+      <c r="BY13" s="42"/>
+      <c r="BZ13" s="42"/>
+      <c r="CA13" s="42"/>
+      <c r="CB13" s="42"/>
     </row>
     <row r="14" spans="1:80">
-      <c r="A14" s="13">
+      <c r="A14" s="14">
         <v>2021</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="13"/>
-      <c r="AA14" s="13"/>
-      <c r="AB14" s="13"/>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="13"/>
-      <c r="AE14" s="12">
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="14"/>
+      <c r="AE14" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF14" s="12">
+      <c r="AF14" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AG14" s="15">
+      <c r="AG14" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AH14" s="22" t="e">
+      <c r="AH14" s="23" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI14" s="22" t="e">
+      <c r="AI14" s="23" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ14" s="23">
+      <c r="AJ14" s="24">
         <v>0.25</v>
       </c>
-      <c r="AK14" s="23" t="e">
+      <c r="AK14" s="24" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL14" s="23" t="e">
+      <c r="AL14" s="24" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM14" s="29"/>
-      <c r="AN14" s="23" t="e">
+      <c r="AM14" s="30"/>
+      <c r="AN14" s="24" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO14" s="23">
+      <c r="AO14" s="24">
         <v>0.04</v>
       </c>
-      <c r="AP14" s="23">
+      <c r="AP14" s="24">
         <v>0.15</v>
       </c>
-      <c r="AQ14" s="33"/>
-      <c r="AR14" s="32"/>
-      <c r="AS14" s="33"/>
-      <c r="AT14" s="33"/>
-      <c r="AU14" s="32"/>
-      <c r="AV14" s="33"/>
-      <c r="AW14" s="33"/>
-      <c r="AX14" s="33"/>
-      <c r="AY14" s="32"/>
-      <c r="AZ14" s="32"/>
-      <c r="BA14" s="33"/>
-      <c r="BB14" s="15"/>
-      <c r="BC14" s="16"/>
-      <c r="BD14" s="16"/>
-      <c r="BE14" s="16"/>
-      <c r="BF14" s="35"/>
-      <c r="BG14" s="32"/>
-      <c r="BH14" s="32"/>
-      <c r="BI14" s="32"/>
-      <c r="BJ14" s="32"/>
-      <c r="BK14" s="32"/>
-      <c r="BL14" s="33"/>
-      <c r="BM14" s="32"/>
-      <c r="BN14" s="32"/>
-      <c r="BO14" s="32"/>
-      <c r="BP14" s="32"/>
-      <c r="BQ14" s="32"/>
-      <c r="BR14" s="32"/>
-      <c r="BS14" s="32"/>
-      <c r="BT14" s="32"/>
-      <c r="BU14" s="32"/>
-      <c r="BV14" s="32"/>
-      <c r="BW14" s="33"/>
-      <c r="BX14" s="41"/>
-      <c r="BY14" s="41"/>
-      <c r="BZ14" s="41"/>
-      <c r="CA14" s="41"/>
-      <c r="CB14" s="41"/>
+      <c r="AQ14" s="34"/>
+      <c r="AR14" s="33"/>
+      <c r="AS14" s="34"/>
+      <c r="AT14" s="34"/>
+      <c r="AU14" s="33"/>
+      <c r="AV14" s="34"/>
+      <c r="AW14" s="34"/>
+      <c r="AX14" s="34"/>
+      <c r="AY14" s="33"/>
+      <c r="AZ14" s="33"/>
+      <c r="BA14" s="34"/>
+      <c r="BB14" s="16"/>
+      <c r="BC14" s="17"/>
+      <c r="BD14" s="17"/>
+      <c r="BE14" s="17"/>
+      <c r="BF14" s="36"/>
+      <c r="BG14" s="33"/>
+      <c r="BH14" s="33"/>
+      <c r="BI14" s="33"/>
+      <c r="BJ14" s="33"/>
+      <c r="BK14" s="33"/>
+      <c r="BL14" s="34"/>
+      <c r="BM14" s="33"/>
+      <c r="BN14" s="33"/>
+      <c r="BO14" s="33"/>
+      <c r="BP14" s="33"/>
+      <c r="BQ14" s="33"/>
+      <c r="BR14" s="33"/>
+      <c r="BS14" s="33"/>
+      <c r="BT14" s="33"/>
+      <c r="BU14" s="33"/>
+      <c r="BV14" s="33"/>
+      <c r="BW14" s="43"/>
+      <c r="BX14" s="42"/>
+      <c r="BY14" s="42"/>
+      <c r="BZ14" s="42"/>
+      <c r="CA14" s="42"/>
+      <c r="CB14" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="39">

--- a/我的创作/财务/证券投资/股票/财务报表分析系统/2023/财务/选股标准.xlsx
+++ b/我的创作/财务/证券投资/股票/财务报表分析系统/2023/财务/选股标准.xlsx
@@ -495,12 +495,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="176" formatCode="0.00_ ;[Red]\-0.00\ "/>
-    <numFmt numFmtId="177" formatCode="&quot;￥&quot;#,##0.00_);[Red]\(&quot;￥&quot;#,##0.00\)"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="&quot;￥&quot;#,##0.00_);[Red]\(&quot;￥&quot;#,##0.00\)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -545,8 +545,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -560,7 +568,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -568,10 +576,33 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -583,16 +614,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -606,47 +651,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -668,22 +674,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -734,7 +734,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,31 +860,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -782,133 +908,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -957,17 +957,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -977,6 +983,36 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1007,47 +1043,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1056,152 +1056,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1232,10 +1232,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1317,25 +1314,19 @@
     <xf numFmtId="44" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -1353,7 +1344,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1371,7 +1362,7 @@
     <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1401,7 +1392,7 @@
     <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1413,10 +1404,10 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1802,10 +1793,10 @@
     <col min="57" max="57" width="24.2211538461538" style="3" customWidth="1"/>
     <col min="58" max="59" width="27.6634615384615" style="3" customWidth="1"/>
     <col min="60" max="60" width="24.2211538461538" style="3" customWidth="1"/>
-    <col min="61" max="61" width="18.6634615384615" style="51" customWidth="1"/>
-    <col min="62" max="62" width="20.8846153846154" style="51" customWidth="1"/>
-    <col min="63" max="63" width="25.4423076923077" style="51" customWidth="1"/>
-    <col min="64" max="64" width="27.3076923076923" style="51" customWidth="1"/>
+    <col min="61" max="61" width="18.6634615384615" style="48" customWidth="1"/>
+    <col min="62" max="62" width="20.8846153846154" style="48" customWidth="1"/>
+    <col min="63" max="63" width="25.4423076923077" style="48" customWidth="1"/>
+    <col min="64" max="64" width="27.3076923076923" style="48" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:64">
@@ -1932,16 +1923,16 @@
       <c r="AO1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="63" t="s">
+      <c r="AP1" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="64" t="s">
+      <c r="AQ1" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="65" t="s">
+      <c r="AR1" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="66" t="s">
+      <c r="AS1" s="63" t="s">
         <v>44</v>
       </c>
       <c r="AT1" s="3" t="s">
@@ -1962,10 +1953,10 @@
       <c r="AY1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="65" t="s">
+      <c r="AZ1" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="66" t="s">
+      <c r="BA1" s="63" t="s">
         <v>52</v>
       </c>
       <c r="BB1" s="8" t="s">
@@ -1980,22 +1971,22 @@
       <c r="BE1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="65" t="s">
+      <c r="BF1" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="66" t="s">
+      <c r="BG1" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="BI1" s="51" t="s">
+      <c r="BI1" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="BJ1" s="51" t="s">
+      <c r="BJ1" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="BK1" s="71" t="s">
+      <c r="BK1" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="BL1" s="72" t="s">
+      <c r="BL1" s="69" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2164,7 +2155,7 @@
       <c r="AN8" s="5">
         <v>0.01</v>
       </c>
-      <c r="AO8" s="59">
+      <c r="AO8" s="56">
         <v>0.05</v>
       </c>
       <c r="AP8" s="3" t="e">
@@ -2182,7 +2173,7 @@
       <c r="AV8" s="2">
         <v>442102317.87</v>
       </c>
-      <c r="AW8" s="67">
+      <c r="AW8" s="64">
         <v>360000000</v>
       </c>
       <c r="AX8" s="3" t="e">
@@ -2209,15 +2200,15 @@
         <f>BA8*(1-E8)</f>
         <v>1589056241.30534</v>
       </c>
-      <c r="BI8" s="51" t="e">
+      <c r="BI8" s="48" t="e">
         <f>BD8/AW8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BJ8" s="51">
+      <c r="BJ8" s="48">
         <f>BE8/AW8</f>
         <v>-72.6181869025684</v>
       </c>
-      <c r="BL8" s="51">
+      <c r="BL8" s="48">
         <f>BG8/AW8</f>
         <v>4.41404511473707</v>
       </c>
@@ -2239,7 +2230,7 @@
         <f t="shared" si="0"/>
         <v>0.21401207431414</v>
       </c>
-      <c r="F9" s="55">
+      <c r="F9" s="52">
         <v>387296112.91</v>
       </c>
       <c r="H9" s="3">
@@ -2261,7 +2252,7 @@
       <c r="AJ9" s="2">
         <v>506730134.35</v>
       </c>
-      <c r="AK9" s="55">
+      <c r="AK9" s="52">
         <v>387296112.91</v>
       </c>
       <c r="AL9" s="2"/>
@@ -2269,7 +2260,7 @@
         <f t="shared" si="2"/>
         <v>0.57142790701933</v>
       </c>
-      <c r="AN9" s="59">
+      <c r="AN9" s="56">
         <v>0.0894</v>
       </c>
       <c r="AO9" s="5">
@@ -2326,19 +2317,19 @@
         <f>BA9*(1-BC9)</f>
         <v>62057191759.6006</v>
       </c>
-      <c r="BI9" s="51">
+      <c r="BI9" s="48">
         <f>BD9/AW9</f>
         <v>14.8605678155326</v>
       </c>
-      <c r="BJ9" s="73">
+      <c r="BJ9" s="70">
         <f>BE9/AW9</f>
         <v>70.5458363693699</v>
       </c>
-      <c r="BK9" s="73">
+      <c r="BK9" s="70">
         <f>BF9/AW9</f>
         <v>112.926566097446</v>
       </c>
-      <c r="BL9" s="51">
+      <c r="BL9" s="48">
         <f>BG9/AW9</f>
         <v>152.868995761181</v>
       </c>
@@ -2429,7 +2420,7 @@
         <f t="shared" si="2"/>
         <v>0.590280642574583</v>
       </c>
-      <c r="AW11" s="68">
+      <c r="AW11" s="65">
         <v>393738756</v>
       </c>
     </row>
@@ -2534,7 +2525,7 @@
         <f t="shared" si="2"/>
         <v>0.431060165431254</v>
       </c>
-      <c r="AN12" s="60">
+      <c r="AN12" s="57">
         <v>0.15</v>
       </c>
       <c r="AO12" s="5">
@@ -2602,96 +2593,96 @@
         <f>BA12*(1-BC12)</f>
         <v>115459706311.813</v>
       </c>
-      <c r="BI12" s="51">
+      <c r="BI12" s="48">
         <f>BD12/AW12</f>
         <v>27.9668535753429</v>
       </c>
-      <c r="BJ12" s="73">
+      <c r="BJ12" s="70">
         <f>BE12/AW12</f>
         <v>84.5929162620123</v>
       </c>
-      <c r="BK12" s="73">
+      <c r="BK12" s="70">
         <f>BF12/AW12</f>
         <v>191.421091093951</v>
       </c>
-      <c r="BL12" s="51">
+      <c r="BL12" s="48">
         <f>BG12/AW12</f>
         <v>284.41843490343</v>
       </c>
     </row>
-    <row r="13" s="50" customFormat="1" spans="1:64">
-      <c r="A13" s="52" t="s">
+    <row r="13" s="47" customFormat="1" spans="1:64">
+      <c r="A13" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="52"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="57">
+      <c r="B13" s="49"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="54">
         <f>AVERAGE(K6:K12)</f>
         <v>1.04857142857143</v>
       </c>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="54"/>
-      <c r="S13" s="54"/>
-      <c r="T13" s="54"/>
-      <c r="U13" s="54"/>
-      <c r="V13" s="54"/>
-      <c r="W13" s="54"/>
-      <c r="X13" s="54"/>
-      <c r="Y13" s="54"/>
-      <c r="Z13" s="54"/>
-      <c r="AA13" s="54"/>
-      <c r="AB13" s="54"/>
-      <c r="AC13" s="54"/>
-      <c r="AD13" s="54"/>
-      <c r="AE13" s="56"/>
-      <c r="AF13" s="52"/>
-      <c r="AG13" s="58"/>
-      <c r="AH13" s="54"/>
-      <c r="AI13" s="52"/>
-      <c r="AJ13" s="53"/>
-      <c r="AK13" s="53"/>
-      <c r="AL13" s="53"/>
-      <c r="AM13" s="53"/>
-      <c r="AN13" s="56"/>
-      <c r="AO13" s="56"/>
-      <c r="AP13" s="54"/>
-      <c r="AQ13" s="54"/>
-      <c r="AR13" s="54"/>
-      <c r="AS13" s="54"/>
-      <c r="AT13" s="54"/>
-      <c r="AU13" s="54"/>
-      <c r="AV13" s="53"/>
-      <c r="AW13" s="53"/>
-      <c r="AX13" s="54"/>
-      <c r="AY13" s="54"/>
-      <c r="AZ13" s="54"/>
-      <c r="BA13" s="54"/>
-      <c r="BB13" s="54"/>
-      <c r="BC13" s="54"/>
-      <c r="BD13" s="54"/>
-      <c r="BE13" s="54"/>
-      <c r="BF13" s="54"/>
-      <c r="BG13" s="54">
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="51"/>
+      <c r="T13" s="51"/>
+      <c r="U13" s="51"/>
+      <c r="V13" s="51"/>
+      <c r="W13" s="51"/>
+      <c r="X13" s="51"/>
+      <c r="Y13" s="51"/>
+      <c r="Z13" s="51"/>
+      <c r="AA13" s="51"/>
+      <c r="AB13" s="51"/>
+      <c r="AC13" s="51"/>
+      <c r="AD13" s="51"/>
+      <c r="AE13" s="53"/>
+      <c r="AF13" s="49"/>
+      <c r="AG13" s="55"/>
+      <c r="AH13" s="51"/>
+      <c r="AI13" s="49"/>
+      <c r="AJ13" s="50"/>
+      <c r="AK13" s="50"/>
+      <c r="AL13" s="50"/>
+      <c r="AM13" s="50"/>
+      <c r="AN13" s="53"/>
+      <c r="AO13" s="53"/>
+      <c r="AP13" s="51"/>
+      <c r="AQ13" s="51"/>
+      <c r="AR13" s="51"/>
+      <c r="AS13" s="51"/>
+      <c r="AT13" s="51"/>
+      <c r="AU13" s="51"/>
+      <c r="AV13" s="50"/>
+      <c r="AW13" s="50"/>
+      <c r="AX13" s="51"/>
+      <c r="AY13" s="51"/>
+      <c r="AZ13" s="51"/>
+      <c r="BA13" s="51"/>
+      <c r="BB13" s="51"/>
+      <c r="BC13" s="51"/>
+      <c r="BD13" s="51"/>
+      <c r="BE13" s="51"/>
+      <c r="BF13" s="51"/>
+      <c r="BG13" s="51">
         <f>BA13*(1-BC13)</f>
         <v>0</v>
       </c>
-      <c r="BH13" s="54"/>
-      <c r="BI13" s="57"/>
-      <c r="BJ13" s="74"/>
-      <c r="BK13" s="74"/>
-      <c r="BL13" s="57"/>
+      <c r="BH13" s="51"/>
+      <c r="BI13" s="54"/>
+      <c r="BJ13" s="71"/>
+      <c r="BK13" s="71"/>
+      <c r="BL13" s="54"/>
     </row>
     <row r="14" spans="1:63">
       <c r="A14" s="1">
@@ -2714,8 +2705,8 @@
       <c r="AM14" s="2"/>
       <c r="AV14" s="2"/>
       <c r="AW14" s="2"/>
-      <c r="BJ14" s="73"/>
-      <c r="BK14" s="73"/>
+      <c r="BJ14" s="70"/>
+      <c r="BK14" s="70"/>
     </row>
     <row r="15" spans="1:63">
       <c r="A15" s="1">
@@ -2741,8 +2732,8 @@
       <c r="AM15" s="2"/>
       <c r="AV15" s="2"/>
       <c r="AW15" s="2"/>
-      <c r="BJ15" s="73"/>
-      <c r="BK15" s="73"/>
+      <c r="BJ15" s="70"/>
+      <c r="BK15" s="70"/>
     </row>
     <row r="16" spans="1:63">
       <c r="A16" s="1">
@@ -2768,8 +2759,8 @@
       <c r="AM16" s="2"/>
       <c r="AV16" s="2"/>
       <c r="AW16" s="2"/>
-      <c r="BJ16" s="73"/>
-      <c r="BK16" s="73"/>
+      <c r="BJ16" s="70"/>
+      <c r="BK16" s="70"/>
     </row>
     <row r="17" spans="1:63">
       <c r="A17" s="1">
@@ -2795,8 +2786,8 @@
       <c r="AM17" s="2"/>
       <c r="AV17" s="2"/>
       <c r="AW17" s="2"/>
-      <c r="BJ17" s="73"/>
-      <c r="BK17" s="73"/>
+      <c r="BJ17" s="70"/>
+      <c r="BK17" s="70"/>
     </row>
     <row r="18" spans="1:63">
       <c r="A18" s="1">
@@ -2822,8 +2813,8 @@
       <c r="AM18" s="2"/>
       <c r="AV18" s="2"/>
       <c r="AW18" s="2"/>
-      <c r="BJ18" s="73"/>
-      <c r="BK18" s="73"/>
+      <c r="BJ18" s="70"/>
+      <c r="BK18" s="70"/>
     </row>
     <row r="19" spans="1:63">
       <c r="A19" s="1">
@@ -2855,8 +2846,8 @@
       <c r="AM19" s="2"/>
       <c r="AV19" s="2"/>
       <c r="AW19" s="2"/>
-      <c r="BJ19" s="73"/>
-      <c r="BK19" s="73"/>
+      <c r="BJ19" s="70"/>
+      <c r="BK19" s="70"/>
     </row>
     <row r="20" spans="1:63">
       <c r="A20" s="1">
@@ -2888,8 +2879,8 @@
       <c r="AM20" s="2"/>
       <c r="AV20" s="2"/>
       <c r="AW20" s="2"/>
-      <c r="BJ20" s="73"/>
-      <c r="BK20" s="73"/>
+      <c r="BJ20" s="70"/>
+      <c r="BK20" s="70"/>
     </row>
     <row r="21" spans="1:63">
       <c r="A21" s="1">
@@ -2921,8 +2912,8 @@
       <c r="AM21" s="2"/>
       <c r="AV21" s="2"/>
       <c r="AW21" s="2"/>
-      <c r="BJ21" s="73"/>
-      <c r="BK21" s="73"/>
+      <c r="BJ21" s="70"/>
+      <c r="BK21" s="70"/>
     </row>
     <row r="22" spans="1:63">
       <c r="A22" s="1">
@@ -2954,8 +2945,8 @@
       <c r="AM22" s="2"/>
       <c r="AV22" s="2"/>
       <c r="AW22" s="2"/>
-      <c r="BJ22" s="73"/>
-      <c r="BK22" s="73"/>
+      <c r="BJ22" s="70"/>
+      <c r="BK22" s="70"/>
     </row>
     <row r="23" spans="1:63">
       <c r="A23" s="1">
@@ -2987,8 +2978,8 @@
       <c r="AM23" s="2"/>
       <c r="AV23" s="2"/>
       <c r="AW23" s="2"/>
-      <c r="BJ23" s="73"/>
-      <c r="BK23" s="73"/>
+      <c r="BJ23" s="70"/>
+      <c r="BK23" s="70"/>
     </row>
     <row r="24" spans="1:63">
       <c r="A24" s="1">
@@ -3020,8 +3011,8 @@
       <c r="AM24" s="2"/>
       <c r="AV24" s="2"/>
       <c r="AW24" s="2"/>
-      <c r="BJ24" s="73"/>
-      <c r="BK24" s="73"/>
+      <c r="BJ24" s="70"/>
+      <c r="BK24" s="70"/>
     </row>
     <row r="25" spans="1:63">
       <c r="A25" s="1">
@@ -3053,76 +3044,76 @@
       <c r="AM25" s="2"/>
       <c r="AV25" s="2"/>
       <c r="AW25" s="2"/>
-      <c r="BJ25" s="73"/>
-      <c r="BK25" s="73"/>
-    </row>
-    <row r="26" s="50" customFormat="1" spans="1:64">
-      <c r="A26" s="52" t="s">
+      <c r="BJ25" s="70"/>
+      <c r="BK25" s="70"/>
+    </row>
+    <row r="26" s="47" customFormat="1" spans="1:64">
+      <c r="A26" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="52"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="54"/>
-      <c r="P26" s="56"/>
-      <c r="Q26" s="56"/>
-      <c r="R26" s="54"/>
-      <c r="S26" s="54"/>
-      <c r="T26" s="54"/>
-      <c r="U26" s="54"/>
-      <c r="V26" s="54"/>
-      <c r="W26" s="54"/>
-      <c r="X26" s="54"/>
-      <c r="Y26" s="54"/>
-      <c r="Z26" s="54"/>
-      <c r="AA26" s="54"/>
-      <c r="AB26" s="54"/>
-      <c r="AC26" s="54"/>
-      <c r="AD26" s="54"/>
-      <c r="AE26" s="56"/>
-      <c r="AF26" s="52"/>
-      <c r="AG26" s="58"/>
-      <c r="AH26" s="54"/>
-      <c r="AI26" s="52"/>
-      <c r="AJ26" s="53"/>
-      <c r="AK26" s="53"/>
-      <c r="AL26" s="53"/>
-      <c r="AM26" s="53"/>
-      <c r="AN26" s="56"/>
-      <c r="AO26" s="56"/>
-      <c r="AP26" s="54"/>
-      <c r="AQ26" s="54"/>
-      <c r="AR26" s="54"/>
-      <c r="AS26" s="54"/>
-      <c r="AT26" s="54"/>
-      <c r="AU26" s="54"/>
-      <c r="AV26" s="53"/>
-      <c r="AW26" s="53"/>
-      <c r="AX26" s="54"/>
-      <c r="AY26" s="54"/>
-      <c r="AZ26" s="54"/>
-      <c r="BA26" s="54"/>
-      <c r="BB26" s="54"/>
-      <c r="BC26" s="54"/>
-      <c r="BD26" s="54"/>
-      <c r="BE26" s="54"/>
-      <c r="BF26" s="54"/>
-      <c r="BG26" s="54"/>
-      <c r="BH26" s="54"/>
-      <c r="BI26" s="57"/>
-      <c r="BJ26" s="74"/>
-      <c r="BK26" s="74"/>
-      <c r="BL26" s="57"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="51"/>
+      <c r="U26" s="51"/>
+      <c r="V26" s="51"/>
+      <c r="W26" s="51"/>
+      <c r="X26" s="51"/>
+      <c r="Y26" s="51"/>
+      <c r="Z26" s="51"/>
+      <c r="AA26" s="51"/>
+      <c r="AB26" s="51"/>
+      <c r="AC26" s="51"/>
+      <c r="AD26" s="51"/>
+      <c r="AE26" s="53"/>
+      <c r="AF26" s="49"/>
+      <c r="AG26" s="55"/>
+      <c r="AH26" s="51"/>
+      <c r="AI26" s="49"/>
+      <c r="AJ26" s="50"/>
+      <c r="AK26" s="50"/>
+      <c r="AL26" s="50"/>
+      <c r="AM26" s="50"/>
+      <c r="AN26" s="53"/>
+      <c r="AO26" s="53"/>
+      <c r="AP26" s="51"/>
+      <c r="AQ26" s="51"/>
+      <c r="AR26" s="51"/>
+      <c r="AS26" s="51"/>
+      <c r="AT26" s="51"/>
+      <c r="AU26" s="51"/>
+      <c r="AV26" s="50"/>
+      <c r="AW26" s="50"/>
+      <c r="AX26" s="51"/>
+      <c r="AY26" s="51"/>
+      <c r="AZ26" s="51"/>
+      <c r="BA26" s="51"/>
+      <c r="BB26" s="51"/>
+      <c r="BC26" s="51"/>
+      <c r="BD26" s="51"/>
+      <c r="BE26" s="51"/>
+      <c r="BF26" s="51"/>
+      <c r="BG26" s="51"/>
+      <c r="BH26" s="51"/>
+      <c r="BI26" s="54"/>
+      <c r="BJ26" s="71"/>
+      <c r="BK26" s="71"/>
+      <c r="BL26" s="54"/>
     </row>
     <row r="27" spans="1:63">
       <c r="A27" s="1">
@@ -3148,8 +3139,8 @@
       <c r="AM27" s="2"/>
       <c r="AV27" s="2"/>
       <c r="AW27" s="2"/>
-      <c r="BJ27" s="73"/>
-      <c r="BK27" s="73"/>
+      <c r="BJ27" s="70"/>
+      <c r="BK27" s="70"/>
     </row>
     <row r="28" spans="1:63">
       <c r="A28" s="1">
@@ -3181,8 +3172,8 @@
       <c r="AM28" s="2"/>
       <c r="AV28" s="2"/>
       <c r="AW28" s="2"/>
-      <c r="BJ28" s="73"/>
-      <c r="BK28" s="73"/>
+      <c r="BJ28" s="70"/>
+      <c r="BK28" s="70"/>
     </row>
     <row r="29" spans="1:63">
       <c r="A29" s="1">
@@ -3214,8 +3205,8 @@
       <c r="AM29" s="2"/>
       <c r="AV29" s="2"/>
       <c r="AW29" s="2"/>
-      <c r="BJ29" s="73"/>
-      <c r="BK29" s="73"/>
+      <c r="BJ29" s="70"/>
+      <c r="BK29" s="70"/>
     </row>
     <row r="30" spans="1:63">
       <c r="A30" s="1">
@@ -3247,8 +3238,8 @@
       <c r="AM30" s="2"/>
       <c r="AV30" s="2"/>
       <c r="AW30" s="2"/>
-      <c r="BJ30" s="73"/>
-      <c r="BK30" s="73"/>
+      <c r="BJ30" s="70"/>
+      <c r="BK30" s="70"/>
     </row>
     <row r="31" spans="1:63">
       <c r="A31" s="1">
@@ -3280,8 +3271,8 @@
       <c r="AM31" s="2"/>
       <c r="AV31" s="2"/>
       <c r="AW31" s="2"/>
-      <c r="BJ31" s="73"/>
-      <c r="BK31" s="73"/>
+      <c r="BJ31" s="70"/>
+      <c r="BK31" s="70"/>
     </row>
     <row r="32" spans="1:63">
       <c r="A32" s="1">
@@ -3313,8 +3304,8 @@
       <c r="AM32" s="2"/>
       <c r="AV32" s="2"/>
       <c r="AW32" s="2"/>
-      <c r="BJ32" s="73"/>
-      <c r="BK32" s="73"/>
+      <c r="BJ32" s="70"/>
+      <c r="BK32" s="70"/>
     </row>
     <row r="33" spans="1:63">
       <c r="A33" s="1">
@@ -3346,8 +3337,8 @@
       <c r="AM33" s="2"/>
       <c r="AV33" s="2"/>
       <c r="AW33" s="2"/>
-      <c r="BJ33" s="73"/>
-      <c r="BK33" s="73"/>
+      <c r="BJ33" s="70"/>
+      <c r="BK33" s="70"/>
     </row>
     <row r="34" spans="1:63">
       <c r="A34" s="1">
@@ -3382,79 +3373,79 @@
       <c r="AM34" s="2"/>
       <c r="AV34" s="2"/>
       <c r="AW34" s="2"/>
-      <c r="BJ34" s="73"/>
-      <c r="BK34" s="73"/>
-    </row>
-    <row r="35" s="50" customFormat="1" spans="1:64">
-      <c r="A35" s="52" t="s">
+      <c r="BJ34" s="70"/>
+      <c r="BK34" s="70"/>
+    </row>
+    <row r="35" s="47" customFormat="1" spans="1:64">
+      <c r="A35" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="B35" s="52"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="52"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="57">
+      <c r="B35" s="49"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="54">
         <f>AVERAGE(K27:K34)</f>
         <v>1.3925</v>
       </c>
-      <c r="L35" s="52"/>
-      <c r="M35" s="52"/>
-      <c r="N35" s="53"/>
-      <c r="O35" s="54"/>
-      <c r="P35" s="56"/>
-      <c r="Q35" s="56"/>
-      <c r="R35" s="54"/>
-      <c r="S35" s="54"/>
-      <c r="T35" s="54"/>
-      <c r="U35" s="54"/>
-      <c r="V35" s="54"/>
-      <c r="W35" s="54"/>
-      <c r="X35" s="54"/>
-      <c r="Y35" s="54"/>
-      <c r="Z35" s="54"/>
-      <c r="AA35" s="54"/>
-      <c r="AB35" s="54"/>
-      <c r="AC35" s="54"/>
-      <c r="AD35" s="54"/>
-      <c r="AE35" s="56"/>
-      <c r="AF35" s="52"/>
-      <c r="AG35" s="58"/>
-      <c r="AH35" s="54"/>
-      <c r="AI35" s="52"/>
-      <c r="AJ35" s="53"/>
-      <c r="AK35" s="53"/>
-      <c r="AL35" s="53"/>
-      <c r="AM35" s="53"/>
-      <c r="AN35" s="56"/>
-      <c r="AO35" s="56"/>
-      <c r="AP35" s="54"/>
-      <c r="AQ35" s="54"/>
-      <c r="AR35" s="54"/>
-      <c r="AS35" s="54"/>
-      <c r="AT35" s="54"/>
-      <c r="AU35" s="54"/>
-      <c r="AV35" s="53"/>
-      <c r="AW35" s="53"/>
-      <c r="AX35" s="54"/>
-      <c r="AY35" s="54"/>
-      <c r="AZ35" s="54"/>
-      <c r="BA35" s="54"/>
-      <c r="BB35" s="54"/>
-      <c r="BC35" s="54"/>
-      <c r="BD35" s="54"/>
-      <c r="BE35" s="54"/>
-      <c r="BF35" s="54"/>
-      <c r="BG35" s="54"/>
-      <c r="BH35" s="54"/>
-      <c r="BI35" s="57"/>
-      <c r="BJ35" s="74"/>
-      <c r="BK35" s="74"/>
-      <c r="BL35" s="57"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="50"/>
+      <c r="O35" s="51"/>
+      <c r="P35" s="53"/>
+      <c r="Q35" s="53"/>
+      <c r="R35" s="51"/>
+      <c r="S35" s="51"/>
+      <c r="T35" s="51"/>
+      <c r="U35" s="51"/>
+      <c r="V35" s="51"/>
+      <c r="W35" s="51"/>
+      <c r="X35" s="51"/>
+      <c r="Y35" s="51"/>
+      <c r="Z35" s="51"/>
+      <c r="AA35" s="51"/>
+      <c r="AB35" s="51"/>
+      <c r="AC35" s="51"/>
+      <c r="AD35" s="51"/>
+      <c r="AE35" s="53"/>
+      <c r="AF35" s="49"/>
+      <c r="AG35" s="55"/>
+      <c r="AH35" s="51"/>
+      <c r="AI35" s="49"/>
+      <c r="AJ35" s="50"/>
+      <c r="AK35" s="50"/>
+      <c r="AL35" s="50"/>
+      <c r="AM35" s="50"/>
+      <c r="AN35" s="53"/>
+      <c r="AO35" s="53"/>
+      <c r="AP35" s="51"/>
+      <c r="AQ35" s="51"/>
+      <c r="AR35" s="51"/>
+      <c r="AS35" s="51"/>
+      <c r="AT35" s="51"/>
+      <c r="AU35" s="51"/>
+      <c r="AV35" s="50"/>
+      <c r="AW35" s="50"/>
+      <c r="AX35" s="51"/>
+      <c r="AY35" s="51"/>
+      <c r="AZ35" s="51"/>
+      <c r="BA35" s="51"/>
+      <c r="BB35" s="51"/>
+      <c r="BC35" s="51"/>
+      <c r="BD35" s="51"/>
+      <c r="BE35" s="51"/>
+      <c r="BF35" s="51"/>
+      <c r="BG35" s="51"/>
+      <c r="BH35" s="51"/>
+      <c r="BI35" s="54"/>
+      <c r="BJ35" s="71"/>
+      <c r="BK35" s="71"/>
+      <c r="BL35" s="54"/>
     </row>
     <row r="36" spans="1:63">
       <c r="A36" s="1">
@@ -3471,8 +3462,8 @@
       <c r="AM36" s="2"/>
       <c r="AV36" s="2"/>
       <c r="AW36" s="2"/>
-      <c r="BJ36" s="73"/>
-      <c r="BK36" s="73"/>
+      <c r="BJ36" s="70"/>
+      <c r="BK36" s="70"/>
     </row>
     <row r="37" spans="1:63">
       <c r="A37" s="1">
@@ -3489,8 +3480,8 @@
       <c r="AM37" s="2"/>
       <c r="AV37" s="2"/>
       <c r="AW37" s="2"/>
-      <c r="BJ37" s="73"/>
-      <c r="BK37" s="73"/>
+      <c r="BJ37" s="70"/>
+      <c r="BK37" s="70"/>
     </row>
     <row r="38" spans="1:63">
       <c r="A38" s="1">
@@ -3507,8 +3498,8 @@
       <c r="AM38" s="2"/>
       <c r="AV38" s="2"/>
       <c r="AW38" s="2"/>
-      <c r="BJ38" s="73"/>
-      <c r="BK38" s="73"/>
+      <c r="BJ38" s="70"/>
+      <c r="BK38" s="70"/>
     </row>
     <row r="39" spans="1:63">
       <c r="A39" s="1">
@@ -3525,8 +3516,8 @@
       <c r="AM39" s="2"/>
       <c r="AV39" s="2"/>
       <c r="AW39" s="2"/>
-      <c r="BJ39" s="73"/>
-      <c r="BK39" s="73"/>
+      <c r="BJ39" s="70"/>
+      <c r="BK39" s="70"/>
     </row>
     <row r="40" spans="1:63">
       <c r="A40" s="1">
@@ -3543,8 +3534,8 @@
       <c r="AM40" s="2"/>
       <c r="AV40" s="2"/>
       <c r="AW40" s="2"/>
-      <c r="BJ40" s="73"/>
-      <c r="BK40" s="73"/>
+      <c r="BJ40" s="70"/>
+      <c r="BK40" s="70"/>
     </row>
     <row r="41" spans="1:63">
       <c r="A41" s="1">
@@ -3571,8 +3562,8 @@
         <f t="shared" ref="BG41:BG46" si="3">BA41*(1-BC41)</f>
         <v>0</v>
       </c>
-      <c r="BJ41" s="73"/>
-      <c r="BK41" s="73"/>
+      <c r="BJ41" s="70"/>
+      <c r="BK41" s="70"/>
     </row>
     <row r="42" spans="1:64">
       <c r="A42" s="1">
@@ -3642,7 +3633,7 @@
       <c r="AV42" s="3">
         <v>0</v>
       </c>
-      <c r="AW42" s="68">
+      <c r="AW42" s="65">
         <v>393738756</v>
       </c>
       <c r="AX42" s="3">
@@ -3684,19 +3675,19 @@
         <f t="shared" si="3"/>
         <v>20600951765.5981</v>
       </c>
-      <c r="BI42" s="51">
+      <c r="BI42" s="48">
         <f>BD42/AW42</f>
         <v>4.00899029477376</v>
       </c>
-      <c r="BJ42" s="73">
+      <c r="BJ42" s="70">
         <f>BE42/AW42</f>
         <v>6.12282154110902</v>
       </c>
-      <c r="BK42" s="73">
+      <c r="BK42" s="70">
         <f>BF42/AW42</f>
         <v>23.4242272009576</v>
       </c>
-      <c r="BL42" s="51">
+      <c r="BL42" s="48">
         <f>BG42/AW42</f>
         <v>52.3213715989851</v>
       </c>
@@ -3767,7 +3758,7 @@
         <v>1876529173.79727</v>
       </c>
       <c r="AV43" s="3"/>
-      <c r="AW43" s="69">
+      <c r="AW43" s="66">
         <v>69005147</v>
       </c>
       <c r="AX43" s="3">
@@ -3809,19 +3800,19 @@
         <f t="shared" si="3"/>
         <v>1682576307.84007</v>
       </c>
-      <c r="BI43" s="51">
+      <c r="BI43" s="48">
         <f>BD43/AW43</f>
         <v>6.76415474316685</v>
       </c>
-      <c r="BJ43" s="73">
+      <c r="BJ43" s="70">
         <f>BE43/AW43</f>
         <v>12.1754785377003</v>
       </c>
-      <c r="BK43" s="73">
+      <c r="BK43" s="70">
         <f>BF43/AW43</f>
         <v>19.0552337148415</v>
       </c>
-      <c r="BL43" s="51">
+      <c r="BL43" s="48">
         <f>BG43/AW43</f>
         <v>24.3833450255539</v>
       </c>
@@ -3857,7 +3848,7 @@
       <c r="M44" s="5"/>
       <c r="AK44" s="3"/>
       <c r="AV44" s="3"/>
-      <c r="AW44" s="68"/>
+      <c r="AW44" s="65"/>
       <c r="BB44" s="3">
         <v>5913312.15</v>
       </c>
@@ -3881,8 +3872,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="BJ44" s="73"/>
-      <c r="BK44" s="73"/>
+      <c r="BJ44" s="70"/>
+      <c r="BK44" s="70"/>
     </row>
     <row r="45" spans="1:64">
       <c r="A45" s="1">
@@ -3916,10 +3907,10 @@
       <c r="AG45" s="4">
         <v>0.12</v>
       </c>
-      <c r="AK45" s="61">
+      <c r="AK45" s="58">
         <v>206967659</v>
       </c>
-      <c r="AL45" s="62"/>
+      <c r="AL45" s="59"/>
       <c r="AN45" s="5">
         <v>0.12</v>
       </c>
@@ -3948,7 +3939,7 @@
       <c r="AV45" s="3">
         <v>0</v>
       </c>
-      <c r="AW45" s="70">
+      <c r="AW45" s="67">
         <v>66585147</v>
       </c>
       <c r="AX45" s="3">
@@ -3990,19 +3981,19 @@
         <f t="shared" si="3"/>
         <v>10551672516.1374</v>
       </c>
-      <c r="BI45" s="51">
+      <c r="BI45" s="48">
         <f>BD45/AW45</f>
         <v>25.5986071031079</v>
       </c>
-      <c r="BJ45" s="73">
+      <c r="BJ45" s="70">
         <f>BE45/AW45</f>
         <v>46.0774927855942</v>
       </c>
-      <c r="BK45" s="73">
+      <c r="BK45" s="70">
         <f>BF45/AW45</f>
         <v>100.164299093727</v>
       </c>
-      <c r="BL45" s="51">
+      <c r="BL45" s="48">
         <f>BG45/AW45</f>
         <v>158.468862674996</v>
       </c>
@@ -4039,7 +4030,7 @@
       <c r="AG46" s="4">
         <v>0.12</v>
       </c>
-      <c r="AK46" s="61">
+      <c r="AK46" s="58">
         <v>1008801360.47</v>
       </c>
       <c r="AN46" s="5">
@@ -4070,7 +4061,7 @@
       <c r="AV46" s="3">
         <v>0</v>
       </c>
-      <c r="AW46" s="70">
+      <c r="AW46" s="67">
         <v>104877931</v>
       </c>
       <c r="AX46" s="3">
@@ -4112,19 +4103,19 @@
         <f t="shared" si="3"/>
         <v>57832418307.7574</v>
       </c>
-      <c r="BI46" s="51">
+      <c r="BI46" s="48">
         <f>BD46/AW46</f>
         <v>78.4341933425214</v>
       </c>
-      <c r="BJ46" s="73">
+      <c r="BJ46" s="70">
         <f>BE46/AW46</f>
         <v>141.181548016539</v>
       </c>
-      <c r="BK46" s="73">
+      <c r="BK46" s="70">
         <f>BF46/AW46</f>
         <v>331.441580911198</v>
       </c>
-      <c r="BL46" s="51">
+      <c r="BL46" s="48">
         <f>BG46/AW46</f>
         <v>551.426003128889</v>
       </c>
@@ -4136,7 +4127,7 @@
       <c r="AG47" s="4">
         <v>0.12</v>
       </c>
-      <c r="AK47" s="61">
+      <c r="AK47" s="58">
         <v>1008801360.47</v>
       </c>
       <c r="AN47" s="5">
@@ -4167,7 +4158,7 @@
       <c r="AV47" s="3">
         <v>0</v>
       </c>
-      <c r="AW47" s="69">
+      <c r="AW47" s="66">
         <v>69005147</v>
       </c>
       <c r="AX47" s="3">
@@ -4202,19 +4193,19 @@
         <f>BA47*(1-E47)</f>
         <v>59102550223.8217</v>
       </c>
-      <c r="BI47" s="51">
+      <c r="BI47" s="48">
         <f>BD47/AW47</f>
         <v>121.8268255253</v>
       </c>
-      <c r="BJ47" s="73">
+      <c r="BJ47" s="70">
         <f>BE47/AW47</f>
         <v>219.28828594554</v>
       </c>
-      <c r="BK47" s="73">
+      <c r="BK47" s="70">
         <f>BF47/AW47</f>
         <v>514.807049435258</v>
       </c>
-      <c r="BL47" s="51">
+      <c r="BL47" s="48">
         <f>BG47/AW47</f>
         <v>856.494809348376</v>
       </c>
@@ -4658,93 +4649,93 @@
         <f>BA61*(1-E61)</f>
         <v>4926281961816.99</v>
       </c>
-      <c r="BI61" s="51">
+      <c r="BI61" s="48">
         <f>BD61/AW61</f>
         <v>2.06169747176937</v>
       </c>
-      <c r="BJ61" s="73">
+      <c r="BJ61" s="70">
         <f>BE61/AW61</f>
         <v>93.1957983911378</v>
       </c>
-      <c r="BK61" s="73">
+      <c r="BK61" s="70">
         <f>BF61/AW61</f>
         <v>366.025047482403</v>
       </c>
-      <c r="BL61" s="51">
+      <c r="BL61" s="48">
         <f>BG61/AW61</f>
         <v>910.091446861572</v>
       </c>
     </row>
-    <row r="62" s="50" customFormat="1" spans="1:64">
-      <c r="A62" s="52" t="s">
+    <row r="62" s="47" customFormat="1" spans="1:64">
+      <c r="A62" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="B62" s="52"/>
-      <c r="C62" s="52"/>
-      <c r="D62" s="54"/>
-      <c r="E62" s="56"/>
-      <c r="F62" s="54"/>
-      <c r="G62" s="54"/>
-      <c r="H62" s="54"/>
-      <c r="I62" s="52"/>
-      <c r="J62" s="52"/>
-      <c r="K62" s="57">
+      <c r="B62" s="49"/>
+      <c r="C62" s="49"/>
+      <c r="D62" s="51"/>
+      <c r="E62" s="53"/>
+      <c r="F62" s="51"/>
+      <c r="G62" s="51"/>
+      <c r="H62" s="51"/>
+      <c r="I62" s="49"/>
+      <c r="J62" s="49"/>
+      <c r="K62" s="54">
         <f>AVERAGE(K51:K61)</f>
         <v>0.843636363636364</v>
       </c>
-      <c r="L62" s="52"/>
-      <c r="M62" s="52"/>
-      <c r="N62" s="52"/>
-      <c r="O62" s="54"/>
-      <c r="P62" s="56"/>
-      <c r="Q62" s="56"/>
-      <c r="R62" s="54"/>
-      <c r="S62" s="54"/>
-      <c r="T62" s="54"/>
-      <c r="U62" s="54"/>
-      <c r="V62" s="54"/>
-      <c r="W62" s="54"/>
-      <c r="X62" s="54"/>
-      <c r="Y62" s="54"/>
-      <c r="Z62" s="54"/>
-      <c r="AA62" s="54"/>
-      <c r="AB62" s="54"/>
-      <c r="AC62" s="54"/>
-      <c r="AD62" s="54"/>
-      <c r="AE62" s="56"/>
-      <c r="AF62" s="52"/>
-      <c r="AG62" s="58"/>
-      <c r="AH62" s="54"/>
-      <c r="AI62" s="52"/>
-      <c r="AJ62" s="52"/>
-      <c r="AK62" s="52"/>
-      <c r="AL62" s="52"/>
-      <c r="AM62" s="52"/>
-      <c r="AN62" s="56"/>
-      <c r="AO62" s="56"/>
-      <c r="AP62" s="54"/>
-      <c r="AQ62" s="54"/>
-      <c r="AR62" s="54"/>
-      <c r="AS62" s="54"/>
-      <c r="AT62" s="54"/>
-      <c r="AU62" s="54"/>
-      <c r="AV62" s="52"/>
-      <c r="AW62" s="52"/>
-      <c r="AX62" s="54"/>
-      <c r="AY62" s="54"/>
-      <c r="AZ62" s="54"/>
-      <c r="BA62" s="54"/>
-      <c r="BB62" s="54"/>
-      <c r="BC62" s="54"/>
-      <c r="BD62" s="54"/>
-      <c r="BE62" s="54"/>
-      <c r="BF62" s="54"/>
-      <c r="BG62" s="54"/>
-      <c r="BH62" s="54"/>
-      <c r="BI62" s="57"/>
-      <c r="BJ62" s="57"/>
-      <c r="BK62" s="57"/>
-      <c r="BL62" s="57"/>
+      <c r="L62" s="49"/>
+      <c r="M62" s="49"/>
+      <c r="N62" s="49"/>
+      <c r="O62" s="51"/>
+      <c r="P62" s="53"/>
+      <c r="Q62" s="53"/>
+      <c r="R62" s="51"/>
+      <c r="S62" s="51"/>
+      <c r="T62" s="51"/>
+      <c r="U62" s="51"/>
+      <c r="V62" s="51"/>
+      <c r="W62" s="51"/>
+      <c r="X62" s="51"/>
+      <c r="Y62" s="51"/>
+      <c r="Z62" s="51"/>
+      <c r="AA62" s="51"/>
+      <c r="AB62" s="51"/>
+      <c r="AC62" s="51"/>
+      <c r="AD62" s="51"/>
+      <c r="AE62" s="53"/>
+      <c r="AF62" s="49"/>
+      <c r="AG62" s="55"/>
+      <c r="AH62" s="51"/>
+      <c r="AI62" s="49"/>
+      <c r="AJ62" s="49"/>
+      <c r="AK62" s="49"/>
+      <c r="AL62" s="49"/>
+      <c r="AM62" s="49"/>
+      <c r="AN62" s="53"/>
+      <c r="AO62" s="53"/>
+      <c r="AP62" s="51"/>
+      <c r="AQ62" s="51"/>
+      <c r="AR62" s="51"/>
+      <c r="AS62" s="51"/>
+      <c r="AT62" s="51"/>
+      <c r="AU62" s="51"/>
+      <c r="AV62" s="49"/>
+      <c r="AW62" s="49"/>
+      <c r="AX62" s="51"/>
+      <c r="AY62" s="51"/>
+      <c r="AZ62" s="51"/>
+      <c r="BA62" s="51"/>
+      <c r="BB62" s="51"/>
+      <c r="BC62" s="51"/>
+      <c r="BD62" s="51"/>
+      <c r="BE62" s="51"/>
+      <c r="BF62" s="51"/>
+      <c r="BG62" s="51"/>
+      <c r="BH62" s="51"/>
+      <c r="BI62" s="54"/>
+      <c r="BJ62" s="54"/>
+      <c r="BK62" s="54"/>
+      <c r="BL62" s="54"/>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1">
@@ -5029,76 +5020,76 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="77" s="50" customFormat="1" spans="1:64">
-      <c r="A77" s="52" t="s">
+    <row r="77" s="47" customFormat="1" spans="1:64">
+      <c r="A77" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="B77" s="52"/>
-      <c r="C77" s="52"/>
-      <c r="D77" s="54"/>
-      <c r="E77" s="56"/>
-      <c r="F77" s="54"/>
-      <c r="G77" s="54"/>
-      <c r="H77" s="54"/>
-      <c r="I77" s="52"/>
-      <c r="J77" s="52"/>
-      <c r="K77" s="57">
+      <c r="B77" s="49"/>
+      <c r="C77" s="49"/>
+      <c r="D77" s="51"/>
+      <c r="E77" s="53"/>
+      <c r="F77" s="51"/>
+      <c r="G77" s="51"/>
+      <c r="H77" s="51"/>
+      <c r="I77" s="49"/>
+      <c r="J77" s="49"/>
+      <c r="K77" s="54">
         <f>AVERAGE(K64:K76)</f>
         <v>1.52769230769231</v>
       </c>
-      <c r="L77" s="52"/>
-      <c r="M77" s="52"/>
-      <c r="N77" s="52"/>
-      <c r="O77" s="54"/>
-      <c r="P77" s="56"/>
-      <c r="Q77" s="56"/>
-      <c r="R77" s="54"/>
-      <c r="S77" s="54"/>
-      <c r="T77" s="54"/>
-      <c r="U77" s="54"/>
-      <c r="V77" s="54"/>
-      <c r="W77" s="54"/>
-      <c r="X77" s="54"/>
-      <c r="Y77" s="54"/>
-      <c r="Z77" s="54"/>
-      <c r="AA77" s="54"/>
-      <c r="AB77" s="54"/>
-      <c r="AC77" s="54"/>
-      <c r="AD77" s="54"/>
-      <c r="AE77" s="56"/>
-      <c r="AF77" s="52"/>
-      <c r="AG77" s="58"/>
-      <c r="AH77" s="54"/>
-      <c r="AI77" s="52"/>
-      <c r="AJ77" s="52"/>
-      <c r="AK77" s="52"/>
-      <c r="AL77" s="52"/>
-      <c r="AM77" s="52"/>
-      <c r="AN77" s="56"/>
-      <c r="AO77" s="56"/>
-      <c r="AP77" s="54"/>
-      <c r="AQ77" s="54"/>
-      <c r="AR77" s="54"/>
-      <c r="AS77" s="54"/>
-      <c r="AT77" s="54"/>
-      <c r="AU77" s="54"/>
-      <c r="AV77" s="52"/>
-      <c r="AW77" s="52"/>
-      <c r="AX77" s="54"/>
-      <c r="AY77" s="54"/>
-      <c r="AZ77" s="54"/>
-      <c r="BA77" s="54"/>
-      <c r="BB77" s="54"/>
-      <c r="BC77" s="54"/>
-      <c r="BD77" s="54"/>
-      <c r="BE77" s="54"/>
-      <c r="BF77" s="54"/>
-      <c r="BG77" s="54"/>
-      <c r="BH77" s="54"/>
-      <c r="BI77" s="57"/>
-      <c r="BJ77" s="57"/>
-      <c r="BK77" s="57"/>
-      <c r="BL77" s="57"/>
+      <c r="L77" s="49"/>
+      <c r="M77" s="49"/>
+      <c r="N77" s="49"/>
+      <c r="O77" s="51"/>
+      <c r="P77" s="53"/>
+      <c r="Q77" s="53"/>
+      <c r="R77" s="51"/>
+      <c r="S77" s="51"/>
+      <c r="T77" s="51"/>
+      <c r="U77" s="51"/>
+      <c r="V77" s="51"/>
+      <c r="W77" s="51"/>
+      <c r="X77" s="51"/>
+      <c r="Y77" s="51"/>
+      <c r="Z77" s="51"/>
+      <c r="AA77" s="51"/>
+      <c r="AB77" s="51"/>
+      <c r="AC77" s="51"/>
+      <c r="AD77" s="51"/>
+      <c r="AE77" s="53"/>
+      <c r="AF77" s="49"/>
+      <c r="AG77" s="55"/>
+      <c r="AH77" s="51"/>
+      <c r="AI77" s="49"/>
+      <c r="AJ77" s="49"/>
+      <c r="AK77" s="49"/>
+      <c r="AL77" s="49"/>
+      <c r="AM77" s="49"/>
+      <c r="AN77" s="53"/>
+      <c r="AO77" s="53"/>
+      <c r="AP77" s="51"/>
+      <c r="AQ77" s="51"/>
+      <c r="AR77" s="51"/>
+      <c r="AS77" s="51"/>
+      <c r="AT77" s="51"/>
+      <c r="AU77" s="51"/>
+      <c r="AV77" s="49"/>
+      <c r="AW77" s="49"/>
+      <c r="AX77" s="51"/>
+      <c r="AY77" s="51"/>
+      <c r="AZ77" s="51"/>
+      <c r="BA77" s="51"/>
+      <c r="BB77" s="51"/>
+      <c r="BC77" s="51"/>
+      <c r="BD77" s="51"/>
+      <c r="BE77" s="51"/>
+      <c r="BF77" s="51"/>
+      <c r="BG77" s="51"/>
+      <c r="BH77" s="51"/>
+      <c r="BI77" s="54"/>
+      <c r="BJ77" s="54"/>
+      <c r="BK77" s="54"/>
+      <c r="BL77" s="54"/>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="1">
@@ -5212,76 +5203,76 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="86" s="50" customFormat="1" spans="1:64">
-      <c r="A86" s="52" t="s">
+    <row r="86" s="47" customFormat="1" spans="1:64">
+      <c r="A86" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="B86" s="52"/>
-      <c r="C86" s="52"/>
-      <c r="D86" s="54"/>
-      <c r="E86" s="56"/>
-      <c r="F86" s="54"/>
-      <c r="G86" s="54"/>
-      <c r="H86" s="54"/>
-      <c r="I86" s="52"/>
-      <c r="J86" s="52"/>
-      <c r="K86" s="57">
+      <c r="B86" s="49"/>
+      <c r="C86" s="49"/>
+      <c r="D86" s="51"/>
+      <c r="E86" s="53"/>
+      <c r="F86" s="51"/>
+      <c r="G86" s="51"/>
+      <c r="H86" s="51"/>
+      <c r="I86" s="49"/>
+      <c r="J86" s="49"/>
+      <c r="K86" s="54">
         <f>AVERAGE(K78:K85)</f>
         <v>0.67375</v>
       </c>
-      <c r="L86" s="52"/>
-      <c r="M86" s="52"/>
-      <c r="N86" s="52"/>
-      <c r="O86" s="54"/>
-      <c r="P86" s="56"/>
-      <c r="Q86" s="56"/>
-      <c r="R86" s="54"/>
-      <c r="S86" s="54"/>
-      <c r="T86" s="54"/>
-      <c r="U86" s="54"/>
-      <c r="V86" s="54"/>
-      <c r="W86" s="54"/>
-      <c r="X86" s="54"/>
-      <c r="Y86" s="54"/>
-      <c r="Z86" s="54"/>
-      <c r="AA86" s="54"/>
-      <c r="AB86" s="54"/>
-      <c r="AC86" s="54"/>
-      <c r="AD86" s="54"/>
-      <c r="AE86" s="56"/>
-      <c r="AF86" s="52"/>
-      <c r="AG86" s="58"/>
-      <c r="AH86" s="54"/>
-      <c r="AI86" s="52"/>
-      <c r="AJ86" s="52"/>
-      <c r="AK86" s="52"/>
-      <c r="AL86" s="52"/>
-      <c r="AM86" s="52"/>
-      <c r="AN86" s="56"/>
-      <c r="AO86" s="56"/>
-      <c r="AP86" s="54"/>
-      <c r="AQ86" s="54"/>
-      <c r="AR86" s="54"/>
-      <c r="AS86" s="54"/>
-      <c r="AT86" s="54"/>
-      <c r="AU86" s="54"/>
-      <c r="AV86" s="52"/>
-      <c r="AW86" s="52"/>
-      <c r="AX86" s="54"/>
-      <c r="AY86" s="54"/>
-      <c r="AZ86" s="54"/>
-      <c r="BA86" s="54"/>
-      <c r="BB86" s="54"/>
-      <c r="BC86" s="54"/>
-      <c r="BD86" s="54"/>
-      <c r="BE86" s="54"/>
-      <c r="BF86" s="54"/>
-      <c r="BG86" s="54"/>
-      <c r="BH86" s="54"/>
-      <c r="BI86" s="57"/>
-      <c r="BJ86" s="57"/>
-      <c r="BK86" s="57"/>
-      <c r="BL86" s="57"/>
+      <c r="L86" s="49"/>
+      <c r="M86" s="49"/>
+      <c r="N86" s="49"/>
+      <c r="O86" s="51"/>
+      <c r="P86" s="53"/>
+      <c r="Q86" s="53"/>
+      <c r="R86" s="51"/>
+      <c r="S86" s="51"/>
+      <c r="T86" s="51"/>
+      <c r="U86" s="51"/>
+      <c r="V86" s="51"/>
+      <c r="W86" s="51"/>
+      <c r="X86" s="51"/>
+      <c r="Y86" s="51"/>
+      <c r="Z86" s="51"/>
+      <c r="AA86" s="51"/>
+      <c r="AB86" s="51"/>
+      <c r="AC86" s="51"/>
+      <c r="AD86" s="51"/>
+      <c r="AE86" s="53"/>
+      <c r="AF86" s="49"/>
+      <c r="AG86" s="55"/>
+      <c r="AH86" s="51"/>
+      <c r="AI86" s="49"/>
+      <c r="AJ86" s="49"/>
+      <c r="AK86" s="49"/>
+      <c r="AL86" s="49"/>
+      <c r="AM86" s="49"/>
+      <c r="AN86" s="53"/>
+      <c r="AO86" s="53"/>
+      <c r="AP86" s="51"/>
+      <c r="AQ86" s="51"/>
+      <c r="AR86" s="51"/>
+      <c r="AS86" s="51"/>
+      <c r="AT86" s="51"/>
+      <c r="AU86" s="51"/>
+      <c r="AV86" s="49"/>
+      <c r="AW86" s="49"/>
+      <c r="AX86" s="51"/>
+      <c r="AY86" s="51"/>
+      <c r="AZ86" s="51"/>
+      <c r="BA86" s="51"/>
+      <c r="BB86" s="51"/>
+      <c r="BC86" s="51"/>
+      <c r="BD86" s="51"/>
+      <c r="BE86" s="51"/>
+      <c r="BF86" s="51"/>
+      <c r="BG86" s="51"/>
+      <c r="BH86" s="51"/>
+      <c r="BI86" s="54"/>
+      <c r="BJ86" s="54"/>
+      <c r="BK86" s="54"/>
+      <c r="BL86" s="54"/>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="1">
@@ -5515,76 +5506,76 @@
         <v>89.25</v>
       </c>
     </row>
-    <row r="98" s="50" customFormat="1" spans="1:64">
-      <c r="A98" s="52" t="s">
+    <row r="98" s="47" customFormat="1" spans="1:64">
+      <c r="A98" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="B98" s="52"/>
-      <c r="C98" s="52"/>
-      <c r="D98" s="54"/>
-      <c r="E98" s="56"/>
-      <c r="F98" s="54"/>
-      <c r="G98" s="54"/>
-      <c r="H98" s="54"/>
-      <c r="I98" s="52"/>
-      <c r="J98" s="52"/>
-      <c r="K98" s="57">
+      <c r="B98" s="49"/>
+      <c r="C98" s="49"/>
+      <c r="D98" s="51"/>
+      <c r="E98" s="53"/>
+      <c r="F98" s="51"/>
+      <c r="G98" s="51"/>
+      <c r="H98" s="51"/>
+      <c r="I98" s="49"/>
+      <c r="J98" s="49"/>
+      <c r="K98" s="54">
         <f>AVERAGE(K87:K97)</f>
         <v>1.42909090909091</v>
       </c>
-      <c r="L98" s="52"/>
-      <c r="M98" s="52"/>
-      <c r="N98" s="52"/>
-      <c r="O98" s="54"/>
-      <c r="P98" s="56"/>
-      <c r="Q98" s="56"/>
-      <c r="R98" s="54"/>
-      <c r="S98" s="54"/>
-      <c r="T98" s="54"/>
-      <c r="U98" s="54"/>
-      <c r="V98" s="54"/>
-      <c r="W98" s="54"/>
-      <c r="X98" s="54"/>
-      <c r="Y98" s="54"/>
-      <c r="Z98" s="54"/>
-      <c r="AA98" s="54"/>
-      <c r="AB98" s="54"/>
-      <c r="AC98" s="54"/>
-      <c r="AD98" s="54"/>
-      <c r="AE98" s="56"/>
-      <c r="AF98" s="52"/>
-      <c r="AG98" s="58"/>
-      <c r="AH98" s="54"/>
-      <c r="AI98" s="52"/>
-      <c r="AJ98" s="52"/>
-      <c r="AK98" s="52"/>
-      <c r="AL98" s="52"/>
-      <c r="AM98" s="52"/>
-      <c r="AN98" s="56"/>
-      <c r="AO98" s="56"/>
-      <c r="AP98" s="54"/>
-      <c r="AQ98" s="54"/>
-      <c r="AR98" s="54"/>
-      <c r="AS98" s="54"/>
-      <c r="AT98" s="54"/>
-      <c r="AU98" s="54"/>
-      <c r="AV98" s="52"/>
-      <c r="AW98" s="52"/>
-      <c r="AX98" s="54"/>
-      <c r="AY98" s="54"/>
-      <c r="AZ98" s="54"/>
-      <c r="BA98" s="54"/>
-      <c r="BB98" s="54"/>
-      <c r="BC98" s="54"/>
-      <c r="BD98" s="54"/>
-      <c r="BE98" s="54"/>
-      <c r="BF98" s="54"/>
-      <c r="BG98" s="54"/>
-      <c r="BH98" s="54"/>
-      <c r="BI98" s="57"/>
-      <c r="BJ98" s="57"/>
-      <c r="BK98" s="57"/>
-      <c r="BL98" s="57"/>
+      <c r="L98" s="49"/>
+      <c r="M98" s="49"/>
+      <c r="N98" s="49"/>
+      <c r="O98" s="51"/>
+      <c r="P98" s="53"/>
+      <c r="Q98" s="53"/>
+      <c r="R98" s="51"/>
+      <c r="S98" s="51"/>
+      <c r="T98" s="51"/>
+      <c r="U98" s="51"/>
+      <c r="V98" s="51"/>
+      <c r="W98" s="51"/>
+      <c r="X98" s="51"/>
+      <c r="Y98" s="51"/>
+      <c r="Z98" s="51"/>
+      <c r="AA98" s="51"/>
+      <c r="AB98" s="51"/>
+      <c r="AC98" s="51"/>
+      <c r="AD98" s="51"/>
+      <c r="AE98" s="53"/>
+      <c r="AF98" s="49"/>
+      <c r="AG98" s="55"/>
+      <c r="AH98" s="51"/>
+      <c r="AI98" s="49"/>
+      <c r="AJ98" s="49"/>
+      <c r="AK98" s="49"/>
+      <c r="AL98" s="49"/>
+      <c r="AM98" s="49"/>
+      <c r="AN98" s="53"/>
+      <c r="AO98" s="53"/>
+      <c r="AP98" s="51"/>
+      <c r="AQ98" s="51"/>
+      <c r="AR98" s="51"/>
+      <c r="AS98" s="51"/>
+      <c r="AT98" s="51"/>
+      <c r="AU98" s="51"/>
+      <c r="AV98" s="49"/>
+      <c r="AW98" s="49"/>
+      <c r="AX98" s="51"/>
+      <c r="AY98" s="51"/>
+      <c r="AZ98" s="51"/>
+      <c r="BA98" s="51"/>
+      <c r="BB98" s="51"/>
+      <c r="BC98" s="51"/>
+      <c r="BD98" s="51"/>
+      <c r="BE98" s="51"/>
+      <c r="BF98" s="51"/>
+      <c r="BG98" s="51"/>
+      <c r="BH98" s="51"/>
+      <c r="BI98" s="54"/>
+      <c r="BJ98" s="54"/>
+      <c r="BK98" s="54"/>
+      <c r="BL98" s="54"/>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="1">
@@ -5672,73 +5663,73 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="103" s="50" customFormat="1" spans="1:64">
-      <c r="A103" s="52" t="s">
+    <row r="103" s="47" customFormat="1" spans="1:64">
+      <c r="A103" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="B103" s="52"/>
-      <c r="C103" s="52"/>
-      <c r="D103" s="54"/>
-      <c r="E103" s="56"/>
-      <c r="F103" s="54"/>
-      <c r="G103" s="54"/>
-      <c r="H103" s="54"/>
-      <c r="I103" s="52"/>
-      <c r="J103" s="52"/>
-      <c r="K103" s="52"/>
-      <c r="L103" s="52"/>
-      <c r="M103" s="52"/>
-      <c r="N103" s="52"/>
-      <c r="O103" s="54"/>
-      <c r="P103" s="56"/>
-      <c r="Q103" s="56"/>
-      <c r="R103" s="54"/>
-      <c r="S103" s="54"/>
-      <c r="T103" s="54"/>
-      <c r="U103" s="54"/>
-      <c r="V103" s="54"/>
-      <c r="W103" s="54"/>
-      <c r="X103" s="54"/>
-      <c r="Y103" s="54"/>
-      <c r="Z103" s="54"/>
-      <c r="AA103" s="54"/>
-      <c r="AB103" s="54"/>
-      <c r="AC103" s="54"/>
-      <c r="AD103" s="54"/>
-      <c r="AE103" s="56"/>
-      <c r="AF103" s="52"/>
-      <c r="AG103" s="58"/>
-      <c r="AH103" s="54"/>
-      <c r="AI103" s="52"/>
-      <c r="AJ103" s="52"/>
-      <c r="AK103" s="52"/>
-      <c r="AL103" s="52"/>
-      <c r="AM103" s="52"/>
-      <c r="AN103" s="56"/>
-      <c r="AO103" s="56"/>
-      <c r="AP103" s="54"/>
-      <c r="AQ103" s="54"/>
-      <c r="AR103" s="54"/>
-      <c r="AS103" s="54"/>
-      <c r="AT103" s="54"/>
-      <c r="AU103" s="54"/>
-      <c r="AV103" s="52"/>
-      <c r="AW103" s="52"/>
-      <c r="AX103" s="54"/>
-      <c r="AY103" s="54"/>
-      <c r="AZ103" s="54"/>
-      <c r="BA103" s="54"/>
-      <c r="BB103" s="54"/>
-      <c r="BC103" s="54"/>
-      <c r="BD103" s="54"/>
-      <c r="BE103" s="54"/>
-      <c r="BF103" s="54"/>
-      <c r="BG103" s="54"/>
-      <c r="BH103" s="54"/>
-      <c r="BI103" s="57"/>
-      <c r="BJ103" s="57"/>
-      <c r="BK103" s="57"/>
-      <c r="BL103" s="57"/>
+      <c r="B103" s="49"/>
+      <c r="C103" s="49"/>
+      <c r="D103" s="51"/>
+      <c r="E103" s="53"/>
+      <c r="F103" s="51"/>
+      <c r="G103" s="51"/>
+      <c r="H103" s="51"/>
+      <c r="I103" s="49"/>
+      <c r="J103" s="49"/>
+      <c r="K103" s="49"/>
+      <c r="L103" s="49"/>
+      <c r="M103" s="49"/>
+      <c r="N103" s="49"/>
+      <c r="O103" s="51"/>
+      <c r="P103" s="53"/>
+      <c r="Q103" s="53"/>
+      <c r="R103" s="51"/>
+      <c r="S103" s="51"/>
+      <c r="T103" s="51"/>
+      <c r="U103" s="51"/>
+      <c r="V103" s="51"/>
+      <c r="W103" s="51"/>
+      <c r="X103" s="51"/>
+      <c r="Y103" s="51"/>
+      <c r="Z103" s="51"/>
+      <c r="AA103" s="51"/>
+      <c r="AB103" s="51"/>
+      <c r="AC103" s="51"/>
+      <c r="AD103" s="51"/>
+      <c r="AE103" s="53"/>
+      <c r="AF103" s="49"/>
+      <c r="AG103" s="55"/>
+      <c r="AH103" s="51"/>
+      <c r="AI103" s="49"/>
+      <c r="AJ103" s="49"/>
+      <c r="AK103" s="49"/>
+      <c r="AL103" s="49"/>
+      <c r="AM103" s="49"/>
+      <c r="AN103" s="53"/>
+      <c r="AO103" s="53"/>
+      <c r="AP103" s="51"/>
+      <c r="AQ103" s="51"/>
+      <c r="AR103" s="51"/>
+      <c r="AS103" s="51"/>
+      <c r="AT103" s="51"/>
+      <c r="AU103" s="51"/>
+      <c r="AV103" s="49"/>
+      <c r="AW103" s="49"/>
+      <c r="AX103" s="51"/>
+      <c r="AY103" s="51"/>
+      <c r="AZ103" s="51"/>
+      <c r="BA103" s="51"/>
+      <c r="BB103" s="51"/>
+      <c r="BC103" s="51"/>
+      <c r="BD103" s="51"/>
+      <c r="BE103" s="51"/>
+      <c r="BF103" s="51"/>
+      <c r="BG103" s="51"/>
+      <c r="BH103" s="51"/>
+      <c r="BI103" s="54"/>
+      <c r="BJ103" s="54"/>
+      <c r="BK103" s="54"/>
+      <c r="BL103" s="54"/>
     </row>
     <row r="104" spans="1:11">
       <c r="A104" s="1">
@@ -6335,73 +6326,73 @@
         <v>78</v>
       </c>
     </row>
-    <row r="148" s="50" customFormat="1" spans="1:64">
-      <c r="A148" s="52" t="s">
+    <row r="148" s="47" customFormat="1" spans="1:64">
+      <c r="A148" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="B148" s="52"/>
-      <c r="C148" s="52"/>
-      <c r="D148" s="54"/>
-      <c r="E148" s="56"/>
-      <c r="F148" s="54"/>
-      <c r="G148" s="54"/>
-      <c r="H148" s="54"/>
-      <c r="I148" s="52"/>
-      <c r="J148" s="52"/>
-      <c r="K148" s="52"/>
-      <c r="L148" s="52"/>
-      <c r="M148" s="52"/>
-      <c r="N148" s="52"/>
-      <c r="O148" s="54"/>
-      <c r="P148" s="56"/>
-      <c r="Q148" s="56"/>
-      <c r="R148" s="54"/>
-      <c r="S148" s="54"/>
-      <c r="T148" s="54"/>
-      <c r="U148" s="54"/>
-      <c r="V148" s="54"/>
-      <c r="W148" s="54"/>
-      <c r="X148" s="54"/>
-      <c r="Y148" s="54"/>
-      <c r="Z148" s="54"/>
-      <c r="AA148" s="54"/>
-      <c r="AB148" s="54"/>
-      <c r="AC148" s="54"/>
-      <c r="AD148" s="54"/>
-      <c r="AE148" s="56"/>
-      <c r="AF148" s="52"/>
-      <c r="AG148" s="58"/>
-      <c r="AH148" s="54"/>
-      <c r="AI148" s="52"/>
-      <c r="AJ148" s="52"/>
-      <c r="AK148" s="52"/>
-      <c r="AL148" s="52"/>
-      <c r="AM148" s="52"/>
-      <c r="AN148" s="56"/>
-      <c r="AO148" s="56"/>
-      <c r="AP148" s="54"/>
-      <c r="AQ148" s="54"/>
-      <c r="AR148" s="54"/>
-      <c r="AS148" s="54"/>
-      <c r="AT148" s="54"/>
-      <c r="AU148" s="54"/>
-      <c r="AV148" s="52"/>
-      <c r="AW148" s="52"/>
-      <c r="AX148" s="54"/>
-      <c r="AY148" s="54"/>
-      <c r="AZ148" s="54"/>
-      <c r="BA148" s="54"/>
-      <c r="BB148" s="54"/>
-      <c r="BC148" s="54"/>
-      <c r="BD148" s="54"/>
-      <c r="BE148" s="54"/>
-      <c r="BF148" s="54"/>
-      <c r="BG148" s="54"/>
-      <c r="BH148" s="54"/>
-      <c r="BI148" s="57"/>
-      <c r="BJ148" s="57"/>
-      <c r="BK148" s="57"/>
-      <c r="BL148" s="57"/>
+      <c r="B148" s="49"/>
+      <c r="C148" s="49"/>
+      <c r="D148" s="51"/>
+      <c r="E148" s="53"/>
+      <c r="F148" s="51"/>
+      <c r="G148" s="51"/>
+      <c r="H148" s="51"/>
+      <c r="I148" s="49"/>
+      <c r="J148" s="49"/>
+      <c r="K148" s="49"/>
+      <c r="L148" s="49"/>
+      <c r="M148" s="49"/>
+      <c r="N148" s="49"/>
+      <c r="O148" s="51"/>
+      <c r="P148" s="53"/>
+      <c r="Q148" s="53"/>
+      <c r="R148" s="51"/>
+      <c r="S148" s="51"/>
+      <c r="T148" s="51"/>
+      <c r="U148" s="51"/>
+      <c r="V148" s="51"/>
+      <c r="W148" s="51"/>
+      <c r="X148" s="51"/>
+      <c r="Y148" s="51"/>
+      <c r="Z148" s="51"/>
+      <c r="AA148" s="51"/>
+      <c r="AB148" s="51"/>
+      <c r="AC148" s="51"/>
+      <c r="AD148" s="51"/>
+      <c r="AE148" s="53"/>
+      <c r="AF148" s="49"/>
+      <c r="AG148" s="55"/>
+      <c r="AH148" s="51"/>
+      <c r="AI148" s="49"/>
+      <c r="AJ148" s="49"/>
+      <c r="AK148" s="49"/>
+      <c r="AL148" s="49"/>
+      <c r="AM148" s="49"/>
+      <c r="AN148" s="53"/>
+      <c r="AO148" s="53"/>
+      <c r="AP148" s="51"/>
+      <c r="AQ148" s="51"/>
+      <c r="AR148" s="51"/>
+      <c r="AS148" s="51"/>
+      <c r="AT148" s="51"/>
+      <c r="AU148" s="51"/>
+      <c r="AV148" s="49"/>
+      <c r="AW148" s="49"/>
+      <c r="AX148" s="51"/>
+      <c r="AY148" s="51"/>
+      <c r="AZ148" s="51"/>
+      <c r="BA148" s="51"/>
+      <c r="BB148" s="51"/>
+      <c r="BC148" s="51"/>
+      <c r="BD148" s="51"/>
+      <c r="BE148" s="51"/>
+      <c r="BF148" s="51"/>
+      <c r="BG148" s="51"/>
+      <c r="BH148" s="51"/>
+      <c r="BI148" s="54"/>
+      <c r="BJ148" s="54"/>
+      <c r="BK148" s="54"/>
+      <c r="BL148" s="54"/>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="1">
@@ -6505,8 +6496,8 @@
       </c>
     </row>
     <row r="162" spans="1:2">
-      <c r="A162" s="75"/>
-      <c r="B162" s="75"/>
+      <c r="A162" s="72"/>
+      <c r="B162" s="72"/>
     </row>
     <row r="163" spans="2:2">
       <c r="B163" s="1" t="s">
@@ -6538,8 +6529,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88461538461539" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="8.88461538461539" style="47"/>
-    <col min="2" max="2" width="9.66346153846154" style="47" customWidth="1"/>
+    <col min="1" max="1" width="8.88461538461539" style="44"/>
+    <col min="2" max="2" width="9.66346153846154" style="44" customWidth="1"/>
     <col min="3" max="3" width="20.8846153846154" customWidth="1"/>
     <col min="4" max="4" width="5.66346153846154" customWidth="1"/>
     <col min="5" max="5" width="23.1153846153846" customWidth="1"/>
@@ -6551,10 +6542,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -6612,10 +6603,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -6780,16 +6771,16 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="12" s="46" customFormat="1" spans="1:9">
-      <c r="A12" s="48" t="s">
+    <row r="12" s="43" customFormat="1" spans="1:9">
+      <c r="A12" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48">
+      <c r="B12" s="45"/>
+      <c r="C12" s="45">
         <f>AVERAGE(C2:C11)</f>
         <v>4.995</v>
       </c>
-      <c r="D12" s="48">
+      <c r="D12" s="45">
         <f>AVERAGE(D2:D11)</f>
         <v>1.327</v>
       </c>
@@ -6797,7 +6788,7 @@
       <c r="F12" s="9">
         <v>74.55</v>
       </c>
-      <c r="G12" s="49">
+      <c r="G12" s="46">
         <f>D12/F12</f>
         <v>0.0178001341381623</v>
       </c>
@@ -6944,16 +6935,16 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="23" s="46" customFormat="1" spans="1:9">
-      <c r="A23" s="48" t="s">
+    <row r="23" s="43" customFormat="1" spans="1:9">
+      <c r="A23" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48">
+      <c r="B23" s="45"/>
+      <c r="C23" s="45">
         <f>AVERAGE(C13:C22)</f>
         <v>7.022</v>
       </c>
-      <c r="D23" s="48">
+      <c r="D23" s="45">
         <f>AVERAGE(D13:D22)</f>
         <v>1.616</v>
       </c>
@@ -6961,7 +6952,7 @@
       <c r="F23" s="9">
         <v>53.85</v>
       </c>
-      <c r="G23" s="49">
+      <c r="G23" s="46">
         <f>D23/F23</f>
         <v>0.0300092850510678</v>
       </c>
@@ -7081,22 +7072,22 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="48" t="s">
+      <c r="A32" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48">
+      <c r="B32" s="45"/>
+      <c r="C32" s="45">
         <f>AVERAGE(C25:C31)</f>
         <v>9.32285714285714</v>
       </c>
-      <c r="D32" s="48">
+      <c r="D32" s="45">
         <f>AVERAGE(D25:D31)</f>
         <v>1.45285714285714</v>
       </c>
       <c r="F32" s="1">
         <v>89.73</v>
       </c>
-      <c r="G32" s="49">
+      <c r="G32" s="46">
         <f>D32/F32</f>
         <v>0.0161914314371687</v>
       </c>
@@ -7242,22 +7233,22 @@
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="48" t="s">
+      <c r="A43" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="B43" s="48"/>
-      <c r="C43" s="48">
+      <c r="B43" s="45"/>
+      <c r="C43" s="45">
         <f>AVERAGE(C33:C42)</f>
         <v>10.34</v>
       </c>
-      <c r="D43" s="48">
+      <c r="D43" s="45">
         <f>AVERAGE(D33:D42)</f>
         <v>1.215</v>
       </c>
       <c r="F43" s="1">
         <v>84.13</v>
       </c>
-      <c r="G43" s="49">
+      <c r="G43" s="46">
         <f>D43/F43</f>
         <v>0.0144419351004398</v>
       </c>
@@ -7375,22 +7366,22 @@
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="48" t="s">
+      <c r="A52" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="B52" s="48"/>
-      <c r="C52" s="48">
+      <c r="B52" s="45"/>
+      <c r="C52" s="45">
         <f>AVERAGE(C42:C51)</f>
         <v>12.823</v>
       </c>
-      <c r="D52" s="48">
+      <c r="D52" s="45">
         <f>AVERAGE(D42:D51)</f>
         <v>1.1935</v>
       </c>
       <c r="F52" s="1">
         <v>74.09</v>
       </c>
-      <c r="G52" s="49">
+      <c r="G52" s="46">
         <f>D52/F52</f>
         <v>0.0161087866108787</v>
       </c>
@@ -7536,22 +7527,22 @@
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="48" t="s">
+      <c r="A63" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="B63" s="48"/>
-      <c r="C63" s="48">
+      <c r="B63" s="45"/>
+      <c r="C63" s="45">
         <f>AVERAGE(C53:C62)</f>
         <v>3.386</v>
       </c>
-      <c r="D63" s="48">
+      <c r="D63" s="45">
         <f>AVERAGE(D53:D62)</f>
         <v>0.554</v>
       </c>
       <c r="F63" s="1">
         <v>52.18</v>
       </c>
-      <c r="G63" s="49">
+      <c r="G63" s="46">
         <f>D63/F63</f>
         <v>0.0106170946722882</v>
       </c>
@@ -7697,22 +7688,22 @@
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="48" t="s">
+      <c r="A74" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="B74" s="48"/>
-      <c r="C74" s="48">
+      <c r="B74" s="45"/>
+      <c r="C74" s="45">
         <f>AVERAGE(C64:C73)</f>
         <v>5.209</v>
       </c>
-      <c r="D74" s="48">
+      <c r="D74" s="45">
         <f>AVERAGE(D64:D73)</f>
         <v>0.873</v>
       </c>
       <c r="F74" s="1">
         <v>40.39</v>
       </c>
-      <c r="G74" s="49">
+      <c r="G74" s="46">
         <f>D74/F74</f>
         <v>0.0216142609556821</v>
       </c>
@@ -7729,11 +7720,11 @@
   <dimension ref="A1:CD14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AJ3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AK3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AN7" sqref="AN7"/>
+      <selection pane="bottomRight" activeCell="AN5" sqref="AN5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88461538461539" defaultRowHeight="16.8"/>
@@ -7782,172 +7773,172 @@
     <col min="69" max="70" width="20.9230769230769" style="7" customWidth="1"/>
     <col min="71" max="73" width="22.0769230769231" style="7" customWidth="1"/>
     <col min="74" max="74" width="20.9230769230769" style="7" customWidth="1"/>
-    <col min="75" max="75" width="19.8461538461538" style="10" customWidth="1"/>
-    <col min="76" max="79" width="12.8846153846154" style="11"/>
-    <col min="80" max="80" width="11.8846153846154" style="11" customWidth="1"/>
+    <col min="75" max="75" width="19.8461538461538" style="6" customWidth="1"/>
+    <col min="76" max="79" width="12.8846153846154" style="10"/>
+    <col min="80" max="80" width="11.8846153846154" style="10" customWidth="1"/>
     <col min="81" max="81" width="23.0769230769231" style="3" customWidth="1"/>
     <col min="82" max="82" width="24.6730769230769" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:82">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17" t="s">
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17" t="s">
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="AF1" s="17" t="s">
+      <c r="AF1" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="AG1" s="21" t="s">
+      <c r="AG1" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="AH1" s="22" t="s">
+      <c r="AH1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="12" t="s">
+      <c r="AI1" s="21"/>
+      <c r="AJ1" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="AK1" s="25" t="s">
+      <c r="AK1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="AL1" s="25" t="s">
+      <c r="AL1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="AM1" s="26" t="s">
+      <c r="AM1" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="AN1" s="25" t="s">
+      <c r="AN1" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="AO1" s="32" t="s">
+      <c r="AO1" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="AP1" s="32"/>
-      <c r="AQ1" s="12"/>
-      <c r="AR1" s="15" t="s">
+      <c r="AP1" s="31"/>
+      <c r="AQ1" s="11"/>
+      <c r="AR1" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="AS1" s="12" t="s">
+      <c r="AS1" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="AT1" s="12" t="s">
+      <c r="AT1" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="AU1" s="15" t="s">
+      <c r="AU1" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="AV1" s="12" t="s">
+      <c r="AV1" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="AW1" s="12" t="s">
+      <c r="AW1" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="AX1" s="12" t="s">
+      <c r="AX1" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="AY1" s="15" t="s">
+      <c r="AY1" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="AZ1" s="17" t="s">
+      <c r="AZ1" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="BA1" s="12" t="s">
+      <c r="BA1" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="BB1" s="17" t="s">
+      <c r="BB1" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="BC1" s="17"/>
-      <c r="BD1" s="17"/>
-      <c r="BE1" s="17"/>
-      <c r="BF1" s="36"/>
-      <c r="BG1" s="16" t="s">
+      <c r="BC1" s="16"/>
+      <c r="BD1" s="16"/>
+      <c r="BE1" s="16"/>
+      <c r="BF1" s="35"/>
+      <c r="BG1" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="BH1" s="17"/>
-      <c r="BI1" s="17"/>
-      <c r="BJ1" s="17"/>
-      <c r="BK1" s="17"/>
-      <c r="BL1" s="37" t="s">
+      <c r="BH1" s="16"/>
+      <c r="BI1" s="16"/>
+      <c r="BJ1" s="16"/>
+      <c r="BK1" s="16"/>
+      <c r="BL1" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="BM1" s="16" t="s">
+      <c r="BM1" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="BN1" s="16"/>
-      <c r="BO1" s="16"/>
-      <c r="BP1" s="16"/>
-      <c r="BQ1" s="16"/>
-      <c r="BR1" s="16" t="s">
+      <c r="BN1" s="15"/>
+      <c r="BO1" s="15"/>
+      <c r="BP1" s="15"/>
+      <c r="BQ1" s="15"/>
+      <c r="BR1" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="BS1" s="17"/>
-      <c r="BT1" s="17"/>
-      <c r="BU1" s="17"/>
-      <c r="BV1" s="17"/>
-      <c r="BW1" s="38" t="s">
+      <c r="BS1" s="16"/>
+      <c r="BT1" s="16"/>
+      <c r="BU1" s="16"/>
+      <c r="BV1" s="16"/>
+      <c r="BW1" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="BX1" s="39" t="s">
+      <c r="BX1" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="BY1" s="39"/>
-      <c r="BZ1" s="39"/>
-      <c r="CA1" s="39"/>
-      <c r="CB1" s="39"/>
+      <c r="BY1" s="38"/>
+      <c r="BZ1" s="38"/>
+      <c r="CA1" s="38"/>
+      <c r="CB1" s="38"/>
       <c r="CC1" s="3" t="s">
         <v>128</v>
       </c>
@@ -7956,377 +7947,377 @@
       </c>
     </row>
     <row r="2" ht="68" spans="1:80">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="15" t="s">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="M2" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="N2" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="O2" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="P2" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="Q2" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="R2" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="S2" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="T2" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="U2" s="19" t="s">
+      <c r="U2" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="V2" s="20" t="s">
+      <c r="V2" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="W2" s="20" t="s">
+      <c r="W2" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="X2" s="20" t="s">
+      <c r="X2" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="Y2" s="20" t="s">
+      <c r="Y2" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="Z2" s="20" t="s">
+      <c r="Z2" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="AA2" s="19" t="s">
+      <c r="AA2" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="AB2" s="19" t="s">
+      <c r="AB2" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="AC2" s="19" t="s">
+      <c r="AC2" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="AD2" s="19" t="s">
+      <c r="AD2" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="22"/>
-      <c r="AJ2" s="12"/>
-      <c r="AK2" s="25"/>
-      <c r="AL2" s="25"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="25"/>
-      <c r="AO2" s="32" t="s">
+      <c r="AE2" s="16"/>
+      <c r="AF2" s="16"/>
+      <c r="AG2" s="16"/>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="21"/>
+      <c r="AJ2" s="11"/>
+      <c r="AK2" s="24"/>
+      <c r="AL2" s="24"/>
+      <c r="AM2" s="25"/>
+      <c r="AN2" s="24"/>
+      <c r="AO2" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="AP2" s="32" t="s">
+      <c r="AP2" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="AQ2" s="12" t="s">
+      <c r="AQ2" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="AR2" s="15"/>
-      <c r="AS2" s="12"/>
-      <c r="AT2" s="12"/>
-      <c r="AU2" s="15"/>
-      <c r="AV2" s="12"/>
-      <c r="AW2" s="12"/>
-      <c r="AX2" s="12"/>
-      <c r="AY2" s="15"/>
-      <c r="AZ2" s="17"/>
-      <c r="BA2" s="12"/>
-      <c r="BB2" s="17" t="s">
+      <c r="AR2" s="14"/>
+      <c r="AS2" s="11"/>
+      <c r="AT2" s="11"/>
+      <c r="AU2" s="14"/>
+      <c r="AV2" s="11"/>
+      <c r="AW2" s="11"/>
+      <c r="AX2" s="11"/>
+      <c r="AY2" s="14"/>
+      <c r="AZ2" s="16"/>
+      <c r="BA2" s="11"/>
+      <c r="BB2" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="BC2" s="17" t="s">
+      <c r="BC2" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="BD2" s="21" t="s">
+      <c r="BD2" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="BE2" s="21" t="s">
+      <c r="BE2" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="BF2" s="36" t="s">
+      <c r="BF2" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="BG2" s="17" t="s">
+      <c r="BG2" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="BH2" s="17" t="s">
+      <c r="BH2" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="BI2" s="21" t="s">
+      <c r="BI2" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="BJ2" s="21" t="s">
+      <c r="BJ2" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="BK2" s="17" t="s">
+      <c r="BK2" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="BL2" s="37"/>
-      <c r="BM2" s="17" t="s">
+      <c r="BL2" s="36"/>
+      <c r="BM2" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="BN2" s="17" t="s">
+      <c r="BN2" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="BO2" s="21" t="s">
+      <c r="BO2" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="BP2" s="21" t="s">
+      <c r="BP2" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="BQ2" s="17" t="s">
+      <c r="BQ2" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="BR2" s="17" t="s">
+      <c r="BR2" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="BS2" s="17" t="s">
+      <c r="BS2" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="BT2" s="21" t="s">
+      <c r="BT2" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="BU2" s="21" t="s">
+      <c r="BU2" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="BV2" s="17" t="s">
+      <c r="BV2" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="BW2" s="40"/>
-      <c r="BX2" s="41" t="s">
+      <c r="BW2" s="37"/>
+      <c r="BX2" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="BY2" s="41" t="s">
+      <c r="BY2" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="BZ2" s="45" t="s">
+      <c r="BZ2" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="CA2" s="45" t="s">
+      <c r="CA2" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="CB2" s="41" t="s">
+      <c r="CB2" s="39" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:80">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
-      <c r="Z3" s="20"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="17"/>
-      <c r="AF3" s="17"/>
-      <c r="AG3" s="17"/>
-      <c r="AH3" s="22"/>
-      <c r="AI3" s="22"/>
-      <c r="AJ3" s="12"/>
-      <c r="AK3" s="25"/>
-      <c r="AL3" s="25"/>
-      <c r="AM3" s="26"/>
-      <c r="AN3" s="25"/>
-      <c r="AO3" s="32"/>
-      <c r="AP3" s="32"/>
-      <c r="AQ3" s="12"/>
-      <c r="AR3" s="15"/>
-      <c r="AS3" s="12"/>
-      <c r="AT3" s="12"/>
-      <c r="AU3" s="15"/>
-      <c r="AV3" s="12"/>
-      <c r="AW3" s="12"/>
-      <c r="AX3" s="12"/>
-      <c r="AY3" s="15"/>
-      <c r="AZ3" s="17"/>
-      <c r="BA3" s="12"/>
-      <c r="BB3" s="17"/>
-      <c r="BC3" s="17"/>
-      <c r="BD3" s="21"/>
-      <c r="BE3" s="21"/>
-      <c r="BF3" s="36"/>
-      <c r="BG3" s="17"/>
-      <c r="BH3" s="17"/>
-      <c r="BI3" s="21"/>
-      <c r="BJ3" s="21"/>
-      <c r="BK3" s="17"/>
-      <c r="BL3" s="37"/>
-      <c r="BM3" s="17"/>
-      <c r="BN3" s="17"/>
-      <c r="BO3" s="21"/>
-      <c r="BP3" s="21"/>
-      <c r="BQ3" s="17"/>
-      <c r="BR3" s="17"/>
-      <c r="BS3" s="17"/>
-      <c r="BT3" s="21"/>
-      <c r="BU3" s="21"/>
-      <c r="BV3" s="17"/>
-      <c r="BW3" s="40"/>
-      <c r="BX3" s="41"/>
-      <c r="BY3" s="41"/>
-      <c r="BZ3" s="45"/>
-      <c r="CA3" s="45"/>
-      <c r="CB3" s="41"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="16"/>
+      <c r="AF3" s="16"/>
+      <c r="AG3" s="16"/>
+      <c r="AH3" s="21"/>
+      <c r="AI3" s="21"/>
+      <c r="AJ3" s="11"/>
+      <c r="AK3" s="24"/>
+      <c r="AL3" s="24"/>
+      <c r="AM3" s="25"/>
+      <c r="AN3" s="24"/>
+      <c r="AO3" s="31"/>
+      <c r="AP3" s="31"/>
+      <c r="AQ3" s="11"/>
+      <c r="AR3" s="14"/>
+      <c r="AS3" s="11"/>
+      <c r="AT3" s="11"/>
+      <c r="AU3" s="14"/>
+      <c r="AV3" s="11"/>
+      <c r="AW3" s="11"/>
+      <c r="AX3" s="11"/>
+      <c r="AY3" s="14"/>
+      <c r="AZ3" s="16"/>
+      <c r="BA3" s="11"/>
+      <c r="BB3" s="16"/>
+      <c r="BC3" s="16"/>
+      <c r="BD3" s="20"/>
+      <c r="BE3" s="20"/>
+      <c r="BF3" s="35"/>
+      <c r="BG3" s="16"/>
+      <c r="BH3" s="16"/>
+      <c r="BI3" s="20"/>
+      <c r="BJ3" s="20"/>
+      <c r="BK3" s="16"/>
+      <c r="BL3" s="36"/>
+      <c r="BM3" s="16"/>
+      <c r="BN3" s="16"/>
+      <c r="BO3" s="20"/>
+      <c r="BP3" s="20"/>
+      <c r="BQ3" s="16"/>
+      <c r="BR3" s="16"/>
+      <c r="BS3" s="16"/>
+      <c r="BT3" s="20"/>
+      <c r="BU3" s="20"/>
+      <c r="BV3" s="16"/>
+      <c r="BW3" s="37"/>
+      <c r="BX3" s="39"/>
+      <c r="BY3" s="39"/>
+      <c r="BZ3" s="42"/>
+      <c r="CA3" s="42"/>
+      <c r="CB3" s="39"/>
     </row>
     <row r="4" spans="1:82">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="20"/>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="19"/>
-      <c r="AD4" s="19"/>
-      <c r="AE4" s="17"/>
-      <c r="AF4" s="17"/>
-      <c r="AG4" s="17"/>
-      <c r="AH4" s="22"/>
-      <c r="AI4" s="22"/>
-      <c r="AJ4" s="12"/>
-      <c r="AK4" s="25"/>
-      <c r="AL4" s="25"/>
-      <c r="AM4" s="27">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="16"/>
+      <c r="AF4" s="16"/>
+      <c r="AG4" s="16"/>
+      <c r="AH4" s="21"/>
+      <c r="AI4" s="21"/>
+      <c r="AJ4" s="11"/>
+      <c r="AK4" s="24"/>
+      <c r="AL4" s="24"/>
+      <c r="AM4" s="26">
         <v>6253994132.97455</v>
       </c>
-      <c r="AN4" s="25">
+      <c r="AN4" s="24">
         <v>0.035</v>
       </c>
-      <c r="AO4" s="24">
+      <c r="AO4" s="23">
         <v>0.04</v>
       </c>
-      <c r="AP4" s="24">
+      <c r="AP4" s="23">
         <v>0.15</v>
       </c>
-      <c r="AQ4" s="12"/>
-      <c r="AR4" s="33">
+      <c r="AQ4" s="11"/>
+      <c r="AR4" s="32">
         <v>18223307402.03</v>
       </c>
-      <c r="AS4" s="12"/>
-      <c r="AT4" s="12"/>
-      <c r="AU4" s="33">
+      <c r="AS4" s="11"/>
+      <c r="AT4" s="11"/>
+      <c r="AU4" s="32">
         <v>6081662998.97</v>
       </c>
-      <c r="AV4" s="27">
+      <c r="AV4" s="26">
         <v>10738064.59</v>
       </c>
-      <c r="AW4" s="12"/>
-      <c r="AX4" s="12"/>
-      <c r="AY4" s="33">
+      <c r="AW4" s="11"/>
+      <c r="AX4" s="11"/>
+      <c r="AY4" s="32">
         <v>4131328.25</v>
       </c>
-      <c r="AZ4" s="33">
+      <c r="AZ4" s="32">
         <f>SUM(AR4:AY4)</f>
         <v>24319839793.84</v>
       </c>
-      <c r="BA4" s="12"/>
-      <c r="BB4" s="16">
+      <c r="BA4" s="11"/>
+      <c r="BB4" s="15">
         <f>AM4/AN4</f>
         <v>178685546656.416</v>
       </c>
-      <c r="BC4" s="17">
+      <c r="BC4" s="16">
         <f>AM4*(1+AO4)/(AN4-AO4)</f>
         <v>-1300830779658.71</v>
       </c>
-      <c r="BD4" s="17">
+      <c r="BD4" s="16">
         <f>AM4*(1+AP4)/(1+AN4)+AM4*(1+AP4)^2/(1+AN4)^2+AM4*(1+AP4)^3/(1+AN4)^3+AM4*(1+AP4)^3*(1+AO4)/(1+AN4)^4/(AN4-AO4)</f>
         <v>-1700813455285.63</v>
       </c>
-      <c r="BE4" s="17">
+      <c r="BE4" s="16">
         <f>AM4*(1+AP4)/(1+AN4)+AM4*(1+AP4)^2/(1+AN4)^2+AM4*(1+AP4)^3/(1+AN4)^3+AM4*(1+AP4)^4/(1+AN4)^4+AM4*(1+AP4)^5/(1+AN4)^5+AM4*(1+AP4)^5*(1+AO4)/(1+AN4)^6/(AN4-AO4)</f>
         <v>-2085099835102.44</v>
       </c>
-      <c r="BF4" s="36"/>
-      <c r="BG4" s="17"/>
-      <c r="BH4" s="17"/>
-      <c r="BI4" s="21"/>
-      <c r="BJ4" s="21"/>
-      <c r="BK4" s="17"/>
-      <c r="BL4" s="37"/>
-      <c r="BM4" s="17"/>
-      <c r="BN4" s="17"/>
-      <c r="BO4" s="21"/>
-      <c r="BP4" s="21"/>
-      <c r="BQ4" s="17"/>
-      <c r="BR4" s="17"/>
-      <c r="BS4" s="17"/>
-      <c r="BT4" s="21"/>
-      <c r="BU4" s="21"/>
-      <c r="BV4" s="17"/>
-      <c r="BW4" s="40"/>
-      <c r="BX4" s="41"/>
-      <c r="BY4" s="41"/>
-      <c r="BZ4" s="45"/>
-      <c r="CA4" s="45"/>
-      <c r="CB4" s="41"/>
+      <c r="BF4" s="35"/>
+      <c r="BG4" s="16"/>
+      <c r="BH4" s="16"/>
+      <c r="BI4" s="20"/>
+      <c r="BJ4" s="20"/>
+      <c r="BK4" s="16"/>
+      <c r="BL4" s="36"/>
+      <c r="BM4" s="16"/>
+      <c r="BN4" s="16"/>
+      <c r="BO4" s="20"/>
+      <c r="BP4" s="20"/>
+      <c r="BQ4" s="16"/>
+      <c r="BR4" s="16"/>
+      <c r="BS4" s="16"/>
+      <c r="BT4" s="20"/>
+      <c r="BU4" s="20"/>
+      <c r="BV4" s="16"/>
+      <c r="BW4" s="37"/>
+      <c r="BX4" s="39"/>
+      <c r="BY4" s="39"/>
+      <c r="BZ4" s="42"/>
+      <c r="CA4" s="42"/>
+      <c r="CB4" s="39"/>
       <c r="CC4" s="3">
         <f>(AM4*(1+AP4)^5)/(1+AN4)^5</f>
         <v>10591193979.5332</v>
@@ -8337,1833 +8328,1833 @@
       </c>
     </row>
     <row r="5" spans="1:80">
-      <c r="A5" s="12">
+      <c r="A5" s="11">
         <v>2022</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13">
+      <c r="B5" s="11"/>
+      <c r="C5" s="12">
         <v>33337724549.58</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <v>23499848566.38</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="20"/>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="19"/>
-      <c r="AD5" s="19"/>
-      <c r="AE5" s="17"/>
-      <c r="AF5" s="17"/>
-      <c r="AG5" s="17"/>
-      <c r="AH5" s="22"/>
-      <c r="AI5" s="22"/>
-      <c r="AJ5" s="12"/>
-      <c r="AK5" s="25"/>
-      <c r="AL5" s="25"/>
-      <c r="AM5" s="27">
+      <c r="E5" s="11"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="18"/>
+      <c r="AD5" s="18"/>
+      <c r="AE5" s="16"/>
+      <c r="AF5" s="16"/>
+      <c r="AG5" s="16"/>
+      <c r="AH5" s="21"/>
+      <c r="AI5" s="21"/>
+      <c r="AJ5" s="11"/>
+      <c r="AK5" s="24"/>
+      <c r="AL5" s="24"/>
+      <c r="AM5" s="26">
         <v>6253994132.97455</v>
       </c>
-      <c r="AN5" s="28">
-        <v>0.07</v>
-      </c>
-      <c r="AO5" s="24">
+      <c r="AN5" s="27">
+        <v>0.06</v>
+      </c>
+      <c r="AO5" s="23">
         <v>0.04</v>
       </c>
-      <c r="AP5" s="24">
+      <c r="AP5" s="23">
         <v>0.15</v>
       </c>
-      <c r="AQ5" s="12"/>
-      <c r="AR5" s="33">
+      <c r="AQ5" s="11"/>
+      <c r="AR5" s="32">
         <v>18223307402.03</v>
       </c>
-      <c r="AS5" s="12"/>
-      <c r="AT5" s="12"/>
-      <c r="AU5" s="33">
+      <c r="AS5" s="11"/>
+      <c r="AT5" s="11"/>
+      <c r="AU5" s="32">
         <v>6081662998.97</v>
       </c>
-      <c r="AV5" s="27">
+      <c r="AV5" s="26">
         <v>10738064.59</v>
       </c>
-      <c r="AW5" s="12"/>
-      <c r="AX5" s="12"/>
-      <c r="AY5" s="33">
+      <c r="AW5" s="11"/>
+      <c r="AX5" s="11"/>
+      <c r="AY5" s="32">
         <v>4131328.25</v>
       </c>
-      <c r="AZ5" s="33">
+      <c r="AZ5" s="32">
         <f>SUM(AR5:AY5)</f>
         <v>24319839793.84</v>
       </c>
-      <c r="BA5" s="12"/>
-      <c r="BB5" s="16">
+      <c r="BA5" s="11"/>
+      <c r="BB5" s="15">
         <f>AM5/AN5</f>
-        <v>89342773328.2079</v>
-      </c>
-      <c r="BC5" s="17">
+        <v>104233235549.576</v>
+      </c>
+      <c r="BC5" s="16">
         <f>AM5*(1+AO5)/(AN5-AO5)</f>
-        <v>216805129943.118</v>
-      </c>
-      <c r="BD5" s="17">
+        <v>325207694914.677</v>
+      </c>
+      <c r="BD5" s="16">
         <f>AM5*(1+AP5)/(1+AN5)+AM5*(1+AP5)^2/(1+AN5)^2+AM5*(1+AP5)^3/(1+AN5)^3+AM5*(1+AP5)^3*(1+AO5)/(1+AN5)^4/(AN5-AO5)</f>
-        <v>273262075734.433</v>
-      </c>
-      <c r="BE5" s="17">
+        <v>413901873063.502</v>
+      </c>
+      <c r="BE5" s="16">
         <f>AM5*(1+AP5)/(1+AN5)+AM5*(1+AP5)^2/(1+AN5)^2+AM5*(1+AP5)^3/(1+AN5)^3+AM5*(1+AP5)^4/(1+AN5)^4+AM5*(1+AP5)^5/(1+AN5)^5+AM5*(1+AP5)^5*(1+AO5)/(1+AN5)^6/(AN5-AO5)</f>
-        <v>329596944868.785</v>
-      </c>
-      <c r="BF5" s="36"/>
-      <c r="BG5" s="33">
+        <v>501316975093.837</v>
+      </c>
+      <c r="BF5" s="35"/>
+      <c r="BG5" s="32">
         <f>$AZ5+$BA5+BB5</f>
-        <v>113662613122.048</v>
-      </c>
-      <c r="BH5" s="33">
+        <v>128553075343.416</v>
+      </c>
+      <c r="BH5" s="32">
         <f>$AZ5+$BA5+BC5</f>
-        <v>241124969736.958</v>
-      </c>
-      <c r="BI5" s="33">
+        <v>349527534708.517</v>
+      </c>
+      <c r="BI5" s="32">
         <f>$AZ5+$BA5+BD5</f>
-        <v>297581915528.273</v>
-      </c>
-      <c r="BJ5" s="33">
+        <v>438221712857.342</v>
+      </c>
+      <c r="BJ5" s="32">
         <f>$AZ5+$BA5+BE5</f>
-        <v>353916784662.625</v>
-      </c>
-      <c r="BK5" s="33">
+        <v>525636814887.677</v>
+      </c>
+      <c r="BK5" s="32">
         <f>$AZ5+$BA5+BF5</f>
         <v>24319839793.84</v>
       </c>
-      <c r="BL5" s="35">
+      <c r="BL5" s="34">
         <f>C5-D5</f>
         <v>9837875983.2</v>
       </c>
-      <c r="BM5" s="33">
+      <c r="BM5" s="32">
         <f>BG5-$BL5</f>
-        <v>103824737138.848</v>
-      </c>
-      <c r="BN5" s="33">
+        <v>118715199360.216</v>
+      </c>
+      <c r="BN5" s="32">
         <f>BH5-$BL5</f>
-        <v>231287093753.758</v>
-      </c>
-      <c r="BO5" s="33">
+        <v>339689658725.317</v>
+      </c>
+      <c r="BO5" s="32">
         <f>BI5-$BL5</f>
-        <v>287744039545.073</v>
-      </c>
-      <c r="BP5" s="33">
+        <v>428383836874.142</v>
+      </c>
+      <c r="BP5" s="32">
         <f>BJ5-$BL5</f>
-        <v>344078908679.425</v>
-      </c>
-      <c r="BQ5" s="33">
+        <v>515798938904.477</v>
+      </c>
+      <c r="BQ5" s="32">
         <f>BK5-$BL5</f>
         <v>14481963810.64</v>
       </c>
-      <c r="BR5" s="33">
+      <c r="BR5" s="32">
         <f>BM5*(1-$E5/$D5)</f>
-        <v>103824737138.848</v>
-      </c>
-      <c r="BS5" s="33">
+        <v>118715199360.216</v>
+      </c>
+      <c r="BS5" s="32">
         <f>BN5*(1-$E5/$D5)</f>
-        <v>231287093753.758</v>
-      </c>
-      <c r="BT5" s="33">
+        <v>339689658725.317</v>
+      </c>
+      <c r="BT5" s="32">
         <f>BO5*(1-$E5/$D5)</f>
-        <v>287744039545.073</v>
-      </c>
-      <c r="BU5" s="33">
+        <v>428383836874.142</v>
+      </c>
+      <c r="BU5" s="32">
         <f>BP5*(1-$E5/$D5)</f>
-        <v>344078908679.425</v>
-      </c>
-      <c r="BV5" s="33">
+        <v>515798938904.477</v>
+      </c>
+      <c r="BV5" s="32">
         <f>BQ5*(1-$E5/$D5)</f>
         <v>14481963810.64</v>
       </c>
-      <c r="BW5" s="40">
+      <c r="BW5" s="37">
         <v>4633833787</v>
       </c>
-      <c r="BX5" s="42">
+      <c r="BX5" s="40">
         <f>BR5/$BW5</f>
-        <v>22.405796563123</v>
-      </c>
-      <c r="BY5" s="42">
+        <v>25.6192183011108</v>
+      </c>
+      <c r="BY5" s="40">
         <f>BS5/$BW5</f>
-        <v>49.9126866402983</v>
-      </c>
-      <c r="BZ5" s="42">
+        <v>73.3063968928493</v>
+      </c>
+      <c r="BZ5" s="40">
         <f>BT5/$BW5</f>
-        <v>62.096322995513</v>
-      </c>
-      <c r="CA5" s="42">
+        <v>92.4469578680081</v>
+      </c>
+      <c r="CA5" s="40">
         <f>BU5/$BW5</f>
-        <v>74.2536147163331</v>
-      </c>
-      <c r="CB5" s="42">
+        <v>111.311489063662</v>
+      </c>
+      <c r="CB5" s="40">
         <f>BV5/$BW5</f>
         <v>3.1252661351964</v>
       </c>
     </row>
     <row r="6" spans="1:80">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12">
         <v>33337724549.58</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="12">
         <v>23499848566.38</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="12">
         <v>98331095.55</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="20"/>
-      <c r="X6" s="20"/>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="20"/>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="19"/>
-      <c r="AE6" s="17"/>
-      <c r="AF6" s="17"/>
-      <c r="AG6" s="17"/>
-      <c r="AH6" s="22"/>
-      <c r="AI6" s="22"/>
-      <c r="AJ6" s="12"/>
-      <c r="AK6" s="25"/>
-      <c r="AL6" s="25"/>
-      <c r="AM6" s="29">
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="18"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="18"/>
+      <c r="AE6" s="16"/>
+      <c r="AF6" s="16"/>
+      <c r="AG6" s="16"/>
+      <c r="AH6" s="21"/>
+      <c r="AI6" s="21"/>
+      <c r="AJ6" s="11"/>
+      <c r="AK6" s="24"/>
+      <c r="AL6" s="24"/>
+      <c r="AM6" s="28">
         <v>5000000000</v>
       </c>
-      <c r="AN6" s="28">
+      <c r="AN6" s="27">
         <v>0.07</v>
       </c>
-      <c r="AO6" s="24">
+      <c r="AO6" s="23">
         <v>0.04</v>
       </c>
-      <c r="AP6" s="24">
+      <c r="AP6" s="23">
         <v>0.15</v>
       </c>
-      <c r="AQ6" s="12"/>
-      <c r="AR6" s="33">
+      <c r="AQ6" s="11"/>
+      <c r="AR6" s="32">
         <v>19813767427.18</v>
       </c>
-      <c r="AS6" s="12"/>
-      <c r="AT6" s="12"/>
-      <c r="AU6" s="33">
+      <c r="AS6" s="11"/>
+      <c r="AT6" s="11"/>
+      <c r="AU6" s="32">
         <v>5377818664.42</v>
       </c>
-      <c r="AV6" s="35">
+      <c r="AV6" s="34">
         <v>16216013.8</v>
       </c>
-      <c r="AW6" s="12"/>
-      <c r="AX6" s="12"/>
-      <c r="AY6" s="33">
+      <c r="AW6" s="11"/>
+      <c r="AX6" s="11"/>
+      <c r="AY6" s="32">
         <v>4496708</v>
       </c>
-      <c r="AZ6" s="33">
+      <c r="AZ6" s="32">
         <f>SUM(AR6:AY6)</f>
         <v>25212298813.4</v>
       </c>
-      <c r="BA6" s="12"/>
-      <c r="BB6" s="16">
+      <c r="BA6" s="11"/>
+      <c r="BB6" s="15">
         <f>AM6/AN6</f>
         <v>71428571428.5714</v>
       </c>
-      <c r="BC6" s="17">
+      <c r="BC6" s="16">
         <f>AM6*(1+AO6)/(AN6-AO6)</f>
         <v>173333333333.333</v>
       </c>
-      <c r="BD6" s="17">
+      <c r="BD6" s="16">
         <f>AM6*(1+AP6)/(1+AN6)+AM6*(1+AP6)^2/(1+AN6)^2+AM6*(1+AP6)^3/(1+AN6)^3+AM6*(1+AP6)^3*(1+AO6)/(1+AN6)^4/(AN6-AO6)</f>
         <v>218470044841.938</v>
       </c>
-      <c r="BE6" s="17">
+      <c r="BE6" s="16">
         <f>AM6*(1+AP6)/(1+AN6)+AM6*(1+AP6)^2/(1+AN6)^2+AM6*(1+AP6)^3/(1+AN6)^3+AM6*(1+AP6)^4/(1+AN6)^4+AM6*(1+AP6)^5/(1+AN6)^5+AM6*(1+AP6)^5*(1+AO6)/(1+AN6)^6/(AN6-AO6)</f>
         <v>263509157396.683</v>
       </c>
-      <c r="BF6" s="36"/>
-      <c r="BG6" s="33">
+      <c r="BF6" s="35"/>
+      <c r="BG6" s="32">
         <f>$AZ6+$BA6+BB6</f>
         <v>96640870241.9714</v>
       </c>
-      <c r="BH6" s="33">
+      <c r="BH6" s="32">
         <f>$AZ6+$BA6+BC6</f>
         <v>198545632146.733</v>
       </c>
-      <c r="BI6" s="33">
+      <c r="BI6" s="32">
         <f>$AZ6+$BA6+BD6</f>
         <v>243682343655.338</v>
       </c>
-      <c r="BJ6" s="33">
+      <c r="BJ6" s="32">
         <f>$AZ6+$BA6+BE6</f>
         <v>288721456210.083</v>
       </c>
-      <c r="BK6" s="33">
+      <c r="BK6" s="32">
         <f>$AZ6+$BA6+BF6</f>
         <v>25212298813.4</v>
       </c>
-      <c r="BL6" s="35">
+      <c r="BL6" s="34">
         <f>C6-D6</f>
         <v>9837875983.2</v>
       </c>
-      <c r="BM6" s="33">
+      <c r="BM6" s="32">
         <f>BG6-$BL6</f>
         <v>86802994258.7714</v>
       </c>
-      <c r="BN6" s="33">
+      <c r="BN6" s="32">
         <f>BH6-$BL6</f>
         <v>188707756163.533</v>
       </c>
-      <c r="BO6" s="33">
+      <c r="BO6" s="32">
         <f>BI6-$BL6</f>
         <v>233844467672.138</v>
       </c>
-      <c r="BP6" s="33">
+      <c r="BP6" s="32">
         <f>BJ6-$BL6</f>
         <v>278883580226.883</v>
       </c>
-      <c r="BQ6" s="33">
+      <c r="BQ6" s="32">
         <f>BK6-$BL6</f>
         <v>15374422830.2</v>
       </c>
-      <c r="BR6" s="33">
+      <c r="BR6" s="32">
         <f>BM6*(1-$E6/$D6)</f>
         <v>86439781981.1104</v>
       </c>
-      <c r="BS6" s="33">
+      <c r="BS6" s="32">
         <f>BN6*(1-$E6/$D6)</f>
         <v>187918140845.378</v>
       </c>
-      <c r="BT6" s="33">
+      <c r="BT6" s="32">
         <f>BO6*(1-$E6/$D6)</f>
         <v>232865985507.474</v>
       </c>
-      <c r="BU6" s="33">
+      <c r="BU6" s="32">
         <f>BP6*(1-$E6/$D6)</f>
         <v>277716639601.834</v>
       </c>
-      <c r="BV6" s="33">
+      <c r="BV6" s="32">
         <f>BQ6*(1-$E6/$D6)</f>
         <v>15310091188.3993</v>
       </c>
-      <c r="BW6" s="43">
+      <c r="BW6" s="29">
         <v>4212576169</v>
       </c>
-      <c r="BX6" s="42">
+      <c r="BX6" s="40">
         <f>BR6/$BW6</f>
         <v>20.5194585245042</v>
       </c>
-      <c r="BY6" s="42">
+      <c r="BY6" s="40">
         <f>BS6/$BW6</f>
         <v>44.6088410764539</v>
       </c>
-      <c r="BZ6" s="42">
+      <c r="BZ6" s="40">
         <f>BT6/$BW6</f>
         <v>55.2787596390815</v>
       </c>
-      <c r="CA6" s="42">
+      <c r="CA6" s="40">
         <f>BU6/$BW6</f>
         <v>65.9256066740176</v>
       </c>
-      <c r="CB6" s="42">
+      <c r="CB6" s="40">
         <f>BV6/$BW6</f>
         <v>3.63437729650208</v>
       </c>
     </row>
     <row r="7" spans="1:80">
-      <c r="A7" s="14">
+      <c r="A7" s="13">
         <v>2021</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="12">
         <v>33337724549.58</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="12">
         <v>23499848566.38</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="12">
         <v>98331095.55</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="15">
         <v>4582073.3</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="15">
         <v>4082874.6</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="15">
         <v>5456405.46</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="15">
         <v>7145253.84</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="15">
         <f>F7+G7+H7+I7</f>
         <v>21266607.2</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="15">
         <v>92600000</v>
       </c>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16">
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15">
         <v>1239133371.41</v>
       </c>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13">
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12">
         <v>104600000</v>
       </c>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13">
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12">
         <v>972021493.04</v>
       </c>
-      <c r="Z7" s="13">
+      <c r="Z7" s="12">
         <v>21395441.72</v>
       </c>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="14"/>
-      <c r="AC7" s="14"/>
-      <c r="AD7" s="13">
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="12">
         <v>54070173.8</v>
       </c>
-      <c r="AE7" s="13">
+      <c r="AE7" s="12">
         <f>SUM(K7:T7)</f>
         <v>1331733371.41</v>
       </c>
-      <c r="AF7" s="13">
+      <c r="AF7" s="12">
         <f>SUM(U7:AD7)</f>
         <v>1152087108.56</v>
       </c>
-      <c r="AG7" s="16">
+      <c r="AG7" s="15">
         <f>(AE7+AF7)/2</f>
         <v>1241910239.985</v>
       </c>
-      <c r="AH7" s="23">
+      <c r="AH7" s="22">
         <f>F7/AG7</f>
         <v>0.00368953661261006</v>
       </c>
-      <c r="AI7" s="23">
+      <c r="AI7" s="22">
         <f>J7/AG7</f>
         <v>0.0171241097104223</v>
       </c>
-      <c r="AJ7" s="24">
+      <c r="AJ7" s="23">
         <v>0.25</v>
       </c>
-      <c r="AK7" s="24">
+      <c r="AK7" s="23">
         <f>(C7-D7)/C7</f>
         <v>0.295097404400503</v>
       </c>
-      <c r="AL7" s="24">
+      <c r="AL7" s="23">
         <f>D7/C7</f>
         <v>0.704902595599497</v>
       </c>
-      <c r="AM7" s="29">
+      <c r="AM7" s="28">
         <v>4174523194.45556</v>
       </c>
-      <c r="AN7" s="24">
+      <c r="AN7" s="23">
         <v>0.07</v>
       </c>
-      <c r="AO7" s="24">
+      <c r="AO7" s="23">
         <v>0.04</v>
       </c>
-      <c r="AP7" s="24">
+      <c r="AP7" s="23">
         <v>0.15</v>
       </c>
-      <c r="AQ7" s="34"/>
-      <c r="AR7" s="33">
+      <c r="AQ7" s="33"/>
+      <c r="AR7" s="32">
         <v>19813767427.18</v>
       </c>
-      <c r="AS7" s="35"/>
-      <c r="AT7" s="35"/>
-      <c r="AU7" s="33">
+      <c r="AS7" s="34"/>
+      <c r="AT7" s="34"/>
+      <c r="AU7" s="32">
         <v>5377818664.42</v>
       </c>
-      <c r="AV7" s="35">
+      <c r="AV7" s="34">
         <v>16216013.8</v>
       </c>
-      <c r="AW7" s="35"/>
-      <c r="AX7" s="35"/>
-      <c r="AY7" s="33">
+      <c r="AW7" s="34"/>
+      <c r="AX7" s="34"/>
+      <c r="AY7" s="32">
         <v>4496708</v>
       </c>
-      <c r="AZ7" s="33">
+      <c r="AZ7" s="32">
         <f>SUM(AR7:AY7)</f>
         <v>25212298813.4</v>
       </c>
-      <c r="BA7" s="34">
+      <c r="BA7" s="33">
         <v>0</v>
       </c>
-      <c r="BB7" s="16">
+      <c r="BB7" s="15">
         <f>AM7/AN7</f>
         <v>59636045635.0794</v>
       </c>
-      <c r="BC7" s="17">
+      <c r="BC7" s="16">
         <f>AM7*(1+AO7)/(AN7-AO7)</f>
         <v>144716804074.459</v>
       </c>
-      <c r="BD7" s="17">
+      <c r="BD7" s="16">
         <f>AM7*(1+AP7)/(1+AN7)+AM7*(1+AP7)^2/(1+AN7)^2+AM7*(1+AP7)^3/(1+AN7)^3+AM7*(1+AP7)^3*(1+AO7)/(1+AN7)^4/(AN7-AO7)</f>
         <v>182401653897.283</v>
       </c>
-      <c r="BE7" s="17">
+      <c r="BE7" s="16">
         <f>AM7*(1+AP7)/(1+AN7)+AM7*(1+AP7)^2/(1+AN7)^2+AM7*(1+AP7)^3/(1+AN7)^3+AM7*(1+AP7)^4/(1+AN7)^4+AM7*(1+AP7)^5/(1+AN7)^5+AM7*(1+AP7)^5*(1+AO7)/(1+AN7)^6/(AN7-AO7)</f>
         <v>220005017900.779</v>
       </c>
-      <c r="BF7" s="36"/>
-      <c r="BG7" s="33">
+      <c r="BF7" s="35"/>
+      <c r="BG7" s="32">
         <f>$AZ7+$BA7+BB7</f>
         <v>84848344448.4794</v>
       </c>
-      <c r="BH7" s="33">
+      <c r="BH7" s="32">
         <f>$AZ7+$BA7+BC7</f>
         <v>169929102887.859</v>
       </c>
-      <c r="BI7" s="33">
+      <c r="BI7" s="32">
         <f>$AZ7+$BA7+BD7</f>
         <v>207613952710.683</v>
       </c>
-      <c r="BJ7" s="33">
+      <c r="BJ7" s="32">
         <f>$AZ7+$BA7+BE7</f>
         <v>245217316714.179</v>
       </c>
-      <c r="BK7" s="33">
+      <c r="BK7" s="32">
         <f>$AZ7+$BA7+BF7</f>
         <v>25212298813.4</v>
       </c>
-      <c r="BL7" s="35">
+      <c r="BL7" s="34">
         <f>C7-D7</f>
         <v>9837875983.2</v>
       </c>
-      <c r="BM7" s="33">
+      <c r="BM7" s="32">
         <f>BG7-$BL7</f>
         <v>75010468465.2794</v>
       </c>
-      <c r="BN7" s="33">
+      <c r="BN7" s="32">
         <f>BH7-$BL7</f>
         <v>160091226904.659</v>
       </c>
-      <c r="BO7" s="33">
+      <c r="BO7" s="32">
         <f>BI7-$BL7</f>
         <v>197776076727.483</v>
       </c>
-      <c r="BP7" s="33">
+      <c r="BP7" s="32">
         <f>BJ7-$BL7</f>
         <v>235379440730.979</v>
       </c>
-      <c r="BQ7" s="33">
+      <c r="BQ7" s="32">
         <f>BK7-$BL7</f>
         <v>15374422830.2</v>
       </c>
-      <c r="BR7" s="33">
+      <c r="BR7" s="32">
         <f>BM7*(1-$E7/$D7)</f>
         <v>74696599994.1242</v>
       </c>
-      <c r="BS7" s="33">
+      <c r="BS7" s="32">
         <f>BN7*(1-$E7/$D7)</f>
         <v>159421352556.958</v>
       </c>
-      <c r="BT7" s="33">
+      <c r="BT7" s="32">
         <f>BO7*(1-$E7/$D7)</f>
         <v>196948516573.499</v>
       </c>
-      <c r="BU7" s="33">
+      <c r="BU7" s="32">
         <f>BP7*(1-$E7/$D7)</f>
         <v>234394535734.181</v>
       </c>
-      <c r="BV7" s="33">
+      <c r="BV7" s="32">
         <f>BQ7*(1-$E7/$D7)</f>
         <v>15310091188.3993</v>
       </c>
-      <c r="BW7" s="43">
+      <c r="BW7" s="29">
         <v>4212576170</v>
       </c>
-      <c r="BX7" s="42">
+      <c r="BX7" s="40">
         <f>BR7/$BW7</f>
         <v>17.731809937605</v>
       </c>
-      <c r="BY7" s="42">
+      <c r="BY7" s="40">
         <f>BS7/$BW7</f>
         <v>37.8441471734761</v>
       </c>
-      <c r="BZ7" s="42">
+      <c r="BZ7" s="40">
         <f>BT7/$BW7</f>
         <v>46.7525116758896</v>
       </c>
-      <c r="CA7" s="42">
+      <c r="CA7" s="40">
         <f>BU7/$BW7</f>
         <v>55.6416136528117</v>
       </c>
-      <c r="CB7" s="42">
+      <c r="CB7" s="40">
         <f>BV7/$BW7</f>
         <v>3.63437729563934</v>
       </c>
     </row>
     <row r="8" spans="1:80">
-      <c r="A8" s="14">
+      <c r="A8" s="13">
         <v>2021</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="13"/>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="13"/>
-      <c r="AE8" s="13"/>
-      <c r="AF8" s="13"/>
-      <c r="AG8" s="16"/>
-      <c r="AH8" s="23"/>
-      <c r="AI8" s="23"/>
-      <c r="AJ8" s="24"/>
-      <c r="AK8" s="24"/>
-      <c r="AL8" s="24"/>
-      <c r="AM8" s="30"/>
-      <c r="AN8" s="24"/>
-      <c r="AO8" s="24"/>
-      <c r="AP8" s="24"/>
-      <c r="AQ8" s="34"/>
-      <c r="AR8" s="33"/>
-      <c r="AS8" s="34"/>
-      <c r="AT8" s="34"/>
-      <c r="AU8" s="33"/>
-      <c r="AV8" s="35"/>
-      <c r="AW8" s="35"/>
-      <c r="AX8" s="34"/>
-      <c r="AY8" s="33"/>
-      <c r="AZ8" s="33"/>
-      <c r="BA8" s="35"/>
-      <c r="BB8" s="16"/>
-      <c r="BC8" s="17"/>
-      <c r="BD8" s="17"/>
-      <c r="BE8" s="17"/>
-      <c r="BF8" s="36"/>
-      <c r="BG8" s="33"/>
-      <c r="BH8" s="33"/>
-      <c r="BI8" s="33"/>
-      <c r="BJ8" s="33"/>
-      <c r="BK8" s="33"/>
-      <c r="BL8" s="35"/>
-      <c r="BM8" s="33"/>
-      <c r="BN8" s="33"/>
-      <c r="BO8" s="33"/>
-      <c r="BP8" s="33"/>
-      <c r="BQ8" s="33"/>
-      <c r="BR8" s="33"/>
-      <c r="BS8" s="33"/>
-      <c r="BT8" s="33"/>
-      <c r="BU8" s="33"/>
-      <c r="BV8" s="33"/>
-      <c r="BW8" s="44"/>
-      <c r="BX8" s="42"/>
-      <c r="BY8" s="42"/>
-      <c r="BZ8" s="42"/>
-      <c r="CA8" s="42"/>
-      <c r="CB8" s="42"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="12"/>
+      <c r="AF8" s="12"/>
+      <c r="AG8" s="15"/>
+      <c r="AH8" s="22"/>
+      <c r="AI8" s="22"/>
+      <c r="AJ8" s="23"/>
+      <c r="AK8" s="23"/>
+      <c r="AL8" s="23"/>
+      <c r="AM8" s="29"/>
+      <c r="AN8" s="23"/>
+      <c r="AO8" s="23"/>
+      <c r="AP8" s="23"/>
+      <c r="AQ8" s="33"/>
+      <c r="AR8" s="32"/>
+      <c r="AS8" s="33"/>
+      <c r="AT8" s="33"/>
+      <c r="AU8" s="32"/>
+      <c r="AV8" s="34"/>
+      <c r="AW8" s="34"/>
+      <c r="AX8" s="33"/>
+      <c r="AY8" s="32"/>
+      <c r="AZ8" s="32"/>
+      <c r="BA8" s="34"/>
+      <c r="BB8" s="15"/>
+      <c r="BC8" s="16"/>
+      <c r="BD8" s="16"/>
+      <c r="BE8" s="16"/>
+      <c r="BF8" s="35"/>
+      <c r="BG8" s="32"/>
+      <c r="BH8" s="32"/>
+      <c r="BI8" s="32"/>
+      <c r="BJ8" s="32"/>
+      <c r="BK8" s="32"/>
+      <c r="BL8" s="34"/>
+      <c r="BM8" s="32"/>
+      <c r="BN8" s="32"/>
+      <c r="BO8" s="32"/>
+      <c r="BP8" s="32"/>
+      <c r="BQ8" s="32"/>
+      <c r="BR8" s="32"/>
+      <c r="BS8" s="32"/>
+      <c r="BT8" s="32"/>
+      <c r="BU8" s="32"/>
+      <c r="BV8" s="32"/>
+      <c r="BW8" s="41"/>
+      <c r="BX8" s="40"/>
+      <c r="BY8" s="40"/>
+      <c r="BZ8" s="40"/>
+      <c r="CA8" s="40"/>
+      <c r="CB8" s="40"/>
     </row>
     <row r="9" spans="1:80">
-      <c r="A9" s="14">
+      <c r="A9" s="13">
         <v>2021</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="12">
         <v>13899456422.16</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="12">
         <v>7658307846.92</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="12">
         <v>35668094.06</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="15">
         <v>77737.82</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="15">
         <v>9999166.62</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="15">
         <v>9569135.05</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="15">
         <v>6209153.06</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="15">
         <f>F9+G9+H9+I9</f>
         <v>25855192.55</v>
       </c>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16">
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15">
         <v>94521442.67</v>
       </c>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13">
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12">
         <v>157420210.81</v>
       </c>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13">
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12">
         <v>110605272.21</v>
       </c>
-      <c r="Z9" s="13">
+      <c r="Z9" s="12">
         <v>29191343.78</v>
       </c>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13">
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="12">
         <v>0</v>
       </c>
-      <c r="AE9" s="13">
+      <c r="AE9" s="12">
         <f t="shared" ref="AE9:AE14" si="0">SUM(K9:T9)</f>
         <v>251941653.48</v>
       </c>
-      <c r="AF9" s="13">
+      <c r="AF9" s="12">
         <f t="shared" ref="AF9:AF14" si="1">SUM(U9:AD9)</f>
         <v>139796615.99</v>
       </c>
-      <c r="AG9" s="16">
+      <c r="AG9" s="15">
         <f t="shared" ref="AG9:AG14" si="2">(AE9+AF9)/2</f>
         <v>195869134.735</v>
       </c>
-      <c r="AH9" s="23">
+      <c r="AH9" s="22">
         <f t="shared" ref="AH9:AH14" si="3">F9/AG9</f>
         <v>0.000396886523776066</v>
       </c>
-      <c r="AI9" s="23">
+      <c r="AI9" s="22">
         <f t="shared" ref="AI9:AI14" si="4">J9/AG9</f>
         <v>0.132002383045091</v>
       </c>
-      <c r="AJ9" s="24">
+      <c r="AJ9" s="23">
         <v>0.25</v>
       </c>
-      <c r="AK9" s="24">
+      <c r="AK9" s="23">
         <f t="shared" ref="AK9:AK14" si="5">(C9-D9)/C9</f>
         <v>0.449021054182356</v>
       </c>
-      <c r="AL9" s="24">
+      <c r="AL9" s="23">
         <f t="shared" ref="AL9:AL14" si="6">D9/C9</f>
         <v>0.550978945817644</v>
       </c>
-      <c r="AM9" s="29">
+      <c r="AM9" s="28">
         <v>1312404990.24778</v>
       </c>
-      <c r="AN9" s="24">
+      <c r="AN9" s="23">
         <f t="shared" ref="AN9:AN14" si="7">AI9*(1-AJ9)*AK9+0.08*AL9</f>
         <v>0.0885322025575289</v>
       </c>
-      <c r="AO9" s="24">
+      <c r="AO9" s="23">
         <v>0.04</v>
       </c>
-      <c r="AP9" s="24">
+      <c r="AP9" s="23">
         <v>0.15</v>
       </c>
-      <c r="AQ9" s="34"/>
-      <c r="AR9" s="33">
+      <c r="AQ9" s="33"/>
+      <c r="AR9" s="32">
         <v>2654052417.47</v>
       </c>
-      <c r="AS9" s="34"/>
-      <c r="AT9" s="34"/>
-      <c r="AU9" s="33">
+      <c r="AS9" s="33"/>
+      <c r="AT9" s="33"/>
+      <c r="AU9" s="32">
         <v>180312742.31</v>
       </c>
-      <c r="AV9" s="35">
+      <c r="AV9" s="34">
         <v>12159756.67</v>
       </c>
-      <c r="AW9" s="35"/>
-      <c r="AX9" s="34"/>
-      <c r="AY9" s="33"/>
-      <c r="AZ9" s="33">
+      <c r="AW9" s="34"/>
+      <c r="AX9" s="33"/>
+      <c r="AY9" s="32"/>
+      <c r="AZ9" s="32">
         <f>SUM(AR9:AY9)</f>
         <v>2846524916.45</v>
       </c>
-      <c r="BA9" s="35">
+      <c r="BA9" s="34">
         <f>298191205.49+65600611.64</f>
         <v>363791817.13</v>
       </c>
-      <c r="BB9" s="16">
+      <c r="BB9" s="15">
         <f>AM9/AN9</f>
         <v>14824040883.8238</v>
       </c>
-      <c r="BC9" s="17">
+      <c r="BC9" s="16">
         <f>AM9*(1+AO9)/(AN9-AO9)</f>
         <v>28123619327.5953</v>
       </c>
-      <c r="BD9" s="17">
+      <c r="BD9" s="16">
         <f>AM9*(1+AP9)/(1+AN9)+AM9*(1+AP9)^2/(1+AN9)^2+AM9*(1+AP9)^3/(1+AN9)^3+AM9*(1+AP9)^3*(1+AO9)/(1+AN9)^4/(AN9-AO9)</f>
         <v>34863737484.9391</v>
       </c>
-      <c r="BE9" s="17">
+      <c r="BE9" s="16">
         <f>AM9*(1+AP9)/(1+AN9)+AM9*(1+AP9)^2/(1+AN9)^2+AM9*(1+AP9)^3/(1+AN9)^3+AM9*(1+AP9)^4/(1+AN9)^4+AM9*(1+AP9)^5/(1+AN9)^5+AM9*(1+AP9)^5*(1+AO9)/(1+AN9)^6/(AN9-AO9)</f>
         <v>41763637764.36</v>
       </c>
-      <c r="BF9" s="36"/>
-      <c r="BG9" s="33">
+      <c r="BF9" s="35"/>
+      <c r="BG9" s="32">
         <f>$AZ9+$BA9+BB9</f>
         <v>18034357617.4038</v>
       </c>
-      <c r="BH9" s="33">
+      <c r="BH9" s="32">
         <f>$AZ9+$BA9+BC9</f>
         <v>31333936061.1753</v>
       </c>
-      <c r="BI9" s="33">
+      <c r="BI9" s="32">
         <f>$AZ9+$BA9+BD9</f>
         <v>38074054218.5191</v>
       </c>
-      <c r="BJ9" s="33">
+      <c r="BJ9" s="32">
         <f>$AZ9+$BA9+BE9</f>
         <v>44973954497.94</v>
       </c>
-      <c r="BK9" s="33">
+      <c r="BK9" s="32">
         <f>$AZ9+$BA9+BF9</f>
         <v>3210316733.58</v>
       </c>
-      <c r="BL9" s="35">
+      <c r="BL9" s="34">
         <f>C9-D9</f>
         <v>6241148575.24</v>
       </c>
-      <c r="BM9" s="33">
+      <c r="BM9" s="32">
         <f>BG9-$BL9</f>
         <v>11793209042.1638</v>
       </c>
-      <c r="BN9" s="33">
+      <c r="BN9" s="32">
         <f>BH9-$BL9</f>
         <v>25092787485.9353</v>
       </c>
-      <c r="BO9" s="33">
+      <c r="BO9" s="32">
         <f>BI9-$BL9</f>
         <v>31832905643.2791</v>
       </c>
-      <c r="BP9" s="33">
+      <c r="BP9" s="32">
         <f>BJ9-$BL9</f>
         <v>38732805922.7</v>
       </c>
-      <c r="BQ9" s="33">
+      <c r="BQ9" s="32">
         <f>BK9-$BL9</f>
         <v>-3030831841.66</v>
       </c>
-      <c r="BR9" s="33">
+      <c r="BR9" s="32">
         <f>BM9*(1-$E9/$D9)</f>
         <v>11738282902.1087</v>
       </c>
-      <c r="BS9" s="33">
+      <c r="BS9" s="32">
         <f>BN9*(1-$E9/$D9)</f>
         <v>24975919383.7166</v>
       </c>
-      <c r="BT9" s="33">
+      <c r="BT9" s="32">
         <f>BO9*(1-$E9/$D9)</f>
         <v>31684645858.5612</v>
       </c>
-      <c r="BU9" s="33">
+      <c r="BU9" s="32">
         <f>BP9*(1-$E9/$D9)</f>
         <v>38552410280.1542</v>
       </c>
-      <c r="BV9" s="33">
+      <c r="BV9" s="32">
         <f>BQ9*(1-$E9/$D9)</f>
         <v>-3016715930.23815</v>
       </c>
-      <c r="BW9" s="44">
+      <c r="BW9" s="41">
         <v>808678476</v>
       </c>
-      <c r="BX9" s="42">
+      <c r="BX9" s="40">
         <f>BR9/$BW9</f>
         <v>14.5153893054879</v>
       </c>
-      <c r="BY9" s="42">
+      <c r="BY9" s="40">
         <f>BS9/$BW9</f>
         <v>30.8848573629115</v>
       </c>
-      <c r="BZ9" s="42">
+      <c r="BZ9" s="40">
         <f>BT9/$BW9</f>
         <v>39.1807706015428</v>
       </c>
-      <c r="CA9" s="42">
+      <c r="CA9" s="40">
         <f>BU9/$BW9</f>
         <v>47.673347843815</v>
       </c>
-      <c r="CB9" s="42">
+      <c r="CB9" s="40">
         <f>BV9/$BW9</f>
         <v>-3.7304268875312</v>
       </c>
     </row>
     <row r="10" spans="1:80">
-      <c r="A10" s="14">
+      <c r="A10" s="13">
         <v>2021</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="14"/>
-      <c r="AB10" s="14"/>
-      <c r="AC10" s="14"/>
-      <c r="AD10" s="14"/>
-      <c r="AE10" s="13">
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF10" s="13">
+      <c r="AF10" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AG10" s="16">
+      <c r="AG10" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AH10" s="23" t="e">
+      <c r="AH10" s="22" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI10" s="23" t="e">
+      <c r="AI10" s="22" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ10" s="24">
+      <c r="AJ10" s="23">
         <v>0.25</v>
       </c>
-      <c r="AK10" s="24" t="e">
+      <c r="AK10" s="23" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL10" s="24" t="e">
+      <c r="AL10" s="23" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM10" s="30"/>
-      <c r="AN10" s="24" t="e">
+      <c r="AM10" s="29"/>
+      <c r="AN10" s="23" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO10" s="24">
+      <c r="AO10" s="23">
         <v>0.04</v>
       </c>
-      <c r="AP10" s="24">
+      <c r="AP10" s="23">
         <v>0.16</v>
       </c>
-      <c r="AQ10" s="34"/>
-      <c r="AR10" s="33"/>
-      <c r="AS10" s="34"/>
-      <c r="AT10" s="34"/>
-      <c r="AU10" s="33"/>
-      <c r="AV10" s="34"/>
-      <c r="AW10" s="34"/>
-      <c r="AX10" s="34"/>
-      <c r="AY10" s="33"/>
-      <c r="AZ10" s="33"/>
-      <c r="BA10" s="34"/>
-      <c r="BB10" s="16" t="e">
+      <c r="AQ10" s="33"/>
+      <c r="AR10" s="32"/>
+      <c r="AS10" s="33"/>
+      <c r="AT10" s="33"/>
+      <c r="AU10" s="32"/>
+      <c r="AV10" s="33"/>
+      <c r="AW10" s="33"/>
+      <c r="AX10" s="33"/>
+      <c r="AY10" s="32"/>
+      <c r="AZ10" s="32"/>
+      <c r="BA10" s="33"/>
+      <c r="BB10" s="15" t="e">
         <f>AM10/AN10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BC10" s="17" t="e">
+      <c r="BC10" s="16" t="e">
         <f>AM10*(1+AO10)/(AN10-AO10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BD10" s="17" t="e">
+      <c r="BD10" s="16" t="e">
         <f>AM10*(1+AP10)/(1+AN10)+AM10*(1+AP10)^2/(1+AN10)^2+AM10*(1+AP10)^3/(1+AN10)^3+AM10*(1+AP10)^3*(1+AO10)/(1+AN10)^4/(AN10-AO10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BE10" s="17" t="e">
+      <c r="BE10" s="16" t="e">
         <f>AM10*(1+AP10)/(1+AN10)+AM10*(1+AP10)^2/(1+AN10)^2+AM10*(1+AP10)^3/(1+AN10)^3+AM10*(1+AP10)^4/(1+AN10)^4+AM10*(1+AP10)^5/(1+AN10)^5+AM10*(1+AP10)^5*(1+AO10)/(1+AN10)^6/(AN10-AO10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BF10" s="36"/>
-      <c r="BG10" s="33" t="e">
+      <c r="BF10" s="35"/>
+      <c r="BG10" s="32" t="e">
         <f>$AZ10+$BA10+BB10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BH10" s="33" t="e">
+      <c r="BH10" s="32" t="e">
         <f>$AZ10+$BA10+BC10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BI10" s="33" t="e">
+      <c r="BI10" s="32" t="e">
         <f>$AZ10+$BA10+BD10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BJ10" s="33" t="e">
+      <c r="BJ10" s="32" t="e">
         <f>$AZ10+$BA10+BE10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BK10" s="33">
+      <c r="BK10" s="32">
         <f>$AZ10+$BA10+BF10</f>
         <v>0</v>
       </c>
-      <c r="BL10" s="35">
+      <c r="BL10" s="34">
         <f>C10-D10</f>
         <v>0</v>
       </c>
-      <c r="BM10" s="33" t="e">
+      <c r="BM10" s="32" t="e">
         <f>BG10-$BL10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BN10" s="33" t="e">
+      <c r="BN10" s="32" t="e">
         <f>BH10-$BL10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BO10" s="33" t="e">
+      <c r="BO10" s="32" t="e">
         <f>BI10-$BL10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BP10" s="33" t="e">
+      <c r="BP10" s="32" t="e">
         <f>BJ10-$BL10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BQ10" s="33">
+      <c r="BQ10" s="32">
         <f>BK10-$BL10</f>
         <v>0</v>
       </c>
-      <c r="BR10" s="33" t="e">
+      <c r="BR10" s="32" t="e">
         <f>BM10*(1-$E10/$D10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BS10" s="33" t="e">
+      <c r="BS10" s="32" t="e">
         <f>BN10*(1-$E10/$D10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BT10" s="33" t="e">
+      <c r="BT10" s="32" t="e">
         <f>BO10*(1-$E10/$D10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BU10" s="33" t="e">
+      <c r="BU10" s="32" t="e">
         <f>BP10*(1-$E10/$D10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BV10" s="33" t="e">
+      <c r="BV10" s="32" t="e">
         <f>BQ10*(1-$E10/$D10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BW10" s="43"/>
-      <c r="BX10" s="42" t="e">
+      <c r="BW10" s="29"/>
+      <c r="BX10" s="40" t="e">
         <f>BR10/$BW10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BY10" s="42" t="e">
+      <c r="BY10" s="40" t="e">
         <f>BS10/$BW10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BZ10" s="42" t="e">
+      <c r="BZ10" s="40" t="e">
         <f>BT10/$BW10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="CA10" s="42" t="e">
+      <c r="CA10" s="40" t="e">
         <f>BU10/$BW10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="CB10" s="42" t="e">
+      <c r="CB10" s="40" t="e">
         <f>BV10/$BW10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:80">
-      <c r="A11" s="14">
+      <c r="A11" s="13">
         <v>2021</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="12">
         <v>6369307875.78</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="12">
         <v>5117150498.28</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="12">
         <v>80966017.91</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="15">
         <v>8092057.32</v>
       </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16">
+      <c r="G11" s="15"/>
+      <c r="H11" s="15">
         <v>2350868.48</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="15">
         <v>1248588.78</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="15">
         <f>F11+G11+H11+I11</f>
         <v>11691514.58</v>
       </c>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16">
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15">
         <v>64978916.01</v>
       </c>
-      <c r="P11" s="16">
+      <c r="P11" s="15">
         <v>170845170.78</v>
       </c>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="13">
+      <c r="Q11" s="15"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="12">
         <v>61486444.69</v>
       </c>
-      <c r="Z11" s="13">
+      <c r="Z11" s="12">
         <v>2016748.68</v>
       </c>
-      <c r="AA11" s="14"/>
-      <c r="AB11" s="14"/>
-      <c r="AC11" s="14"/>
-      <c r="AD11" s="14"/>
-      <c r="AE11" s="13">
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="12">
         <f t="shared" si="0"/>
         <v>235824086.79</v>
       </c>
-      <c r="AF11" s="13">
+      <c r="AF11" s="12">
         <f t="shared" si="1"/>
         <v>63503193.37</v>
       </c>
-      <c r="AG11" s="16">
+      <c r="AG11" s="15">
         <f t="shared" si="2"/>
         <v>149663640.08</v>
       </c>
-      <c r="AH11" s="23">
+      <c r="AH11" s="22">
         <f t="shared" si="3"/>
         <v>0.0540682915080412</v>
       </c>
-      <c r="AI11" s="23">
+      <c r="AI11" s="22">
         <f t="shared" si="4"/>
         <v>0.0781186036484915</v>
       </c>
-      <c r="AJ11" s="24">
+      <c r="AJ11" s="23">
         <v>0.25</v>
       </c>
-      <c r="AK11" s="24">
+      <c r="AK11" s="23">
         <f t="shared" si="5"/>
         <v>0.196592377369834</v>
       </c>
-      <c r="AL11" s="24">
+      <c r="AL11" s="23">
         <f t="shared" si="6"/>
         <v>0.803407622630166</v>
       </c>
-      <c r="AM11" s="31">
+      <c r="AM11" s="30">
         <v>278344963.561111</v>
       </c>
-      <c r="AN11" s="24">
+      <c r="AN11" s="23">
         <f t="shared" si="7"/>
         <v>0.0757907513164648</v>
       </c>
-      <c r="AO11" s="24">
+      <c r="AO11" s="23">
         <v>0.04</v>
       </c>
-      <c r="AP11" s="24">
+      <c r="AP11" s="23">
         <v>0.19</v>
       </c>
-      <c r="AQ11" s="34"/>
-      <c r="AR11" s="33">
+      <c r="AQ11" s="33"/>
+      <c r="AR11" s="32">
         <v>1829782947.1</v>
       </c>
-      <c r="AS11" s="34"/>
-      <c r="AT11" s="34"/>
-      <c r="AU11" s="33">
+      <c r="AS11" s="33"/>
+      <c r="AT11" s="33"/>
+      <c r="AU11" s="32">
         <v>424541.21</v>
       </c>
-      <c r="AV11" s="35">
+      <c r="AV11" s="34">
         <v>3113131.56</v>
       </c>
-      <c r="AW11" s="34"/>
-      <c r="AX11" s="34"/>
-      <c r="AY11" s="33">
+      <c r="AW11" s="33"/>
+      <c r="AX11" s="33"/>
+      <c r="AY11" s="32">
         <v>8194517.48</v>
       </c>
-      <c r="AZ11" s="33">
+      <c r="AZ11" s="32">
         <f>SUM(AR11:AY11)</f>
         <v>1841515137.35</v>
       </c>
-      <c r="BA11" s="35">
+      <c r="BA11" s="34">
         <v>272631920.44</v>
       </c>
-      <c r="BB11" s="16">
+      <c r="BB11" s="15">
         <f>AM11/AN11</f>
         <v>3672545247.62368</v>
       </c>
-      <c r="BC11" s="17">
+      <c r="BC11" s="16">
         <f>AM11*(1+AO11)/(AN11-AO11)</f>
         <v>8088088443.40708</v>
       </c>
-      <c r="BD11" s="17">
+      <c r="BD11" s="16">
         <f>AM11*(1+AP11)/(1+AN11)+AM11*(1+AP11)^2/(1+AN11)^2+AM11*(1+AP11)^3/(1+AN11)^3+AM11*(1+AP11)^3*(1+AO11)/(1+AN11)^4/(AN11-AO11)</f>
         <v>11201179864.2188</v>
       </c>
-      <c r="BE11" s="17">
+      <c r="BE11" s="16">
         <f>AM11*(1+AP11)/(1+AN11)+AM11*(1+AP11)^2/(1+AN11)^2+AM11*(1+AP11)^3/(1+AN11)^3+AM11*(1+AP11)^4/(1+AN11)^4+AM11*(1+AP11)^5/(1+AN11)^5+AM11*(1+AP11)^5*(1+AO11)/(1+AN11)^6/(AN11-AO11)</f>
         <v>14354204042.2797</v>
       </c>
-      <c r="BF11" s="36"/>
-      <c r="BG11" s="33">
+      <c r="BF11" s="35"/>
+      <c r="BG11" s="32">
         <f>$AZ11+$BA11+BB11</f>
         <v>5786692305.41368</v>
       </c>
-      <c r="BH11" s="33">
+      <c r="BH11" s="32">
         <f>$AZ11+$BA11+BC11</f>
         <v>10202235501.1971</v>
       </c>
-      <c r="BI11" s="33">
+      <c r="BI11" s="32">
         <f>$AZ11+$BA11+BD11</f>
         <v>13315326922.0088</v>
       </c>
-      <c r="BJ11" s="33">
+      <c r="BJ11" s="32">
         <f>$AZ11+$BA11+BE11</f>
         <v>16468351100.0697</v>
       </c>
-      <c r="BK11" s="33">
+      <c r="BK11" s="32">
         <f>$AZ11+$BA11+BF11</f>
         <v>2114147057.79</v>
       </c>
-      <c r="BL11" s="35">
+      <c r="BL11" s="34">
         <f>C11-D11</f>
         <v>1252157377.5</v>
       </c>
-      <c r="BM11" s="33">
+      <c r="BM11" s="32">
         <f>BG11-$BL11</f>
         <v>4534534927.91368</v>
       </c>
-      <c r="BN11" s="33">
+      <c r="BN11" s="32">
         <f>BH11-$BL11</f>
         <v>8950078123.69708</v>
       </c>
-      <c r="BO11" s="33">
+      <c r="BO11" s="32">
         <f>BI11-$BL11</f>
         <v>12063169544.5088</v>
       </c>
-      <c r="BP11" s="33">
+      <c r="BP11" s="32">
         <f>BJ11-$BL11</f>
         <v>15216193722.5697</v>
       </c>
-      <c r="BQ11" s="33">
+      <c r="BQ11" s="32">
         <f>BK11-$BL11</f>
         <v>861989680.29</v>
       </c>
-      <c r="BR11" s="33">
+      <c r="BR11" s="32">
         <f>BM11*(1-$E11/$D11)</f>
         <v>4462787333.95287</v>
       </c>
-      <c r="BS11" s="33">
+      <c r="BS11" s="32">
         <f>BN11*(1-$E11/$D11)</f>
         <v>8808465680.22825</v>
       </c>
-      <c r="BT11" s="33">
+      <c r="BT11" s="32">
         <f>BO11*(1-$E11/$D11)</f>
         <v>11872300270.3453</v>
       </c>
-      <c r="BU11" s="33">
+      <c r="BU11" s="32">
         <f>BP11*(1-$E11/$D11)</f>
         <v>14975435782.408</v>
       </c>
-      <c r="BV11" s="33">
+      <c r="BV11" s="32">
         <f>BQ11*(1-$E11/$D11)</f>
         <v>848350864.719488</v>
       </c>
-      <c r="BW11" s="43">
+      <c r="BW11" s="29">
         <v>405950150</v>
       </c>
-      <c r="BX11" s="42">
+      <c r="BX11" s="40">
         <f>BR11/$BW11</f>
         <v>10.9934368393579</v>
       </c>
-      <c r="BY11" s="42">
+      <c r="BY11" s="40">
         <f>BS11/$BW11</f>
         <v>21.6983924755989</v>
       </c>
-      <c r="BZ11" s="42">
+      <c r="BZ11" s="40">
         <f>BT11/$BW11</f>
         <v>29.2457097758071</v>
       </c>
-      <c r="CA11" s="42">
+      <c r="CA11" s="40">
         <f>BU11/$BW11</f>
         <v>36.8898392632888</v>
       </c>
-      <c r="CB11" s="42">
+      <c r="CB11" s="40">
         <f>BV11/$BW11</f>
         <v>2.08979074085694</v>
       </c>
     </row>
     <row r="12" spans="1:80">
-      <c r="A12" s="14">
+      <c r="A12" s="13">
         <v>2021</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="12">
         <v>55127388384.03</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="12">
         <v>38757462615.81</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="12">
         <v>265952985.21</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="15">
         <v>68113113.6</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="15">
         <v>60219890.71</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="15">
         <v>139234655.8</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="15">
         <v>8207817.42</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="15">
         <f>F12+G12+H12+I12</f>
         <v>275775477.53</v>
       </c>
-      <c r="K12" s="16">
+      <c r="K12" s="15">
         <v>1230010900</v>
       </c>
-      <c r="L12" s="16">
+      <c r="L12" s="15">
         <v>16507997</v>
       </c>
-      <c r="M12" s="16">
+      <c r="M12" s="15">
         <v>858612.35</v>
       </c>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16">
+      <c r="N12" s="15"/>
+      <c r="O12" s="15">
         <v>2454568919.68</v>
       </c>
-      <c r="P12" s="16">
+      <c r="P12" s="15">
         <v>177436405.49</v>
       </c>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="13">
+      <c r="Q12" s="15"/>
+      <c r="R12" s="12">
         <v>1819028586.29</v>
       </c>
-      <c r="S12" s="14"/>
-      <c r="T12" s="13">
+      <c r="S12" s="13"/>
+      <c r="T12" s="12">
         <v>1067102918.35</v>
       </c>
-      <c r="U12" s="13">
+      <c r="U12" s="12">
         <v>2261479950</v>
       </c>
-      <c r="V12" s="14"/>
-      <c r="W12" s="13">
+      <c r="V12" s="13"/>
+      <c r="W12" s="12">
         <v>3651608.46</v>
       </c>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="13">
+      <c r="X12" s="13"/>
+      <c r="Y12" s="12">
         <v>3289192625.17</v>
       </c>
-      <c r="Z12" s="13">
+      <c r="Z12" s="12">
         <v>396423607.05</v>
       </c>
-      <c r="AA12" s="14"/>
-      <c r="AB12" s="13">
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="12">
         <v>607140031.37</v>
       </c>
-      <c r="AC12" s="14"/>
-      <c r="AD12" s="13">
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="12">
         <v>1018978731.37</v>
       </c>
-      <c r="AE12" s="13">
+      <c r="AE12" s="12">
         <f t="shared" si="0"/>
         <v>6765514339.16</v>
       </c>
-      <c r="AF12" s="13">
+      <c r="AF12" s="12">
         <f t="shared" si="1"/>
         <v>7576866553.42</v>
       </c>
-      <c r="AG12" s="16">
+      <c r="AG12" s="15">
         <f t="shared" si="2"/>
         <v>7171190446.29</v>
       </c>
-      <c r="AH12" s="23">
+      <c r="AH12" s="22">
         <f t="shared" si="3"/>
         <v>0.00949815990945243</v>
       </c>
-      <c r="AI12" s="23">
+      <c r="AI12" s="22">
         <f t="shared" si="4"/>
         <v>0.0384560247835381</v>
       </c>
-      <c r="AJ12" s="24">
+      <c r="AJ12" s="23">
         <v>0.25</v>
       </c>
-      <c r="AK12" s="24">
+      <c r="AK12" s="23">
         <f t="shared" si="5"/>
         <v>0.296947238896633</v>
       </c>
-      <c r="AL12" s="24">
+      <c r="AL12" s="23">
         <f t="shared" si="6"/>
         <v>0.703052761103367</v>
       </c>
-      <c r="AM12" s="30">
+      <c r="AM12" s="29">
         <v>1402046451.92778</v>
       </c>
-      <c r="AN12" s="24">
+      <c r="AN12" s="23">
         <f t="shared" si="7"/>
         <v>0.0648087786720785</v>
       </c>
-      <c r="AO12" s="24">
+      <c r="AO12" s="23">
         <v>0.04</v>
       </c>
-      <c r="AP12" s="24">
+      <c r="AP12" s="23">
         <v>0.23</v>
       </c>
-      <c r="AQ12" s="34"/>
-      <c r="AR12" s="33">
+      <c r="AQ12" s="33"/>
+      <c r="AR12" s="32">
         <v>8238772782.53</v>
       </c>
-      <c r="AS12" s="34"/>
-      <c r="AT12" s="35">
+      <c r="AS12" s="33"/>
+      <c r="AT12" s="34">
         <v>229142186.76</v>
       </c>
-      <c r="AU12" s="33">
+      <c r="AU12" s="32">
         <v>527288380.38</v>
       </c>
-      <c r="AV12" s="35">
+      <c r="AV12" s="34">
         <v>339579823.47</v>
       </c>
-      <c r="AW12" s="34"/>
-      <c r="AX12" s="34"/>
-      <c r="AY12" s="33"/>
-      <c r="AZ12" s="33">
+      <c r="AW12" s="33"/>
+      <c r="AX12" s="33"/>
+      <c r="AY12" s="32"/>
+      <c r="AZ12" s="32">
         <f>SUM(AR12:AY12)+8714098195.97</f>
         <v>18048881369.11</v>
       </c>
-      <c r="BA12" s="35">
+      <c r="BA12" s="34">
         <v>678304556.75</v>
       </c>
-      <c r="BB12" s="16">
+      <c r="BB12" s="15">
         <f>AM12/AN12</f>
         <v>21633588545.4947</v>
       </c>
-      <c r="BC12" s="17">
+      <c r="BC12" s="16">
         <f>AM12*(1+AO12)/(AN12-AO12)</f>
         <v>58774691381.5619</v>
       </c>
-      <c r="BD12" s="17">
+      <c r="BD12" s="16">
         <f>AM12*(1+AP12)/(1+AN12)+AM12*(1+AP12)^2/(1+AN12)^2+AM12*(1+AP12)^3/(1+AN12)^3+AM12*(1+AP12)^3*(1+AO12)/(1+AN12)^4/(AN12-AO12)</f>
         <v>90729782373.1699</v>
       </c>
-      <c r="BE12" s="17">
+      <c r="BE12" s="16">
         <f>AM12*(1+AP12)/(1+AN12)+AM12*(1+AP12)^2/(1+AN12)^2+AM12*(1+AP12)^3/(1+AN12)^3+AM12*(1+AP12)^4/(1+AN12)^4+AM12*(1+AP12)^5/(1+AN12)^5+AM12*(1+AP12)^5*(1+AO12)/(1+AN12)^6/(AN12-AO12)</f>
         <v>124554873714.034</v>
       </c>
-      <c r="BF12" s="36"/>
-      <c r="BG12" s="33">
+      <c r="BF12" s="35"/>
+      <c r="BG12" s="32">
         <f>$AZ12+$BA12+BB12</f>
         <v>40360774471.3547</v>
       </c>
-      <c r="BH12" s="33">
+      <c r="BH12" s="32">
         <f>$AZ12+$BA12+BC12</f>
         <v>77501877307.4219</v>
       </c>
-      <c r="BI12" s="33">
+      <c r="BI12" s="32">
         <f>$AZ12+$BA12+BD12</f>
         <v>109456968299.03</v>
       </c>
-      <c r="BJ12" s="33">
+      <c r="BJ12" s="32">
         <f>$AZ12+$BA12+BE12</f>
         <v>143282059639.894</v>
       </c>
-      <c r="BK12" s="33">
+      <c r="BK12" s="32">
         <f>$AZ12+$BA12+BF12</f>
         <v>18727185925.86</v>
       </c>
-      <c r="BL12" s="35">
+      <c r="BL12" s="34">
         <f>C12-D12</f>
         <v>16369925768.22</v>
       </c>
-      <c r="BM12" s="33">
+      <c r="BM12" s="32">
         <f>BG12-$BL12</f>
         <v>23990848703.1347</v>
       </c>
-      <c r="BN12" s="33">
+      <c r="BN12" s="32">
         <f>BH12-$BL12</f>
         <v>61131951539.2019</v>
       </c>
-      <c r="BO12" s="33">
+      <c r="BO12" s="32">
         <f>BI12-$BL12</f>
         <v>93087042530.8099</v>
       </c>
-      <c r="BP12" s="33">
+      <c r="BP12" s="32">
         <f>BJ12-$BL12</f>
         <v>126912133871.674</v>
       </c>
-      <c r="BQ12" s="33">
+      <c r="BQ12" s="32">
         <f>BK12-$BL12</f>
         <v>2357260157.64</v>
       </c>
-      <c r="BR12" s="33">
+      <c r="BR12" s="32">
         <f>BM12*(1-$E12/$D12)</f>
         <v>23826223947.0311</v>
       </c>
-      <c r="BS12" s="33">
+      <c r="BS12" s="32">
         <f>BN12*(1-$E12/$D12)</f>
         <v>60712465228.5338</v>
       </c>
-      <c r="BT12" s="33">
+      <c r="BT12" s="32">
         <f>BO12*(1-$E12/$D12)</f>
         <v>92448280982.0769</v>
       </c>
-      <c r="BU12" s="33">
+      <c r="BU12" s="32">
         <f>BP12*(1-$E12/$D12)</f>
         <v>126041265177.376</v>
       </c>
-      <c r="BV12" s="33">
+      <c r="BV12" s="32">
         <f>BQ12*(1-$E12/$D12)</f>
         <v>2341084682.42751</v>
       </c>
-      <c r="BW12" s="43">
+      <c r="BW12" s="29">
         <v>2955826899</v>
       </c>
-      <c r="BX12" s="42">
+      <c r="BX12" s="40">
         <f>BR12/$BW12</f>
         <v>8.06076430087699</v>
       </c>
-      <c r="BY12" s="42">
+      <c r="BY12" s="40">
         <f>BS12/$BW12</f>
         <v>20.5399258153695</v>
       </c>
-      <c r="BZ12" s="42">
+      <c r="BZ12" s="40">
         <f>BT12/$BW12</f>
         <v>31.2766221233569</v>
       </c>
-      <c r="CA12" s="42">
+      <c r="CA12" s="40">
         <f>BU12/$BW12</f>
         <v>42.6416260099728</v>
       </c>
-      <c r="CB12" s="42">
+      <c r="CB12" s="40">
         <f>BV12/$BW12</f>
         <v>0.792023607072368</v>
       </c>
     </row>
     <row r="13" spans="1:80">
-      <c r="A13" s="14">
+      <c r="A13" s="13">
         <v>2021</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="14"/>
-      <c r="Z13" s="14"/>
-      <c r="AA13" s="14"/>
-      <c r="AB13" s="14"/>
-      <c r="AC13" s="14"/>
-      <c r="AD13" s="14"/>
-      <c r="AE13" s="13">
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="13"/>
+      <c r="AE13" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF13" s="13">
+      <c r="AF13" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AG13" s="16">
+      <c r="AG13" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AH13" s="23" t="e">
+      <c r="AH13" s="22" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI13" s="23" t="e">
+      <c r="AI13" s="22" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ13" s="24">
+      <c r="AJ13" s="23">
         <v>0.25</v>
       </c>
-      <c r="AK13" s="24" t="e">
+      <c r="AK13" s="23" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL13" s="24" t="e">
+      <c r="AL13" s="23" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM13" s="30"/>
-      <c r="AN13" s="24" t="e">
+      <c r="AM13" s="29"/>
+      <c r="AN13" s="23" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO13" s="24">
+      <c r="AO13" s="23">
         <v>0.04</v>
       </c>
-      <c r="AP13" s="24">
+      <c r="AP13" s="23">
         <v>0.74</v>
       </c>
-      <c r="AQ13" s="34"/>
-      <c r="AR13" s="33"/>
-      <c r="AS13" s="34"/>
-      <c r="AT13" s="34"/>
-      <c r="AU13" s="33"/>
-      <c r="AV13" s="34"/>
-      <c r="AW13" s="34"/>
-      <c r="AX13" s="34"/>
-      <c r="AY13" s="33"/>
-      <c r="AZ13" s="33"/>
-      <c r="BA13" s="34"/>
-      <c r="BB13" s="16"/>
-      <c r="BC13" s="17"/>
-      <c r="BD13" s="17"/>
-      <c r="BE13" s="17"/>
-      <c r="BF13" s="36"/>
-      <c r="BG13" s="33"/>
-      <c r="BH13" s="33"/>
-      <c r="BI13" s="33"/>
-      <c r="BJ13" s="33"/>
-      <c r="BK13" s="33"/>
-      <c r="BL13" s="34"/>
-      <c r="BM13" s="33"/>
-      <c r="BN13" s="33"/>
-      <c r="BO13" s="33"/>
-      <c r="BP13" s="33"/>
-      <c r="BQ13" s="33"/>
-      <c r="BR13" s="33"/>
-      <c r="BS13" s="33"/>
-      <c r="BT13" s="33"/>
-      <c r="BU13" s="33"/>
-      <c r="BV13" s="33"/>
-      <c r="BW13" s="43"/>
-      <c r="BX13" s="42"/>
-      <c r="BY13" s="42"/>
-      <c r="BZ13" s="42"/>
-      <c r="CA13" s="42"/>
-      <c r="CB13" s="42"/>
+      <c r="AQ13" s="33"/>
+      <c r="AR13" s="32"/>
+      <c r="AS13" s="33"/>
+      <c r="AT13" s="33"/>
+      <c r="AU13" s="32"/>
+      <c r="AV13" s="33"/>
+      <c r="AW13" s="33"/>
+      <c r="AX13" s="33"/>
+      <c r="AY13" s="32"/>
+      <c r="AZ13" s="32"/>
+      <c r="BA13" s="33"/>
+      <c r="BB13" s="15"/>
+      <c r="BC13" s="16"/>
+      <c r="BD13" s="16"/>
+      <c r="BE13" s="16"/>
+      <c r="BF13" s="35"/>
+      <c r="BG13" s="32"/>
+      <c r="BH13" s="32"/>
+      <c r="BI13" s="32"/>
+      <c r="BJ13" s="32"/>
+      <c r="BK13" s="32"/>
+      <c r="BL13" s="33"/>
+      <c r="BM13" s="32"/>
+      <c r="BN13" s="32"/>
+      <c r="BO13" s="32"/>
+      <c r="BP13" s="32"/>
+      <c r="BQ13" s="32"/>
+      <c r="BR13" s="32"/>
+      <c r="BS13" s="32"/>
+      <c r="BT13" s="32"/>
+      <c r="BU13" s="32"/>
+      <c r="BV13" s="32"/>
+      <c r="BW13" s="29"/>
+      <c r="BX13" s="40"/>
+      <c r="BY13" s="40"/>
+      <c r="BZ13" s="40"/>
+      <c r="CA13" s="40"/>
+      <c r="CB13" s="40"/>
     </row>
     <row r="14" spans="1:80">
-      <c r="A14" s="14">
+      <c r="A14" s="13">
         <v>2021</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="14"/>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="14"/>
-      <c r="Z14" s="14"/>
-      <c r="AA14" s="14"/>
-      <c r="AB14" s="14"/>
-      <c r="AC14" s="14"/>
-      <c r="AD14" s="14"/>
-      <c r="AE14" s="13">
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="13"/>
+      <c r="AE14" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF14" s="13">
+      <c r="AF14" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AG14" s="16">
+      <c r="AG14" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AH14" s="23" t="e">
+      <c r="AH14" s="22" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI14" s="23" t="e">
+      <c r="AI14" s="22" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ14" s="24">
+      <c r="AJ14" s="23">
         <v>0.25</v>
       </c>
-      <c r="AK14" s="24" t="e">
+      <c r="AK14" s="23" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL14" s="24" t="e">
+      <c r="AL14" s="23" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM14" s="30"/>
-      <c r="AN14" s="24" t="e">
+      <c r="AM14" s="29"/>
+      <c r="AN14" s="23" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO14" s="24">
+      <c r="AO14" s="23">
         <v>0.04</v>
       </c>
-      <c r="AP14" s="24">
+      <c r="AP14" s="23">
         <v>0.15</v>
       </c>
-      <c r="AQ14" s="34"/>
-      <c r="AR14" s="33"/>
-      <c r="AS14" s="34"/>
-      <c r="AT14" s="34"/>
-      <c r="AU14" s="33"/>
-      <c r="AV14" s="34"/>
-      <c r="AW14" s="34"/>
-      <c r="AX14" s="34"/>
-      <c r="AY14" s="33"/>
-      <c r="AZ14" s="33"/>
-      <c r="BA14" s="34"/>
-      <c r="BB14" s="16"/>
-      <c r="BC14" s="17"/>
-      <c r="BD14" s="17"/>
-      <c r="BE14" s="17"/>
-      <c r="BF14" s="36"/>
-      <c r="BG14" s="33"/>
-      <c r="BH14" s="33"/>
-      <c r="BI14" s="33"/>
-      <c r="BJ14" s="33"/>
-      <c r="BK14" s="33"/>
-      <c r="BL14" s="34"/>
-      <c r="BM14" s="33"/>
-      <c r="BN14" s="33"/>
-      <c r="BO14" s="33"/>
-      <c r="BP14" s="33"/>
-      <c r="BQ14" s="33"/>
-      <c r="BR14" s="33"/>
-      <c r="BS14" s="33"/>
-      <c r="BT14" s="33"/>
-      <c r="BU14" s="33"/>
-      <c r="BV14" s="33"/>
-      <c r="BW14" s="43"/>
-      <c r="BX14" s="42"/>
-      <c r="BY14" s="42"/>
-      <c r="BZ14" s="42"/>
-      <c r="CA14" s="42"/>
-      <c r="CB14" s="42"/>
+      <c r="AQ14" s="33"/>
+      <c r="AR14" s="32"/>
+      <c r="AS14" s="33"/>
+      <c r="AT14" s="33"/>
+      <c r="AU14" s="32"/>
+      <c r="AV14" s="33"/>
+      <c r="AW14" s="33"/>
+      <c r="AX14" s="33"/>
+      <c r="AY14" s="32"/>
+      <c r="AZ14" s="32"/>
+      <c r="BA14" s="33"/>
+      <c r="BB14" s="15"/>
+      <c r="BC14" s="16"/>
+      <c r="BD14" s="16"/>
+      <c r="BE14" s="16"/>
+      <c r="BF14" s="35"/>
+      <c r="BG14" s="32"/>
+      <c r="BH14" s="32"/>
+      <c r="BI14" s="32"/>
+      <c r="BJ14" s="32"/>
+      <c r="BK14" s="32"/>
+      <c r="BL14" s="33"/>
+      <c r="BM14" s="32"/>
+      <c r="BN14" s="32"/>
+      <c r="BO14" s="32"/>
+      <c r="BP14" s="32"/>
+      <c r="BQ14" s="32"/>
+      <c r="BR14" s="32"/>
+      <c r="BS14" s="32"/>
+      <c r="BT14" s="32"/>
+      <c r="BU14" s="32"/>
+      <c r="BV14" s="32"/>
+      <c r="BW14" s="29"/>
+      <c r="BX14" s="40"/>
+      <c r="BY14" s="40"/>
+      <c r="BZ14" s="40"/>
+      <c r="CA14" s="40"/>
+      <c r="CB14" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="39">
